--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\university\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2D0F2A-AFE8-4049-8467-A55BCB59CFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3771A939-30BD-43F0-AD7A-4D678C828F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49E8A915-5A6F-4B3C-966A-272F8EBD50DB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Компоненты</t>
   </si>
@@ -52,13 +52,94 @@
   </si>
   <si>
     <t>Как подключить антенну:</t>
+  </si>
+  <si>
+    <t>В EasyEDA для SMD-конденсаторов использовать multulayer ceramic capacitor</t>
+  </si>
+  <si>
+    <t>f=700/(R*C)</t>
+  </si>
+  <si>
+    <t>R - сопротивление резисторов, которые стоят внутри, в кОм</t>
+  </si>
+  <si>
+    <t>С - в мкФ, способность конденсатора.</t>
+  </si>
+  <si>
+    <t>https://market-444.ru/article/details/glushilka-wifi-svoimi-rukami</t>
+  </si>
+  <si>
+    <t>https://podavitel.ru/glushilka-wi-fi-svoimi-rukami.html</t>
+  </si>
+  <si>
+    <t>Странные схемы глушилки</t>
+  </si>
+  <si>
+    <t>https://habr.com/ru/articles/356868/</t>
+  </si>
+  <si>
+    <t>Книги:</t>
+  </si>
+  <si>
+    <t>http://www.iqytechnicalcollege.com/EW%20102%20%20A%20Second%20Course%20in%20Electronic%20Warfare.pdf</t>
+  </si>
+  <si>
+    <t>https://core.ac.uk/download/pdf/232274856.pdf</t>
+  </si>
+  <si>
+    <t>Статьи:</t>
+  </si>
+  <si>
+    <t>Статья о влиянии шума на ofdm</t>
+  </si>
+  <si>
+    <t>https://overclockers.ru/blog/vovsir/show/50070/razbiraemsya-kak-rabotaet-wi-fi-pochemu-ne-nuzhen-moschnyj-router-i-chto-realno-vliyaet-na-rabotu-seti</t>
+  </si>
+  <si>
+    <t>шумы в wifi</t>
+  </si>
+  <si>
+    <t>Идеи:</t>
+  </si>
+  <si>
+    <t>Проверить, сколько битов передаётся в MSDA/PPDU wifi</t>
+  </si>
+  <si>
+    <t>Например передаётся 8 бит за 192us. Значит нам надо минимум 8 раз пройти по спектру wifi за 192us</t>
+  </si>
+  <si>
+    <t>идея для улучшения: для каждого спектра wifi использовать 1 ГУН. Так для всех спектров получится большое кол-во генераторов, однако производительность будет лучше.</t>
+  </si>
+  <si>
+    <t>https://libeldoc.bsuir.by/bitstream/123456789/37278/1/Muravev_2019.pdf</t>
+  </si>
+  <si>
+    <t>(поиск по слову "шум")</t>
+  </si>
+  <si>
+    <t>Уменьшаем ёмкость на C3 - получаем более короткие волны большего напряжения</t>
+  </si>
+  <si>
+    <t>Важно! При этом частота не меняется. Получаются короткие пики и большое равнины</t>
+  </si>
+  <si>
+    <t>Антенна (SMA-Male)</t>
+  </si>
+  <si>
+    <t>https://www.belchip.by/product/?selected_product=17702</t>
+  </si>
+  <si>
+    <t>Разъём (SMA-Female)</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/HjTech-HJSMA005/C1509228</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,14 +162,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -372,13 +465,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -399,30 +499,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -453,8 +529,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -475,16 +579,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38607</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>181482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -514,8 +618,241 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4876801" y="2734182"/>
-          <a:ext cx="8610600" cy="3933317"/>
+          <a:off x="652744" y="2310600"/>
+          <a:ext cx="8547847" cy="3933317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>34883</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>320511</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D0876A-237F-413B-BD4E-264DC3F1B8E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9716765" y="2348949"/>
+          <a:ext cx="7547040" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>124238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6AF76DB-A829-487B-8C19-5A099AFEBCBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9939130" y="4530586"/>
+          <a:ext cx="1118152" cy="198783"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>268356</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>36442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>91109</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10F0E81-B414-4113-8957-3D8D49EEA839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14978269" y="2728290"/>
+          <a:ext cx="1661492" cy="1073427"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>91965</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89F1A4D-34DE-4630-AC5C-74B3E6F4F3F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18211801" y="2419351"/>
+          <a:ext cx="7483364" cy="4324350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -834,178 +1171,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9202B416-C4F8-4CD1-A856-CE2988DE9FEF}">
-  <dimension ref="G1:U14"/>
+  <dimension ref="B1:AZ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:U8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G1" s="2" t="s">
+    <row r="1" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="4"/>
-    </row>
-    <row r="2" spans="7:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="7:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="22" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="24"/>
-    </row>
-    <row r="4" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G4" s="16" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="G4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="21"/>
-    </row>
-    <row r="5" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G5" s="9"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="10"/>
-    </row>
-    <row r="6" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="10"/>
-    </row>
-    <row r="7" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="10"/>
-    </row>
-    <row r="8" spans="7:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="13"/>
-    </row>
-    <row r="14" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="I14" s="1" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="15"/>
+      <c r="W4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="G5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="22"/>
+      <c r="W5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="G6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="22"/>
+      <c r="W6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="22"/>
+      <c r="W7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="27"/>
+    </row>
+    <row r="11" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="Y11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="Q12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="AA12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="AQ14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+    </row>
+    <row r="15" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="AQ15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+    </row>
+    <row r="16" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="P40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s">
+        <v>26</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P43:T43"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="K8:U8"/>
-    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="K5:U5"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="K6:U6"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="K7:U7"/>
+    <mergeCell ref="AQ14:AZ14"/>
+    <mergeCell ref="AQ15:AZ15"/>
+    <mergeCell ref="W7:AA7"/>
     <mergeCell ref="G1:U2"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:U4"/>
@@ -1014,9 +1522,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1" xr:uid="{3340489E-6A80-4EDB-BA81-13E093DBD259}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{8639ECCE-0F5D-4542-92B3-03A8EF4880F8}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{52195850-7972-4858-AA25-A95B79761617}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\university\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3771A939-30BD-43F0-AD7A-4D678C828F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC8E139-1EA3-4B73-BC07-3460AC4D5E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49E8A915-5A6F-4B3C-966A-272F8EBD50DB}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Компоненты</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>https://belchip.by/product/?selected_product=36951</t>
   </si>
@@ -133,13 +130,85 @@
   </si>
   <si>
     <t>https://jlcpcb.com/partdetail/HjTech-HJSMA005/C1509228</t>
+  </si>
+  <si>
+    <t>Компоненты которые стоят сейчас</t>
+  </si>
+  <si>
+    <t>Компоненты которые будут на плате от JLCPCB</t>
+  </si>
+  <si>
+    <t>Транзистор (SMD-эквивалент N2222A)</t>
+  </si>
+  <si>
+    <t>Под вопросом</t>
+  </si>
+  <si>
+    <t>Точно да</t>
+  </si>
+  <si>
+    <t>Точно нет</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>На данный момент стоит она, разъём - SMA, малое усиление, может будет  антенна под номером 3</t>
+  </si>
+  <si>
+    <t>То же самое касается разъёма. Если буду менять антенну - сменю разъём на номер 4</t>
+  </si>
+  <si>
+    <t>Отличие SMA от RPSMA (reverse polarity SMA)</t>
+  </si>
+  <si>
+    <t>Антенна (RPSMA-Male)</t>
+  </si>
+  <si>
+    <t>Разъём (RPSMA-Female)</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.by/product0/8007170131</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Dreamlnk-SMAKWE901/C914553</t>
+  </si>
+  <si>
+    <t>Кодировка компонента</t>
+  </si>
+  <si>
+    <t>SMA-KWE901</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Dreamlnk-SMAKWE902/C914554</t>
+  </si>
+  <si>
+    <t>SMA-KWE902</t>
+  </si>
+  <si>
+    <t>2.4G-JB-9DB-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L-KLS1-WIFI-2.4G-02-MR</t>
+  </si>
+  <si>
+    <t>https://www.belchip.by/product/?selected_product=39786</t>
+  </si>
+  <si>
+    <t>MMBT2222A</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Hongjiacheng-MMBT2222A/C7420351</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +238,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +265,18 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -464,13 +557,202 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -478,6 +760,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,37 +838,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -853,6 +1244,67 @@
         <a:xfrm>
           <a:off x="18211801" y="2419351"/>
           <a:ext cx="7483364" cy="4324350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33619</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>13863</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54FA988D-519E-4353-9291-757C8F7E98DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7900148" y="15116735"/>
+          <a:ext cx="4821186" cy="4134969"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1171,200 +1623,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9202B416-C4F8-4CD1-A856-CE2988DE9FEF}">
-  <dimension ref="B1:AZ49"/>
+  <dimension ref="B1:AZ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:J7"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="6"/>
-    </row>
-    <row r="2" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="9"/>
-    </row>
-    <row r="3" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="18"/>
+    <row r="1" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+    </row>
+    <row r="2" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
     </row>
     <row r="4" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="G4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="15"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
       <c r="W4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="W5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="W6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="W7" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="G5" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="22"/>
-      <c r="W5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="G6" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="22"/>
-      <c r="W6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="22"/>
-      <c r="W7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-    </row>
-    <row r="8" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="27"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+    </row>
+    <row r="8" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
     </row>
     <row r="11" spans="2:52" x14ac:dyDescent="0.25">
       <c r="Y11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA11" t="s">
         <v>7</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="Q12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1372,7 +1806,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="AA12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:52" x14ac:dyDescent="0.25">
@@ -1391,7 +1825,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="AQ14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
@@ -1411,7 +1845,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="AQ15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
@@ -1433,43 +1867,43 @@
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
         <v>25</v>
       </c>
-      <c r="J42" t="s">
-        <v>26</v>
-      </c>
       <c r="P42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
@@ -1481,52 +1915,920 @@
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
         <v>22</v>
       </c>
-      <c r="H48" t="s">
+    </row>
+    <row r="49" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>24</v>
-      </c>
+    <row r="56" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="15"/>
+      <c r="R57" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="14"/>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="14"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="14"/>
+      <c r="AD57" s="14"/>
+      <c r="AE57" s="14"/>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="14"/>
+      <c r="AH57" s="14"/>
+      <c r="AI57" s="14"/>
+      <c r="AJ57" s="14"/>
+      <c r="AK57" s="14"/>
+      <c r="AL57" s="14"/>
+      <c r="AM57" s="14"/>
+      <c r="AN57" s="14"/>
+      <c r="AO57" s="14"/>
+      <c r="AP57" s="15"/>
+    </row>
+    <row r="58" spans="2:42" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="18"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="43"/>
+      <c r="X58" s="43"/>
+      <c r="Y58" s="43"/>
+      <c r="Z58" s="43"/>
+      <c r="AA58" s="43"/>
+      <c r="AB58" s="43"/>
+      <c r="AC58" s="43"/>
+      <c r="AD58" s="43"/>
+      <c r="AE58" s="43"/>
+      <c r="AF58" s="43"/>
+      <c r="AG58" s="43"/>
+      <c r="AH58" s="43"/>
+      <c r="AI58" s="43"/>
+      <c r="AJ58" s="43"/>
+      <c r="AK58" s="43"/>
+      <c r="AL58" s="43"/>
+      <c r="AM58" s="43"/>
+      <c r="AN58" s="43"/>
+      <c r="AO58" s="43"/>
+      <c r="AP58" s="44"/>
+    </row>
+    <row r="59" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="27"/>
+      <c r="R59" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="S59" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="45"/>
+      <c r="W59" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="65"/>
+      <c r="Z59" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA59" s="39"/>
+      <c r="AB59" s="39"/>
+      <c r="AC59" s="39"/>
+      <c r="AD59" s="39"/>
+      <c r="AE59" s="39"/>
+      <c r="AF59" s="39"/>
+      <c r="AG59" s="39"/>
+      <c r="AH59" s="39"/>
+      <c r="AI59" s="39"/>
+      <c r="AJ59" s="45"/>
+      <c r="AK59" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL59" s="39"/>
+      <c r="AM59" s="39"/>
+      <c r="AN59" s="39"/>
+      <c r="AO59" s="39"/>
+      <c r="AP59" s="40"/>
+    </row>
+    <row r="60" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B60" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="24"/>
+      <c r="R60" s="58">
+        <v>1</v>
+      </c>
+      <c r="S60" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="X60" s="51"/>
+      <c r="Y60" s="52"/>
+      <c r="Z60" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA60" s="61"/>
+      <c r="AB60" s="61"/>
+      <c r="AC60" s="61"/>
+      <c r="AD60" s="61"/>
+      <c r="AE60" s="61"/>
+      <c r="AF60" s="61"/>
+      <c r="AG60" s="61"/>
+      <c r="AH60" s="61"/>
+      <c r="AI60" s="61"/>
+      <c r="AJ60" s="62"/>
+      <c r="AK60" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL60" s="20"/>
+      <c r="AM60" s="20"/>
+      <c r="AN60" s="20"/>
+      <c r="AO60" s="20"/>
+      <c r="AP60" s="21"/>
+    </row>
+    <row r="61" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="9"/>
+      <c r="R61" s="58">
+        <v>2</v>
+      </c>
+      <c r="S61" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="X61" s="49"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="33"/>
+      <c r="AC61" s="33"/>
+      <c r="AD61" s="33"/>
+      <c r="AE61" s="33"/>
+      <c r="AF61" s="33"/>
+      <c r="AG61" s="33"/>
+      <c r="AH61" s="33"/>
+      <c r="AI61" s="33"/>
+      <c r="AJ61" s="34"/>
+      <c r="AK61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="8"/>
+      <c r="AN61" s="8"/>
+      <c r="AO61" s="8"/>
+      <c r="AP61" s="9"/>
+    </row>
+    <row r="62" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="9"/>
+      <c r="R62" s="58">
+        <v>3</v>
+      </c>
+      <c r="S62" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="X62" s="49"/>
+      <c r="Y62" s="54"/>
+      <c r="Z62" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="33"/>
+      <c r="AC62" s="33"/>
+      <c r="AD62" s="33"/>
+      <c r="AE62" s="33"/>
+      <c r="AF62" s="33"/>
+      <c r="AG62" s="33"/>
+      <c r="AH62" s="33"/>
+      <c r="AI62" s="33"/>
+      <c r="AJ62" s="34"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="8"/>
+      <c r="AN62" s="8"/>
+      <c r="AO62" s="8"/>
+      <c r="AP62" s="9"/>
+    </row>
+    <row r="63" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="9"/>
+      <c r="R63" s="58">
+        <v>4</v>
+      </c>
+      <c r="S63" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="T63" s="64"/>
+      <c r="U63" s="64"/>
+      <c r="V63" s="64"/>
+      <c r="W63" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="X63" s="49"/>
+      <c r="Y63" s="54"/>
+      <c r="Z63" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="33"/>
+      <c r="AC63" s="33"/>
+      <c r="AD63" s="33"/>
+      <c r="AE63" s="33"/>
+      <c r="AF63" s="33"/>
+      <c r="AG63" s="33"/>
+      <c r="AH63" s="33"/>
+      <c r="AI63" s="33"/>
+      <c r="AJ63" s="34"/>
+      <c r="AK63" s="7"/>
+      <c r="AL63" s="8"/>
+      <c r="AM63" s="8"/>
+      <c r="AN63" s="8"/>
+      <c r="AO63" s="8"/>
+      <c r="AP63" s="9"/>
+    </row>
+    <row r="64" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="5"/>
+      <c r="R64" s="58">
+        <v>5</v>
+      </c>
+      <c r="S64" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="47"/>
+      <c r="W64" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="X64" s="49"/>
+      <c r="Y64" s="54"/>
+      <c r="Z64" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="8"/>
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="8"/>
+      <c r="AI64" s="8"/>
+      <c r="AJ64" s="9"/>
+      <c r="AK64" s="7"/>
+      <c r="AL64" s="8"/>
+      <c r="AM64" s="8"/>
+      <c r="AN64" s="8"/>
+      <c r="AO64" s="8"/>
+      <c r="AP64" s="9"/>
+    </row>
+    <row r="65" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="R65" s="58">
+        <v>6</v>
+      </c>
+      <c r="S65" s="7"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="53"/>
+      <c r="X65" s="49"/>
+      <c r="Y65" s="54"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8"/>
+      <c r="AJ65" s="9"/>
+      <c r="AK65" s="7"/>
+      <c r="AL65" s="8"/>
+      <c r="AM65" s="8"/>
+      <c r="AN65" s="8"/>
+      <c r="AO65" s="8"/>
+      <c r="AP65" s="9"/>
+    </row>
+    <row r="66" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="R66" s="58">
+        <v>7</v>
+      </c>
+      <c r="S66" s="7"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="53"/>
+      <c r="X66" s="49"/>
+      <c r="Y66" s="54"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="8"/>
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="9"/>
+      <c r="AK66" s="7"/>
+      <c r="AL66" s="8"/>
+      <c r="AM66" s="8"/>
+      <c r="AN66" s="8"/>
+      <c r="AO66" s="8"/>
+      <c r="AP66" s="9"/>
+    </row>
+    <row r="67" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="R67" s="58">
+        <v>8</v>
+      </c>
+      <c r="S67" s="7"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="53"/>
+      <c r="X67" s="49"/>
+      <c r="Y67" s="54"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="9"/>
+      <c r="AK67" s="7"/>
+      <c r="AL67" s="8"/>
+      <c r="AM67" s="8"/>
+      <c r="AN67" s="8"/>
+      <c r="AO67" s="8"/>
+      <c r="AP67" s="9"/>
+    </row>
+    <row r="68" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="R68" s="58">
+        <v>9</v>
+      </c>
+      <c r="S68" s="7"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="53"/>
+      <c r="X68" s="49"/>
+      <c r="Y68" s="54"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="8"/>
+      <c r="AF68" s="8"/>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="8"/>
+      <c r="AI68" s="8"/>
+      <c r="AJ68" s="9"/>
+      <c r="AK68" s="7"/>
+      <c r="AL68" s="8"/>
+      <c r="AM68" s="8"/>
+      <c r="AN68" s="8"/>
+      <c r="AO68" s="8"/>
+      <c r="AP68" s="9"/>
+    </row>
+    <row r="69" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="R69" s="58">
+        <v>10</v>
+      </c>
+      <c r="S69" s="7"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="53"/>
+      <c r="X69" s="49"/>
+      <c r="Y69" s="54"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="8"/>
+      <c r="AE69" s="8"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="8"/>
+      <c r="AH69" s="8"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="9"/>
+      <c r="AK69" s="7"/>
+      <c r="AL69" s="8"/>
+      <c r="AM69" s="8"/>
+      <c r="AN69" s="8"/>
+      <c r="AO69" s="8"/>
+      <c r="AP69" s="9"/>
+    </row>
+    <row r="70" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="R70" s="58">
+        <v>11</v>
+      </c>
+      <c r="S70" s="7"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="53"/>
+      <c r="X70" s="49"/>
+      <c r="Y70" s="54"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="8"/>
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="8"/>
+      <c r="AG70" s="8"/>
+      <c r="AH70" s="8"/>
+      <c r="AI70" s="8"/>
+      <c r="AJ70" s="9"/>
+      <c r="AK70" s="7"/>
+      <c r="AL70" s="8"/>
+      <c r="AM70" s="8"/>
+      <c r="AN70" s="8"/>
+      <c r="AO70" s="8"/>
+      <c r="AP70" s="9"/>
+    </row>
+    <row r="71" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="R71" s="58">
+        <v>12</v>
+      </c>
+      <c r="S71" s="7"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="47"/>
+      <c r="W71" s="53"/>
+      <c r="X71" s="49"/>
+      <c r="Y71" s="54"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="8"/>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+      <c r="AJ71" s="9"/>
+      <c r="AK71" s="7"/>
+      <c r="AL71" s="8"/>
+      <c r="AM71" s="8"/>
+      <c r="AN71" s="8"/>
+      <c r="AO71" s="8"/>
+      <c r="AP71" s="9"/>
+    </row>
+    <row r="72" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="R72" s="58">
+        <v>13</v>
+      </c>
+      <c r="S72" s="7"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="47"/>
+      <c r="W72" s="53"/>
+      <c r="X72" s="49"/>
+      <c r="Y72" s="54"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+      <c r="AJ72" s="9"/>
+      <c r="AK72" s="7"/>
+      <c r="AL72" s="8"/>
+      <c r="AM72" s="8"/>
+      <c r="AN72" s="8"/>
+      <c r="AO72" s="8"/>
+      <c r="AP72" s="9"/>
+    </row>
+    <row r="73" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="R73" s="58">
+        <v>14</v>
+      </c>
+      <c r="S73" s="7"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="47"/>
+      <c r="W73" s="53"/>
+      <c r="X73" s="49"/>
+      <c r="Y73" s="54"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="9"/>
+      <c r="AK73" s="7"/>
+      <c r="AL73" s="8"/>
+      <c r="AM73" s="8"/>
+      <c r="AN73" s="8"/>
+      <c r="AO73" s="8"/>
+      <c r="AP73" s="9"/>
+    </row>
+    <row r="74" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B74" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="R74" s="58">
+        <v>15</v>
+      </c>
+      <c r="S74" s="7"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="47"/>
+      <c r="W74" s="53"/>
+      <c r="X74" s="49"/>
+      <c r="Y74" s="54"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="8"/>
+      <c r="AG74" s="8"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="9"/>
+      <c r="AK74" s="7"/>
+      <c r="AL74" s="8"/>
+      <c r="AM74" s="8"/>
+      <c r="AN74" s="8"/>
+      <c r="AO74" s="8"/>
+      <c r="AP74" s="9"/>
+    </row>
+    <row r="75" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B75" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="R75" s="58">
+        <v>16</v>
+      </c>
+      <c r="S75" s="7"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="47"/>
+      <c r="W75" s="53"/>
+      <c r="X75" s="49"/>
+      <c r="Y75" s="54"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="8"/>
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="8"/>
+      <c r="AG75" s="8"/>
+      <c r="AH75" s="8"/>
+      <c r="AI75" s="8"/>
+      <c r="AJ75" s="9"/>
+      <c r="AK75" s="7"/>
+      <c r="AL75" s="8"/>
+      <c r="AM75" s="8"/>
+      <c r="AN75" s="8"/>
+      <c r="AO75" s="8"/>
+      <c r="AP75" s="9"/>
+    </row>
+    <row r="76" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="R76" s="59">
+        <v>17</v>
+      </c>
+      <c r="S76" s="3"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="48"/>
+      <c r="W76" s="55"/>
+      <c r="X76" s="56"/>
+      <c r="Y76" s="57"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="5"/>
+      <c r="AK76" s="3"/>
+      <c r="AL76" s="4"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="4"/>
+      <c r="AO76" s="4"/>
+      <c r="AP76" s="5"/>
+    </row>
+    <row r="79" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="N79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="97">
+    <mergeCell ref="R57:AP58"/>
+    <mergeCell ref="AK75:AP75"/>
+    <mergeCell ref="AK76:AP76"/>
+    <mergeCell ref="N79:U79"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="W60:Y60"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="W62:Y62"/>
+    <mergeCell ref="W63:Y63"/>
+    <mergeCell ref="W64:Y64"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="W67:Y67"/>
+    <mergeCell ref="W68:Y68"/>
+    <mergeCell ref="W69:Y69"/>
+    <mergeCell ref="AK70:AP70"/>
+    <mergeCell ref="AK71:AP71"/>
+    <mergeCell ref="AK72:AP72"/>
+    <mergeCell ref="AK73:AP73"/>
+    <mergeCell ref="AK74:AP74"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="AK59:AP59"/>
+    <mergeCell ref="AK60:AP60"/>
+    <mergeCell ref="AK61:AP61"/>
+    <mergeCell ref="AK62:AP62"/>
+    <mergeCell ref="AK63:AP63"/>
+    <mergeCell ref="AK64:AP64"/>
+    <mergeCell ref="AK65:AP65"/>
+    <mergeCell ref="AK66:AP66"/>
+    <mergeCell ref="AK67:AP67"/>
+    <mergeCell ref="AK68:AP68"/>
+    <mergeCell ref="AK69:AP69"/>
+    <mergeCell ref="S74:V74"/>
+    <mergeCell ref="Z74:AJ74"/>
+    <mergeCell ref="S75:V75"/>
+    <mergeCell ref="Z75:AJ75"/>
+    <mergeCell ref="S76:V76"/>
+    <mergeCell ref="Z76:AJ76"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="W75:Y75"/>
+    <mergeCell ref="W76:Y76"/>
+    <mergeCell ref="S71:V71"/>
+    <mergeCell ref="Z71:AJ71"/>
+    <mergeCell ref="S72:V72"/>
+    <mergeCell ref="Z72:AJ72"/>
+    <mergeCell ref="S73:V73"/>
+    <mergeCell ref="Z73:AJ73"/>
+    <mergeCell ref="W71:Y71"/>
+    <mergeCell ref="W72:Y72"/>
+    <mergeCell ref="W73:Y73"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="Z68:AJ68"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="Z69:AJ69"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="Z70:AJ70"/>
+    <mergeCell ref="W70:Y70"/>
+    <mergeCell ref="S65:V65"/>
+    <mergeCell ref="Z65:AJ65"/>
+    <mergeCell ref="S66:V66"/>
+    <mergeCell ref="Z66:AJ66"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="Z67:AJ67"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:P64"/>
+    <mergeCell ref="S59:V59"/>
+    <mergeCell ref="Z59:AJ59"/>
+    <mergeCell ref="S60:V60"/>
+    <mergeCell ref="Z60:AJ60"/>
+    <mergeCell ref="S61:V61"/>
+    <mergeCell ref="Z61:AJ61"/>
+    <mergeCell ref="S62:V62"/>
+    <mergeCell ref="Z62:AJ62"/>
+    <mergeCell ref="S63:V63"/>
+    <mergeCell ref="Z63:AJ63"/>
+    <mergeCell ref="S64:V64"/>
+    <mergeCell ref="Z64:AJ64"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="F61:P61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="F62:P62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:P63"/>
+    <mergeCell ref="B57:P58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:P59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:P60"/>
+    <mergeCell ref="AQ14:AZ14"/>
+    <mergeCell ref="AQ15:AZ15"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="P41:T41"/>
     <mergeCell ref="P42:T42"/>
     <mergeCell ref="P43:T43"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:U8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:U5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:U6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:U7"/>
-    <mergeCell ref="AQ14:AZ14"/>
-    <mergeCell ref="AQ15:AZ15"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="G1:U2"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:U4"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:U3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{3340489E-6A80-4EDB-BA81-13E093DBD259}"/>
-    <hyperlink ref="K5" r:id="rId2" xr:uid="{8639ECCE-0F5D-4542-92B3-03A8EF4880F8}"/>
-    <hyperlink ref="K6" r:id="rId3" xr:uid="{52195850-7972-4858-AA25-A95B79761617}"/>
+    <hyperlink ref="F60" r:id="rId1" xr:uid="{35D294F1-1052-4CDC-B442-CC6F328A5859}"/>
+    <hyperlink ref="F61" r:id="rId2" xr:uid="{935BE457-A350-4A90-B82B-2BEC1B5F89D6}"/>
+    <hyperlink ref="F62" r:id="rId3" xr:uid="{10442A47-B286-4A56-AB26-591696DB0EE6}"/>
+    <hyperlink ref="Z62" r:id="rId4" xr:uid="{5C026EBA-5D85-4B21-8B11-034A427FEFF3}"/>
+    <hyperlink ref="Z63" r:id="rId5" xr:uid="{10E95866-2546-4F25-B645-DCFB550E1DD2}"/>
+    <hyperlink ref="Z61" r:id="rId6" xr:uid="{BF500733-A871-49F6-92EF-19C2638B73A7}"/>
+    <hyperlink ref="Z60" r:id="rId7" xr:uid="{6254A3D5-CB13-4817-BB7E-2E20523171DB}"/>
+    <hyperlink ref="Z64" r:id="rId8" xr:uid="{F6A65428-0665-4C5F-9B1B-55A677F084BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\university\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC8E139-1EA3-4B73-BC07-3460AC4D5E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A29EED8-7FBE-424D-A250-FCDDA6773640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49E8A915-5A6F-4B3C-966A-272F8EBD50DB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
   <si>
     <t>https://belchip.by/product/?selected_product=36951</t>
   </si>
@@ -202,13 +202,130 @@
   </si>
   <si>
     <t>https://jlcpcb.com/partdetail/Hongjiacheng-MMBT2222A/C7420351</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Yageo-AC1210JR072K2L/C230435</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/584956-AS05W2J0151T5E/C560494</t>
+  </si>
+  <si>
+    <t>AS05W2J0151T5E</t>
+  </si>
+  <si>
+    <t>AC1210JR-072K2L</t>
+  </si>
+  <si>
+    <t>Конденсатор 10nF/0.01uF</t>
+  </si>
+  <si>
+    <t>C1206X103K501T</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/107237-C1206X103K501T/C106022</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/543446-FP18X473K500PBG/C525319</t>
+  </si>
+  <si>
+    <t>FP18X473K500PBG</t>
+  </si>
+  <si>
+    <t>1206B104K250CT</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Walsin_TechCorp-1206B104K250CT/C396778</t>
+  </si>
+  <si>
+    <t>Резистор 100</t>
+  </si>
+  <si>
+    <t>25121WJ0101T4E</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/15939-25121WJ0101T4E/C15262</t>
+  </si>
+  <si>
+    <t>Резистор 22к</t>
+  </si>
+  <si>
+    <t>RK73B2ATTD223J</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Koa_SpeerElec-RK73B2ATTD223J/C316792</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Bourns-3362X_1102LF/C123857</t>
+  </si>
+  <si>
+    <t>3362X-1-102LF</t>
+  </si>
+  <si>
+    <t>Варистор 1к (x2)</t>
+  </si>
+  <si>
+    <t>Резистор 150 (x2)</t>
+  </si>
+  <si>
+    <t>Резистор 2.5к (x2)</t>
+  </si>
+  <si>
+    <t>Конденсатор 47nF/0.047uF (x2)</t>
+  </si>
+  <si>
+    <t>Конденсатор 100pF</t>
+  </si>
+  <si>
+    <t>CGA3E2C0G2A101JT0Y0N</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Tdk-CGA3E2C0G2A101JT0Y0N/C342908</t>
+  </si>
+  <si>
+    <t>Стабилизатор напряжения на 5V</t>
+  </si>
+  <si>
+    <t>78L05</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/323918-78L05/C347258</t>
+  </si>
+  <si>
+    <t>Конденсатор 330nF</t>
+  </si>
+  <si>
+    <t>0603F334Z500NT</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/521017-0603F334Z500NT/C507077</t>
+  </si>
+  <si>
+    <t>Конденсатор 100nF/0.1uF (x3)</t>
+  </si>
+  <si>
+    <t>Кнопка включения</t>
+  </si>
+  <si>
+    <t>YTS1C0033BBG01</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Yiyuan-YTS1C0033BBG01/C5188566</t>
+  </si>
+  <si>
+    <t>0201N1R5C250CT</t>
+  </si>
+  <si>
+    <t>Конденсатор выводной 1.5pF</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Walsin_TechCorp-0201N1R5C250CT/C424820</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +369,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -276,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -561,56 +684,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -643,8 +716,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -657,9 +732,91 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -670,9 +827,20 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -680,51 +848,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -732,16 +855,106 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -752,42 +965,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -799,6 +989,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,14 +1064,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -826,125 +1085,150 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="27" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1264,16 +1548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>33619</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>62194</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>13863</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>145675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>42438</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>59950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1303,8 +1587,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7900148" y="15116735"/>
-          <a:ext cx="4821186" cy="4134969"/>
+          <a:off x="3110194" y="14260606"/>
+          <a:ext cx="4857044" cy="4134969"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1623,165 +1907,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9202B416-C4F8-4CD1-A856-CE2988DE9FEF}">
-  <dimension ref="B1:AZ79"/>
+  <dimension ref="B1:AZ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView tabSelected="1" topLeftCell="Q55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH82" sqref="AH82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
     <row r="2" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
     </row>
     <row r="3" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
       <c r="W4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
       <c r="W5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
       <c r="W6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="W7" s="12" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="W7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
     </row>
     <row r="11" spans="2:52" x14ac:dyDescent="0.25">
       <c r="Y11" t="s">
@@ -1792,11 +2076,11 @@
       </c>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="Q12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1824,18 +2108,18 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="AQ14" s="2" t="s">
+      <c r="AQ14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2"/>
-      <c r="AZ14" s="2"/>
+      <c r="AR14" s="18"/>
+      <c r="AS14" s="18"/>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="18"/>
+      <c r="AV14" s="18"/>
+      <c r="AW14" s="18"/>
+      <c r="AX14" s="18"/>
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="18"/>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.25">
       <c r="Q15" s="1"/>
@@ -1844,18 +2128,18 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="AQ15" s="2" t="s">
+      <c r="AQ15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="2"/>
-      <c r="AZ15" s="2"/>
+      <c r="AR15" s="18"/>
+      <c r="AS15" s="18"/>
+      <c r="AT15" s="18"/>
+      <c r="AU15" s="18"/>
+      <c r="AV15" s="18"/>
+      <c r="AW15" s="18"/>
+      <c r="AX15" s="18"/>
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="18"/>
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.25">
       <c r="Q16" s="1"/>
@@ -1877,13 +2161,13 @@
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="P41" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
       <c r="U41" t="s">
         <v>15</v>
       </c>
@@ -1895,23 +2179,23 @@
       <c r="J42" t="s">
         <v>25</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="P42" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
       <c r="U42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -1933,813 +2217,985 @@
     </row>
     <row r="56" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="15"/>
-      <c r="R57" s="13" t="s">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="8"/>
+      <c r="R57" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="14"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="14"/>
-      <c r="X57" s="14"/>
-      <c r="Y57" s="14"/>
-      <c r="Z57" s="14"/>
-      <c r="AA57" s="14"/>
-      <c r="AB57" s="14"/>
-      <c r="AC57" s="14"/>
-      <c r="AD57" s="14"/>
-      <c r="AE57" s="14"/>
-      <c r="AF57" s="14"/>
-      <c r="AG57" s="14"/>
-      <c r="AH57" s="14"/>
-      <c r="AI57" s="14"/>
-      <c r="AJ57" s="14"/>
-      <c r="AK57" s="14"/>
-      <c r="AL57" s="14"/>
-      <c r="AM57" s="14"/>
-      <c r="AN57" s="14"/>
-      <c r="AO57" s="14"/>
-      <c r="AP57" s="15"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="7"/>
+      <c r="AL57" s="7"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+      <c r="AO57" s="7"/>
+      <c r="AP57" s="8"/>
     </row>
     <row r="58" spans="2:42" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="18"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="43"/>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43"/>
-      <c r="W58" s="43"/>
-      <c r="X58" s="43"/>
-      <c r="Y58" s="43"/>
-      <c r="Z58" s="43"/>
-      <c r="AA58" s="43"/>
-      <c r="AB58" s="43"/>
-      <c r="AC58" s="43"/>
-      <c r="AD58" s="43"/>
-      <c r="AE58" s="43"/>
-      <c r="AF58" s="43"/>
-      <c r="AG58" s="43"/>
-      <c r="AH58" s="43"/>
-      <c r="AI58" s="43"/>
-      <c r="AJ58" s="43"/>
-      <c r="AK58" s="43"/>
-      <c r="AL58" s="43"/>
-      <c r="AM58" s="43"/>
-      <c r="AN58" s="43"/>
-      <c r="AO58" s="43"/>
-      <c r="AP58" s="44"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="33"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="10"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="10"/>
+      <c r="AO58" s="10"/>
+      <c r="AP58" s="11"/>
     </row>
     <row r="59" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="28" t="s">
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="27"/>
-      <c r="R59" s="58" t="s">
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="36"/>
+      <c r="R59" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S59" s="38" t="s">
+      <c r="S59" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="45"/>
-      <c r="W59" s="37" t="s">
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="65"/>
-      <c r="Z59" s="41" t="s">
+      <c r="X59" s="20"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="39"/>
-      <c r="AE59" s="39"/>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="39"/>
-      <c r="AH59" s="39"/>
-      <c r="AI59" s="39"/>
-      <c r="AJ59" s="45"/>
-      <c r="AK59" s="38" t="s">
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="67"/>
+      <c r="AC59" s="67"/>
+      <c r="AD59" s="67"/>
+      <c r="AE59" s="67"/>
+      <c r="AF59" s="67"/>
+      <c r="AG59" s="67"/>
+      <c r="AH59" s="67"/>
+      <c r="AI59" s="67"/>
+      <c r="AJ59" s="68"/>
+      <c r="AK59" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="AL59" s="39"/>
-      <c r="AM59" s="39"/>
-      <c r="AN59" s="39"/>
-      <c r="AO59" s="39"/>
-      <c r="AP59" s="40"/>
+      <c r="AL59" s="67"/>
+      <c r="AM59" s="67"/>
+      <c r="AN59" s="67"/>
+      <c r="AO59" s="67"/>
+      <c r="AP59" s="70"/>
     </row>
     <row r="60" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="22" t="s">
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="24"/>
-      <c r="R60" s="58">
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="40"/>
+      <c r="R60" s="80">
         <v>1</v>
       </c>
-      <c r="S60" s="32" t="s">
+      <c r="S60" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="45"/>
       <c r="V60" s="46"/>
-      <c r="W60" s="50" t="s">
+      <c r="W60" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="X60" s="51"/>
-      <c r="Y60" s="52"/>
-      <c r="Z60" s="60" t="s">
+      <c r="X60" s="43"/>
+      <c r="Y60" s="81"/>
+      <c r="Z60" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="AA60" s="61"/>
-      <c r="AB60" s="61"/>
-      <c r="AC60" s="61"/>
-      <c r="AD60" s="61"/>
-      <c r="AE60" s="61"/>
-      <c r="AF60" s="61"/>
-      <c r="AG60" s="61"/>
-      <c r="AH60" s="61"/>
-      <c r="AI60" s="61"/>
-      <c r="AJ60" s="62"/>
-      <c r="AK60" s="19" t="s">
+      <c r="AA60" s="45"/>
+      <c r="AB60" s="45"/>
+      <c r="AC60" s="45"/>
+      <c r="AD60" s="45"/>
+      <c r="AE60" s="45"/>
+      <c r="AF60" s="45"/>
+      <c r="AG60" s="45"/>
+      <c r="AH60" s="45"/>
+      <c r="AI60" s="45"/>
+      <c r="AJ60" s="46"/>
+      <c r="AK60" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AL60" s="20"/>
-      <c r="AM60" s="20"/>
-      <c r="AN60" s="20"/>
-      <c r="AO60" s="20"/>
-      <c r="AP60" s="21"/>
+      <c r="AL60" s="71"/>
+      <c r="AM60" s="71"/>
+      <c r="AN60" s="71"/>
+      <c r="AO60" s="71"/>
+      <c r="AP60" s="72"/>
     </row>
     <row r="61" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="10" t="s">
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="9"/>
-      <c r="R61" s="58">
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="14"/>
+      <c r="R61" s="4">
         <v>2</v>
       </c>
-      <c r="S61" s="32" t="s">
+      <c r="S61" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="46"/>
-      <c r="W61" s="53" t="s">
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="48"/>
+      <c r="W61" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="X61" s="49"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="32" t="s">
+      <c r="X61" s="47"/>
+      <c r="Y61" s="78"/>
+      <c r="Z61" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AA61" s="33"/>
-      <c r="AB61" s="33"/>
-      <c r="AC61" s="33"/>
-      <c r="AD61" s="33"/>
-      <c r="AE61" s="33"/>
-      <c r="AF61" s="33"/>
-      <c r="AG61" s="33"/>
-      <c r="AH61" s="33"/>
-      <c r="AI61" s="33"/>
-      <c r="AJ61" s="34"/>
-      <c r="AK61" s="7" t="s">
+      <c r="AA61" s="42"/>
+      <c r="AB61" s="42"/>
+      <c r="AC61" s="42"/>
+      <c r="AD61" s="42"/>
+      <c r="AE61" s="42"/>
+      <c r="AF61" s="42"/>
+      <c r="AG61" s="42"/>
+      <c r="AH61" s="42"/>
+      <c r="AI61" s="42"/>
+      <c r="AJ61" s="48"/>
+      <c r="AK61" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AL61" s="8"/>
-      <c r="AM61" s="8"/>
-      <c r="AN61" s="8"/>
-      <c r="AO61" s="8"/>
-      <c r="AP61" s="9"/>
+      <c r="AL61" s="13"/>
+      <c r="AM61" s="13"/>
+      <c r="AN61" s="13"/>
+      <c r="AO61" s="13"/>
+      <c r="AP61" s="14"/>
     </row>
     <row r="62" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="10" t="s">
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="9"/>
-      <c r="R62" s="58">
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="14"/>
+      <c r="R62" s="4">
         <v>3</v>
       </c>
-      <c r="S62" s="32" t="s">
+      <c r="S62" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="T62" s="33"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="46"/>
-      <c r="W62" s="53" t="s">
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="48"/>
+      <c r="W62" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="X62" s="49"/>
-      <c r="Y62" s="54"/>
-      <c r="Z62" s="32" t="s">
+      <c r="X62" s="47"/>
+      <c r="Y62" s="78"/>
+      <c r="Z62" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AA62" s="33"/>
-      <c r="AB62" s="33"/>
-      <c r="AC62" s="33"/>
-      <c r="AD62" s="33"/>
-      <c r="AE62" s="33"/>
-      <c r="AF62" s="33"/>
-      <c r="AG62" s="33"/>
-      <c r="AH62" s="33"/>
-      <c r="AI62" s="33"/>
-      <c r="AJ62" s="34"/>
-      <c r="AK62" s="7"/>
-      <c r="AL62" s="8"/>
-      <c r="AM62" s="8"/>
-      <c r="AN62" s="8"/>
-      <c r="AO62" s="8"/>
-      <c r="AP62" s="9"/>
+      <c r="AA62" s="42"/>
+      <c r="AB62" s="42"/>
+      <c r="AC62" s="42"/>
+      <c r="AD62" s="42"/>
+      <c r="AE62" s="42"/>
+      <c r="AF62" s="42"/>
+      <c r="AG62" s="42"/>
+      <c r="AH62" s="42"/>
+      <c r="AI62" s="42"/>
+      <c r="AJ62" s="48"/>
+      <c r="AK62" s="30"/>
+      <c r="AL62" s="13"/>
+      <c r="AM62" s="13"/>
+      <c r="AN62" s="13"/>
+      <c r="AO62" s="13"/>
+      <c r="AP62" s="14"/>
     </row>
     <row r="63" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B63" s="7"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="9"/>
-      <c r="R63" s="58">
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="14"/>
+      <c r="R63" s="4">
         <v>4</v>
       </c>
-      <c r="S63" s="64" t="s">
+      <c r="S63" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="T63" s="64"/>
-      <c r="U63" s="64"/>
-      <c r="V63" s="64"/>
-      <c r="W63" s="53" t="s">
+      <c r="T63" s="73"/>
+      <c r="U63" s="73"/>
+      <c r="V63" s="90"/>
+      <c r="W63" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="X63" s="49"/>
-      <c r="Y63" s="54"/>
-      <c r="Z63" s="32" t="s">
+      <c r="X63" s="47"/>
+      <c r="Y63" s="78"/>
+      <c r="Z63" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AA63" s="33"/>
-      <c r="AB63" s="33"/>
-      <c r="AC63" s="33"/>
-      <c r="AD63" s="33"/>
-      <c r="AE63" s="33"/>
-      <c r="AF63" s="33"/>
-      <c r="AG63" s="33"/>
-      <c r="AH63" s="33"/>
-      <c r="AI63" s="33"/>
-      <c r="AJ63" s="34"/>
-      <c r="AK63" s="7"/>
-      <c r="AL63" s="8"/>
-      <c r="AM63" s="8"/>
-      <c r="AN63" s="8"/>
-      <c r="AO63" s="8"/>
-      <c r="AP63" s="9"/>
+      <c r="AA63" s="42"/>
+      <c r="AB63" s="42"/>
+      <c r="AC63" s="42"/>
+      <c r="AD63" s="42"/>
+      <c r="AE63" s="42"/>
+      <c r="AF63" s="42"/>
+      <c r="AG63" s="42"/>
+      <c r="AH63" s="42"/>
+      <c r="AI63" s="42"/>
+      <c r="AJ63" s="48"/>
+      <c r="AK63" s="30"/>
+      <c r="AL63" s="13"/>
+      <c r="AM63" s="13"/>
+      <c r="AN63" s="13"/>
+      <c r="AO63" s="13"/>
+      <c r="AP63" s="14"/>
     </row>
     <row r="64" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="5"/>
-      <c r="R64" s="58">
+      <c r="B64" s="15"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="17"/>
+      <c r="R64" s="4">
         <v>5</v>
       </c>
-      <c r="S64" s="7" t="s">
+      <c r="S64" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="47"/>
-      <c r="W64" s="53" t="s">
+      <c r="T64" s="50"/>
+      <c r="U64" s="50"/>
+      <c r="V64" s="52"/>
+      <c r="W64" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="X64" s="49"/>
-      <c r="Y64" s="54"/>
-      <c r="Z64" s="63" t="s">
+      <c r="X64" s="47"/>
+      <c r="Y64" s="78"/>
+      <c r="Z64" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="AA64" s="8"/>
-      <c r="AB64" s="8"/>
-      <c r="AC64" s="8"/>
-      <c r="AD64" s="8"/>
-      <c r="AE64" s="8"/>
-      <c r="AF64" s="8"/>
-      <c r="AG64" s="8"/>
-      <c r="AH64" s="8"/>
-      <c r="AI64" s="8"/>
-      <c r="AJ64" s="9"/>
-      <c r="AK64" s="7"/>
-      <c r="AL64" s="8"/>
-      <c r="AM64" s="8"/>
-      <c r="AN64" s="8"/>
-      <c r="AO64" s="8"/>
-      <c r="AP64" s="9"/>
+      <c r="AA64" s="50"/>
+      <c r="AB64" s="50"/>
+      <c r="AC64" s="50"/>
+      <c r="AD64" s="50"/>
+      <c r="AE64" s="50"/>
+      <c r="AF64" s="50"/>
+      <c r="AG64" s="50"/>
+      <c r="AH64" s="50"/>
+      <c r="AI64" s="50"/>
+      <c r="AJ64" s="52"/>
+      <c r="AK64" s="30"/>
+      <c r="AL64" s="13"/>
+      <c r="AM64" s="13"/>
+      <c r="AN64" s="13"/>
+      <c r="AO64" s="13"/>
+      <c r="AP64" s="14"/>
     </row>
     <row r="65" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R65" s="58">
+      <c r="R65" s="4">
         <v>6</v>
       </c>
-      <c r="S65" s="7"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="47"/>
-      <c r="W65" s="53"/>
-      <c r="X65" s="49"/>
-      <c r="Y65" s="54"/>
-      <c r="Z65" s="7"/>
-      <c r="AA65" s="8"/>
-      <c r="AB65" s="8"/>
-      <c r="AC65" s="8"/>
-      <c r="AD65" s="8"/>
-      <c r="AE65" s="8"/>
-      <c r="AF65" s="8"/>
-      <c r="AG65" s="8"/>
-      <c r="AH65" s="8"/>
-      <c r="AI65" s="8"/>
-      <c r="AJ65" s="9"/>
-      <c r="AK65" s="7"/>
-      <c r="AL65" s="8"/>
-      <c r="AM65" s="8"/>
-      <c r="AN65" s="8"/>
-      <c r="AO65" s="8"/>
-      <c r="AP65" s="9"/>
+      <c r="S65" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="T65" s="50"/>
+      <c r="U65" s="50"/>
+      <c r="V65" s="52"/>
+      <c r="W65" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="X65" s="47"/>
+      <c r="Y65" s="78"/>
+      <c r="Z65" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA65" s="50"/>
+      <c r="AB65" s="50"/>
+      <c r="AC65" s="50"/>
+      <c r="AD65" s="50"/>
+      <c r="AE65" s="50"/>
+      <c r="AF65" s="50"/>
+      <c r="AG65" s="50"/>
+      <c r="AH65" s="50"/>
+      <c r="AI65" s="50"/>
+      <c r="AJ65" s="52"/>
+      <c r="AK65" s="30"/>
+      <c r="AL65" s="13"/>
+      <c r="AM65" s="13"/>
+      <c r="AN65" s="13"/>
+      <c r="AO65" s="13"/>
+      <c r="AP65" s="14"/>
     </row>
     <row r="66" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R66" s="58">
+      <c r="R66" s="4">
         <v>7</v>
       </c>
-      <c r="S66" s="7"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="47"/>
-      <c r="W66" s="53"/>
-      <c r="X66" s="49"/>
-      <c r="Y66" s="54"/>
-      <c r="Z66" s="7"/>
-      <c r="AA66" s="8"/>
-      <c r="AB66" s="8"/>
-      <c r="AC66" s="8"/>
-      <c r="AD66" s="8"/>
-      <c r="AE66" s="8"/>
-      <c r="AF66" s="8"/>
-      <c r="AG66" s="8"/>
-      <c r="AH66" s="8"/>
-      <c r="AI66" s="8"/>
-      <c r="AJ66" s="9"/>
-      <c r="AK66" s="7"/>
-      <c r="AL66" s="8"/>
-      <c r="AM66" s="8"/>
-      <c r="AN66" s="8"/>
-      <c r="AO66" s="8"/>
-      <c r="AP66" s="9"/>
+      <c r="S66" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="T66" s="50"/>
+      <c r="U66" s="50"/>
+      <c r="V66" s="52"/>
+      <c r="W66" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="X66" s="47"/>
+      <c r="Y66" s="78"/>
+      <c r="Z66" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA66" s="50"/>
+      <c r="AB66" s="50"/>
+      <c r="AC66" s="50"/>
+      <c r="AD66" s="50"/>
+      <c r="AE66" s="50"/>
+      <c r="AF66" s="50"/>
+      <c r="AG66" s="50"/>
+      <c r="AH66" s="50"/>
+      <c r="AI66" s="50"/>
+      <c r="AJ66" s="52"/>
+      <c r="AK66" s="30"/>
+      <c r="AL66" s="13"/>
+      <c r="AM66" s="13"/>
+      <c r="AN66" s="13"/>
+      <c r="AO66" s="13"/>
+      <c r="AP66" s="14"/>
     </row>
     <row r="67" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R67" s="58">
+      <c r="R67" s="4">
         <v>8</v>
       </c>
-      <c r="S67" s="7"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="47"/>
-      <c r="W67" s="53"/>
-      <c r="X67" s="49"/>
-      <c r="Y67" s="54"/>
-      <c r="Z67" s="7"/>
-      <c r="AA67" s="8"/>
-      <c r="AB67" s="8"/>
-      <c r="AC67" s="8"/>
-      <c r="AD67" s="8"/>
-      <c r="AE67" s="8"/>
-      <c r="AF67" s="8"/>
-      <c r="AG67" s="8"/>
-      <c r="AH67" s="8"/>
-      <c r="AI67" s="8"/>
-      <c r="AJ67" s="9"/>
-      <c r="AK67" s="7"/>
-      <c r="AL67" s="8"/>
-      <c r="AM67" s="8"/>
-      <c r="AN67" s="8"/>
-      <c r="AO67" s="8"/>
-      <c r="AP67" s="9"/>
+      <c r="S67" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="T67" s="50"/>
+      <c r="U67" s="50"/>
+      <c r="V67" s="52"/>
+      <c r="W67" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="X67" s="47"/>
+      <c r="Y67" s="78"/>
+      <c r="Z67" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA67" s="50"/>
+      <c r="AB67" s="50"/>
+      <c r="AC67" s="50"/>
+      <c r="AD67" s="50"/>
+      <c r="AE67" s="50"/>
+      <c r="AF67" s="50"/>
+      <c r="AG67" s="50"/>
+      <c r="AH67" s="50"/>
+      <c r="AI67" s="50"/>
+      <c r="AJ67" s="52"/>
+      <c r="AK67" s="30"/>
+      <c r="AL67" s="13"/>
+      <c r="AM67" s="13"/>
+      <c r="AN67" s="13"/>
+      <c r="AO67" s="13"/>
+      <c r="AP67" s="14"/>
     </row>
     <row r="68" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R68" s="58">
+      <c r="R68" s="4">
         <v>9</v>
       </c>
-      <c r="S68" s="7"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="47"/>
-      <c r="W68" s="53"/>
-      <c r="X68" s="49"/>
-      <c r="Y68" s="54"/>
-      <c r="Z68" s="7"/>
-      <c r="AA68" s="8"/>
-      <c r="AB68" s="8"/>
-      <c r="AC68" s="8"/>
-      <c r="AD68" s="8"/>
-      <c r="AE68" s="8"/>
-      <c r="AF68" s="8"/>
-      <c r="AG68" s="8"/>
-      <c r="AH68" s="8"/>
-      <c r="AI68" s="8"/>
-      <c r="AJ68" s="9"/>
-      <c r="AK68" s="7"/>
-      <c r="AL68" s="8"/>
-      <c r="AM68" s="8"/>
-      <c r="AN68" s="8"/>
-      <c r="AO68" s="8"/>
-      <c r="AP68" s="9"/>
+      <c r="S68" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="T68" s="50"/>
+      <c r="U68" s="50"/>
+      <c r="V68" s="52"/>
+      <c r="W68" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="X68" s="47"/>
+      <c r="Y68" s="78"/>
+      <c r="Z68" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA68" s="50"/>
+      <c r="AB68" s="50"/>
+      <c r="AC68" s="50"/>
+      <c r="AD68" s="50"/>
+      <c r="AE68" s="50"/>
+      <c r="AF68" s="50"/>
+      <c r="AG68" s="50"/>
+      <c r="AH68" s="50"/>
+      <c r="AI68" s="50"/>
+      <c r="AJ68" s="52"/>
+      <c r="AK68" s="30"/>
+      <c r="AL68" s="13"/>
+      <c r="AM68" s="13"/>
+      <c r="AN68" s="13"/>
+      <c r="AO68" s="13"/>
+      <c r="AP68" s="14"/>
     </row>
     <row r="69" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R69" s="58">
+      <c r="R69" s="4">
         <v>10</v>
       </c>
-      <c r="S69" s="7"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="47"/>
-      <c r="W69" s="53"/>
-      <c r="X69" s="49"/>
-      <c r="Y69" s="54"/>
-      <c r="Z69" s="7"/>
-      <c r="AA69" s="8"/>
-      <c r="AB69" s="8"/>
-      <c r="AC69" s="8"/>
-      <c r="AD69" s="8"/>
-      <c r="AE69" s="8"/>
-      <c r="AF69" s="8"/>
-      <c r="AG69" s="8"/>
-      <c r="AH69" s="8"/>
-      <c r="AI69" s="8"/>
-      <c r="AJ69" s="9"/>
-      <c r="AK69" s="7"/>
-      <c r="AL69" s="8"/>
-      <c r="AM69" s="8"/>
-      <c r="AN69" s="8"/>
-      <c r="AO69" s="8"/>
-      <c r="AP69" s="9"/>
+      <c r="S69" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="T69" s="50"/>
+      <c r="U69" s="50"/>
+      <c r="V69" s="52"/>
+      <c r="W69" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="X69" s="47"/>
+      <c r="Y69" s="78"/>
+      <c r="Z69" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA69" s="50"/>
+      <c r="AB69" s="50"/>
+      <c r="AC69" s="50"/>
+      <c r="AD69" s="50"/>
+      <c r="AE69" s="50"/>
+      <c r="AF69" s="50"/>
+      <c r="AG69" s="50"/>
+      <c r="AH69" s="50"/>
+      <c r="AI69" s="50"/>
+      <c r="AJ69" s="52"/>
+      <c r="AK69" s="30"/>
+      <c r="AL69" s="13"/>
+      <c r="AM69" s="13"/>
+      <c r="AN69" s="13"/>
+      <c r="AO69" s="13"/>
+      <c r="AP69" s="14"/>
     </row>
     <row r="70" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R70" s="58">
+      <c r="R70" s="4">
         <v>11</v>
       </c>
-      <c r="S70" s="7"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="47"/>
-      <c r="W70" s="53"/>
-      <c r="X70" s="49"/>
-      <c r="Y70" s="54"/>
-      <c r="Z70" s="7"/>
-      <c r="AA70" s="8"/>
-      <c r="AB70" s="8"/>
-      <c r="AC70" s="8"/>
-      <c r="AD70" s="8"/>
-      <c r="AE70" s="8"/>
-      <c r="AF70" s="8"/>
-      <c r="AG70" s="8"/>
-      <c r="AH70" s="8"/>
-      <c r="AI70" s="8"/>
-      <c r="AJ70" s="9"/>
-      <c r="AK70" s="7"/>
-      <c r="AL70" s="8"/>
-      <c r="AM70" s="8"/>
-      <c r="AN70" s="8"/>
-      <c r="AO70" s="8"/>
-      <c r="AP70" s="9"/>
+      <c r="S70" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="T70" s="50"/>
+      <c r="U70" s="50"/>
+      <c r="V70" s="52"/>
+      <c r="W70" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="X70" s="47"/>
+      <c r="Y70" s="78"/>
+      <c r="Z70" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA70" s="50"/>
+      <c r="AB70" s="50"/>
+      <c r="AC70" s="50"/>
+      <c r="AD70" s="50"/>
+      <c r="AE70" s="50"/>
+      <c r="AF70" s="50"/>
+      <c r="AG70" s="50"/>
+      <c r="AH70" s="50"/>
+      <c r="AI70" s="50"/>
+      <c r="AJ70" s="52"/>
+      <c r="AK70" s="30"/>
+      <c r="AL70" s="13"/>
+      <c r="AM70" s="13"/>
+      <c r="AN70" s="13"/>
+      <c r="AO70" s="13"/>
+      <c r="AP70" s="14"/>
     </row>
     <row r="71" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R71" s="58">
+      <c r="R71" s="4">
         <v>12</v>
       </c>
-      <c r="S71" s="7"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="47"/>
-      <c r="W71" s="53"/>
-      <c r="X71" s="49"/>
-      <c r="Y71" s="54"/>
-      <c r="Z71" s="7"/>
-      <c r="AA71" s="8"/>
-      <c r="AB71" s="8"/>
-      <c r="AC71" s="8"/>
-      <c r="AD71" s="8"/>
-      <c r="AE71" s="8"/>
-      <c r="AF71" s="8"/>
-      <c r="AG71" s="8"/>
-      <c r="AH71" s="8"/>
-      <c r="AI71" s="8"/>
-      <c r="AJ71" s="9"/>
-      <c r="AK71" s="7"/>
-      <c r="AL71" s="8"/>
-      <c r="AM71" s="8"/>
-      <c r="AN71" s="8"/>
-      <c r="AO71" s="8"/>
-      <c r="AP71" s="9"/>
+      <c r="S71" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="T71" s="50"/>
+      <c r="U71" s="50"/>
+      <c r="V71" s="52"/>
+      <c r="W71" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="X71" s="47"/>
+      <c r="Y71" s="78"/>
+      <c r="Z71" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA71" s="50"/>
+      <c r="AB71" s="50"/>
+      <c r="AC71" s="50"/>
+      <c r="AD71" s="50"/>
+      <c r="AE71" s="50"/>
+      <c r="AF71" s="50"/>
+      <c r="AG71" s="50"/>
+      <c r="AH71" s="50"/>
+      <c r="AI71" s="50"/>
+      <c r="AJ71" s="52"/>
+      <c r="AK71" s="30"/>
+      <c r="AL71" s="13"/>
+      <c r="AM71" s="13"/>
+      <c r="AN71" s="13"/>
+      <c r="AO71" s="13"/>
+      <c r="AP71" s="14"/>
     </row>
     <row r="72" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R72" s="58">
+      <c r="R72" s="4">
         <v>13</v>
       </c>
-      <c r="S72" s="7"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="47"/>
-      <c r="W72" s="53"/>
-      <c r="X72" s="49"/>
-      <c r="Y72" s="54"/>
-      <c r="Z72" s="7"/>
-      <c r="AA72" s="8"/>
-      <c r="AB72" s="8"/>
-      <c r="AC72" s="8"/>
-      <c r="AD72" s="8"/>
-      <c r="AE72" s="8"/>
-      <c r="AF72" s="8"/>
-      <c r="AG72" s="8"/>
-      <c r="AH72" s="8"/>
-      <c r="AI72" s="8"/>
-      <c r="AJ72" s="9"/>
-      <c r="AK72" s="7"/>
-      <c r="AL72" s="8"/>
-      <c r="AM72" s="8"/>
-      <c r="AN72" s="8"/>
-      <c r="AO72" s="8"/>
-      <c r="AP72" s="9"/>
+      <c r="S72" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="T72" s="50"/>
+      <c r="U72" s="50"/>
+      <c r="V72" s="52"/>
+      <c r="W72" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="X72" s="57"/>
+      <c r="Y72" s="82"/>
+      <c r="Z72" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA72" s="50"/>
+      <c r="AB72" s="50"/>
+      <c r="AC72" s="50"/>
+      <c r="AD72" s="50"/>
+      <c r="AE72" s="50"/>
+      <c r="AF72" s="50"/>
+      <c r="AG72" s="50"/>
+      <c r="AH72" s="50"/>
+      <c r="AI72" s="50"/>
+      <c r="AJ72" s="52"/>
+      <c r="AK72" s="30"/>
+      <c r="AL72" s="13"/>
+      <c r="AM72" s="13"/>
+      <c r="AN72" s="13"/>
+      <c r="AO72" s="13"/>
+      <c r="AP72" s="14"/>
     </row>
     <row r="73" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R73" s="58">
+      <c r="R73" s="4">
         <v>14</v>
       </c>
-      <c r="S73" s="7"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="47"/>
-      <c r="W73" s="53"/>
-      <c r="X73" s="49"/>
-      <c r="Y73" s="54"/>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="8"/>
-      <c r="AB73" s="8"/>
-      <c r="AC73" s="8"/>
-      <c r="AD73" s="8"/>
-      <c r="AE73" s="8"/>
-      <c r="AF73" s="8"/>
-      <c r="AG73" s="8"/>
-      <c r="AH73" s="8"/>
-      <c r="AI73" s="8"/>
-      <c r="AJ73" s="9"/>
-      <c r="AK73" s="7"/>
-      <c r="AL73" s="8"/>
-      <c r="AM73" s="8"/>
-      <c r="AN73" s="8"/>
-      <c r="AO73" s="8"/>
-      <c r="AP73" s="9"/>
+      <c r="S73" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="T73" s="50"/>
+      <c r="U73" s="50"/>
+      <c r="V73" s="52"/>
+      <c r="W73" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="X73" s="47"/>
+      <c r="Y73" s="78"/>
+      <c r="Z73" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA73" s="50"/>
+      <c r="AB73" s="50"/>
+      <c r="AC73" s="50"/>
+      <c r="AD73" s="50"/>
+      <c r="AE73" s="50"/>
+      <c r="AF73" s="50"/>
+      <c r="AG73" s="50"/>
+      <c r="AH73" s="50"/>
+      <c r="AI73" s="50"/>
+      <c r="AJ73" s="52"/>
+      <c r="AK73" s="30"/>
+      <c r="AL73" s="13"/>
+      <c r="AM73" s="13"/>
+      <c r="AN73" s="13"/>
+      <c r="AO73" s="13"/>
+      <c r="AP73" s="14"/>
     </row>
     <row r="74" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="R74" s="58">
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="F74" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="R74" s="4">
         <v>15</v>
       </c>
-      <c r="S74" s="7"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="47"/>
-      <c r="W74" s="53"/>
-      <c r="X74" s="49"/>
-      <c r="Y74" s="54"/>
-      <c r="Z74" s="7"/>
-      <c r="AA74" s="8"/>
-      <c r="AB74" s="8"/>
-      <c r="AC74" s="8"/>
-      <c r="AD74" s="8"/>
-      <c r="AE74" s="8"/>
-      <c r="AF74" s="8"/>
-      <c r="AG74" s="8"/>
-      <c r="AH74" s="8"/>
-      <c r="AI74" s="8"/>
-      <c r="AJ74" s="9"/>
-      <c r="AK74" s="7"/>
-      <c r="AL74" s="8"/>
-      <c r="AM74" s="8"/>
-      <c r="AN74" s="8"/>
-      <c r="AO74" s="8"/>
-      <c r="AP74" s="9"/>
+      <c r="S74" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="T74" s="50"/>
+      <c r="U74" s="50"/>
+      <c r="V74" s="52"/>
+      <c r="W74" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="X74" s="47"/>
+      <c r="Y74" s="78"/>
+      <c r="Z74" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA74" s="50"/>
+      <c r="AB74" s="50"/>
+      <c r="AC74" s="50"/>
+      <c r="AD74" s="50"/>
+      <c r="AE74" s="50"/>
+      <c r="AF74" s="50"/>
+      <c r="AG74" s="50"/>
+      <c r="AH74" s="50"/>
+      <c r="AI74" s="50"/>
+      <c r="AJ74" s="52"/>
+      <c r="AK74" s="30"/>
+      <c r="AL74" s="13"/>
+      <c r="AM74" s="13"/>
+      <c r="AN74" s="13"/>
+      <c r="AO74" s="13"/>
+      <c r="AP74" s="14"/>
     </row>
     <row r="75" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="R75" s="58">
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="R75" s="4">
         <v>16</v>
       </c>
-      <c r="S75" s="7"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="47"/>
-      <c r="W75" s="53"/>
-      <c r="X75" s="49"/>
-      <c r="Y75" s="54"/>
-      <c r="Z75" s="7"/>
-      <c r="AA75" s="8"/>
-      <c r="AB75" s="8"/>
-      <c r="AC75" s="8"/>
-      <c r="AD75" s="8"/>
-      <c r="AE75" s="8"/>
-      <c r="AF75" s="8"/>
-      <c r="AG75" s="8"/>
-      <c r="AH75" s="8"/>
-      <c r="AI75" s="8"/>
-      <c r="AJ75" s="9"/>
-      <c r="AK75" s="7"/>
-      <c r="AL75" s="8"/>
-      <c r="AM75" s="8"/>
-      <c r="AN75" s="8"/>
-      <c r="AO75" s="8"/>
-      <c r="AP75" s="9"/>
-    </row>
-    <row r="76" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="36" t="s">
+      <c r="S75" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="T75" s="50"/>
+      <c r="U75" s="50"/>
+      <c r="V75" s="52"/>
+      <c r="W75" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="X75" s="47"/>
+      <c r="Y75" s="78"/>
+      <c r="Z75" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA75" s="50"/>
+      <c r="AB75" s="50"/>
+      <c r="AC75" s="50"/>
+      <c r="AD75" s="50"/>
+      <c r="AE75" s="50"/>
+      <c r="AF75" s="50"/>
+      <c r="AG75" s="50"/>
+      <c r="AH75" s="50"/>
+      <c r="AI75" s="50"/>
+      <c r="AJ75" s="52"/>
+      <c r="AK75" s="30"/>
+      <c r="AL75" s="13"/>
+      <c r="AM75" s="13"/>
+      <c r="AN75" s="13"/>
+      <c r="AO75" s="13"/>
+      <c r="AP75" s="14"/>
+    </row>
+    <row r="76" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B76" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="R76" s="59">
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="R76" s="4">
         <v>17</v>
       </c>
-      <c r="S76" s="3"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="48"/>
-      <c r="W76" s="55"/>
-      <c r="X76" s="56"/>
-      <c r="Y76" s="57"/>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-      <c r="AE76" s="4"/>
-      <c r="AF76" s="4"/>
-      <c r="AG76" s="4"/>
-      <c r="AH76" s="4"/>
-      <c r="AI76" s="4"/>
-      <c r="AJ76" s="5"/>
-      <c r="AK76" s="3"/>
-      <c r="AL76" s="4"/>
-      <c r="AM76" s="4"/>
-      <c r="AN76" s="4"/>
-      <c r="AO76" s="4"/>
-      <c r="AP76" s="5"/>
-    </row>
-    <row r="79" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="N79" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
+      <c r="S76" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="T76" s="60"/>
+      <c r="U76" s="60"/>
+      <c r="V76" s="63"/>
+      <c r="W76" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="X76" s="61"/>
+      <c r="Y76" s="83"/>
+      <c r="Z76" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA76" s="60"/>
+      <c r="AB76" s="60"/>
+      <c r="AC76" s="60"/>
+      <c r="AD76" s="60"/>
+      <c r="AE76" s="60"/>
+      <c r="AF76" s="60"/>
+      <c r="AG76" s="60"/>
+      <c r="AH76" s="60"/>
+      <c r="AI76" s="60"/>
+      <c r="AJ76" s="63"/>
+      <c r="AK76" s="88"/>
+      <c r="AL76" s="64"/>
+      <c r="AM76" s="64"/>
+      <c r="AN76" s="64"/>
+      <c r="AO76" s="64"/>
+      <c r="AP76" s="65"/>
+    </row>
+    <row r="77" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="R77" s="74">
+        <v>18</v>
+      </c>
+      <c r="S77" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="T77" s="50"/>
+      <c r="U77" s="50"/>
+      <c r="V77" s="52"/>
+      <c r="W77" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="X77" s="47"/>
+      <c r="Y77" s="78"/>
+      <c r="Z77" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA77" s="50"/>
+      <c r="AB77" s="50"/>
+      <c r="AC77" s="50"/>
+      <c r="AD77" s="50"/>
+      <c r="AE77" s="50"/>
+      <c r="AF77" s="50"/>
+      <c r="AG77" s="50"/>
+      <c r="AH77" s="50"/>
+      <c r="AI77" s="50"/>
+      <c r="AJ77" s="52"/>
+      <c r="AK77" s="30"/>
+      <c r="AL77" s="13"/>
+      <c r="AM77" s="13"/>
+      <c r="AN77" s="13"/>
+      <c r="AO77" s="13"/>
+      <c r="AP77" s="14"/>
+    </row>
+    <row r="78" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R78" s="75">
+        <v>19</v>
+      </c>
+      <c r="S78" s="53"/>
+      <c r="T78" s="54"/>
+      <c r="U78" s="54"/>
+      <c r="V78" s="56"/>
+      <c r="W78" s="77"/>
+      <c r="X78" s="55"/>
+      <c r="Y78" s="79"/>
+      <c r="Z78" s="58"/>
+      <c r="AA78" s="54"/>
+      <c r="AB78" s="54"/>
+      <c r="AC78" s="54"/>
+      <c r="AD78" s="54"/>
+      <c r="AE78" s="54"/>
+      <c r="AF78" s="54"/>
+      <c r="AG78" s="54"/>
+      <c r="AH78" s="54"/>
+      <c r="AI78" s="54"/>
+      <c r="AJ78" s="56"/>
+      <c r="AK78" s="28"/>
+      <c r="AL78" s="16"/>
+      <c r="AM78" s="16"/>
+      <c r="AN78" s="16"/>
+      <c r="AO78" s="16"/>
+      <c r="AP78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="R57:AP58"/>
-    <mergeCell ref="AK75:AP75"/>
-    <mergeCell ref="AK76:AP76"/>
-    <mergeCell ref="N79:U79"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="W60:Y60"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="W62:Y62"/>
-    <mergeCell ref="W63:Y63"/>
-    <mergeCell ref="W64:Y64"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="W67:Y67"/>
-    <mergeCell ref="W68:Y68"/>
-    <mergeCell ref="W69:Y69"/>
-    <mergeCell ref="AK70:AP70"/>
-    <mergeCell ref="AK71:AP71"/>
-    <mergeCell ref="AK72:AP72"/>
-    <mergeCell ref="AK73:AP73"/>
-    <mergeCell ref="AK74:AP74"/>
-    <mergeCell ref="B74:D74"/>
+  <mergeCells count="105">
+    <mergeCell ref="AK77:AP77"/>
+    <mergeCell ref="S78:V78"/>
+    <mergeCell ref="W78:Y78"/>
+    <mergeCell ref="Z78:AJ78"/>
+    <mergeCell ref="AK78:AP78"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="S77:V77"/>
+    <mergeCell ref="W77:Y77"/>
+    <mergeCell ref="Z77:AJ77"/>
+    <mergeCell ref="AQ14:AZ14"/>
+    <mergeCell ref="AQ15:AZ15"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="F62:P62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:P63"/>
+    <mergeCell ref="B57:P58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:P59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:P60"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:P64"/>
+    <mergeCell ref="S59:V59"/>
+    <mergeCell ref="Z59:AJ59"/>
+    <mergeCell ref="S60:V60"/>
+    <mergeCell ref="Z60:AJ60"/>
+    <mergeCell ref="S61:V61"/>
+    <mergeCell ref="Z61:AJ61"/>
+    <mergeCell ref="S62:V62"/>
+    <mergeCell ref="Z62:AJ62"/>
+    <mergeCell ref="S63:V63"/>
+    <mergeCell ref="Z63:AJ63"/>
+    <mergeCell ref="S64:V64"/>
+    <mergeCell ref="Z64:AJ64"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="F61:P61"/>
+    <mergeCell ref="S65:V65"/>
+    <mergeCell ref="Z65:AJ65"/>
+    <mergeCell ref="S66:V66"/>
+    <mergeCell ref="Z66:AJ66"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="Z67:AJ67"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="Z68:AJ68"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="Z69:AJ69"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="Z70:AJ70"/>
+    <mergeCell ref="W70:Y70"/>
+    <mergeCell ref="Z75:AJ75"/>
+    <mergeCell ref="S76:V76"/>
+    <mergeCell ref="Z76:AJ76"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="W75:Y75"/>
+    <mergeCell ref="W76:Y76"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="AK59:AP59"/>
@@ -2756,12 +3212,11 @@
     <mergeCell ref="S74:V74"/>
     <mergeCell ref="Z74:AJ74"/>
     <mergeCell ref="S75:V75"/>
-    <mergeCell ref="Z75:AJ75"/>
-    <mergeCell ref="S76:V76"/>
-    <mergeCell ref="Z76:AJ76"/>
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="W75:Y75"/>
-    <mergeCell ref="W76:Y76"/>
+    <mergeCell ref="AK71:AP71"/>
+    <mergeCell ref="AK72:AP72"/>
+    <mergeCell ref="AK73:AP73"/>
+    <mergeCell ref="AK74:AP74"/>
+    <mergeCell ref="B74:D74"/>
     <mergeCell ref="S71:V71"/>
     <mergeCell ref="Z71:AJ71"/>
     <mergeCell ref="S72:V72"/>
@@ -2771,52 +3226,24 @@
     <mergeCell ref="W71:Y71"/>
     <mergeCell ref="W72:Y72"/>
     <mergeCell ref="W73:Y73"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="Z68:AJ68"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="Z69:AJ69"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="Z70:AJ70"/>
-    <mergeCell ref="W70:Y70"/>
-    <mergeCell ref="S65:V65"/>
-    <mergeCell ref="Z65:AJ65"/>
-    <mergeCell ref="S66:V66"/>
-    <mergeCell ref="Z66:AJ66"/>
-    <mergeCell ref="S67:V67"/>
-    <mergeCell ref="Z67:AJ67"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:P64"/>
-    <mergeCell ref="S59:V59"/>
-    <mergeCell ref="Z59:AJ59"/>
-    <mergeCell ref="S60:V60"/>
-    <mergeCell ref="Z60:AJ60"/>
-    <mergeCell ref="S61:V61"/>
-    <mergeCell ref="Z61:AJ61"/>
-    <mergeCell ref="S62:V62"/>
-    <mergeCell ref="Z62:AJ62"/>
-    <mergeCell ref="S63:V63"/>
-    <mergeCell ref="Z63:AJ63"/>
-    <mergeCell ref="S64:V64"/>
-    <mergeCell ref="Z64:AJ64"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="F61:P61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="F62:P62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F63:P63"/>
-    <mergeCell ref="B57:P58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:P59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:P60"/>
-    <mergeCell ref="AQ14:AZ14"/>
-    <mergeCell ref="AQ15:AZ15"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="R57:AP58"/>
+    <mergeCell ref="AK75:AP75"/>
+    <mergeCell ref="AK76:AP76"/>
+    <mergeCell ref="F74:M74"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="W60:Y60"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="W62:Y62"/>
+    <mergeCell ref="W63:Y63"/>
+    <mergeCell ref="W64:Y64"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="W67:Y67"/>
+    <mergeCell ref="W68:Y68"/>
+    <mergeCell ref="W69:Y69"/>
+    <mergeCell ref="AK70:AP70"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F60" r:id="rId1" xr:uid="{35D294F1-1052-4CDC-B442-CC6F328A5859}"/>
     <hyperlink ref="F61" r:id="rId2" xr:uid="{935BE457-A350-4A90-B82B-2BEC1B5F89D6}"/>
@@ -2826,9 +3253,22 @@
     <hyperlink ref="Z61" r:id="rId6" xr:uid="{BF500733-A871-49F6-92EF-19C2638B73A7}"/>
     <hyperlink ref="Z60" r:id="rId7" xr:uid="{6254A3D5-CB13-4817-BB7E-2E20523171DB}"/>
     <hyperlink ref="Z64" r:id="rId8" xr:uid="{F6A65428-0665-4C5F-9B1B-55A677F084BB}"/>
+    <hyperlink ref="Z66" r:id="rId9" xr:uid="{2EA70D60-586F-476A-AD6F-64864B5F7125}"/>
+    <hyperlink ref="Z65" r:id="rId10" xr:uid="{A10B3260-C860-4D59-8BD9-00BB264209F3}"/>
+    <hyperlink ref="Z67" r:id="rId11" xr:uid="{1BD1898F-2843-44AB-AB30-669469939A5D}"/>
+    <hyperlink ref="Z68" r:id="rId12" xr:uid="{6A1FE2DB-C608-44C8-A43B-042EDCF0537B}"/>
+    <hyperlink ref="Z69" r:id="rId13" xr:uid="{8025A0AB-91C0-4499-901D-BF1A55BA9AEC}"/>
+    <hyperlink ref="Z70" r:id="rId14" xr:uid="{7441D5BD-482A-4CE2-8B53-D7DED4D9B61B}"/>
+    <hyperlink ref="Z71" r:id="rId15" xr:uid="{F4A814C6-7D07-460F-8A81-7A9F6CABDD95}"/>
+    <hyperlink ref="Z72" r:id="rId16" xr:uid="{5E94F534-1DD9-45AD-B875-41CA1414E6FC}"/>
+    <hyperlink ref="Z73" r:id="rId17" xr:uid="{D565EF1E-DB1D-4B28-801C-4D4CCE6FD429}"/>
+    <hyperlink ref="Z74" r:id="rId18" xr:uid="{C38AC26F-C72B-43EE-98B1-036AEBB2DC88}"/>
+    <hyperlink ref="Z75" r:id="rId19" xr:uid="{5B6689C2-94A1-4DA1-B555-A0A3093294A7}"/>
+    <hyperlink ref="Z76" r:id="rId20" xr:uid="{0D8BF253-40C3-4640-804E-9611FDAAB20A}"/>
+    <hyperlink ref="Z77" r:id="rId21" xr:uid="{454C94D8-4DC6-49CD-A410-D42FAF10EB15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
+  <drawing r:id="rId23"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\university\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A29EED8-7FBE-424D-A250-FCDDA6773640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70922965-E624-4FE3-9C50-1D28B135611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49E8A915-5A6F-4B3C-966A-272F8EBD50DB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>https://belchip.by/product/?selected_product=36951</t>
   </si>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>https://jlcpcb.com/partdetail/Walsin_TechCorp-0201N1R5C250CT/C424820</t>
+  </si>
+  <si>
+    <t>Резистор 1к (х2)</t>
+  </si>
+  <si>
+    <t>Повышение частоты</t>
+  </si>
+  <si>
+    <t>WR20X1001FTL</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Walsin_TechCorp-WR20X1001FTL/C335021</t>
   </si>
 </sst>
 </file>
@@ -965,7 +977,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -980,6 +992,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -989,6 +1082,129 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="27" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -998,26 +1214,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1028,207 +1232,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="27" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1910,7 +1931,7 @@
   <dimension ref="B1:AZ78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH82" sqref="AH82"/>
+      <selection activeCell="W78" sqref="W78:Y78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,13 +2063,13 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="W7" s="22" t="s">
+      <c r="W7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.25">
       <c r="G8" s="3"/>
@@ -2076,11 +2097,11 @@
       </c>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="Q12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2108,18 +2129,18 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="AQ14" s="18" t="s">
+      <c r="AQ14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AR14" s="18"/>
-      <c r="AS14" s="18"/>
-      <c r="AT14" s="18"/>
-      <c r="AU14" s="18"/>
-      <c r="AV14" s="18"/>
-      <c r="AW14" s="18"/>
-      <c r="AX14" s="18"/>
-      <c r="AY14" s="18"/>
-      <c r="AZ14" s="18"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="22"/>
+      <c r="AZ14" s="22"/>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.25">
       <c r="Q15" s="1"/>
@@ -2128,18 +2149,18 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="AQ15" s="18" t="s">
+      <c r="AQ15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AR15" s="18"/>
-      <c r="AS15" s="18"/>
-      <c r="AT15" s="18"/>
-      <c r="AU15" s="18"/>
-      <c r="AV15" s="18"/>
-      <c r="AW15" s="18"/>
-      <c r="AX15" s="18"/>
-      <c r="AY15" s="18"/>
-      <c r="AZ15" s="18"/>
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="22"/>
+      <c r="AT15" s="22"/>
+      <c r="AU15" s="22"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="22"/>
+      <c r="AY15" s="22"/>
+      <c r="AZ15" s="22"/>
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.25">
       <c r="Q16" s="1"/>
@@ -2161,13 +2182,13 @@
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="P41" s="18" t="s">
+      <c r="P41" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
       <c r="U41" t="s">
         <v>15</v>
       </c>
@@ -2179,23 +2200,23 @@
       <c r="J42" t="s">
         <v>25</v>
       </c>
-      <c r="P42" s="18" t="s">
+      <c r="P42" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
       <c r="U42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -2217,980 +2238,960 @@
     </row>
     <row r="56" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="8"/>
-      <c r="R57" s="6" t="s">
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="35"/>
+      <c r="R57" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="7"/>
-      <c r="AD57" s="7"/>
-      <c r="AE57" s="7"/>
-      <c r="AF57" s="7"/>
-      <c r="AG57" s="7"/>
-      <c r="AH57" s="7"/>
-      <c r="AI57" s="7"/>
-      <c r="AJ57" s="7"/>
-      <c r="AK57" s="7"/>
-      <c r="AL57" s="7"/>
-      <c r="AM57" s="7"/>
-      <c r="AN57" s="7"/>
-      <c r="AO57" s="7"/>
-      <c r="AP57" s="8"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="34"/>
+      <c r="AC57" s="34"/>
+      <c r="AD57" s="34"/>
+      <c r="AE57" s="34"/>
+      <c r="AF57" s="34"/>
+      <c r="AG57" s="34"/>
+      <c r="AH57" s="34"/>
+      <c r="AI57" s="34"/>
+      <c r="AJ57" s="34"/>
+      <c r="AK57" s="34"/>
+      <c r="AL57" s="34"/>
+      <c r="AM57" s="34"/>
+      <c r="AN57" s="34"/>
+      <c r="AO57" s="34"/>
+      <c r="AP57" s="35"/>
     </row>
     <row r="58" spans="2:42" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="31"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="33"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
-      <c r="AD58" s="10"/>
-      <c r="AE58" s="10"/>
-      <c r="AF58" s="10"/>
-      <c r="AG58" s="10"/>
-      <c r="AH58" s="10"/>
-      <c r="AI58" s="10"/>
-      <c r="AJ58" s="10"/>
-      <c r="AK58" s="10"/>
-      <c r="AL58" s="10"/>
-      <c r="AM58" s="10"/>
-      <c r="AN58" s="10"/>
-      <c r="AO58" s="10"/>
-      <c r="AP58" s="11"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="38"/>
+      <c r="R58" s="79"/>
+      <c r="S58" s="80"/>
+      <c r="T58" s="80"/>
+      <c r="U58" s="80"/>
+      <c r="V58" s="80"/>
+      <c r="W58" s="80"/>
+      <c r="X58" s="80"/>
+      <c r="Y58" s="80"/>
+      <c r="Z58" s="80"/>
+      <c r="AA58" s="80"/>
+      <c r="AB58" s="80"/>
+      <c r="AC58" s="80"/>
+      <c r="AD58" s="80"/>
+      <c r="AE58" s="80"/>
+      <c r="AF58" s="80"/>
+      <c r="AG58" s="80"/>
+      <c r="AH58" s="80"/>
+      <c r="AI58" s="80"/>
+      <c r="AJ58" s="80"/>
+      <c r="AK58" s="80"/>
+      <c r="AL58" s="80"/>
+      <c r="AM58" s="80"/>
+      <c r="AN58" s="80"/>
+      <c r="AO58" s="80"/>
+      <c r="AP58" s="81"/>
     </row>
     <row r="59" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="37" t="s">
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="36"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="41"/>
       <c r="R59" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S59" s="66" t="s">
+      <c r="S59" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="T59" s="67"/>
-      <c r="U59" s="67"/>
-      <c r="V59" s="68"/>
-      <c r="W59" s="19" t="s">
+      <c r="T59" s="51"/>
+      <c r="U59" s="51"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="X59" s="20"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="69" t="s">
+      <c r="X59" s="86"/>
+      <c r="Y59" s="87"/>
+      <c r="Z59" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AA59" s="67"/>
-      <c r="AB59" s="67"/>
-      <c r="AC59" s="67"/>
-      <c r="AD59" s="67"/>
-      <c r="AE59" s="67"/>
-      <c r="AF59" s="67"/>
-      <c r="AG59" s="67"/>
-      <c r="AH59" s="67"/>
-      <c r="AI59" s="67"/>
-      <c r="AJ59" s="68"/>
-      <c r="AK59" s="66" t="s">
+      <c r="AA59" s="51"/>
+      <c r="AB59" s="51"/>
+      <c r="AC59" s="51"/>
+      <c r="AD59" s="51"/>
+      <c r="AE59" s="51"/>
+      <c r="AF59" s="51"/>
+      <c r="AG59" s="51"/>
+      <c r="AH59" s="51"/>
+      <c r="AI59" s="51"/>
+      <c r="AJ59" s="52"/>
+      <c r="AK59" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AL59" s="67"/>
-      <c r="AM59" s="67"/>
-      <c r="AN59" s="67"/>
-      <c r="AO59" s="67"/>
-      <c r="AP59" s="70"/>
+      <c r="AL59" s="51"/>
+      <c r="AM59" s="51"/>
+      <c r="AN59" s="51"/>
+      <c r="AO59" s="51"/>
+      <c r="AP59" s="72"/>
     </row>
     <row r="60" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="38" t="s">
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="40"/>
-      <c r="R60" s="80">
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="48"/>
+      <c r="R60" s="8">
         <v>1</v>
       </c>
-      <c r="S60" s="44" t="s">
+      <c r="S60" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="T60" s="45"/>
-      <c r="U60" s="45"/>
-      <c r="V60" s="46"/>
-      <c r="W60" s="84" t="s">
+      <c r="T60" s="55"/>
+      <c r="U60" s="55"/>
+      <c r="V60" s="56"/>
+      <c r="W60" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="X60" s="43"/>
-      <c r="Y60" s="81"/>
-      <c r="Z60" s="44" t="s">
+      <c r="X60" s="89"/>
+      <c r="Y60" s="90"/>
+      <c r="Z60" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="AA60" s="45"/>
-      <c r="AB60" s="45"/>
-      <c r="AC60" s="45"/>
-      <c r="AD60" s="45"/>
-      <c r="AE60" s="45"/>
-      <c r="AF60" s="45"/>
-      <c r="AG60" s="45"/>
-      <c r="AH60" s="45"/>
-      <c r="AI60" s="45"/>
-      <c r="AJ60" s="46"/>
-      <c r="AK60" s="87" t="s">
+      <c r="AA60" s="55"/>
+      <c r="AB60" s="55"/>
+      <c r="AC60" s="55"/>
+      <c r="AD60" s="55"/>
+      <c r="AE60" s="55"/>
+      <c r="AF60" s="55"/>
+      <c r="AG60" s="55"/>
+      <c r="AH60" s="55"/>
+      <c r="AI60" s="55"/>
+      <c r="AJ60" s="56"/>
+      <c r="AK60" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="AL60" s="71"/>
-      <c r="AM60" s="71"/>
-      <c r="AN60" s="71"/>
-      <c r="AO60" s="71"/>
-      <c r="AP60" s="72"/>
+      <c r="AL60" s="74"/>
+      <c r="AM60" s="74"/>
+      <c r="AN60" s="74"/>
+      <c r="AO60" s="74"/>
+      <c r="AP60" s="75"/>
     </row>
     <row r="61" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="29" t="s">
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="14"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="11"/>
       <c r="R61" s="4">
         <v>2</v>
       </c>
-      <c r="S61" s="41" t="s">
+      <c r="S61" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="T61" s="42"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="48"/>
-      <c r="W61" s="76" t="s">
+      <c r="T61" s="58"/>
+      <c r="U61" s="58"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="X61" s="47"/>
-      <c r="Y61" s="78"/>
-      <c r="Z61" s="41" t="s">
+      <c r="X61" s="27"/>
+      <c r="Y61" s="28"/>
+      <c r="Z61" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="AA61" s="42"/>
-      <c r="AB61" s="42"/>
-      <c r="AC61" s="42"/>
-      <c r="AD61" s="42"/>
-      <c r="AE61" s="42"/>
-      <c r="AF61" s="42"/>
-      <c r="AG61" s="42"/>
-      <c r="AH61" s="42"/>
-      <c r="AI61" s="42"/>
-      <c r="AJ61" s="48"/>
-      <c r="AK61" s="30" t="s">
+      <c r="AA61" s="58"/>
+      <c r="AB61" s="58"/>
+      <c r="AC61" s="58"/>
+      <c r="AD61" s="58"/>
+      <c r="AE61" s="58"/>
+      <c r="AF61" s="58"/>
+      <c r="AG61" s="58"/>
+      <c r="AH61" s="58"/>
+      <c r="AI61" s="58"/>
+      <c r="AJ61" s="59"/>
+      <c r="AK61" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AL61" s="13"/>
-      <c r="AM61" s="13"/>
-      <c r="AN61" s="13"/>
-      <c r="AO61" s="13"/>
-      <c r="AP61" s="14"/>
+      <c r="AL61" s="10"/>
+      <c r="AM61" s="10"/>
+      <c r="AN61" s="10"/>
+      <c r="AO61" s="10"/>
+      <c r="AP61" s="11"/>
     </row>
     <row r="62" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="29" t="s">
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="14"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="11"/>
       <c r="R62" s="4">
         <v>3</v>
       </c>
-      <c r="S62" s="41" t="s">
+      <c r="S62" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="T62" s="42"/>
-      <c r="U62" s="42"/>
-      <c r="V62" s="48"/>
-      <c r="W62" s="76" t="s">
+      <c r="T62" s="58"/>
+      <c r="U62" s="58"/>
+      <c r="V62" s="59"/>
+      <c r="W62" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="X62" s="47"/>
-      <c r="Y62" s="78"/>
-      <c r="Z62" s="41" t="s">
+      <c r="X62" s="27"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AA62" s="42"/>
-      <c r="AB62" s="42"/>
-      <c r="AC62" s="42"/>
-      <c r="AD62" s="42"/>
-      <c r="AE62" s="42"/>
-      <c r="AF62" s="42"/>
-      <c r="AG62" s="42"/>
-      <c r="AH62" s="42"/>
-      <c r="AI62" s="42"/>
-      <c r="AJ62" s="48"/>
-      <c r="AK62" s="30"/>
-      <c r="AL62" s="13"/>
-      <c r="AM62" s="13"/>
-      <c r="AN62" s="13"/>
-      <c r="AO62" s="13"/>
-      <c r="AP62" s="14"/>
+      <c r="AA62" s="58"/>
+      <c r="AB62" s="58"/>
+      <c r="AC62" s="58"/>
+      <c r="AD62" s="58"/>
+      <c r="AE62" s="58"/>
+      <c r="AF62" s="58"/>
+      <c r="AG62" s="58"/>
+      <c r="AH62" s="58"/>
+      <c r="AI62" s="58"/>
+      <c r="AJ62" s="59"/>
+      <c r="AK62" s="9"/>
+      <c r="AL62" s="10"/>
+      <c r="AM62" s="10"/>
+      <c r="AN62" s="10"/>
+      <c r="AO62" s="10"/>
+      <c r="AP62" s="11"/>
     </row>
     <row r="63" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="14"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="11"/>
       <c r="R63" s="4">
         <v>4</v>
       </c>
-      <c r="S63" s="89" t="s">
+      <c r="S63" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="T63" s="73"/>
-      <c r="U63" s="73"/>
-      <c r="V63" s="90"/>
-      <c r="W63" s="76" t="s">
+      <c r="T63" s="61"/>
+      <c r="U63" s="61"/>
+      <c r="V63" s="62"/>
+      <c r="W63" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="X63" s="47"/>
-      <c r="Y63" s="78"/>
-      <c r="Z63" s="41" t="s">
+      <c r="X63" s="27"/>
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="AA63" s="42"/>
-      <c r="AB63" s="42"/>
-      <c r="AC63" s="42"/>
-      <c r="AD63" s="42"/>
-      <c r="AE63" s="42"/>
-      <c r="AF63" s="42"/>
-      <c r="AG63" s="42"/>
-      <c r="AH63" s="42"/>
-      <c r="AI63" s="42"/>
-      <c r="AJ63" s="48"/>
-      <c r="AK63" s="30"/>
-      <c r="AL63" s="13"/>
-      <c r="AM63" s="13"/>
-      <c r="AN63" s="13"/>
-      <c r="AO63" s="13"/>
-      <c r="AP63" s="14"/>
+      <c r="AA63" s="58"/>
+      <c r="AB63" s="58"/>
+      <c r="AC63" s="58"/>
+      <c r="AD63" s="58"/>
+      <c r="AE63" s="58"/>
+      <c r="AF63" s="58"/>
+      <c r="AG63" s="58"/>
+      <c r="AH63" s="58"/>
+      <c r="AI63" s="58"/>
+      <c r="AJ63" s="59"/>
+      <c r="AK63" s="9"/>
+      <c r="AL63" s="10"/>
+      <c r="AM63" s="10"/>
+      <c r="AN63" s="10"/>
+      <c r="AO63" s="10"/>
+      <c r="AP63" s="11"/>
     </row>
     <row r="64" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="15"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="17"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="21"/>
       <c r="R64" s="4">
         <v>5</v>
       </c>
-      <c r="S64" s="49" t="s">
+      <c r="S64" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="T64" s="50"/>
-      <c r="U64" s="50"/>
-      <c r="V64" s="52"/>
-      <c r="W64" s="76" t="s">
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="X64" s="47"/>
-      <c r="Y64" s="78"/>
-      <c r="Z64" s="51" t="s">
+      <c r="X64" s="27"/>
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AA64" s="50"/>
-      <c r="AB64" s="50"/>
-      <c r="AC64" s="50"/>
-      <c r="AD64" s="50"/>
-      <c r="AE64" s="50"/>
-      <c r="AF64" s="50"/>
-      <c r="AG64" s="50"/>
-      <c r="AH64" s="50"/>
-      <c r="AI64" s="50"/>
-      <c r="AJ64" s="52"/>
-      <c r="AK64" s="30"/>
-      <c r="AL64" s="13"/>
-      <c r="AM64" s="13"/>
-      <c r="AN64" s="13"/>
-      <c r="AO64" s="13"/>
-      <c r="AP64" s="14"/>
+      <c r="AA64" s="24"/>
+      <c r="AB64" s="24"/>
+      <c r="AC64" s="24"/>
+      <c r="AD64" s="24"/>
+      <c r="AE64" s="24"/>
+      <c r="AF64" s="24"/>
+      <c r="AG64" s="24"/>
+      <c r="AH64" s="24"/>
+      <c r="AI64" s="24"/>
+      <c r="AJ64" s="25"/>
+      <c r="AK64" s="9"/>
+      <c r="AL64" s="10"/>
+      <c r="AM64" s="10"/>
+      <c r="AN64" s="10"/>
+      <c r="AO64" s="10"/>
+      <c r="AP64" s="11"/>
     </row>
     <row r="65" spans="2:42" x14ac:dyDescent="0.25">
       <c r="R65" s="4">
         <v>6</v>
       </c>
-      <c r="S65" s="49" t="s">
+      <c r="S65" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="T65" s="50"/>
-      <c r="U65" s="50"/>
-      <c r="V65" s="52"/>
-      <c r="W65" s="76" t="s">
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="25"/>
+      <c r="W65" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="X65" s="47"/>
-      <c r="Y65" s="78"/>
-      <c r="Z65" s="51" t="s">
+      <c r="X65" s="27"/>
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="AA65" s="50"/>
-      <c r="AB65" s="50"/>
-      <c r="AC65" s="50"/>
-      <c r="AD65" s="50"/>
-      <c r="AE65" s="50"/>
-      <c r="AF65" s="50"/>
-      <c r="AG65" s="50"/>
-      <c r="AH65" s="50"/>
-      <c r="AI65" s="50"/>
-      <c r="AJ65" s="52"/>
-      <c r="AK65" s="30"/>
-      <c r="AL65" s="13"/>
-      <c r="AM65" s="13"/>
-      <c r="AN65" s="13"/>
-      <c r="AO65" s="13"/>
-      <c r="AP65" s="14"/>
+      <c r="AA65" s="24"/>
+      <c r="AB65" s="24"/>
+      <c r="AC65" s="24"/>
+      <c r="AD65" s="24"/>
+      <c r="AE65" s="24"/>
+      <c r="AF65" s="24"/>
+      <c r="AG65" s="24"/>
+      <c r="AH65" s="24"/>
+      <c r="AI65" s="24"/>
+      <c r="AJ65" s="25"/>
+      <c r="AK65" s="9"/>
+      <c r="AL65" s="10"/>
+      <c r="AM65" s="10"/>
+      <c r="AN65" s="10"/>
+      <c r="AO65" s="10"/>
+      <c r="AP65" s="11"/>
     </row>
     <row r="66" spans="2:42" x14ac:dyDescent="0.25">
       <c r="R66" s="4">
         <v>7</v>
       </c>
-      <c r="S66" s="49" t="s">
+      <c r="S66" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="T66" s="50"/>
-      <c r="U66" s="50"/>
-      <c r="V66" s="52"/>
-      <c r="W66" s="76" t="s">
+      <c r="T66" s="92"/>
+      <c r="U66" s="92"/>
+      <c r="V66" s="93"/>
+      <c r="W66" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="X66" s="47"/>
-      <c r="Y66" s="78"/>
-      <c r="Z66" s="51" t="s">
+      <c r="X66" s="27"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AA66" s="50"/>
-      <c r="AB66" s="50"/>
-      <c r="AC66" s="50"/>
-      <c r="AD66" s="50"/>
-      <c r="AE66" s="50"/>
-      <c r="AF66" s="50"/>
-      <c r="AG66" s="50"/>
-      <c r="AH66" s="50"/>
-      <c r="AI66" s="50"/>
-      <c r="AJ66" s="52"/>
-      <c r="AK66" s="30"/>
-      <c r="AL66" s="13"/>
-      <c r="AM66" s="13"/>
-      <c r="AN66" s="13"/>
-      <c r="AO66" s="13"/>
-      <c r="AP66" s="14"/>
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="24"/>
+      <c r="AE66" s="24"/>
+      <c r="AF66" s="24"/>
+      <c r="AG66" s="24"/>
+      <c r="AH66" s="24"/>
+      <c r="AI66" s="24"/>
+      <c r="AJ66" s="25"/>
+      <c r="AK66" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL66" s="10"/>
+      <c r="AM66" s="10"/>
+      <c r="AN66" s="10"/>
+      <c r="AO66" s="10"/>
+      <c r="AP66" s="11"/>
     </row>
     <row r="67" spans="2:42" x14ac:dyDescent="0.25">
       <c r="R67" s="4">
         <v>8</v>
       </c>
-      <c r="S67" s="49" t="s">
+      <c r="S67" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="T67" s="50"/>
-      <c r="U67" s="50"/>
-      <c r="V67" s="52"/>
-      <c r="W67" s="76" t="s">
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="25"/>
+      <c r="W67" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="X67" s="47"/>
-      <c r="Y67" s="78"/>
-      <c r="Z67" s="51" t="s">
+      <c r="X67" s="27"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AA67" s="50"/>
-      <c r="AB67" s="50"/>
-      <c r="AC67" s="50"/>
-      <c r="AD67" s="50"/>
-      <c r="AE67" s="50"/>
-      <c r="AF67" s="50"/>
-      <c r="AG67" s="50"/>
-      <c r="AH67" s="50"/>
-      <c r="AI67" s="50"/>
-      <c r="AJ67" s="52"/>
-      <c r="AK67" s="30"/>
-      <c r="AL67" s="13"/>
-      <c r="AM67" s="13"/>
-      <c r="AN67" s="13"/>
-      <c r="AO67" s="13"/>
-      <c r="AP67" s="14"/>
+      <c r="AA67" s="24"/>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="24"/>
+      <c r="AH67" s="24"/>
+      <c r="AI67" s="24"/>
+      <c r="AJ67" s="25"/>
+      <c r="AK67" s="9"/>
+      <c r="AL67" s="10"/>
+      <c r="AM67" s="10"/>
+      <c r="AN67" s="10"/>
+      <c r="AO67" s="10"/>
+      <c r="AP67" s="11"/>
     </row>
     <row r="68" spans="2:42" x14ac:dyDescent="0.25">
       <c r="R68" s="4">
         <v>9</v>
       </c>
-      <c r="S68" s="49" t="s">
+      <c r="S68" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="T68" s="50"/>
-      <c r="U68" s="50"/>
-      <c r="V68" s="52"/>
-      <c r="W68" s="76" t="s">
+      <c r="T68" s="24"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="25"/>
+      <c r="W68" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="X68" s="47"/>
-      <c r="Y68" s="78"/>
-      <c r="Z68" s="51" t="s">
+      <c r="X68" s="27"/>
+      <c r="Y68" s="28"/>
+      <c r="Z68" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AA68" s="50"/>
-      <c r="AB68" s="50"/>
-      <c r="AC68" s="50"/>
-      <c r="AD68" s="50"/>
-      <c r="AE68" s="50"/>
-      <c r="AF68" s="50"/>
-      <c r="AG68" s="50"/>
-      <c r="AH68" s="50"/>
-      <c r="AI68" s="50"/>
-      <c r="AJ68" s="52"/>
-      <c r="AK68" s="30"/>
-      <c r="AL68" s="13"/>
-      <c r="AM68" s="13"/>
-      <c r="AN68" s="13"/>
-      <c r="AO68" s="13"/>
-      <c r="AP68" s="14"/>
+      <c r="AA68" s="24"/>
+      <c r="AB68" s="24"/>
+      <c r="AC68" s="24"/>
+      <c r="AD68" s="24"/>
+      <c r="AE68" s="24"/>
+      <c r="AF68" s="24"/>
+      <c r="AG68" s="24"/>
+      <c r="AH68" s="24"/>
+      <c r="AI68" s="24"/>
+      <c r="AJ68" s="25"/>
+      <c r="AK68" s="9"/>
+      <c r="AL68" s="10"/>
+      <c r="AM68" s="10"/>
+      <c r="AN68" s="10"/>
+      <c r="AO68" s="10"/>
+      <c r="AP68" s="11"/>
     </row>
     <row r="69" spans="2:42" x14ac:dyDescent="0.25">
       <c r="R69" s="4">
         <v>10</v>
       </c>
-      <c r="S69" s="49" t="s">
+      <c r="S69" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="T69" s="50"/>
-      <c r="U69" s="50"/>
-      <c r="V69" s="52"/>
-      <c r="W69" s="76" t="s">
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="X69" s="47"/>
-      <c r="Y69" s="78"/>
-      <c r="Z69" s="51" t="s">
+      <c r="X69" s="27"/>
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA69" s="50"/>
-      <c r="AB69" s="50"/>
-      <c r="AC69" s="50"/>
-      <c r="AD69" s="50"/>
-      <c r="AE69" s="50"/>
-      <c r="AF69" s="50"/>
-      <c r="AG69" s="50"/>
-      <c r="AH69" s="50"/>
-      <c r="AI69" s="50"/>
-      <c r="AJ69" s="52"/>
-      <c r="AK69" s="30"/>
-      <c r="AL69" s="13"/>
-      <c r="AM69" s="13"/>
-      <c r="AN69" s="13"/>
-      <c r="AO69" s="13"/>
-      <c r="AP69" s="14"/>
+      <c r="AA69" s="24"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="24"/>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="24"/>
+      <c r="AG69" s="24"/>
+      <c r="AH69" s="24"/>
+      <c r="AI69" s="24"/>
+      <c r="AJ69" s="25"/>
+      <c r="AK69" s="9"/>
+      <c r="AL69" s="10"/>
+      <c r="AM69" s="10"/>
+      <c r="AN69" s="10"/>
+      <c r="AO69" s="10"/>
+      <c r="AP69" s="11"/>
     </row>
     <row r="70" spans="2:42" x14ac:dyDescent="0.25">
       <c r="R70" s="4">
         <v>11</v>
       </c>
-      <c r="S70" s="49" t="s">
+      <c r="S70" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="T70" s="50"/>
-      <c r="U70" s="50"/>
-      <c r="V70" s="52"/>
-      <c r="W70" s="76" t="s">
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="25"/>
+      <c r="W70" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="X70" s="47"/>
-      <c r="Y70" s="78"/>
-      <c r="Z70" s="51" t="s">
+      <c r="X70" s="27"/>
+      <c r="Y70" s="28"/>
+      <c r="Z70" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AA70" s="50"/>
-      <c r="AB70" s="50"/>
-      <c r="AC70" s="50"/>
-      <c r="AD70" s="50"/>
-      <c r="AE70" s="50"/>
-      <c r="AF70" s="50"/>
-      <c r="AG70" s="50"/>
-      <c r="AH70" s="50"/>
-      <c r="AI70" s="50"/>
-      <c r="AJ70" s="52"/>
-      <c r="AK70" s="30"/>
-      <c r="AL70" s="13"/>
-      <c r="AM70" s="13"/>
-      <c r="AN70" s="13"/>
-      <c r="AO70" s="13"/>
-      <c r="AP70" s="14"/>
+      <c r="AA70" s="24"/>
+      <c r="AB70" s="24"/>
+      <c r="AC70" s="24"/>
+      <c r="AD70" s="24"/>
+      <c r="AE70" s="24"/>
+      <c r="AF70" s="24"/>
+      <c r="AG70" s="24"/>
+      <c r="AH70" s="24"/>
+      <c r="AI70" s="24"/>
+      <c r="AJ70" s="25"/>
+      <c r="AK70" s="9"/>
+      <c r="AL70" s="10"/>
+      <c r="AM70" s="10"/>
+      <c r="AN70" s="10"/>
+      <c r="AO70" s="10"/>
+      <c r="AP70" s="11"/>
     </row>
     <row r="71" spans="2:42" x14ac:dyDescent="0.25">
       <c r="R71" s="4">
         <v>12</v>
       </c>
-      <c r="S71" s="49" t="s">
+      <c r="S71" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="T71" s="50"/>
-      <c r="U71" s="50"/>
-      <c r="V71" s="52"/>
-      <c r="W71" s="76" t="s">
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="X71" s="47"/>
-      <c r="Y71" s="78"/>
-      <c r="Z71" s="51" t="s">
+      <c r="X71" s="27"/>
+      <c r="Y71" s="28"/>
+      <c r="Z71" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="AA71" s="50"/>
-      <c r="AB71" s="50"/>
-      <c r="AC71" s="50"/>
-      <c r="AD71" s="50"/>
-      <c r="AE71" s="50"/>
-      <c r="AF71" s="50"/>
-      <c r="AG71" s="50"/>
-      <c r="AH71" s="50"/>
-      <c r="AI71" s="50"/>
-      <c r="AJ71" s="52"/>
-      <c r="AK71" s="30"/>
-      <c r="AL71" s="13"/>
-      <c r="AM71" s="13"/>
-      <c r="AN71" s="13"/>
-      <c r="AO71" s="13"/>
-      <c r="AP71" s="14"/>
+      <c r="AA71" s="24"/>
+      <c r="AB71" s="24"/>
+      <c r="AC71" s="24"/>
+      <c r="AD71" s="24"/>
+      <c r="AE71" s="24"/>
+      <c r="AF71" s="24"/>
+      <c r="AG71" s="24"/>
+      <c r="AH71" s="24"/>
+      <c r="AI71" s="24"/>
+      <c r="AJ71" s="25"/>
+      <c r="AK71" s="9"/>
+      <c r="AL71" s="10"/>
+      <c r="AM71" s="10"/>
+      <c r="AN71" s="10"/>
+      <c r="AO71" s="10"/>
+      <c r="AP71" s="11"/>
     </row>
     <row r="72" spans="2:42" x14ac:dyDescent="0.25">
       <c r="R72" s="4">
         <v>13</v>
       </c>
-      <c r="S72" s="49" t="s">
+      <c r="S72" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="T72" s="50"/>
-      <c r="U72" s="50"/>
-      <c r="V72" s="52"/>
-      <c r="W72" s="85" t="s">
+      <c r="T72" s="24"/>
+      <c r="U72" s="24"/>
+      <c r="V72" s="25"/>
+      <c r="W72" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="X72" s="57"/>
-      <c r="Y72" s="82"/>
-      <c r="Z72" s="51" t="s">
+      <c r="X72" s="77"/>
+      <c r="Y72" s="78"/>
+      <c r="Z72" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="AA72" s="50"/>
-      <c r="AB72" s="50"/>
-      <c r="AC72" s="50"/>
-      <c r="AD72" s="50"/>
-      <c r="AE72" s="50"/>
-      <c r="AF72" s="50"/>
-      <c r="AG72" s="50"/>
-      <c r="AH72" s="50"/>
-      <c r="AI72" s="50"/>
-      <c r="AJ72" s="52"/>
-      <c r="AK72" s="30"/>
-      <c r="AL72" s="13"/>
-      <c r="AM72" s="13"/>
-      <c r="AN72" s="13"/>
-      <c r="AO72" s="13"/>
-      <c r="AP72" s="14"/>
+      <c r="AA72" s="24"/>
+      <c r="AB72" s="24"/>
+      <c r="AC72" s="24"/>
+      <c r="AD72" s="24"/>
+      <c r="AE72" s="24"/>
+      <c r="AF72" s="24"/>
+      <c r="AG72" s="24"/>
+      <c r="AH72" s="24"/>
+      <c r="AI72" s="24"/>
+      <c r="AJ72" s="25"/>
+      <c r="AK72" s="9"/>
+      <c r="AL72" s="10"/>
+      <c r="AM72" s="10"/>
+      <c r="AN72" s="10"/>
+      <c r="AO72" s="10"/>
+      <c r="AP72" s="11"/>
     </row>
     <row r="73" spans="2:42" x14ac:dyDescent="0.25">
       <c r="R73" s="4">
         <v>14</v>
       </c>
-      <c r="S73" s="49" t="s">
+      <c r="S73" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="T73" s="50"/>
-      <c r="U73" s="50"/>
-      <c r="V73" s="52"/>
-      <c r="W73" s="76" t="s">
+      <c r="T73" s="24"/>
+      <c r="U73" s="24"/>
+      <c r="V73" s="25"/>
+      <c r="W73" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="X73" s="47"/>
-      <c r="Y73" s="78"/>
-      <c r="Z73" s="51" t="s">
+      <c r="X73" s="27"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="AA73" s="50"/>
-      <c r="AB73" s="50"/>
-      <c r="AC73" s="50"/>
-      <c r="AD73" s="50"/>
-      <c r="AE73" s="50"/>
-      <c r="AF73" s="50"/>
-      <c r="AG73" s="50"/>
-      <c r="AH73" s="50"/>
-      <c r="AI73" s="50"/>
-      <c r="AJ73" s="52"/>
-      <c r="AK73" s="30"/>
-      <c r="AL73" s="13"/>
-      <c r="AM73" s="13"/>
-      <c r="AN73" s="13"/>
-      <c r="AO73" s="13"/>
-      <c r="AP73" s="14"/>
+      <c r="AA73" s="24"/>
+      <c r="AB73" s="24"/>
+      <c r="AC73" s="24"/>
+      <c r="AD73" s="24"/>
+      <c r="AE73" s="24"/>
+      <c r="AF73" s="24"/>
+      <c r="AG73" s="24"/>
+      <c r="AH73" s="24"/>
+      <c r="AI73" s="24"/>
+      <c r="AJ73" s="25"/>
+      <c r="AK73" s="9"/>
+      <c r="AL73" s="10"/>
+      <c r="AM73" s="10"/>
+      <c r="AN73" s="10"/>
+      <c r="AO73" s="10"/>
+      <c r="AP73" s="11"/>
     </row>
     <row r="74" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="F74" s="18" t="s">
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="F74" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
       <c r="R74" s="4">
         <v>15</v>
       </c>
-      <c r="S74" s="49" t="s">
+      <c r="S74" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="T74" s="50"/>
-      <c r="U74" s="50"/>
-      <c r="V74" s="52"/>
-      <c r="W74" s="76" t="s">
+      <c r="T74" s="24"/>
+      <c r="U74" s="24"/>
+      <c r="V74" s="25"/>
+      <c r="W74" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="X74" s="47"/>
-      <c r="Y74" s="78"/>
-      <c r="Z74" s="51" t="s">
+      <c r="X74" s="27"/>
+      <c r="Y74" s="28"/>
+      <c r="Z74" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="AA74" s="50"/>
-      <c r="AB74" s="50"/>
-      <c r="AC74" s="50"/>
-      <c r="AD74" s="50"/>
-      <c r="AE74" s="50"/>
-      <c r="AF74" s="50"/>
-      <c r="AG74" s="50"/>
-      <c r="AH74" s="50"/>
-      <c r="AI74" s="50"/>
-      <c r="AJ74" s="52"/>
-      <c r="AK74" s="30"/>
-      <c r="AL74" s="13"/>
-      <c r="AM74" s="13"/>
-      <c r="AN74" s="13"/>
-      <c r="AO74" s="13"/>
-      <c r="AP74" s="14"/>
+      <c r="AA74" s="24"/>
+      <c r="AB74" s="24"/>
+      <c r="AC74" s="24"/>
+      <c r="AD74" s="24"/>
+      <c r="AE74" s="24"/>
+      <c r="AF74" s="24"/>
+      <c r="AG74" s="24"/>
+      <c r="AH74" s="24"/>
+      <c r="AI74" s="24"/>
+      <c r="AJ74" s="25"/>
+      <c r="AK74" s="9"/>
+      <c r="AL74" s="10"/>
+      <c r="AM74" s="10"/>
+      <c r="AN74" s="10"/>
+      <c r="AO74" s="10"/>
+      <c r="AP74" s="11"/>
     </row>
     <row r="75" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
       <c r="R75" s="4">
         <v>16</v>
       </c>
-      <c r="S75" s="49" t="s">
+      <c r="S75" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="T75" s="50"/>
-      <c r="U75" s="50"/>
-      <c r="V75" s="52"/>
-      <c r="W75" s="76" t="s">
+      <c r="T75" s="24"/>
+      <c r="U75" s="24"/>
+      <c r="V75" s="25"/>
+      <c r="W75" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="X75" s="47"/>
-      <c r="Y75" s="78"/>
-      <c r="Z75" s="51" t="s">
+      <c r="X75" s="27"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="AA75" s="50"/>
-      <c r="AB75" s="50"/>
-      <c r="AC75" s="50"/>
-      <c r="AD75" s="50"/>
-      <c r="AE75" s="50"/>
-      <c r="AF75" s="50"/>
-      <c r="AG75" s="50"/>
-      <c r="AH75" s="50"/>
-      <c r="AI75" s="50"/>
-      <c r="AJ75" s="52"/>
-      <c r="AK75" s="30"/>
-      <c r="AL75" s="13"/>
-      <c r="AM75" s="13"/>
-      <c r="AN75" s="13"/>
-      <c r="AO75" s="13"/>
-      <c r="AP75" s="14"/>
+      <c r="AA75" s="24"/>
+      <c r="AB75" s="24"/>
+      <c r="AC75" s="24"/>
+      <c r="AD75" s="24"/>
+      <c r="AE75" s="24"/>
+      <c r="AF75" s="24"/>
+      <c r="AG75" s="24"/>
+      <c r="AH75" s="24"/>
+      <c r="AI75" s="24"/>
+      <c r="AJ75" s="25"/>
+      <c r="AK75" s="9"/>
+      <c r="AL75" s="10"/>
+      <c r="AM75" s="10"/>
+      <c r="AN75" s="10"/>
+      <c r="AO75" s="10"/>
+      <c r="AP75" s="11"/>
     </row>
     <row r="76" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="71"/>
       <c r="R76" s="4">
         <v>17</v>
       </c>
-      <c r="S76" s="59" t="s">
+      <c r="S76" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="T76" s="60"/>
-      <c r="U76" s="60"/>
-      <c r="V76" s="63"/>
-      <c r="W76" s="86" t="s">
+      <c r="T76" s="64"/>
+      <c r="U76" s="64"/>
+      <c r="V76" s="65"/>
+      <c r="W76" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="X76" s="61"/>
-      <c r="Y76" s="83"/>
-      <c r="Z76" s="62" t="s">
+      <c r="X76" s="68"/>
+      <c r="Y76" s="69"/>
+      <c r="Z76" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="AA76" s="60"/>
-      <c r="AB76" s="60"/>
-      <c r="AC76" s="60"/>
-      <c r="AD76" s="60"/>
-      <c r="AE76" s="60"/>
-      <c r="AF76" s="60"/>
-      <c r="AG76" s="60"/>
-      <c r="AH76" s="60"/>
-      <c r="AI76" s="60"/>
-      <c r="AJ76" s="63"/>
-      <c r="AK76" s="88"/>
-      <c r="AL76" s="64"/>
-      <c r="AM76" s="64"/>
-      <c r="AN76" s="64"/>
-      <c r="AO76" s="64"/>
-      <c r="AP76" s="65"/>
+      <c r="AA76" s="64"/>
+      <c r="AB76" s="64"/>
+      <c r="AC76" s="64"/>
+      <c r="AD76" s="64"/>
+      <c r="AE76" s="64"/>
+      <c r="AF76" s="64"/>
+      <c r="AG76" s="64"/>
+      <c r="AH76" s="64"/>
+      <c r="AI76" s="64"/>
+      <c r="AJ76" s="65"/>
+      <c r="AK76" s="82"/>
+      <c r="AL76" s="83"/>
+      <c r="AM76" s="83"/>
+      <c r="AN76" s="83"/>
+      <c r="AO76" s="83"/>
+      <c r="AP76" s="84"/>
     </row>
     <row r="77" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R77" s="74">
+      <c r="R77" s="6">
         <v>18</v>
       </c>
-      <c r="S77" s="49" t="s">
+      <c r="S77" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="T77" s="50"/>
-      <c r="U77" s="50"/>
-      <c r="V77" s="52"/>
-      <c r="W77" s="76" t="s">
+      <c r="T77" s="24"/>
+      <c r="U77" s="24"/>
+      <c r="V77" s="25"/>
+      <c r="W77" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="X77" s="47"/>
-      <c r="Y77" s="78"/>
-      <c r="Z77" s="51" t="s">
+      <c r="X77" s="27"/>
+      <c r="Y77" s="28"/>
+      <c r="Z77" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="AA77" s="50"/>
-      <c r="AB77" s="50"/>
-      <c r="AC77" s="50"/>
-      <c r="AD77" s="50"/>
-      <c r="AE77" s="50"/>
-      <c r="AF77" s="50"/>
-      <c r="AG77" s="50"/>
-      <c r="AH77" s="50"/>
-      <c r="AI77" s="50"/>
-      <c r="AJ77" s="52"/>
-      <c r="AK77" s="30"/>
-      <c r="AL77" s="13"/>
-      <c r="AM77" s="13"/>
-      <c r="AN77" s="13"/>
-      <c r="AO77" s="13"/>
-      <c r="AP77" s="14"/>
+      <c r="AA77" s="24"/>
+      <c r="AB77" s="24"/>
+      <c r="AC77" s="24"/>
+      <c r="AD77" s="24"/>
+      <c r="AE77" s="24"/>
+      <c r="AF77" s="24"/>
+      <c r="AG77" s="24"/>
+      <c r="AH77" s="24"/>
+      <c r="AI77" s="24"/>
+      <c r="AJ77" s="25"/>
+      <c r="AK77" s="9"/>
+      <c r="AL77" s="10"/>
+      <c r="AM77" s="10"/>
+      <c r="AN77" s="10"/>
+      <c r="AO77" s="10"/>
+      <c r="AP77" s="11"/>
     </row>
     <row r="78" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R78" s="75">
+      <c r="R78" s="7">
         <v>19</v>
       </c>
-      <c r="S78" s="53"/>
-      <c r="T78" s="54"/>
-      <c r="U78" s="54"/>
-      <c r="V78" s="56"/>
-      <c r="W78" s="77"/>
-      <c r="X78" s="55"/>
-      <c r="Y78" s="79"/>
-      <c r="Z78" s="58"/>
-      <c r="AA78" s="54"/>
-      <c r="AB78" s="54"/>
-      <c r="AC78" s="54"/>
-      <c r="AD78" s="54"/>
-      <c r="AE78" s="54"/>
-      <c r="AF78" s="54"/>
-      <c r="AG78" s="54"/>
-      <c r="AH78" s="54"/>
-      <c r="AI78" s="54"/>
-      <c r="AJ78" s="56"/>
-      <c r="AK78" s="28"/>
-      <c r="AL78" s="16"/>
-      <c r="AM78" s="16"/>
-      <c r="AN78" s="16"/>
-      <c r="AO78" s="16"/>
-      <c r="AP78" s="17"/>
+      <c r="S78" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="14"/>
+      <c r="W78" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="X78" s="16"/>
+      <c r="Y78" s="17"/>
+      <c r="Z78" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA78" s="13"/>
+      <c r="AB78" s="13"/>
+      <c r="AC78" s="13"/>
+      <c r="AD78" s="13"/>
+      <c r="AE78" s="13"/>
+      <c r="AF78" s="13"/>
+      <c r="AG78" s="13"/>
+      <c r="AH78" s="13"/>
+      <c r="AI78" s="13"/>
+      <c r="AJ78" s="14"/>
+      <c r="AK78" s="19"/>
+      <c r="AL78" s="20"/>
+      <c r="AM78" s="20"/>
+      <c r="AN78" s="20"/>
+      <c r="AO78" s="20"/>
+      <c r="AP78" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="AK77:AP77"/>
-    <mergeCell ref="S78:V78"/>
-    <mergeCell ref="W78:Y78"/>
-    <mergeCell ref="Z78:AJ78"/>
-    <mergeCell ref="AK78:AP78"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="S77:V77"/>
-    <mergeCell ref="W77:Y77"/>
-    <mergeCell ref="Z77:AJ77"/>
-    <mergeCell ref="AQ14:AZ14"/>
-    <mergeCell ref="AQ15:AZ15"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="F62:P62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F63:P63"/>
-    <mergeCell ref="B57:P58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:P59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:P60"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:P64"/>
-    <mergeCell ref="S59:V59"/>
-    <mergeCell ref="Z59:AJ59"/>
-    <mergeCell ref="S60:V60"/>
-    <mergeCell ref="Z60:AJ60"/>
-    <mergeCell ref="S61:V61"/>
-    <mergeCell ref="Z61:AJ61"/>
-    <mergeCell ref="S62:V62"/>
-    <mergeCell ref="Z62:AJ62"/>
-    <mergeCell ref="S63:V63"/>
-    <mergeCell ref="Z63:AJ63"/>
-    <mergeCell ref="S64:V64"/>
-    <mergeCell ref="Z64:AJ64"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="F61:P61"/>
-    <mergeCell ref="S65:V65"/>
-    <mergeCell ref="Z65:AJ65"/>
-    <mergeCell ref="S66:V66"/>
-    <mergeCell ref="Z66:AJ66"/>
-    <mergeCell ref="S67:V67"/>
-    <mergeCell ref="Z67:AJ67"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="Z68:AJ68"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="Z69:AJ69"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="Z70:AJ70"/>
-    <mergeCell ref="W70:Y70"/>
-    <mergeCell ref="Z75:AJ75"/>
+    <mergeCell ref="AK75:AP75"/>
+    <mergeCell ref="AK76:AP76"/>
+    <mergeCell ref="F74:M74"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="W60:Y60"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="W62:Y62"/>
+    <mergeCell ref="W63:Y63"/>
+    <mergeCell ref="W64:Y64"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="W67:Y67"/>
+    <mergeCell ref="W68:Y68"/>
+    <mergeCell ref="W69:Y69"/>
+    <mergeCell ref="AK70:AP70"/>
+    <mergeCell ref="AK74:AP74"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="S71:V71"/>
+    <mergeCell ref="Z71:AJ71"/>
+    <mergeCell ref="S72:V72"/>
+    <mergeCell ref="Z72:AJ72"/>
+    <mergeCell ref="S73:V73"/>
+    <mergeCell ref="Z73:AJ73"/>
+    <mergeCell ref="W71:Y71"/>
+    <mergeCell ref="W72:Y72"/>
+    <mergeCell ref="W73:Y73"/>
     <mergeCell ref="S76:V76"/>
     <mergeCell ref="Z76:AJ76"/>
     <mergeCell ref="W74:Y74"/>
@@ -3215,33 +3216,61 @@
     <mergeCell ref="AK71:AP71"/>
     <mergeCell ref="AK72:AP72"/>
     <mergeCell ref="AK73:AP73"/>
-    <mergeCell ref="AK74:AP74"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="S71:V71"/>
-    <mergeCell ref="Z71:AJ71"/>
-    <mergeCell ref="S72:V72"/>
-    <mergeCell ref="Z72:AJ72"/>
-    <mergeCell ref="S73:V73"/>
-    <mergeCell ref="Z73:AJ73"/>
-    <mergeCell ref="W71:Y71"/>
-    <mergeCell ref="W72:Y72"/>
-    <mergeCell ref="W73:Y73"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:P64"/>
+    <mergeCell ref="S59:V59"/>
+    <mergeCell ref="Z59:AJ59"/>
+    <mergeCell ref="S60:V60"/>
+    <mergeCell ref="Z60:AJ60"/>
+    <mergeCell ref="S61:V61"/>
+    <mergeCell ref="Z61:AJ61"/>
+    <mergeCell ref="S62:V62"/>
+    <mergeCell ref="Z62:AJ62"/>
+    <mergeCell ref="S63:V63"/>
+    <mergeCell ref="Z63:AJ63"/>
+    <mergeCell ref="S64:V64"/>
+    <mergeCell ref="Z64:AJ64"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="F61:P61"/>
+    <mergeCell ref="AQ14:AZ14"/>
+    <mergeCell ref="AQ15:AZ15"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="F62:P62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:P63"/>
+    <mergeCell ref="B57:P58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:P59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:P60"/>
     <mergeCell ref="R57:AP58"/>
-    <mergeCell ref="AK75:AP75"/>
-    <mergeCell ref="AK76:AP76"/>
-    <mergeCell ref="F74:M74"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="W60:Y60"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="W62:Y62"/>
-    <mergeCell ref="W63:Y63"/>
-    <mergeCell ref="W64:Y64"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="W67:Y67"/>
-    <mergeCell ref="W68:Y68"/>
-    <mergeCell ref="W69:Y69"/>
-    <mergeCell ref="AK70:AP70"/>
+    <mergeCell ref="AK77:AP77"/>
+    <mergeCell ref="S78:V78"/>
+    <mergeCell ref="W78:Y78"/>
+    <mergeCell ref="Z78:AJ78"/>
+    <mergeCell ref="AK78:AP78"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="S77:V77"/>
+    <mergeCell ref="W77:Y77"/>
+    <mergeCell ref="Z77:AJ77"/>
+    <mergeCell ref="S65:V65"/>
+    <mergeCell ref="Z65:AJ65"/>
+    <mergeCell ref="S66:V66"/>
+    <mergeCell ref="Z66:AJ66"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="Z67:AJ67"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="Z68:AJ68"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="Z69:AJ69"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="Z70:AJ70"/>
+    <mergeCell ref="W70:Y70"/>
+    <mergeCell ref="Z75:AJ75"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -3266,9 +3295,10 @@
     <hyperlink ref="Z75" r:id="rId19" xr:uid="{5B6689C2-94A1-4DA1-B555-A0A3093294A7}"/>
     <hyperlink ref="Z76" r:id="rId20" xr:uid="{0D8BF253-40C3-4640-804E-9611FDAAB20A}"/>
     <hyperlink ref="Z77" r:id="rId21" xr:uid="{454C94D8-4DC6-49CD-A410-D42FAF10EB15}"/>
+    <hyperlink ref="Z78" r:id="rId22" xr:uid="{995ED0EF-32F2-4DB4-B039-4E3822903D88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
-  <drawing r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
+  <drawing r:id="rId24"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\university\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70922965-E624-4FE3-9C50-1D28B135611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B4501B-49B9-4CD7-82BC-F58B8A93493B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49E8A915-5A6F-4B3C-966A-272F8EBD50DB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
   <si>
     <t>https://belchip.by/product/?selected_product=36951</t>
   </si>
@@ -331,6 +331,18 @@
   </si>
   <si>
     <t>https://jlcpcb.com/partdetail/Walsin_TechCorp-WR20X1001FTL/C335021</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/utc_unisonic_tech-LM2940L_50_TN3R/C85225</t>
+  </si>
+  <si>
+    <t>LM2940L-50-TN3-R</t>
+  </si>
+  <si>
+    <t>входное напряжение минимальное - 7.5, при двух батареях будет 7,4</t>
+  </si>
+  <si>
+    <t>нормальное входное напряжение (6V)</t>
   </si>
 </sst>
 </file>
@@ -411,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -724,11 +736,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -740,19 +754,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -768,7 +769,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -780,78 +781,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -903,69 +839,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -977,7 +850,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -986,268 +859,177 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="27" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1928,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9202B416-C4F8-4CD1-A856-CE2988DE9FEF}">
-  <dimension ref="B1:AZ78"/>
+  <dimension ref="B1:AZ79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W78" sqref="W78:Y78"/>
+      <selection activeCell="AK80" sqref="AK80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,13 +1845,13 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="W7" s="30" t="s">
+      <c r="W7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.25">
       <c r="G8" s="3"/>
@@ -2097,11 +1879,11 @@
       </c>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="Q12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2129,18 +1911,18 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="AQ14" s="22" t="s">
+      <c r="AQ14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AR14" s="22"/>
-      <c r="AS14" s="22"/>
-      <c r="AT14" s="22"/>
-      <c r="AU14" s="22"/>
-      <c r="AV14" s="22"/>
-      <c r="AW14" s="22"/>
-      <c r="AX14" s="22"/>
-      <c r="AY14" s="22"/>
-      <c r="AZ14" s="22"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.25">
       <c r="Q15" s="1"/>
@@ -2149,18 +1931,18 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="AQ15" s="22" t="s">
+      <c r="AQ15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AR15" s="22"/>
-      <c r="AS15" s="22"/>
-      <c r="AT15" s="22"/>
-      <c r="AU15" s="22"/>
-      <c r="AV15" s="22"/>
-      <c r="AW15" s="22"/>
-      <c r="AX15" s="22"/>
-      <c r="AY15" s="22"/>
-      <c r="AZ15" s="22"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="8"/>
+      <c r="AX15" s="8"/>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="8"/>
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.25">
       <c r="Q16" s="1"/>
@@ -2182,13 +1964,13 @@
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="P41" s="22" t="s">
+      <c r="P41" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
       <c r="U41" t="s">
         <v>15</v>
       </c>
@@ -2200,23 +1982,23 @@
       <c r="J42" t="s">
         <v>25</v>
       </c>
-      <c r="P42" s="22" t="s">
+      <c r="P42" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
       <c r="U42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -2299,31 +2081,31 @@
       <c r="N58" s="37"/>
       <c r="O58" s="37"/>
       <c r="P58" s="38"/>
-      <c r="R58" s="79"/>
-      <c r="S58" s="80"/>
-      <c r="T58" s="80"/>
-      <c r="U58" s="80"/>
-      <c r="V58" s="80"/>
-      <c r="W58" s="80"/>
-      <c r="X58" s="80"/>
-      <c r="Y58" s="80"/>
-      <c r="Z58" s="80"/>
-      <c r="AA58" s="80"/>
-      <c r="AB58" s="80"/>
-      <c r="AC58" s="80"/>
-      <c r="AD58" s="80"/>
-      <c r="AE58" s="80"/>
-      <c r="AF58" s="80"/>
-      <c r="AG58" s="80"/>
-      <c r="AH58" s="80"/>
-      <c r="AI58" s="80"/>
-      <c r="AJ58" s="80"/>
-      <c r="AK58" s="80"/>
-      <c r="AL58" s="80"/>
-      <c r="AM58" s="80"/>
-      <c r="AN58" s="80"/>
-      <c r="AO58" s="80"/>
-      <c r="AP58" s="81"/>
+      <c r="R58" s="49"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="50"/>
+      <c r="U58" s="50"/>
+      <c r="V58" s="50"/>
+      <c r="W58" s="50"/>
+      <c r="X58" s="50"/>
+      <c r="Y58" s="50"/>
+      <c r="Z58" s="50"/>
+      <c r="AA58" s="50"/>
+      <c r="AB58" s="50"/>
+      <c r="AC58" s="50"/>
+      <c r="AD58" s="50"/>
+      <c r="AE58" s="50"/>
+      <c r="AF58" s="50"/>
+      <c r="AG58" s="50"/>
+      <c r="AH58" s="50"/>
+      <c r="AI58" s="50"/>
+      <c r="AJ58" s="50"/>
+      <c r="AK58" s="50"/>
+      <c r="AL58" s="50"/>
+      <c r="AM58" s="50"/>
+      <c r="AN58" s="50"/>
+      <c r="AO58" s="50"/>
+      <c r="AP58" s="51"/>
     </row>
     <row r="59" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="39" t="s">
@@ -2345,41 +2127,41 @@
       <c r="N59" s="40"/>
       <c r="O59" s="40"/>
       <c r="P59" s="41"/>
-      <c r="R59" s="5" t="s">
+      <c r="R59" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S59" s="50" t="s">
+      <c r="S59" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="T59" s="51"/>
-      <c r="U59" s="51"/>
-      <c r="V59" s="52"/>
-      <c r="W59" s="85" t="s">
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="X59" s="86"/>
-      <c r="Y59" s="87"/>
-      <c r="Z59" s="53" t="s">
+      <c r="X59" s="10"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AA59" s="51"/>
-      <c r="AB59" s="51"/>
-      <c r="AC59" s="51"/>
-      <c r="AD59" s="51"/>
-      <c r="AE59" s="51"/>
-      <c r="AF59" s="51"/>
-      <c r="AG59" s="51"/>
-      <c r="AH59" s="51"/>
-      <c r="AI59" s="51"/>
-      <c r="AJ59" s="52"/>
-      <c r="AK59" s="50" t="s">
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19"/>
+      <c r="AF59" s="19"/>
+      <c r="AG59" s="19"/>
+      <c r="AH59" s="19"/>
+      <c r="AI59" s="19"/>
+      <c r="AJ59" s="27"/>
+      <c r="AK59" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AL59" s="51"/>
-      <c r="AM59" s="51"/>
-      <c r="AN59" s="51"/>
-      <c r="AO59" s="51"/>
-      <c r="AP59" s="72"/>
+      <c r="AL59" s="19"/>
+      <c r="AM59" s="19"/>
+      <c r="AN59" s="19"/>
+      <c r="AO59" s="19"/>
+      <c r="AP59" s="20"/>
     </row>
     <row r="60" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B60" s="43" t="s">
@@ -2401,802 +2183,860 @@
       <c r="N60" s="47"/>
       <c r="O60" s="47"/>
       <c r="P60" s="48"/>
-      <c r="R60" s="8">
+      <c r="R60" s="58">
         <v>1</v>
       </c>
-      <c r="S60" s="54" t="s">
+      <c r="S60" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="T60" s="55"/>
-      <c r="U60" s="55"/>
-      <c r="V60" s="56"/>
-      <c r="W60" s="88" t="s">
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="X60" s="89"/>
-      <c r="Y60" s="90"/>
-      <c r="Z60" s="54" t="s">
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AA60" s="55"/>
-      <c r="AB60" s="55"/>
-      <c r="AC60" s="55"/>
-      <c r="AD60" s="55"/>
-      <c r="AE60" s="55"/>
-      <c r="AF60" s="55"/>
-      <c r="AG60" s="55"/>
-      <c r="AH60" s="55"/>
-      <c r="AI60" s="55"/>
-      <c r="AJ60" s="56"/>
-      <c r="AK60" s="73" t="s">
+      <c r="AA60" s="29"/>
+      <c r="AB60" s="29"/>
+      <c r="AC60" s="29"/>
+      <c r="AD60" s="29"/>
+      <c r="AE60" s="29"/>
+      <c r="AF60" s="29"/>
+      <c r="AG60" s="29"/>
+      <c r="AH60" s="29"/>
+      <c r="AI60" s="29"/>
+      <c r="AJ60" s="29"/>
+      <c r="AK60" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AL60" s="74"/>
-      <c r="AM60" s="74"/>
-      <c r="AN60" s="74"/>
-      <c r="AO60" s="74"/>
-      <c r="AP60" s="75"/>
+      <c r="AL60" s="21"/>
+      <c r="AM60" s="21"/>
+      <c r="AN60" s="21"/>
+      <c r="AO60" s="21"/>
+      <c r="AP60" s="22"/>
     </row>
     <row r="61" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B61" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
       <c r="F61" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="11"/>
-      <c r="R61" s="4">
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="7"/>
+      <c r="R61" s="59">
         <v>2</v>
       </c>
-      <c r="S61" s="57" t="s">
+      <c r="S61" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="T61" s="58"/>
-      <c r="U61" s="58"/>
-      <c r="V61" s="59"/>
-      <c r="W61" s="26" t="s">
+      <c r="T61" s="30"/>
+      <c r="U61" s="30"/>
+      <c r="V61" s="30"/>
+      <c r="W61" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="57" t="s">
+      <c r="X61" s="13"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AA61" s="58"/>
-      <c r="AB61" s="58"/>
-      <c r="AC61" s="58"/>
-      <c r="AD61" s="58"/>
-      <c r="AE61" s="58"/>
-      <c r="AF61" s="58"/>
-      <c r="AG61" s="58"/>
-      <c r="AH61" s="58"/>
-      <c r="AI61" s="58"/>
-      <c r="AJ61" s="59"/>
-      <c r="AK61" s="9" t="s">
+      <c r="AA61" s="30"/>
+      <c r="AB61" s="30"/>
+      <c r="AC61" s="30"/>
+      <c r="AD61" s="30"/>
+      <c r="AE61" s="30"/>
+      <c r="AF61" s="30"/>
+      <c r="AG61" s="30"/>
+      <c r="AH61" s="30"/>
+      <c r="AI61" s="30"/>
+      <c r="AJ61" s="30"/>
+      <c r="AK61" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AL61" s="10"/>
-      <c r="AM61" s="10"/>
-      <c r="AN61" s="10"/>
-      <c r="AO61" s="10"/>
-      <c r="AP61" s="11"/>
+      <c r="AL61" s="6"/>
+      <c r="AM61" s="6"/>
+      <c r="AN61" s="6"/>
+      <c r="AO61" s="6"/>
+      <c r="AP61" s="7"/>
     </row>
     <row r="62" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B62" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
       <c r="F62" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="11"/>
-      <c r="R62" s="4">
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="7"/>
+      <c r="R62" s="59">
         <v>3</v>
       </c>
-      <c r="S62" s="57" t="s">
+      <c r="S62" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="T62" s="58"/>
-      <c r="U62" s="58"/>
-      <c r="V62" s="59"/>
-      <c r="W62" s="26" t="s">
+      <c r="T62" s="30"/>
+      <c r="U62" s="30"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="28"/>
-      <c r="Z62" s="57" t="s">
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AA62" s="58"/>
-      <c r="AB62" s="58"/>
-      <c r="AC62" s="58"/>
-      <c r="AD62" s="58"/>
-      <c r="AE62" s="58"/>
-      <c r="AF62" s="58"/>
-      <c r="AG62" s="58"/>
-      <c r="AH62" s="58"/>
-      <c r="AI62" s="58"/>
-      <c r="AJ62" s="59"/>
-      <c r="AK62" s="9"/>
-      <c r="AL62" s="10"/>
-      <c r="AM62" s="10"/>
-      <c r="AN62" s="10"/>
-      <c r="AO62" s="10"/>
-      <c r="AP62" s="11"/>
+      <c r="AA62" s="30"/>
+      <c r="AB62" s="30"/>
+      <c r="AC62" s="30"/>
+      <c r="AD62" s="30"/>
+      <c r="AE62" s="30"/>
+      <c r="AF62" s="30"/>
+      <c r="AG62" s="30"/>
+      <c r="AH62" s="30"/>
+      <c r="AI62" s="30"/>
+      <c r="AJ62" s="30"/>
+      <c r="AK62" s="6"/>
+      <c r="AL62" s="6"/>
+      <c r="AM62" s="6"/>
+      <c r="AN62" s="6"/>
+      <c r="AO62" s="6"/>
+      <c r="AP62" s="7"/>
     </row>
     <row r="63" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B63" s="31"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="11"/>
-      <c r="R63" s="4">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="7"/>
+      <c r="R63" s="59">
         <v>4</v>
       </c>
-      <c r="S63" s="60" t="s">
+      <c r="S63" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="T63" s="61"/>
-      <c r="U63" s="61"/>
-      <c r="V63" s="62"/>
-      <c r="W63" s="26" t="s">
+      <c r="T63" s="55"/>
+      <c r="U63" s="55"/>
+      <c r="V63" s="55"/>
+      <c r="W63" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="57" t="s">
+      <c r="X63" s="13"/>
+      <c r="Y63" s="13"/>
+      <c r="Z63" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="AA63" s="58"/>
-      <c r="AB63" s="58"/>
-      <c r="AC63" s="58"/>
-      <c r="AD63" s="58"/>
-      <c r="AE63" s="58"/>
-      <c r="AF63" s="58"/>
-      <c r="AG63" s="58"/>
-      <c r="AH63" s="58"/>
-      <c r="AI63" s="58"/>
-      <c r="AJ63" s="59"/>
-      <c r="AK63" s="9"/>
-      <c r="AL63" s="10"/>
-      <c r="AM63" s="10"/>
-      <c r="AN63" s="10"/>
-      <c r="AO63" s="10"/>
-      <c r="AP63" s="11"/>
+      <c r="AA63" s="30"/>
+      <c r="AB63" s="30"/>
+      <c r="AC63" s="30"/>
+      <c r="AD63" s="30"/>
+      <c r="AE63" s="30"/>
+      <c r="AF63" s="30"/>
+      <c r="AG63" s="30"/>
+      <c r="AH63" s="30"/>
+      <c r="AI63" s="30"/>
+      <c r="AJ63" s="30"/>
+      <c r="AK63" s="6"/>
+      <c r="AL63" s="6"/>
+      <c r="AM63" s="6"/>
+      <c r="AN63" s="6"/>
+      <c r="AO63" s="6"/>
+      <c r="AP63" s="7"/>
     </row>
     <row r="64" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="49"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="21"/>
-      <c r="R64" s="4">
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="25"/>
+      <c r="R64" s="59">
         <v>5</v>
       </c>
-      <c r="S64" s="23" t="s">
+      <c r="S64" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="T64" s="24"/>
-      <c r="U64" s="24"/>
-      <c r="V64" s="25"/>
-      <c r="W64" s="26" t="s">
+      <c r="T64" s="15"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="X64" s="27"/>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="29" t="s">
+      <c r="X64" s="13"/>
+      <c r="Y64" s="13"/>
+      <c r="Z64" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="AA64" s="24"/>
-      <c r="AB64" s="24"/>
-      <c r="AC64" s="24"/>
-      <c r="AD64" s="24"/>
-      <c r="AE64" s="24"/>
-      <c r="AF64" s="24"/>
-      <c r="AG64" s="24"/>
-      <c r="AH64" s="24"/>
-      <c r="AI64" s="24"/>
-      <c r="AJ64" s="25"/>
-      <c r="AK64" s="9"/>
-      <c r="AL64" s="10"/>
-      <c r="AM64" s="10"/>
-      <c r="AN64" s="10"/>
-      <c r="AO64" s="10"/>
-      <c r="AP64" s="11"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
+      <c r="AC64" s="15"/>
+      <c r="AD64" s="15"/>
+      <c r="AE64" s="15"/>
+      <c r="AF64" s="15"/>
+      <c r="AG64" s="15"/>
+      <c r="AH64" s="15"/>
+      <c r="AI64" s="15"/>
+      <c r="AJ64" s="15"/>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="6"/>
+      <c r="AM64" s="6"/>
+      <c r="AN64" s="6"/>
+      <c r="AO64" s="6"/>
+      <c r="AP64" s="7"/>
     </row>
     <row r="65" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R65" s="4">
+      <c r="R65" s="59">
         <v>6</v>
       </c>
-      <c r="S65" s="23" t="s">
+      <c r="S65" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="T65" s="24"/>
-      <c r="U65" s="24"/>
-      <c r="V65" s="25"/>
-      <c r="W65" s="26" t="s">
+      <c r="T65" s="15"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="29" t="s">
+      <c r="X65" s="13"/>
+      <c r="Y65" s="13"/>
+      <c r="Z65" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AA65" s="24"/>
-      <c r="AB65" s="24"/>
-      <c r="AC65" s="24"/>
-      <c r="AD65" s="24"/>
-      <c r="AE65" s="24"/>
-      <c r="AF65" s="24"/>
-      <c r="AG65" s="24"/>
-      <c r="AH65" s="24"/>
-      <c r="AI65" s="24"/>
-      <c r="AJ65" s="25"/>
-      <c r="AK65" s="9"/>
-      <c r="AL65" s="10"/>
-      <c r="AM65" s="10"/>
-      <c r="AN65" s="10"/>
-      <c r="AO65" s="10"/>
-      <c r="AP65" s="11"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="15"/>
+      <c r="AC65" s="15"/>
+      <c r="AD65" s="15"/>
+      <c r="AE65" s="15"/>
+      <c r="AF65" s="15"/>
+      <c r="AG65" s="15"/>
+      <c r="AH65" s="15"/>
+      <c r="AI65" s="15"/>
+      <c r="AJ65" s="15"/>
+      <c r="AK65" s="6"/>
+      <c r="AL65" s="6"/>
+      <c r="AM65" s="6"/>
+      <c r="AN65" s="6"/>
+      <c r="AO65" s="6"/>
+      <c r="AP65" s="7"/>
     </row>
     <row r="66" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R66" s="4">
+      <c r="R66" s="59">
         <v>7</v>
       </c>
-      <c r="S66" s="91" t="s">
+      <c r="S66" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="T66" s="92"/>
-      <c r="U66" s="92"/>
-      <c r="V66" s="93"/>
-      <c r="W66" s="26" t="s">
+      <c r="T66" s="54"/>
+      <c r="U66" s="54"/>
+      <c r="V66" s="54"/>
+      <c r="W66" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="29" t="s">
+      <c r="X66" s="13"/>
+      <c r="Y66" s="13"/>
+      <c r="Z66" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="24"/>
-      <c r="AE66" s="24"/>
-      <c r="AF66" s="24"/>
-      <c r="AG66" s="24"/>
-      <c r="AH66" s="24"/>
-      <c r="AI66" s="24"/>
-      <c r="AJ66" s="25"/>
-      <c r="AK66" s="9" t="s">
+      <c r="AA66" s="15"/>
+      <c r="AB66" s="15"/>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="15"/>
+      <c r="AE66" s="15"/>
+      <c r="AF66" s="15"/>
+      <c r="AG66" s="15"/>
+      <c r="AH66" s="15"/>
+      <c r="AI66" s="15"/>
+      <c r="AJ66" s="15"/>
+      <c r="AK66" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AL66" s="10"/>
-      <c r="AM66" s="10"/>
-      <c r="AN66" s="10"/>
-      <c r="AO66" s="10"/>
-      <c r="AP66" s="11"/>
+      <c r="AL66" s="6"/>
+      <c r="AM66" s="6"/>
+      <c r="AN66" s="6"/>
+      <c r="AO66" s="6"/>
+      <c r="AP66" s="7"/>
     </row>
     <row r="67" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R67" s="4">
+      <c r="R67" s="59">
         <v>8</v>
       </c>
-      <c r="S67" s="23" t="s">
+      <c r="S67" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T67" s="24"/>
-      <c r="U67" s="24"/>
-      <c r="V67" s="25"/>
-      <c r="W67" s="26" t="s">
+      <c r="T67" s="15"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="28"/>
-      <c r="Z67" s="29" t="s">
+      <c r="X67" s="13"/>
+      <c r="Y67" s="13"/>
+      <c r="Z67" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AA67" s="24"/>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="24"/>
-      <c r="AD67" s="24"/>
-      <c r="AE67" s="24"/>
-      <c r="AF67" s="24"/>
-      <c r="AG67" s="24"/>
-      <c r="AH67" s="24"/>
-      <c r="AI67" s="24"/>
-      <c r="AJ67" s="25"/>
-      <c r="AK67" s="9"/>
-      <c r="AL67" s="10"/>
-      <c r="AM67" s="10"/>
-      <c r="AN67" s="10"/>
-      <c r="AO67" s="10"/>
-      <c r="AP67" s="11"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
+      <c r="AE67" s="15"/>
+      <c r="AF67" s="15"/>
+      <c r="AG67" s="15"/>
+      <c r="AH67" s="15"/>
+      <c r="AI67" s="15"/>
+      <c r="AJ67" s="15"/>
+      <c r="AK67" s="6"/>
+      <c r="AL67" s="6"/>
+      <c r="AM67" s="6"/>
+      <c r="AN67" s="6"/>
+      <c r="AO67" s="6"/>
+      <c r="AP67" s="7"/>
     </row>
     <row r="68" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R68" s="4">
+      <c r="R68" s="59">
         <v>9</v>
       </c>
-      <c r="S68" s="23" t="s">
+      <c r="S68" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="T68" s="24"/>
-      <c r="U68" s="24"/>
-      <c r="V68" s="25"/>
-      <c r="W68" s="26" t="s">
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="28"/>
-      <c r="Z68" s="29" t="s">
+      <c r="X68" s="13"/>
+      <c r="Y68" s="13"/>
+      <c r="Z68" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="AA68" s="24"/>
-      <c r="AB68" s="24"/>
-      <c r="AC68" s="24"/>
-      <c r="AD68" s="24"/>
-      <c r="AE68" s="24"/>
-      <c r="AF68" s="24"/>
-      <c r="AG68" s="24"/>
-      <c r="AH68" s="24"/>
-      <c r="AI68" s="24"/>
-      <c r="AJ68" s="25"/>
-      <c r="AK68" s="9"/>
-      <c r="AL68" s="10"/>
-      <c r="AM68" s="10"/>
-      <c r="AN68" s="10"/>
-      <c r="AO68" s="10"/>
-      <c r="AP68" s="11"/>
+      <c r="AA68" s="15"/>
+      <c r="AB68" s="15"/>
+      <c r="AC68" s="15"/>
+      <c r="AD68" s="15"/>
+      <c r="AE68" s="15"/>
+      <c r="AF68" s="15"/>
+      <c r="AG68" s="15"/>
+      <c r="AH68" s="15"/>
+      <c r="AI68" s="15"/>
+      <c r="AJ68" s="15"/>
+      <c r="AK68" s="6"/>
+      <c r="AL68" s="6"/>
+      <c r="AM68" s="6"/>
+      <c r="AN68" s="6"/>
+      <c r="AO68" s="6"/>
+      <c r="AP68" s="7"/>
     </row>
     <row r="69" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R69" s="4">
+      <c r="R69" s="59">
         <v>10</v>
       </c>
-      <c r="S69" s="23" t="s">
+      <c r="S69" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="T69" s="24"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="25"/>
-      <c r="W69" s="26" t="s">
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="28"/>
-      <c r="Z69" s="29" t="s">
+      <c r="X69" s="13"/>
+      <c r="Y69" s="13"/>
+      <c r="Z69" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AA69" s="24"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="24"/>
-      <c r="AE69" s="24"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="24"/>
-      <c r="AI69" s="24"/>
-      <c r="AJ69" s="25"/>
-      <c r="AK69" s="9"/>
-      <c r="AL69" s="10"/>
-      <c r="AM69" s="10"/>
-      <c r="AN69" s="10"/>
-      <c r="AO69" s="10"/>
-      <c r="AP69" s="11"/>
+      <c r="AA69" s="15"/>
+      <c r="AB69" s="15"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="15"/>
+      <c r="AG69" s="15"/>
+      <c r="AH69" s="15"/>
+      <c r="AI69" s="15"/>
+      <c r="AJ69" s="15"/>
+      <c r="AK69" s="6"/>
+      <c r="AL69" s="6"/>
+      <c r="AM69" s="6"/>
+      <c r="AN69" s="6"/>
+      <c r="AO69" s="6"/>
+      <c r="AP69" s="7"/>
     </row>
     <row r="70" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R70" s="4">
+      <c r="R70" s="59">
         <v>11</v>
       </c>
-      <c r="S70" s="23" t="s">
+      <c r="S70" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T70" s="24"/>
-      <c r="U70" s="24"/>
-      <c r="V70" s="25"/>
-      <c r="W70" s="26" t="s">
+      <c r="T70" s="15"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="15"/>
+      <c r="W70" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="X70" s="27"/>
-      <c r="Y70" s="28"/>
-      <c r="Z70" s="29" t="s">
+      <c r="X70" s="13"/>
+      <c r="Y70" s="13"/>
+      <c r="Z70" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="AA70" s="24"/>
-      <c r="AB70" s="24"/>
-      <c r="AC70" s="24"/>
-      <c r="AD70" s="24"/>
-      <c r="AE70" s="24"/>
-      <c r="AF70" s="24"/>
-      <c r="AG70" s="24"/>
-      <c r="AH70" s="24"/>
-      <c r="AI70" s="24"/>
-      <c r="AJ70" s="25"/>
-      <c r="AK70" s="9"/>
-      <c r="AL70" s="10"/>
-      <c r="AM70" s="10"/>
-      <c r="AN70" s="10"/>
-      <c r="AO70" s="10"/>
-      <c r="AP70" s="11"/>
+      <c r="AA70" s="15"/>
+      <c r="AB70" s="15"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
+      <c r="AE70" s="15"/>
+      <c r="AF70" s="15"/>
+      <c r="AG70" s="15"/>
+      <c r="AH70" s="15"/>
+      <c r="AI70" s="15"/>
+      <c r="AJ70" s="15"/>
+      <c r="AK70" s="6"/>
+      <c r="AL70" s="6"/>
+      <c r="AM70" s="6"/>
+      <c r="AN70" s="6"/>
+      <c r="AO70" s="6"/>
+      <c r="AP70" s="7"/>
     </row>
     <row r="71" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R71" s="4">
+      <c r="R71" s="59">
         <v>12</v>
       </c>
-      <c r="S71" s="23" t="s">
+      <c r="S71" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="T71" s="24"/>
-      <c r="U71" s="24"/>
-      <c r="V71" s="25"/>
-      <c r="W71" s="26" t="s">
+      <c r="T71" s="15"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="X71" s="27"/>
-      <c r="Y71" s="28"/>
-      <c r="Z71" s="29" t="s">
+      <c r="X71" s="13"/>
+      <c r="Y71" s="13"/>
+      <c r="Z71" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AA71" s="24"/>
-      <c r="AB71" s="24"/>
-      <c r="AC71" s="24"/>
-      <c r="AD71" s="24"/>
-      <c r="AE71" s="24"/>
-      <c r="AF71" s="24"/>
-      <c r="AG71" s="24"/>
-      <c r="AH71" s="24"/>
-      <c r="AI71" s="24"/>
-      <c r="AJ71" s="25"/>
-      <c r="AK71" s="9"/>
-      <c r="AL71" s="10"/>
-      <c r="AM71" s="10"/>
-      <c r="AN71" s="10"/>
-      <c r="AO71" s="10"/>
-      <c r="AP71" s="11"/>
+      <c r="AA71" s="15"/>
+      <c r="AB71" s="15"/>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
+      <c r="AE71" s="15"/>
+      <c r="AF71" s="15"/>
+      <c r="AG71" s="15"/>
+      <c r="AH71" s="15"/>
+      <c r="AI71" s="15"/>
+      <c r="AJ71" s="15"/>
+      <c r="AK71" s="6"/>
+      <c r="AL71" s="6"/>
+      <c r="AM71" s="6"/>
+      <c r="AN71" s="6"/>
+      <c r="AO71" s="6"/>
+      <c r="AP71" s="7"/>
     </row>
     <row r="72" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R72" s="4">
+      <c r="R72" s="59">
         <v>13</v>
       </c>
-      <c r="S72" s="23" t="s">
+      <c r="S72" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="T72" s="24"/>
-      <c r="U72" s="24"/>
-      <c r="V72" s="25"/>
-      <c r="W72" s="76" t="s">
+      <c r="T72" s="15"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="15"/>
+      <c r="W72" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="X72" s="77"/>
-      <c r="Y72" s="78"/>
-      <c r="Z72" s="29" t="s">
+      <c r="X72" s="57"/>
+      <c r="Y72" s="57"/>
+      <c r="Z72" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AA72" s="24"/>
-      <c r="AB72" s="24"/>
-      <c r="AC72" s="24"/>
-      <c r="AD72" s="24"/>
-      <c r="AE72" s="24"/>
-      <c r="AF72" s="24"/>
-      <c r="AG72" s="24"/>
-      <c r="AH72" s="24"/>
-      <c r="AI72" s="24"/>
-      <c r="AJ72" s="25"/>
-      <c r="AK72" s="9"/>
-      <c r="AL72" s="10"/>
-      <c r="AM72" s="10"/>
-      <c r="AN72" s="10"/>
-      <c r="AO72" s="10"/>
-      <c r="AP72" s="11"/>
+      <c r="AA72" s="15"/>
+      <c r="AB72" s="15"/>
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
+      <c r="AG72" s="15"/>
+      <c r="AH72" s="15"/>
+      <c r="AI72" s="15"/>
+      <c r="AJ72" s="15"/>
+      <c r="AK72" s="6"/>
+      <c r="AL72" s="6"/>
+      <c r="AM72" s="6"/>
+      <c r="AN72" s="6"/>
+      <c r="AO72" s="6"/>
+      <c r="AP72" s="7"/>
     </row>
     <row r="73" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R73" s="4">
+      <c r="R73" s="59">
         <v>14</v>
       </c>
-      <c r="S73" s="23" t="s">
+      <c r="S73" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="T73" s="24"/>
-      <c r="U73" s="24"/>
-      <c r="V73" s="25"/>
-      <c r="W73" s="26" t="s">
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="X73" s="27"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="29" t="s">
+      <c r="X73" s="13"/>
+      <c r="Y73" s="13"/>
+      <c r="Z73" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AA73" s="24"/>
-      <c r="AB73" s="24"/>
-      <c r="AC73" s="24"/>
-      <c r="AD73" s="24"/>
-      <c r="AE73" s="24"/>
-      <c r="AF73" s="24"/>
-      <c r="AG73" s="24"/>
-      <c r="AH73" s="24"/>
-      <c r="AI73" s="24"/>
-      <c r="AJ73" s="25"/>
-      <c r="AK73" s="9"/>
-      <c r="AL73" s="10"/>
-      <c r="AM73" s="10"/>
-      <c r="AN73" s="10"/>
-      <c r="AO73" s="10"/>
-      <c r="AP73" s="11"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15"/>
+      <c r="AH73" s="15"/>
+      <c r="AI73" s="15"/>
+      <c r="AJ73" s="15"/>
+      <c r="AK73" s="6"/>
+      <c r="AL73" s="6"/>
+      <c r="AM73" s="6"/>
+      <c r="AN73" s="6"/>
+      <c r="AO73" s="6"/>
+      <c r="AP73" s="7"/>
     </row>
     <row r="74" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="F74" s="22" t="s">
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="F74" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
-      <c r="R74" s="4">
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="R74" s="59">
         <v>15</v>
       </c>
-      <c r="S74" s="23" t="s">
+      <c r="S74" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="T74" s="24"/>
-      <c r="U74" s="24"/>
-      <c r="V74" s="25"/>
-      <c r="W74" s="26" t="s">
+      <c r="T74" s="30"/>
+      <c r="U74" s="30"/>
+      <c r="V74" s="30"/>
+      <c r="W74" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="X74" s="27"/>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="29" t="s">
+      <c r="X74" s="13"/>
+      <c r="Y74" s="13"/>
+      <c r="Z74" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="AA74" s="24"/>
-      <c r="AB74" s="24"/>
-      <c r="AC74" s="24"/>
-      <c r="AD74" s="24"/>
-      <c r="AE74" s="24"/>
-      <c r="AF74" s="24"/>
-      <c r="AG74" s="24"/>
-      <c r="AH74" s="24"/>
-      <c r="AI74" s="24"/>
-      <c r="AJ74" s="25"/>
-      <c r="AK74" s="9"/>
-      <c r="AL74" s="10"/>
-      <c r="AM74" s="10"/>
-      <c r="AN74" s="10"/>
-      <c r="AO74" s="10"/>
-      <c r="AP74" s="11"/>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
+      <c r="AE74" s="15"/>
+      <c r="AF74" s="15"/>
+      <c r="AG74" s="15"/>
+      <c r="AH74" s="15"/>
+      <c r="AI74" s="15"/>
+      <c r="AJ74" s="15"/>
+      <c r="AK74" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL74" s="6"/>
+      <c r="AM74" s="6"/>
+      <c r="AN74" s="6"/>
+      <c r="AO74" s="6"/>
+      <c r="AP74" s="7"/>
     </row>
     <row r="75" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="R75" s="4">
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="R75" s="59">
         <v>16</v>
       </c>
-      <c r="S75" s="23" t="s">
+      <c r="S75" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="T75" s="24"/>
-      <c r="U75" s="24"/>
-      <c r="V75" s="25"/>
-      <c r="W75" s="26" t="s">
+      <c r="T75" s="15"/>
+      <c r="U75" s="15"/>
+      <c r="V75" s="15"/>
+      <c r="W75" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="X75" s="27"/>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="29" t="s">
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="AA75" s="24"/>
-      <c r="AB75" s="24"/>
-      <c r="AC75" s="24"/>
-      <c r="AD75" s="24"/>
-      <c r="AE75" s="24"/>
-      <c r="AF75" s="24"/>
-      <c r="AG75" s="24"/>
-      <c r="AH75" s="24"/>
-      <c r="AI75" s="24"/>
-      <c r="AJ75" s="25"/>
-      <c r="AK75" s="9"/>
-      <c r="AL75" s="10"/>
-      <c r="AM75" s="10"/>
-      <c r="AN75" s="10"/>
-      <c r="AO75" s="10"/>
-      <c r="AP75" s="11"/>
+      <c r="AA75" s="15"/>
+      <c r="AB75" s="15"/>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15"/>
+      <c r="AE75" s="15"/>
+      <c r="AF75" s="15"/>
+      <c r="AG75" s="15"/>
+      <c r="AH75" s="15"/>
+      <c r="AI75" s="15"/>
+      <c r="AJ75" s="15"/>
+      <c r="AK75" s="6"/>
+      <c r="AL75" s="6"/>
+      <c r="AM75" s="6"/>
+      <c r="AN75" s="6"/>
+      <c r="AO75" s="6"/>
+      <c r="AP75" s="7"/>
     </row>
     <row r="76" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B76" s="71" t="s">
+      <c r="B76" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="R76" s="4">
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="R76" s="59">
         <v>17</v>
       </c>
-      <c r="S76" s="63" t="s">
+      <c r="S76" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="T76" s="64"/>
-      <c r="U76" s="64"/>
-      <c r="V76" s="65"/>
-      <c r="W76" s="67" t="s">
+      <c r="T76" s="15"/>
+      <c r="U76" s="15"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="X76" s="68"/>
-      <c r="Y76" s="69"/>
-      <c r="Z76" s="66" t="s">
+      <c r="X76" s="13"/>
+      <c r="Y76" s="13"/>
+      <c r="Z76" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="AA76" s="64"/>
-      <c r="AB76" s="64"/>
-      <c r="AC76" s="64"/>
-      <c r="AD76" s="64"/>
-      <c r="AE76" s="64"/>
-      <c r="AF76" s="64"/>
-      <c r="AG76" s="64"/>
-      <c r="AH76" s="64"/>
-      <c r="AI76" s="64"/>
-      <c r="AJ76" s="65"/>
-      <c r="AK76" s="82"/>
-      <c r="AL76" s="83"/>
-      <c r="AM76" s="83"/>
-      <c r="AN76" s="83"/>
-      <c r="AO76" s="83"/>
-      <c r="AP76" s="84"/>
+      <c r="AA76" s="15"/>
+      <c r="AB76" s="15"/>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="15"/>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="15"/>
+      <c r="AH76" s="15"/>
+      <c r="AI76" s="15"/>
+      <c r="AJ76" s="15"/>
+      <c r="AK76" s="6"/>
+      <c r="AL76" s="6"/>
+      <c r="AM76" s="6"/>
+      <c r="AN76" s="6"/>
+      <c r="AO76" s="6"/>
+      <c r="AP76" s="7"/>
     </row>
     <row r="77" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R77" s="6">
+      <c r="R77" s="59">
         <v>18</v>
       </c>
-      <c r="S77" s="23" t="s">
+      <c r="S77" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="T77" s="24"/>
-      <c r="U77" s="24"/>
-      <c r="V77" s="25"/>
-      <c r="W77" s="26" t="s">
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="29" t="s">
+      <c r="X77" s="13"/>
+      <c r="Y77" s="13"/>
+      <c r="Z77" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="AA77" s="24"/>
-      <c r="AB77" s="24"/>
-      <c r="AC77" s="24"/>
-      <c r="AD77" s="24"/>
-      <c r="AE77" s="24"/>
-      <c r="AF77" s="24"/>
-      <c r="AG77" s="24"/>
-      <c r="AH77" s="24"/>
-      <c r="AI77" s="24"/>
-      <c r="AJ77" s="25"/>
-      <c r="AK77" s="9"/>
-      <c r="AL77" s="10"/>
-      <c r="AM77" s="10"/>
-      <c r="AN77" s="10"/>
-      <c r="AO77" s="10"/>
-      <c r="AP77" s="11"/>
-    </row>
-    <row r="78" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R78" s="7">
+      <c r="AA77" s="15"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15"/>
+      <c r="AE77" s="15"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="15"/>
+      <c r="AH77" s="15"/>
+      <c r="AI77" s="15"/>
+      <c r="AJ77" s="15"/>
+      <c r="AK77" s="6"/>
+      <c r="AL77" s="6"/>
+      <c r="AM77" s="6"/>
+      <c r="AN77" s="6"/>
+      <c r="AO77" s="6"/>
+      <c r="AP77" s="7"/>
+    </row>
+    <row r="78" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="R78" s="59">
         <v>19</v>
       </c>
-      <c r="S78" s="12" t="s">
+      <c r="S78" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="T78" s="13"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="14"/>
-      <c r="W78" s="15" t="s">
+      <c r="T78" s="15"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="X78" s="16"/>
-      <c r="Y78" s="17"/>
-      <c r="Z78" s="18" t="s">
+      <c r="X78" s="13"/>
+      <c r="Y78" s="13"/>
+      <c r="Z78" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="AA78" s="13"/>
-      <c r="AB78" s="13"/>
-      <c r="AC78" s="13"/>
-      <c r="AD78" s="13"/>
-      <c r="AE78" s="13"/>
-      <c r="AF78" s="13"/>
-      <c r="AG78" s="13"/>
-      <c r="AH78" s="13"/>
-      <c r="AI78" s="13"/>
-      <c r="AJ78" s="14"/>
-      <c r="AK78" s="19"/>
-      <c r="AL78" s="20"/>
-      <c r="AM78" s="20"/>
-      <c r="AN78" s="20"/>
-      <c r="AO78" s="20"/>
-      <c r="AP78" s="21"/>
+      <c r="AA78" s="15"/>
+      <c r="AB78" s="15"/>
+      <c r="AC78" s="15"/>
+      <c r="AD78" s="15"/>
+      <c r="AE78" s="15"/>
+      <c r="AF78" s="15"/>
+      <c r="AG78" s="15"/>
+      <c r="AH78" s="15"/>
+      <c r="AI78" s="15"/>
+      <c r="AJ78" s="15"/>
+      <c r="AK78" s="6"/>
+      <c r="AL78" s="6"/>
+      <c r="AM78" s="6"/>
+      <c r="AN78" s="6"/>
+      <c r="AO78" s="6"/>
+      <c r="AP78" s="7"/>
+    </row>
+    <row r="79" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R79" s="60">
+        <v>19</v>
+      </c>
+      <c r="S79" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="T79" s="61"/>
+      <c r="U79" s="61"/>
+      <c r="V79" s="61"/>
+      <c r="W79" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="X79" s="53"/>
+      <c r="Y79" s="53"/>
+      <c r="Z79" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA79" s="52"/>
+      <c r="AB79" s="52"/>
+      <c r="AC79" s="52"/>
+      <c r="AD79" s="52"/>
+      <c r="AE79" s="52"/>
+      <c r="AF79" s="52"/>
+      <c r="AG79" s="52"/>
+      <c r="AH79" s="52"/>
+      <c r="AI79" s="52"/>
+      <c r="AJ79" s="52"/>
+      <c r="AK79" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL79" s="24"/>
+      <c r="AM79" s="24"/>
+      <c r="AN79" s="24"/>
+      <c r="AO79" s="24"/>
+      <c r="AP79" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="105">
-    <mergeCell ref="AK75:AP75"/>
-    <mergeCell ref="AK76:AP76"/>
-    <mergeCell ref="F74:M74"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="W60:Y60"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="W62:Y62"/>
-    <mergeCell ref="W63:Y63"/>
-    <mergeCell ref="W64:Y64"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="W67:Y67"/>
-    <mergeCell ref="W68:Y68"/>
-    <mergeCell ref="W69:Y69"/>
-    <mergeCell ref="AK70:AP70"/>
-    <mergeCell ref="AK74:AP74"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="S71:V71"/>
-    <mergeCell ref="Z71:AJ71"/>
-    <mergeCell ref="S72:V72"/>
-    <mergeCell ref="Z72:AJ72"/>
-    <mergeCell ref="S73:V73"/>
-    <mergeCell ref="Z73:AJ73"/>
-    <mergeCell ref="W71:Y71"/>
-    <mergeCell ref="W72:Y72"/>
-    <mergeCell ref="W73:Y73"/>
-    <mergeCell ref="S76:V76"/>
-    <mergeCell ref="Z76:AJ76"/>
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="W75:Y75"/>
-    <mergeCell ref="W76:Y76"/>
+  <mergeCells count="109">
+    <mergeCell ref="S79:V79"/>
+    <mergeCell ref="W79:Y79"/>
+    <mergeCell ref="Z79:AJ79"/>
+    <mergeCell ref="AK79:AP79"/>
+    <mergeCell ref="AK77:AP77"/>
+    <mergeCell ref="S78:V78"/>
+    <mergeCell ref="W78:Y78"/>
+    <mergeCell ref="Z78:AJ78"/>
+    <mergeCell ref="AK78:AP78"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="S77:V77"/>
+    <mergeCell ref="W77:Y77"/>
+    <mergeCell ref="Z77:AJ77"/>
+    <mergeCell ref="S65:V65"/>
+    <mergeCell ref="Z65:AJ65"/>
+    <mergeCell ref="S66:V66"/>
+    <mergeCell ref="Z66:AJ66"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="Z67:AJ67"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="Z68:AJ68"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="Z69:AJ69"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="Z70:AJ70"/>
+    <mergeCell ref="W70:Y70"/>
+    <mergeCell ref="Z75:AJ75"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="F62:P62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:P63"/>
+    <mergeCell ref="B57:P58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:P59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:P60"/>
+    <mergeCell ref="R57:AP58"/>
+    <mergeCell ref="Z62:AJ62"/>
+    <mergeCell ref="S63:V63"/>
+    <mergeCell ref="Z63:AJ63"/>
+    <mergeCell ref="S64:V64"/>
+    <mergeCell ref="Z64:AJ64"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="F61:P61"/>
+    <mergeCell ref="AQ14:AZ14"/>
+    <mergeCell ref="AQ15:AZ15"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="AK59:AP59"/>
@@ -3221,56 +3061,41 @@
     <mergeCell ref="S59:V59"/>
     <mergeCell ref="Z59:AJ59"/>
     <mergeCell ref="S60:V60"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="S71:V71"/>
+    <mergeCell ref="Z71:AJ71"/>
+    <mergeCell ref="S72:V72"/>
+    <mergeCell ref="Z72:AJ72"/>
+    <mergeCell ref="S73:V73"/>
+    <mergeCell ref="Z73:AJ73"/>
+    <mergeCell ref="W71:Y71"/>
+    <mergeCell ref="W72:Y72"/>
+    <mergeCell ref="W73:Y73"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="AK75:AP75"/>
+    <mergeCell ref="AK76:AP76"/>
+    <mergeCell ref="F74:M74"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="W60:Y60"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="W62:Y62"/>
+    <mergeCell ref="W63:Y63"/>
+    <mergeCell ref="W64:Y64"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="W67:Y67"/>
+    <mergeCell ref="W68:Y68"/>
+    <mergeCell ref="W69:Y69"/>
+    <mergeCell ref="AK70:AP70"/>
+    <mergeCell ref="AK74:AP74"/>
+    <mergeCell ref="S76:V76"/>
+    <mergeCell ref="Z76:AJ76"/>
+    <mergeCell ref="W75:Y75"/>
+    <mergeCell ref="W76:Y76"/>
     <mergeCell ref="Z60:AJ60"/>
     <mergeCell ref="S61:V61"/>
     <mergeCell ref="Z61:AJ61"/>
     <mergeCell ref="S62:V62"/>
-    <mergeCell ref="Z62:AJ62"/>
-    <mergeCell ref="S63:V63"/>
-    <mergeCell ref="Z63:AJ63"/>
-    <mergeCell ref="S64:V64"/>
-    <mergeCell ref="Z64:AJ64"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="F61:P61"/>
-    <mergeCell ref="AQ14:AZ14"/>
-    <mergeCell ref="AQ15:AZ15"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="F62:P62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F63:P63"/>
-    <mergeCell ref="B57:P58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:P59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:P60"/>
-    <mergeCell ref="R57:AP58"/>
-    <mergeCell ref="AK77:AP77"/>
-    <mergeCell ref="S78:V78"/>
-    <mergeCell ref="W78:Y78"/>
-    <mergeCell ref="Z78:AJ78"/>
-    <mergeCell ref="AK78:AP78"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="S77:V77"/>
-    <mergeCell ref="W77:Y77"/>
-    <mergeCell ref="Z77:AJ77"/>
-    <mergeCell ref="S65:V65"/>
-    <mergeCell ref="Z65:AJ65"/>
-    <mergeCell ref="S66:V66"/>
-    <mergeCell ref="Z66:AJ66"/>
-    <mergeCell ref="S67:V67"/>
-    <mergeCell ref="Z67:AJ67"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="Z68:AJ68"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="Z69:AJ69"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="Z70:AJ70"/>
-    <mergeCell ref="W70:Y70"/>
-    <mergeCell ref="Z75:AJ75"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -3296,9 +3121,10 @@
     <hyperlink ref="Z76" r:id="rId20" xr:uid="{0D8BF253-40C3-4640-804E-9611FDAAB20A}"/>
     <hyperlink ref="Z77" r:id="rId21" xr:uid="{454C94D8-4DC6-49CD-A410-D42FAF10EB15}"/>
     <hyperlink ref="Z78" r:id="rId22" xr:uid="{995ED0EF-32F2-4DB4-B039-4E3822903D88}"/>
+    <hyperlink ref="Z79" r:id="rId23" xr:uid="{3BC7C50B-98E2-4EA6-AEEC-6A15B1E63BCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
-  <drawing r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\university\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B4501B-49B9-4CD7-82BC-F58B8A93493B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369BC409-391A-4007-8205-EB41147FA694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49E8A915-5A6F-4B3C-966A-272F8EBD50DB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="166">
   <si>
     <t>https://belchip.by/product/?selected_product=36951</t>
   </si>
@@ -171,21 +171,12 @@
     <t>Разъём (RPSMA-Female)</t>
   </si>
   <si>
-    <t>https://www.chipdip.by/product0/8007170131</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/Dreamlnk-SMAKWE901/C914553</t>
-  </si>
-  <si>
     <t>Кодировка компонента</t>
   </si>
   <si>
     <t>SMA-KWE901</t>
   </si>
   <si>
-    <t>https://jlcpcb.com/partdetail/Dreamlnk-SMAKWE902/C914554</t>
-  </si>
-  <si>
     <t>SMA-KWE902</t>
   </si>
   <si>
@@ -195,21 +186,9 @@
     <t xml:space="preserve"> L-KLS1-WIFI-2.4G-02-MR</t>
   </si>
   <si>
-    <t>https://www.belchip.by/product/?selected_product=39786</t>
-  </si>
-  <si>
     <t>MMBT2222A</t>
   </si>
   <si>
-    <t>https://jlcpcb.com/partdetail/Hongjiacheng-MMBT2222A/C7420351</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/Yageo-AC1210JR072K2L/C230435</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/584956-AS05W2J0151T5E/C560494</t>
-  </si>
-  <si>
     <t>AS05W2J0151T5E</t>
   </si>
   <si>
@@ -222,42 +201,24 @@
     <t>C1206X103K501T</t>
   </si>
   <si>
-    <t>https://jlcpcb.com/partdetail/107237-C1206X103K501T/C106022</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/543446-FP18X473K500PBG/C525319</t>
-  </si>
-  <si>
     <t>FP18X473K500PBG</t>
   </si>
   <si>
     <t>1206B104K250CT</t>
   </si>
   <si>
-    <t>https://jlcpcb.com/partdetail/Walsin_TechCorp-1206B104K250CT/C396778</t>
-  </si>
-  <si>
     <t>Резистор 100</t>
   </si>
   <si>
     <t>25121WJ0101T4E</t>
   </si>
   <si>
-    <t>https://jlcpcb.com/partdetail/15939-25121WJ0101T4E/C15262</t>
-  </si>
-  <si>
     <t>Резистор 22к</t>
   </si>
   <si>
     <t>RK73B2ATTD223J</t>
   </si>
   <si>
-    <t>https://jlcpcb.com/partdetail/Koa_SpeerElec-RK73B2ATTD223J/C316792</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/Bourns-3362X_1102LF/C123857</t>
-  </si>
-  <si>
     <t>3362X-1-102LF</t>
   </si>
   <si>
@@ -279,27 +240,18 @@
     <t>CGA3E2C0G2A101JT0Y0N</t>
   </si>
   <si>
-    <t>https://jlcpcb.com/partdetail/Tdk-CGA3E2C0G2A101JT0Y0N/C342908</t>
-  </si>
-  <si>
     <t>Стабилизатор напряжения на 5V</t>
   </si>
   <si>
     <t>78L05</t>
   </si>
   <si>
-    <t>https://jlcpcb.com/partdetail/323918-78L05/C347258</t>
-  </si>
-  <si>
     <t>Конденсатор 330nF</t>
   </si>
   <si>
     <t>0603F334Z500NT</t>
   </si>
   <si>
-    <t>https://jlcpcb.com/partdetail/521017-0603F334Z500NT/C507077</t>
-  </si>
-  <si>
     <t>Конденсатор 100nF/0.1uF (x3)</t>
   </si>
   <si>
@@ -309,18 +261,12 @@
     <t>YTS1C0033BBG01</t>
   </si>
   <si>
-    <t>https://jlcpcb.com/partdetail/Yiyuan-YTS1C0033BBG01/C5188566</t>
-  </si>
-  <si>
     <t>0201N1R5C250CT</t>
   </si>
   <si>
     <t>Конденсатор выводной 1.5pF</t>
   </si>
   <si>
-    <t>https://jlcpcb.com/partdetail/Walsin_TechCorp-0201N1R5C250CT/C424820</t>
-  </si>
-  <si>
     <t>Резистор 1к (х2)</t>
   </si>
   <si>
@@ -330,12 +276,6 @@
     <t>WR20X1001FTL</t>
   </si>
   <si>
-    <t>https://jlcpcb.com/partdetail/Walsin_TechCorp-WR20X1001FTL/C335021</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/partdetail/utc_unisonic_tech-LM2940L_50_TN3R/C85225</t>
-  </si>
-  <si>
     <t>LM2940L-50-TN3-R</t>
   </si>
   <si>
@@ -343,13 +283,265 @@
   </si>
   <si>
     <t>нормальное входное напряжение (6V)</t>
+  </si>
+  <si>
+    <t>Цена (в $)</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/utc_unisonic_tech-LM2940L_50_TN3R/C85225</t>
+  </si>
+  <si>
+    <t>www.belchip.by/product/?selected_product=39786</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/Dreamlnk-SMAKWE902/C914554</t>
+  </si>
+  <si>
+    <t>www.chipdip.by/product0/8007170131</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/Dreamlnk-SMAKWE901/C914553</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/Hongjiacheng-MMBT2222A/C7420351</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/584956-AS05W2J0151T5E/C560494</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/Yageo-AC1210JR072K2L/C230435</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/107237-C1206X103K501T/C106022</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/543446-FP18X473K500PBG/C525319</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/Walsin_TechCorp-1206B104K250CT/C396778</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/15939-25121WJ0101T4E/C15262</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/Koa_SpeerElec-RK73B2ATTD223J/C316792</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/Bourns-3362X_1102LF/C123857</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/Tdk-CGA3E2C0G2A101JT0Y0N/C342908</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/323918-78L05/C347258</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/521017-0603F334Z500NT/C507077</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/Yiyuan-YTS1C0033BBG01/C5188566</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/Walsin_TechCorp-0201N1R5C250CT/C424820</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/Walsin_TechCorp-WR20X1001FTL/C335021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Электронный ресурс]. – Электронные данные. – </t>
+  </si>
+  <si>
+    <t>. – Дата доступа: 16.03.2024</t>
+  </si>
+  <si>
+    <t>Цена (в бел. руб. по курсу 3.284)</t>
+  </si>
+  <si>
+    <t>Наименование комплектующего</t>
+  </si>
+  <si>
+    <t>Количество на одно изделие, шт</t>
+  </si>
+  <si>
+    <t>Цена за единицу комплектующего</t>
+  </si>
+  <si>
+    <t>Сумма, р</t>
+  </si>
+  <si>
+    <t>[32]</t>
+  </si>
+  <si>
+    <t>[33]</t>
+  </si>
+  <si>
+    <t>[34]</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>[36]</t>
+  </si>
+  <si>
+    <t>[35]</t>
+  </si>
+  <si>
+    <t>[44]</t>
+  </si>
+  <si>
+    <t>[45]</t>
+  </si>
+  <si>
+    <t>[46]</t>
+  </si>
+  <si>
+    <t>[47]</t>
+  </si>
+  <si>
+    <t>[43]</t>
+  </si>
+  <si>
+    <t>[42]</t>
+  </si>
+  <si>
+    <t>[41]</t>
+  </si>
+  <si>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>[39]</t>
+  </si>
+  <si>
+    <t>[38]</t>
+  </si>
+  <si>
+    <t>[37]</t>
+  </si>
+  <si>
+    <t>[48]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разъём SMA-Female </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Резистор 100 Ом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Резистор 150 Ом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Резистор 1 кОм </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Резистор 22 кОм </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потенциометр 1 кОм </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конденсатор 1.5 пФ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конденсатор 100 пФ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конденсатор 330 нФ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конденсатор 10 нФ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конденсатор 47 нФ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конденсатор 100 нФ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кнопка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Транзистор MMBT2222A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стабилизатор напряжения LM2940L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГУН YSGM232508 </t>
+  </si>
+  <si>
+    <t>Плата печатная двуслойная</t>
+  </si>
+  <si>
+    <t>XL6009 Модуль DC-DC повышающий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HX-2S-JH20, контроллер заряда/разряда </t>
+  </si>
+  <si>
+    <t>www.pcmount.by/moduli-kontrolya-zaryada-razryada/battery-bms-board-2s-li-ion-hx-2s-jh20</t>
+  </si>
+  <si>
+    <t>www.pcmount.by/preobrazovateli-napryazheniya/volt-converter-dc-dc-xl6009?i=13818%2C14861%2C14818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аккумулятор Kijo 18650 </t>
+  </si>
+  <si>
+    <t>18650.by/katalog/akkumulyatornyie-batarei/akkumulyator-kijo-18650-li-ion-3-7-v-2-5-a-ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YSGM232508 </t>
+  </si>
+  <si>
+    <t>china.org.ru/product/62460852011</t>
+  </si>
+  <si>
+    <t>Модуль XL6009 DC-DC повышающий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HX-2S-JH20, контроллер заряда/разряда  </t>
+  </si>
+  <si>
+    <t>[49]</t>
+  </si>
+  <si>
+    <t>[50]</t>
+  </si>
+  <si>
+    <t>[51]</t>
+  </si>
+  <si>
+    <t>[52]</t>
+  </si>
+  <si>
+    <t>[53]</t>
+  </si>
+  <si>
+    <t>USB-C конненктор</t>
+  </si>
+  <si>
+    <t>MOLEX 202410</t>
+  </si>
+  <si>
+    <t>jlcpcb.com/partdetail/Molex-2024100002/C586089</t>
+  </si>
+  <si>
+    <t>Итого</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +591,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -423,7 +622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -823,11 +1022,158 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -835,11 +1181,39 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -850,7 +1224,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -862,16 +1236,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -880,157 +1370,198 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="25" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="27" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1040,7 +1571,11 @@
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1124,8 +1659,8 @@
       <xdr:rowOff>29331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>320511</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>458416</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>29331</xdr:rowOff>
     </xdr:to>
@@ -1290,16 +1825,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>315687</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>65315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>91965</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>191298</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>8165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1329,8 +1864,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="18211801" y="2419351"/>
-          <a:ext cx="7483364" cy="4324350"/>
+          <a:off x="13759544" y="2351315"/>
+          <a:ext cx="7518743" cy="4324350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1360,7 +1895,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>42438</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>59950</xdr:rowOff>
+      <xdr:rowOff>54507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1710,13 +2245,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9202B416-C4F8-4CD1-A856-CE2988DE9FEF}">
-  <dimension ref="B1:AZ79"/>
+  <dimension ref="B1:AZ146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK80" sqref="AK80"/>
+    <sheetView tabSelected="1" topLeftCell="J127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC146" sqref="AC146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="47" width="9.140625" customWidth="1"/>
+    <col min="51" max="51" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1" s="2"/>
@@ -1845,13 +2386,13 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="W7" s="14" t="s">
+      <c r="W7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.25">
       <c r="G8" s="3"/>
@@ -1879,11 +2420,11 @@
       </c>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="Q12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1911,18 +2452,18 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="AQ14" s="8" t="s">
+      <c r="AQ14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="8"/>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="8"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="8"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="8"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="13"/>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.25">
       <c r="Q15" s="1"/>
@@ -1931,18 +2472,18 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="AQ15" s="8" t="s">
+      <c r="AQ15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AR15" s="8"/>
-      <c r="AS15" s="8"/>
-      <c r="AT15" s="8"/>
-      <c r="AU15" s="8"/>
-      <c r="AV15" s="8"/>
-      <c r="AW15" s="8"/>
-      <c r="AX15" s="8"/>
-      <c r="AY15" s="8"/>
-      <c r="AZ15" s="8"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="13"/>
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.25">
       <c r="Q16" s="1"/>
@@ -1952,1050 +2493,3312 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="41:51" x14ac:dyDescent="0.25">
+      <c r="AO29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP29">
+        <v>33</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR29" s="86" t="str">
+        <f>_xlfn.CONCAT(AO29:AQ29)</f>
+        <v>[33]</v>
+      </c>
+      <c r="AS29" s="81" t="str">
+        <f>W61</f>
+        <v>SMA-KWE902</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU29" t="str">
+        <f>Z61</f>
+        <v>jlcpcb.com/partdetail/Dreamlnk-SMAKWE902/C914554</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY29" t="str">
+        <f>_xlfn.CONCAT(AS29:AV29)</f>
+        <v>SMA-KWE902 [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Dreamlnk-SMAKWE902/C914554. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="30" spans="41:51" x14ac:dyDescent="0.25">
+      <c r="AO30" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP30">
+        <v>34</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR30" s="86" t="str">
+        <f t="shared" ref="AR30:AR49" si="0">_xlfn.CONCAT(AO30:AQ30)</f>
+        <v>[34]</v>
+      </c>
+      <c r="AS30" s="81" t="str">
+        <f>W64</f>
+        <v>MMBT2222A</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU30" t="str">
+        <f>Z64</f>
+        <v>jlcpcb.com/partdetail/Hongjiacheng-MMBT2222A/C7420351</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY30" t="str">
+        <f>_xlfn.CONCAT(AS30:AV30)</f>
+        <v>MMBT2222A [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Hongjiacheng-MMBT2222A/C7420351. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="31" spans="41:51" x14ac:dyDescent="0.25">
+      <c r="AO31" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP31">
+        <v>35</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR31" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[35]</v>
+      </c>
+      <c r="AS31" s="81" t="str">
+        <f>W65</f>
+        <v>AS05W2J0151T5E</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU31" t="str">
+        <f>Z65</f>
+        <v>jlcpcb.com/partdetail/584956-AS05W2J0151T5E/C560494</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY31" t="str">
+        <f>_xlfn.CONCAT(AS31:AV31)</f>
+        <v>AS05W2J0151T5E [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/584956-AS05W2J0151T5E/C560494. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="32" spans="41:51" x14ac:dyDescent="0.25">
+      <c r="AO32" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP32">
+        <v>36</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR32" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[36]</v>
+      </c>
+      <c r="AS32" s="81" t="str">
+        <f>W67</f>
+        <v>C1206X103K501T</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU32" t="str">
+        <f>Z67</f>
+        <v>jlcpcb.com/partdetail/107237-C1206X103K501T/C106022</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY32" t="str">
+        <f>_xlfn.CONCAT(AS32:AV32)</f>
+        <v>C1206X103K501T [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/107237-C1206X103K501T/C106022. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="33" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="AO33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP33">
+        <v>37</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR33" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[37]</v>
+      </c>
+      <c r="AS33" s="81" t="str">
+        <f>W68</f>
+        <v>FP18X473K500PBG</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU33" t="str">
+        <f>Z68</f>
+        <v>jlcpcb.com/partdetail/543446-FP18X473K500PBG/C525319</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY33" t="str">
+        <f>_xlfn.CONCAT(AS33:AV33)</f>
+        <v>FP18X473K500PBG [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/543446-FP18X473K500PBG/C525319. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="34" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="AO34" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP34">
+        <v>38</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR34" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[38]</v>
+      </c>
+      <c r="AS34" s="81" t="str">
+        <f>W69</f>
+        <v>1206B104K250CT</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU34" t="str">
+        <f>Z69</f>
+        <v>jlcpcb.com/partdetail/Walsin_TechCorp-1206B104K250CT/C396778</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY34" t="str">
+        <f>_xlfn.CONCAT(AS34:AV34)</f>
+        <v>1206B104K250CT [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Walsin_TechCorp-1206B104K250CT/C396778. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="35" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="AO35" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP35">
+        <v>39</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR35" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[39]</v>
+      </c>
+      <c r="AS35" s="81" t="str">
+        <f>W70</f>
+        <v>25121WJ0101T4E</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU35" t="str">
+        <f>Z70</f>
+        <v>jlcpcb.com/partdetail/15939-25121WJ0101T4E/C15262</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY35" t="str">
+        <f>_xlfn.CONCAT(AS35:AV35)</f>
+        <v>25121WJ0101T4E [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/15939-25121WJ0101T4E/C15262. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="36" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="AO36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP36">
+        <v>40</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR36" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[40]</v>
+      </c>
+      <c r="AS36" s="81" t="str">
+        <f>W71</f>
+        <v>RK73B2ATTD223J</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU36" t="str">
+        <f>Z71</f>
+        <v>jlcpcb.com/partdetail/Koa_SpeerElec-RK73B2ATTD223J/C316792</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY36" t="str">
+        <f>_xlfn.CONCAT(AS36:AV36)</f>
+        <v>RK73B2ATTD223J [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Koa_SpeerElec-RK73B2ATTD223J/C316792. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="37" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="AO37" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP37">
+        <v>41</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR37" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[41]</v>
+      </c>
+      <c r="AS37" s="81" t="str">
+        <f>W72</f>
+        <v>3362X-1-102LF</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU37" t="str">
+        <f>Z72</f>
+        <v>jlcpcb.com/partdetail/Bourns-3362X_1102LF/C123857</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY37" t="str">
+        <f>_xlfn.CONCAT(AS37:AV37)</f>
+        <v>3362X-1-102LF [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Bourns-3362X_1102LF/C123857. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="38" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="AO38" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP38">
+        <v>42</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR38" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[42]</v>
+      </c>
+      <c r="AS38" s="81" t="str">
+        <f>W73</f>
+        <v>CGA3E2C0G2A101JT0Y0N</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU38" t="str">
+        <f>Z73</f>
+        <v>jlcpcb.com/partdetail/Tdk-CGA3E2C0G2A101JT0Y0N/C342908</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY38" t="str">
+        <f>_xlfn.CONCAT(AS38:AV38)</f>
+        <v>CGA3E2C0G2A101JT0Y0N [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Tdk-CGA3E2C0G2A101JT0Y0N/C342908. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="39" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="AO39" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP39">
+        <v>43</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR39" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[43]</v>
+      </c>
+      <c r="AS39" s="81" t="str">
+        <f>W75</f>
+        <v>0603F334Z500NT</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU39" t="str">
+        <f>Z75</f>
+        <v>jlcpcb.com/partdetail/521017-0603F334Z500NT/C507077</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY39" t="str">
+        <f>_xlfn.CONCAT(AS39:AV39)</f>
+        <v>0603F334Z500NT [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/521017-0603F334Z500NT/C507077. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="40" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="P40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AO40" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP40">
+        <v>44</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR40" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[44]</v>
+      </c>
+      <c r="AS40" s="81" t="str">
+        <f>W76</f>
+        <v>YTS1C0033BBG01</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU40" t="str">
+        <f>Z76</f>
+        <v>jlcpcb.com/partdetail/Yiyuan-YTS1C0033BBG01/C5188566</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY40" t="str">
+        <f>_xlfn.CONCAT(AS40:AV40)</f>
+        <v>YTS1C0033BBG01 [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Yiyuan-YTS1C0033BBG01/C5188566. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="41" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="P41" s="8" t="s">
+      <c r="P41" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
       <c r="U41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AO41" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP41">
+        <v>45</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR41" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[45]</v>
+      </c>
+      <c r="AS41" s="81" t="str">
+        <f>W77</f>
+        <v>0201N1R5C250CT</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU41" t="str">
+        <f>Z77</f>
+        <v>jlcpcb.com/partdetail/Walsin_TechCorp-0201N1R5C250CT/C424820</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY41" t="str">
+        <f>_xlfn.CONCAT(AS41:AV41)</f>
+        <v>0201N1R5C250CT [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Walsin_TechCorp-0201N1R5C250CT/C424820. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="42" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>24</v>
       </c>
       <c r="J42" t="s">
         <v>25</v>
       </c>
-      <c r="P42" s="8" t="s">
+      <c r="P42" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
       <c r="U42" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AO42" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP42">
+        <v>46</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR42" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[46]</v>
+      </c>
+      <c r="AS42" s="81" t="str">
+        <f>W78</f>
+        <v>WR20X1001FTL</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU42" t="str">
+        <f>Z78</f>
+        <v>jlcpcb.com/partdetail/Walsin_TechCorp-WR20X1001FTL/C335021</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY42" t="str">
+        <f>_xlfn.CONCAT(AS42:AV42)</f>
+        <v>WR20X1001FTL [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Walsin_TechCorp-WR20X1001FTL/C335021. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="43" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="AO43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP43">
+        <v>47</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR43" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[47]</v>
+      </c>
+      <c r="AS43" s="81" t="str">
+        <f>W79</f>
+        <v>LM2940L-50-TN3-R</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU43" t="str">
+        <f>Z79</f>
+        <v>jlcpcb.com/partdetail/utc_unisonic_tech-LM2940L_50_TN3R/C85225</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY43" t="str">
+        <f>_xlfn.CONCAT(AS43:AV43)</f>
+        <v>LM2940L-50-TN3-R [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/utc_unisonic_tech-LM2940L_50_TN3R/C85225. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="44" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="AO44" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP44">
+        <v>48</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR44" s="86" t="str">
+        <f>_xlfn.CONCAT(AO44:AQ44)</f>
+        <v>[48]</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY44" t="str">
+        <f t="shared" ref="AY44:AY49" si="1">_xlfn.CONCAT(AS44:AV44)</f>
+        <v>YSGM232508  [Электронный ресурс]. – Электронные данные. – china.org.ru/product/62460852011. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="45" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="AO45" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP45">
+        <v>49</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR45" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[49]</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU45" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY45" t="str">
+        <f t="shared" si="1"/>
+        <v>XL6009 Модуль DC-DC повышающий [Электронный ресурс]. – Электронные данные. – www.pcmount.by/preobrazovateli-napryazheniya/volt-converter-dc-dc-xl6009?i=13818%2C14861%2C14818. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="46" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="AO46" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP46">
+        <v>50</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR46" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[50]</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU46" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY46" t="str">
+        <f t="shared" si="1"/>
+        <v>HX-2S-JH20, контроллер заряда/разряда  [Электронный ресурс]. – Электронные данные. – www.pcmount.by/moduli-kontrolya-zaryada-razryada/battery-bms-board-2s-li-ion-hx-2s-jh20. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="47" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AO47" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP47">
+        <v>51</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR47" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[51]</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY47" t="str">
+        <f>_xlfn.CONCAT(AS47:AV47)</f>
+        <v>Аккумулятор Kijo 18650  [Электронный ресурс]. – Электронные данные. – 18650.by/katalog/akkumulyatornyie-batarei/akkumulyator-kijo-18650-li-ion-3-7-v-2-5-a-ch. – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="48" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>21</v>
       </c>
       <c r="H48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="AO48" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP48">
+        <v>52</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR48" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[52]</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY48" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> [Электронный ресурс]. – Электронные данные. – . – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="49" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="33" t="s">
+      <c r="AO49" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP49">
+        <v>53</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR49" s="86" t="str">
+        <f t="shared" si="0"/>
+        <v>[53]</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY49" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> [Электронный ресурс]. – Электронные данные. – . – Дата доступа: 16.03.2024</v>
+      </c>
+    </row>
+    <row r="56" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="35"/>
-      <c r="R57" s="33" t="s">
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="21"/>
+      <c r="R57" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
-      <c r="V57" s="34"/>
-      <c r="W57" s="34"/>
-      <c r="X57" s="34"/>
-      <c r="Y57" s="34"/>
-      <c r="Z57" s="34"/>
-      <c r="AA57" s="34"/>
-      <c r="AB57" s="34"/>
-      <c r="AC57" s="34"/>
-      <c r="AD57" s="34"/>
-      <c r="AE57" s="34"/>
-      <c r="AF57" s="34"/>
-      <c r="AG57" s="34"/>
-      <c r="AH57" s="34"/>
-      <c r="AI57" s="34"/>
-      <c r="AJ57" s="34"/>
-      <c r="AK57" s="34"/>
-      <c r="AL57" s="34"/>
-      <c r="AM57" s="34"/>
-      <c r="AN57" s="34"/>
-      <c r="AO57" s="34"/>
-      <c r="AP57" s="35"/>
-    </row>
-    <row r="58" spans="2:42" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="36"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="38"/>
-      <c r="R58" s="49"/>
-      <c r="S58" s="50"/>
-      <c r="T58" s="50"/>
-      <c r="U58" s="50"/>
-      <c r="V58" s="50"/>
-      <c r="W58" s="50"/>
-      <c r="X58" s="50"/>
-      <c r="Y58" s="50"/>
-      <c r="Z58" s="50"/>
-      <c r="AA58" s="50"/>
-      <c r="AB58" s="50"/>
-      <c r="AC58" s="50"/>
-      <c r="AD58" s="50"/>
-      <c r="AE58" s="50"/>
-      <c r="AF58" s="50"/>
-      <c r="AG58" s="50"/>
-      <c r="AH58" s="50"/>
-      <c r="AI58" s="50"/>
-      <c r="AJ58" s="50"/>
-      <c r="AK58" s="50"/>
-      <c r="AL58" s="50"/>
-      <c r="AM58" s="50"/>
-      <c r="AN58" s="50"/>
-      <c r="AO58" s="50"/>
-      <c r="AP58" s="51"/>
-    </row>
-    <row r="59" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="39" t="s">
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="20"/>
+      <c r="AD57" s="20"/>
+      <c r="AE57" s="20"/>
+      <c r="AF57" s="20"/>
+      <c r="AG57" s="20"/>
+      <c r="AH57" s="20"/>
+      <c r="AI57" s="20"/>
+      <c r="AJ57" s="20"/>
+      <c r="AK57" s="20"/>
+      <c r="AL57" s="20"/>
+      <c r="AM57" s="20"/>
+      <c r="AN57" s="20"/>
+      <c r="AO57" s="20"/>
+      <c r="AP57" s="20"/>
+      <c r="AQ57" s="20"/>
+      <c r="AR57" s="20"/>
+      <c r="AS57" s="20"/>
+      <c r="AT57" s="20"/>
+      <c r="AU57" s="21"/>
+    </row>
+    <row r="58" spans="2:51" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="24"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="36"/>
+      <c r="V58" s="36"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="36"/>
+      <c r="Z58" s="36"/>
+      <c r="AA58" s="36"/>
+      <c r="AB58" s="36"/>
+      <c r="AC58" s="36"/>
+      <c r="AD58" s="36"/>
+      <c r="AE58" s="36"/>
+      <c r="AF58" s="36"/>
+      <c r="AG58" s="36"/>
+      <c r="AH58" s="36"/>
+      <c r="AI58" s="36"/>
+      <c r="AJ58" s="36"/>
+      <c r="AK58" s="36"/>
+      <c r="AL58" s="36"/>
+      <c r="AM58" s="36"/>
+      <c r="AN58" s="36"/>
+      <c r="AO58" s="36"/>
+      <c r="AP58" s="36"/>
+      <c r="AQ58" s="36"/>
+      <c r="AR58" s="36"/>
+      <c r="AS58" s="36"/>
+      <c r="AT58" s="36"/>
+      <c r="AU58" s="37"/>
+    </row>
+    <row r="59" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="42" t="s">
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="41"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="27"/>
       <c r="R59" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S59" s="18" t="s">
+      <c r="S59" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="27"/>
-      <c r="W59" s="9" t="s">
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="X59" s="50"/>
+      <c r="Y59" s="50"/>
+      <c r="Z59" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA59" s="89"/>
+      <c r="AB59" s="89"/>
+      <c r="AC59" s="89"/>
+      <c r="AD59" s="89"/>
+      <c r="AE59" s="89"/>
+      <c r="AF59" s="89"/>
+      <c r="AG59" s="89"/>
+      <c r="AH59" s="89"/>
+      <c r="AI59" s="89"/>
+      <c r="AJ59" s="90"/>
+      <c r="AK59" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL59" s="53"/>
+      <c r="AM59" s="53"/>
+      <c r="AN59" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO59" s="53"/>
+      <c r="AP59" s="53"/>
+      <c r="AQ59" s="64"/>
+      <c r="AR59" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS59" s="53"/>
+      <c r="AT59" s="53"/>
+      <c r="AU59" s="64"/>
+    </row>
+    <row r="60" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B60" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="34"/>
+      <c r="R60" s="66">
+        <v>1</v>
+      </c>
+      <c r="S60" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="T60" s="47"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="103"/>
+      <c r="W60" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="X60" s="51"/>
+      <c r="Y60" s="69"/>
+      <c r="Z60" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA60" s="74"/>
+      <c r="AB60" s="74"/>
+      <c r="AC60" s="74"/>
+      <c r="AD60" s="74"/>
+      <c r="AE60" s="74"/>
+      <c r="AF60" s="74"/>
+      <c r="AG60" s="74"/>
+      <c r="AH60" s="74"/>
+      <c r="AI60" s="74"/>
+      <c r="AJ60" s="75"/>
+      <c r="AK60" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL60" s="52"/>
+      <c r="AM60" s="54"/>
+      <c r="AN60" s="65"/>
+      <c r="AO60" s="52"/>
+      <c r="AP60" s="52"/>
+      <c r="AQ60" s="93"/>
+      <c r="AR60" s="55"/>
+      <c r="AS60" s="52"/>
+      <c r="AT60" s="52"/>
+      <c r="AU60" s="93"/>
+    </row>
+    <row r="61" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="10"/>
+      <c r="R61" s="83">
+        <v>2</v>
+      </c>
+      <c r="S61" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="105"/>
+      <c r="W61" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="11"/>
-      <c r="Z59" s="28" t="s">
+      <c r="X61" s="12"/>
+      <c r="Y61" s="70"/>
+      <c r="Z61" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA61" s="72"/>
+      <c r="AB61" s="72"/>
+      <c r="AC61" s="72"/>
+      <c r="AD61" s="72"/>
+      <c r="AE61" s="72"/>
+      <c r="AF61" s="72"/>
+      <c r="AG61" s="72"/>
+      <c r="AH61" s="72"/>
+      <c r="AI61" s="72"/>
+      <c r="AJ61" s="77"/>
+      <c r="AK61" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL61" s="56"/>
+      <c r="AM61" s="57"/>
+      <c r="AN61" s="67">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="AO61" s="56"/>
+      <c r="AP61" s="56"/>
+      <c r="AQ61" s="116"/>
+      <c r="AR61" s="100">
+        <f>AN61*3.284</f>
+        <v>2.3398499999999998</v>
+      </c>
+      <c r="AS61" s="91"/>
+      <c r="AT61" s="91"/>
+      <c r="AU61" s="94"/>
+    </row>
+    <row r="62" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B62" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="10"/>
+      <c r="R62" s="83">
         <v>3</v>
       </c>
-      <c r="AA59" s="19"/>
-      <c r="AB59" s="19"/>
-      <c r="AC59" s="19"/>
-      <c r="AD59" s="19"/>
-      <c r="AE59" s="19"/>
-      <c r="AF59" s="19"/>
-      <c r="AG59" s="19"/>
-      <c r="AH59" s="19"/>
-      <c r="AI59" s="19"/>
-      <c r="AJ59" s="27"/>
-      <c r="AK59" s="18" t="s">
+      <c r="S62" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="105"/>
+      <c r="W62" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="70"/>
+      <c r="Z62" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA62" s="72"/>
+      <c r="AB62" s="72"/>
+      <c r="AC62" s="72"/>
+      <c r="AD62" s="72"/>
+      <c r="AE62" s="72"/>
+      <c r="AF62" s="72"/>
+      <c r="AG62" s="72"/>
+      <c r="AH62" s="72"/>
+      <c r="AI62" s="72"/>
+      <c r="AJ62" s="77"/>
+      <c r="AK62" s="58"/>
+      <c r="AL62" s="56"/>
+      <c r="AM62" s="57"/>
+      <c r="AN62" s="67"/>
+      <c r="AO62" s="56"/>
+      <c r="AP62" s="56"/>
+      <c r="AQ62" s="116"/>
+      <c r="AR62" s="100"/>
+      <c r="AS62" s="91"/>
+      <c r="AT62" s="91"/>
+      <c r="AU62" s="94"/>
+    </row>
+    <row r="63" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B63" s="16"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="10"/>
+      <c r="R63" s="83">
+        <v>4</v>
+      </c>
+      <c r="S63" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="107"/>
+      <c r="W63" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="70"/>
+      <c r="Z63" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA63" s="72"/>
+      <c r="AB63" s="72"/>
+      <c r="AC63" s="72"/>
+      <c r="AD63" s="72"/>
+      <c r="AE63" s="72"/>
+      <c r="AF63" s="72"/>
+      <c r="AG63" s="72"/>
+      <c r="AH63" s="72"/>
+      <c r="AI63" s="72"/>
+      <c r="AJ63" s="77"/>
+      <c r="AK63" s="58"/>
+      <c r="AL63" s="56"/>
+      <c r="AM63" s="57"/>
+      <c r="AN63" s="67"/>
+      <c r="AO63" s="56"/>
+      <c r="AP63" s="56"/>
+      <c r="AQ63" s="116"/>
+      <c r="AR63" s="100"/>
+      <c r="AS63" s="91"/>
+      <c r="AT63" s="91"/>
+      <c r="AU63" s="94"/>
+    </row>
+    <row r="64" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="44"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="8"/>
+      <c r="R64" s="83">
+        <v>5</v>
+      </c>
+      <c r="S64" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="109"/>
+      <c r="W64" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="70"/>
+      <c r="Z64" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA64" s="72"/>
+      <c r="AB64" s="72"/>
+      <c r="AC64" s="72"/>
+      <c r="AD64" s="72"/>
+      <c r="AE64" s="72"/>
+      <c r="AF64" s="72"/>
+      <c r="AG64" s="72"/>
+      <c r="AH64" s="72"/>
+      <c r="AI64" s="72"/>
+      <c r="AJ64" s="77"/>
+      <c r="AK64" s="58"/>
+      <c r="AL64" s="56"/>
+      <c r="AM64" s="57"/>
+      <c r="AN64" s="67">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="AO64" s="56"/>
+      <c r="AP64" s="56"/>
+      <c r="AQ64" s="116"/>
+      <c r="AR64" s="100">
+        <f t="shared" ref="AR64:AR79" si="2">AN64*3.284</f>
+        <v>3.7109199999999995E-2</v>
+      </c>
+      <c r="AS64" s="91"/>
+      <c r="AT64" s="91"/>
+      <c r="AU64" s="94"/>
+    </row>
+    <row r="65" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="R65" s="83">
+        <v>6</v>
+      </c>
+      <c r="S65" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="109"/>
+      <c r="W65" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="70"/>
+      <c r="Z65" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA65" s="72"/>
+      <c r="AB65" s="72"/>
+      <c r="AC65" s="72"/>
+      <c r="AD65" s="72"/>
+      <c r="AE65" s="72"/>
+      <c r="AF65" s="72"/>
+      <c r="AG65" s="72"/>
+      <c r="AH65" s="72"/>
+      <c r="AI65" s="72"/>
+      <c r="AJ65" s="77"/>
+      <c r="AK65" s="58"/>
+      <c r="AL65" s="56"/>
+      <c r="AM65" s="57"/>
+      <c r="AN65" s="67">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="AO65" s="56"/>
+      <c r="AP65" s="56"/>
+      <c r="AQ65" s="116"/>
+      <c r="AR65" s="100">
+        <f t="shared" si="2"/>
+        <v>6.3052799999999992E-2</v>
+      </c>
+      <c r="AS65" s="91"/>
+      <c r="AT65" s="91"/>
+      <c r="AU65" s="94"/>
+    </row>
+    <row r="66" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="R66" s="83">
+        <v>7</v>
+      </c>
+      <c r="S66" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="T66" s="14"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="111"/>
+      <c r="W66" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="70"/>
+      <c r="Z66" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA66" s="72"/>
+      <c r="AB66" s="72"/>
+      <c r="AC66" s="72"/>
+      <c r="AD66" s="72"/>
+      <c r="AE66" s="72"/>
+      <c r="AF66" s="72"/>
+      <c r="AG66" s="72"/>
+      <c r="AH66" s="72"/>
+      <c r="AI66" s="72"/>
+      <c r="AJ66" s="77"/>
+      <c r="AK66" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL66" s="56"/>
+      <c r="AM66" s="57"/>
+      <c r="AN66" s="67"/>
+      <c r="AO66" s="56"/>
+      <c r="AP66" s="56"/>
+      <c r="AQ66" s="116"/>
+      <c r="AR66" s="100"/>
+      <c r="AS66" s="91"/>
+      <c r="AT66" s="91"/>
+      <c r="AU66" s="94"/>
+    </row>
+    <row r="67" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="R67" s="83">
+        <v>8</v>
+      </c>
+      <c r="S67" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="109"/>
+      <c r="W67" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="70"/>
+      <c r="Z67" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA67" s="72"/>
+      <c r="AB67" s="72"/>
+      <c r="AC67" s="72"/>
+      <c r="AD67" s="72"/>
+      <c r="AE67" s="72"/>
+      <c r="AF67" s="72"/>
+      <c r="AG67" s="72"/>
+      <c r="AH67" s="72"/>
+      <c r="AI67" s="72"/>
+      <c r="AJ67" s="77"/>
+      <c r="AK67" s="58"/>
+      <c r="AL67" s="56"/>
+      <c r="AM67" s="57"/>
+      <c r="AN67" s="67">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="AO67" s="56"/>
+      <c r="AP67" s="56"/>
+      <c r="AQ67" s="116"/>
+      <c r="AR67" s="100">
+        <f t="shared" si="2"/>
+        <v>6.4694799999999997E-2</v>
+      </c>
+      <c r="AS67" s="91"/>
+      <c r="AT67" s="91"/>
+      <c r="AU67" s="94"/>
+    </row>
+    <row r="68" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="R68" s="83">
+        <v>9</v>
+      </c>
+      <c r="S68" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="109"/>
+      <c r="W68" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="70"/>
+      <c r="Z68" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA68" s="72"/>
+      <c r="AB68" s="72"/>
+      <c r="AC68" s="72"/>
+      <c r="AD68" s="72"/>
+      <c r="AE68" s="72"/>
+      <c r="AF68" s="72"/>
+      <c r="AG68" s="72"/>
+      <c r="AH68" s="72"/>
+      <c r="AI68" s="72"/>
+      <c r="AJ68" s="77"/>
+      <c r="AK68" s="58"/>
+      <c r="AL68" s="56"/>
+      <c r="AM68" s="57"/>
+      <c r="AN68" s="67">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="AO68" s="56"/>
+      <c r="AP68" s="56"/>
+      <c r="AQ68" s="116"/>
+      <c r="AR68" s="100">
+        <f t="shared" si="2"/>
+        <v>2.5615199999999998E-2</v>
+      </c>
+      <c r="AS68" s="91"/>
+      <c r="AT68" s="91"/>
+      <c r="AU68" s="94"/>
+    </row>
+    <row r="69" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="R69" s="83">
+        <v>10</v>
+      </c>
+      <c r="S69" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="109"/>
+      <c r="W69" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="70"/>
+      <c r="Z69" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA69" s="72"/>
+      <c r="AB69" s="72"/>
+      <c r="AC69" s="72"/>
+      <c r="AD69" s="72"/>
+      <c r="AE69" s="72"/>
+      <c r="AF69" s="72"/>
+      <c r="AG69" s="72"/>
+      <c r="AH69" s="72"/>
+      <c r="AI69" s="72"/>
+      <c r="AJ69" s="77"/>
+      <c r="AK69" s="58"/>
+      <c r="AL69" s="56"/>
+      <c r="AM69" s="57"/>
+      <c r="AN69" s="67">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AO69" s="56"/>
+      <c r="AP69" s="56"/>
+      <c r="AQ69" s="116"/>
+      <c r="AR69" s="100">
+        <f t="shared" si="2"/>
+        <v>3.9079599999999999E-2</v>
+      </c>
+      <c r="AS69" s="91"/>
+      <c r="AT69" s="91"/>
+      <c r="AU69" s="94"/>
+    </row>
+    <row r="70" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="R70" s="83">
+        <v>11</v>
+      </c>
+      <c r="S70" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="109"/>
+      <c r="W70" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="70"/>
+      <c r="Z70" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA70" s="72"/>
+      <c r="AB70" s="72"/>
+      <c r="AC70" s="72"/>
+      <c r="AD70" s="72"/>
+      <c r="AE70" s="72"/>
+      <c r="AF70" s="72"/>
+      <c r="AG70" s="72"/>
+      <c r="AH70" s="72"/>
+      <c r="AI70" s="72"/>
+      <c r="AJ70" s="77"/>
+      <c r="AK70" s="58"/>
+      <c r="AL70" s="56"/>
+      <c r="AM70" s="57"/>
+      <c r="AN70" s="67">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="AO70" s="56"/>
+      <c r="AP70" s="56"/>
+      <c r="AQ70" s="116"/>
+      <c r="AR70" s="100">
+        <f t="shared" si="2"/>
+        <v>8.9324799999999996E-2</v>
+      </c>
+      <c r="AS70" s="91"/>
+      <c r="AT70" s="91"/>
+      <c r="AU70" s="94"/>
+    </row>
+    <row r="71" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="R71" s="83">
+        <v>12</v>
+      </c>
+      <c r="S71" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="109"/>
+      <c r="W71" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="70"/>
+      <c r="Z71" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA71" s="72"/>
+      <c r="AB71" s="72"/>
+      <c r="AC71" s="72"/>
+      <c r="AD71" s="72"/>
+      <c r="AE71" s="72"/>
+      <c r="AF71" s="72"/>
+      <c r="AG71" s="72"/>
+      <c r="AH71" s="72"/>
+      <c r="AI71" s="72"/>
+      <c r="AJ71" s="77"/>
+      <c r="AK71" s="58"/>
+      <c r="AL71" s="56"/>
+      <c r="AM71" s="57"/>
+      <c r="AN71" s="67">
+        <v>5.3E-3</v>
+      </c>
+      <c r="AO71" s="56"/>
+      <c r="AP71" s="56"/>
+      <c r="AQ71" s="116"/>
+      <c r="AR71" s="100">
+        <f t="shared" si="2"/>
+        <v>1.7405199999999999E-2</v>
+      </c>
+      <c r="AS71" s="91"/>
+      <c r="AT71" s="91"/>
+      <c r="AU71" s="94"/>
+    </row>
+    <row r="72" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="R72" s="83">
+        <v>13</v>
+      </c>
+      <c r="S72" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="109"/>
+      <c r="W72" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="X72" s="48"/>
+      <c r="Y72" s="71"/>
+      <c r="Z72" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA72" s="72"/>
+      <c r="AB72" s="72"/>
+      <c r="AC72" s="72"/>
+      <c r="AD72" s="72"/>
+      <c r="AE72" s="72"/>
+      <c r="AF72" s="72"/>
+      <c r="AG72" s="72"/>
+      <c r="AH72" s="72"/>
+      <c r="AI72" s="72"/>
+      <c r="AJ72" s="77"/>
+      <c r="AK72" s="58"/>
+      <c r="AL72" s="56"/>
+      <c r="AM72" s="57"/>
+      <c r="AN72" s="67">
+        <v>0.23089999999999999</v>
+      </c>
+      <c r="AO72" s="56"/>
+      <c r="AP72" s="56"/>
+      <c r="AQ72" s="116"/>
+      <c r="AR72" s="100">
+        <f t="shared" si="2"/>
+        <v>0.75827559999999994</v>
+      </c>
+      <c r="AS72" s="91"/>
+      <c r="AT72" s="91"/>
+      <c r="AU72" s="94"/>
+    </row>
+    <row r="73" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="R73" s="83">
+        <v>14</v>
+      </c>
+      <c r="S73" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="109"/>
+      <c r="W73" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="70"/>
+      <c r="Z73" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA73" s="72"/>
+      <c r="AB73" s="72"/>
+      <c r="AC73" s="72"/>
+      <c r="AD73" s="72"/>
+      <c r="AE73" s="72"/>
+      <c r="AF73" s="72"/>
+      <c r="AG73" s="72"/>
+      <c r="AH73" s="72"/>
+      <c r="AI73" s="72"/>
+      <c r="AJ73" s="77"/>
+      <c r="AK73" s="58"/>
+      <c r="AL73" s="56"/>
+      <c r="AM73" s="57"/>
+      <c r="AN73" s="67">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="AO73" s="56"/>
+      <c r="AP73" s="56"/>
+      <c r="AQ73" s="116"/>
+      <c r="AR73" s="100">
+        <f t="shared" si="2"/>
+        <v>4.5647599999999997E-2</v>
+      </c>
+      <c r="AS73" s="91"/>
+      <c r="AT73" s="91"/>
+      <c r="AU73" s="94"/>
+    </row>
+    <row r="74" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B74" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="F74" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="R74" s="83">
+        <v>15</v>
+      </c>
+      <c r="S74" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="T74" s="38"/>
+      <c r="U74" s="38"/>
+      <c r="V74" s="105"/>
+      <c r="W74" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="70"/>
+      <c r="Z74" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA74" s="72"/>
+      <c r="AB74" s="72"/>
+      <c r="AC74" s="72"/>
+      <c r="AD74" s="72"/>
+      <c r="AE74" s="72"/>
+      <c r="AF74" s="72"/>
+      <c r="AG74" s="72"/>
+      <c r="AH74" s="72"/>
+      <c r="AI74" s="72"/>
+      <c r="AJ74" s="77"/>
+      <c r="AK74" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL74" s="56"/>
+      <c r="AM74" s="57"/>
+      <c r="AN74" s="67"/>
+      <c r="AO74" s="56"/>
+      <c r="AP74" s="56"/>
+      <c r="AQ74" s="116"/>
+      <c r="AR74" s="100"/>
+      <c r="AS74" s="91"/>
+      <c r="AT74" s="91"/>
+      <c r="AU74" s="94"/>
+    </row>
+    <row r="75" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B75" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="R75" s="83">
+        <v>16</v>
+      </c>
+      <c r="S75" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="109"/>
+      <c r="W75" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="70"/>
+      <c r="Z75" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA75" s="72"/>
+      <c r="AB75" s="72"/>
+      <c r="AC75" s="72"/>
+      <c r="AD75" s="72"/>
+      <c r="AE75" s="72"/>
+      <c r="AF75" s="72"/>
+      <c r="AG75" s="72"/>
+      <c r="AH75" s="72"/>
+      <c r="AI75" s="72"/>
+      <c r="AJ75" s="77"/>
+      <c r="AK75" s="58"/>
+      <c r="AL75" s="56"/>
+      <c r="AM75" s="57"/>
+      <c r="AN75" s="67">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="AO75" s="56"/>
+      <c r="AP75" s="56"/>
+      <c r="AQ75" s="116"/>
+      <c r="AR75" s="100">
+        <f t="shared" si="2"/>
+        <v>4.3677199999999992E-2</v>
+      </c>
+      <c r="AS75" s="91"/>
+      <c r="AT75" s="91"/>
+      <c r="AU75" s="94"/>
+    </row>
+    <row r="76" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B76" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="R76" s="83">
+        <v>17</v>
+      </c>
+      <c r="S76" s="108" t="s">
+        <v>73</v>
+      </c>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="109"/>
+      <c r="W76" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="70"/>
+      <c r="Z76" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA76" s="72"/>
+      <c r="AB76" s="72"/>
+      <c r="AC76" s="72"/>
+      <c r="AD76" s="72"/>
+      <c r="AE76" s="72"/>
+      <c r="AF76" s="72"/>
+      <c r="AG76" s="72"/>
+      <c r="AH76" s="72"/>
+      <c r="AI76" s="72"/>
+      <c r="AJ76" s="77"/>
+      <c r="AK76" s="58"/>
+      <c r="AL76" s="56"/>
+      <c r="AM76" s="57"/>
+      <c r="AN76" s="67">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AO76" s="56"/>
+      <c r="AP76" s="56"/>
+      <c r="AQ76" s="116"/>
+      <c r="AR76" s="100">
+        <f t="shared" si="2"/>
+        <v>0.10049039999999999</v>
+      </c>
+      <c r="AS76" s="91"/>
+      <c r="AT76" s="91"/>
+      <c r="AU76" s="94"/>
+    </row>
+    <row r="77" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="R77" s="83">
+        <v>18</v>
+      </c>
+      <c r="S77" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="109"/>
+      <c r="W77" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="70"/>
+      <c r="Z77" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA77" s="72"/>
+      <c r="AB77" s="72"/>
+      <c r="AC77" s="72"/>
+      <c r="AD77" s="72"/>
+      <c r="AE77" s="72"/>
+      <c r="AF77" s="72"/>
+      <c r="AG77" s="72"/>
+      <c r="AH77" s="72"/>
+      <c r="AI77" s="72"/>
+      <c r="AJ77" s="77"/>
+      <c r="AK77" s="58"/>
+      <c r="AL77" s="56"/>
+      <c r="AM77" s="57"/>
+      <c r="AN77" s="67">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AO77" s="56"/>
+      <c r="AP77" s="56"/>
+      <c r="AQ77" s="116"/>
+      <c r="AR77" s="100">
+        <f t="shared" si="2"/>
+        <v>5.2544000000000002E-3</v>
+      </c>
+      <c r="AS77" s="91"/>
+      <c r="AT77" s="91"/>
+      <c r="AU77" s="94"/>
+    </row>
+    <row r="78" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="R78" s="83">
+        <v>19</v>
+      </c>
+      <c r="S78" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="109"/>
+      <c r="W78" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="70"/>
+      <c r="Z78" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA78" s="72"/>
+      <c r="AB78" s="72"/>
+      <c r="AC78" s="72"/>
+      <c r="AD78" s="72"/>
+      <c r="AE78" s="72"/>
+      <c r="AF78" s="72"/>
+      <c r="AG78" s="72"/>
+      <c r="AH78" s="72"/>
+      <c r="AI78" s="72"/>
+      <c r="AJ78" s="77"/>
+      <c r="AK78" s="58"/>
+      <c r="AL78" s="56"/>
+      <c r="AM78" s="57"/>
+      <c r="AN78" s="67">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="AO78" s="56"/>
+      <c r="AP78" s="56"/>
+      <c r="AQ78" s="116"/>
+      <c r="AR78" s="100">
+        <f t="shared" si="2"/>
+        <v>5.6813199999999994E-2</v>
+      </c>
+      <c r="AS78" s="91"/>
+      <c r="AT78" s="91"/>
+      <c r="AU78" s="94"/>
+    </row>
+    <row r="79" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="R79" s="83">
+        <v>20</v>
+      </c>
+      <c r="S79" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="T79" s="92"/>
+      <c r="U79" s="92"/>
+      <c r="V79" s="113"/>
+      <c r="W79" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="X79" s="12"/>
+      <c r="Y79" s="70"/>
+      <c r="Z79" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA79" s="72"/>
+      <c r="AB79" s="72"/>
+      <c r="AC79" s="72"/>
+      <c r="AD79" s="72"/>
+      <c r="AE79" s="72"/>
+      <c r="AF79" s="72"/>
+      <c r="AG79" s="72"/>
+      <c r="AH79" s="72"/>
+      <c r="AI79" s="72"/>
+      <c r="AJ79" s="77"/>
+      <c r="AK79" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL79" s="56"/>
+      <c r="AM79" s="57"/>
+      <c r="AN79" s="67">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="AO79" s="56"/>
+      <c r="AP79" s="56"/>
+      <c r="AQ79" s="116"/>
+      <c r="AR79" s="100">
+        <f t="shared" si="2"/>
+        <v>0.9819159999999999</v>
+      </c>
+      <c r="AS79" s="91"/>
+      <c r="AT79" s="91"/>
+      <c r="AU79" s="94"/>
+    </row>
+    <row r="80" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="R80" s="83">
+        <v>21</v>
+      </c>
+      <c r="S80" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="T80" s="92"/>
+      <c r="U80" s="92"/>
+      <c r="V80" s="113"/>
+      <c r="W80" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="X80" s="56"/>
+      <c r="Y80" s="57"/>
+      <c r="Z80" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA80" s="72"/>
+      <c r="AB80" s="72"/>
+      <c r="AC80" s="72"/>
+      <c r="AD80" s="72"/>
+      <c r="AE80" s="72"/>
+      <c r="AF80" s="72"/>
+      <c r="AG80" s="72"/>
+      <c r="AH80" s="72"/>
+      <c r="AI80" s="72"/>
+      <c r="AJ80" s="77"/>
+      <c r="AK80" s="58"/>
+      <c r="AL80" s="56"/>
+      <c r="AM80" s="57"/>
+      <c r="AN80" s="67"/>
+      <c r="AO80" s="56"/>
+      <c r="AP80" s="56"/>
+      <c r="AQ80" s="116"/>
+      <c r="AR80" s="100"/>
+      <c r="AS80" s="91"/>
+      <c r="AT80" s="91"/>
+      <c r="AU80" s="94"/>
+    </row>
+    <row r="81" spans="15:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R81" s="84">
+        <v>22</v>
+      </c>
+      <c r="S81" s="114"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="115"/>
+      <c r="W81" s="61"/>
+      <c r="X81" s="59"/>
+      <c r="Y81" s="60"/>
+      <c r="Z81" s="78"/>
+      <c r="AA81" s="79"/>
+      <c r="AB81" s="79"/>
+      <c r="AC81" s="79"/>
+      <c r="AD81" s="79"/>
+      <c r="AE81" s="79"/>
+      <c r="AF81" s="79"/>
+      <c r="AG81" s="79"/>
+      <c r="AH81" s="79"/>
+      <c r="AI81" s="79"/>
+      <c r="AJ81" s="80"/>
+      <c r="AK81" s="61"/>
+      <c r="AL81" s="59"/>
+      <c r="AM81" s="60"/>
+      <c r="AN81" s="68">
+        <v>2.46</v>
+      </c>
+      <c r="AO81" s="59"/>
+      <c r="AP81" s="59"/>
+      <c r="AQ81" s="117"/>
+      <c r="AR81" s="101">
+        <f t="shared" ref="AR81" si="3">AN81*3.284</f>
+        <v>8.07864</v>
+      </c>
+      <c r="AS81" s="95"/>
+      <c r="AT81" s="95"/>
+      <c r="AU81" s="96"/>
+    </row>
+    <row r="82" spans="15:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R82" s="86"/>
+      <c r="AP82" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ82" s="63"/>
+      <c r="AR82" s="118">
+        <f>SUM(AR61:AU81)</f>
+        <v>12.746845999999998</v>
+      </c>
+      <c r="AS82" s="118"/>
+      <c r="AT82" s="118"/>
+      <c r="AU82" s="119"/>
+    </row>
+    <row r="90" spans="15:47" x14ac:dyDescent="0.25">
+      <c r="T90" t="s">
+        <v>107</v>
+      </c>
+      <c r="U90" t="s">
+        <v>108</v>
+      </c>
+      <c r="V90" t="s">
+        <v>109</v>
+      </c>
+      <c r="W90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="15:47" x14ac:dyDescent="0.25">
+      <c r="O91" t="s">
+        <v>114</v>
+      </c>
+      <c r="P91">
+        <v>33</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>115</v>
+      </c>
+      <c r="R91" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S91" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="T91" s="81" t="str">
+        <f>S91</f>
+        <v xml:space="preserve">Разъём SMA-Female </v>
+      </c>
+      <c r="U91" s="85">
+        <v>1</v>
+      </c>
+      <c r="V91" s="85">
+        <f>IF(NOT(ISBLANK(AR61)),AR61)</f>
+        <v>2.3398499999999998</v>
+      </c>
+      <c r="W91" s="85">
+        <f>U91*V91</f>
+        <v>2.3398499999999998</v>
+      </c>
+      <c r="X91" s="85"/>
+    </row>
+    <row r="92" spans="15:47" x14ac:dyDescent="0.25">
+      <c r="O92" t="s">
+        <v>114</v>
+      </c>
+      <c r="P92">
+        <v>34</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>115</v>
+      </c>
+      <c r="R92" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="S92" t="s">
+        <v>131</v>
+      </c>
+      <c r="T92" s="81" t="str">
+        <f t="shared" ref="T92:T110" si="4">S92</f>
+        <v xml:space="preserve">Резистор 100 Ом </v>
+      </c>
+      <c r="U92" s="85">
+        <v>1</v>
+      </c>
+      <c r="V92" s="85">
+        <f>IF(NOT(ISBLANK(AR70)),AR70)</f>
+        <v>8.9324799999999996E-2</v>
+      </c>
+      <c r="W92" s="85">
+        <f>U92*V92</f>
+        <v>8.9324799999999996E-2</v>
+      </c>
+      <c r="X92" s="85"/>
+    </row>
+    <row r="93" spans="15:47" x14ac:dyDescent="0.25">
+      <c r="O93" t="s">
+        <v>114</v>
+      </c>
+      <c r="P93">
+        <v>35</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>115</v>
+      </c>
+      <c r="R93" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S93" t="s">
+        <v>132</v>
+      </c>
+      <c r="T93" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Резистор 150 Ом </v>
+      </c>
+      <c r="U93" s="85">
+        <v>2</v>
+      </c>
+      <c r="V93" s="85">
+        <f>IF(NOT(ISBLANK(AR65)),AR65)</f>
+        <v>6.3052799999999992E-2</v>
+      </c>
+      <c r="W93" s="85">
+        <f t="shared" ref="W92:W105" si="5">U93*V93</f>
+        <v>0.12610559999999998</v>
+      </c>
+      <c r="X93" s="85"/>
+    </row>
+    <row r="94" spans="15:47" x14ac:dyDescent="0.25">
+      <c r="O94" t="s">
+        <v>114</v>
+      </c>
+      <c r="P94">
+        <v>36</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>115</v>
+      </c>
+      <c r="R94" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S94" t="s">
+        <v>133</v>
+      </c>
+      <c r="T94" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Резистор 1 кОм </v>
+      </c>
+      <c r="U94" s="85">
+        <v>2</v>
+      </c>
+      <c r="V94" s="85">
+        <f>IF(NOT(ISBLANK(AR78)),AR78)</f>
+        <v>5.6813199999999994E-2</v>
+      </c>
+      <c r="W94" s="85">
+        <f>U94*V94</f>
+        <v>0.11362639999999999</v>
+      </c>
+      <c r="X94" s="85"/>
+      <c r="Y94" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z94" s="86" t="str">
+        <f>_xlfn.CONCAT(O91:Q91)</f>
+        <v>[33]</v>
+      </c>
+    </row>
+    <row r="95" spans="15:47" x14ac:dyDescent="0.25">
+      <c r="O95" t="s">
+        <v>114</v>
+      </c>
+      <c r="P95">
+        <v>37</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>115</v>
+      </c>
+      <c r="R95" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="S95" t="s">
+        <v>134</v>
+      </c>
+      <c r="T95" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Резистор 22 кОм </v>
+      </c>
+      <c r="U95" s="85">
+        <v>1</v>
+      </c>
+      <c r="V95" s="85">
+        <f>IF(NOT(ISBLANK(AR71)),AR71)</f>
+        <v>1.7405199999999999E-2</v>
+      </c>
+      <c r="W95" s="85">
+        <f>U95*V95</f>
+        <v>1.7405199999999999E-2</v>
+      </c>
+      <c r="X95" s="85"/>
+      <c r="Y95" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z95" s="86" t="str">
+        <f>_xlfn.CONCAT(O92:Q92)</f>
+        <v>[34]</v>
+      </c>
+    </row>
+    <row r="96" spans="15:47" x14ac:dyDescent="0.25">
+      <c r="O96" t="s">
+        <v>114</v>
+      </c>
+      <c r="P96">
         <v>38</v>
       </c>
-      <c r="AL59" s="19"/>
-      <c r="AM59" s="19"/>
-      <c r="AN59" s="19"/>
-      <c r="AO59" s="19"/>
-      <c r="AP59" s="20"/>
-    </row>
-    <row r="60" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B60" s="43" t="s">
+      <c r="Q96" t="s">
+        <v>115</v>
+      </c>
+      <c r="R96" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="S96" t="s">
+        <v>135</v>
+      </c>
+      <c r="T96" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Потенциометр 1 кОм </v>
+      </c>
+      <c r="U96" s="85">
+        <v>2</v>
+      </c>
+      <c r="V96" s="85">
+        <f>IF(NOT(ISBLANK(AR72)),AR72)</f>
+        <v>0.75827559999999994</v>
+      </c>
+      <c r="W96" s="85">
+        <f>U96*V96</f>
+        <v>1.5165511999999999</v>
+      </c>
+      <c r="X96" s="85"/>
+      <c r="Y96" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z96" s="86" t="str">
+        <f>_xlfn.CONCAT(O93:Q93)</f>
+        <v>[35]</v>
+      </c>
+    </row>
+    <row r="97" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O97" t="s">
+        <v>114</v>
+      </c>
+      <c r="P97">
+        <v>39</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>115</v>
+      </c>
+      <c r="R97" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="S97" t="s">
+        <v>136</v>
+      </c>
+      <c r="T97" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Конденсатор 1.5 пФ </v>
+      </c>
+      <c r="U97" s="85">
         <v>1</v>
       </c>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="47"/>
-      <c r="P60" s="48"/>
-      <c r="R60" s="58">
+      <c r="V97" s="85">
+        <f>IF(NOT(ISBLANK(AR77)),AR77)</f>
+        <v>5.2544000000000002E-3</v>
+      </c>
+      <c r="W97" s="85">
+        <f>U97*V97</f>
+        <v>5.2544000000000002E-3</v>
+      </c>
+      <c r="X97" s="85"/>
+      <c r="Y97" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z97" s="86" t="str">
+        <f>_xlfn.CONCAT(O94:Q94)</f>
+        <v>[36]</v>
+      </c>
+    </row>
+    <row r="98" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O98" t="s">
+        <v>114</v>
+      </c>
+      <c r="P98">
+        <v>40</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>115</v>
+      </c>
+      <c r="R98" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S98" t="s">
+        <v>137</v>
+      </c>
+      <c r="T98" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Конденсатор 100 пФ </v>
+      </c>
+      <c r="U98" s="85">
         <v>1</v>
       </c>
-      <c r="S60" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="T60" s="29"/>
-      <c r="U60" s="29"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="12" t="s">
+      <c r="V98" s="85">
+        <f>IF(NOT(ISBLANK(AR73)),AR73)</f>
+        <v>4.5647599999999997E-2</v>
+      </c>
+      <c r="W98" s="85">
+        <f>U98*V98</f>
+        <v>4.5647599999999997E-2</v>
+      </c>
+      <c r="X98" s="85"/>
+      <c r="Y98" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z98" s="86" t="str">
+        <f>_xlfn.CONCAT(O95:Q95)</f>
+        <v>[37]</v>
+      </c>
+    </row>
+    <row r="99" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O99" t="s">
+        <v>114</v>
+      </c>
+      <c r="P99">
+        <v>41</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>115</v>
+      </c>
+      <c r="R99" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="S99" t="s">
+        <v>138</v>
+      </c>
+      <c r="T99" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Конденсатор 330 нФ </v>
+      </c>
+      <c r="U99" s="85">
+        <v>1</v>
+      </c>
+      <c r="V99" s="85">
+        <f>IF(NOT(ISBLANK(AR75)),AR75)</f>
+        <v>4.3677199999999992E-2</v>
+      </c>
+      <c r="W99" s="85">
+        <f>U99*V99</f>
+        <v>4.3677199999999992E-2</v>
+      </c>
+      <c r="X99" s="85"/>
+      <c r="Y99" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z99" s="86" t="str">
+        <f>_xlfn.CONCAT(O96:Q96)</f>
+        <v>[38]</v>
+      </c>
+    </row>
+    <row r="100" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O100" t="s">
+        <v>114</v>
+      </c>
+      <c r="P100">
+        <v>42</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>115</v>
+      </c>
+      <c r="R100" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="S100" t="s">
+        <v>139</v>
+      </c>
+      <c r="T100" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Конденсатор 10 нФ </v>
+      </c>
+      <c r="U100" s="85">
+        <v>1</v>
+      </c>
+      <c r="V100" s="85">
+        <f>IF(NOT(ISBLANK(AR67)),AR67)</f>
+        <v>6.4694799999999997E-2</v>
+      </c>
+      <c r="W100" s="85">
+        <f>U100*V100</f>
+        <v>6.4694799999999997E-2</v>
+      </c>
+      <c r="X100" s="85"/>
+      <c r="Y100" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z100" s="86" t="str">
+        <f>_xlfn.CONCAT(O97:Q97)</f>
+        <v>[39]</v>
+      </c>
+    </row>
+    <row r="101" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O101" t="s">
+        <v>114</v>
+      </c>
+      <c r="P101">
+        <v>43</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>115</v>
+      </c>
+      <c r="R101" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="S101" t="s">
+        <v>140</v>
+      </c>
+      <c r="T101" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Конденсатор 47 нФ </v>
+      </c>
+      <c r="U101" s="85">
+        <v>2</v>
+      </c>
+      <c r="V101" s="85">
+        <f>IF(NOT(ISBLANK(AR68)),AR68)</f>
+        <v>2.5615199999999998E-2</v>
+      </c>
+      <c r="W101" s="85">
+        <f>U101*V101</f>
+        <v>5.1230399999999995E-2</v>
+      </c>
+      <c r="X101" s="85"/>
+      <c r="Y101" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z101" s="86" t="str">
+        <f>_xlfn.CONCAT(O98:Q98)</f>
+        <v>[40]</v>
+      </c>
+    </row>
+    <row r="102" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O102" t="s">
+        <v>114</v>
+      </c>
+      <c r="P102">
+        <v>44</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>115</v>
+      </c>
+      <c r="R102" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="S102" t="s">
+        <v>141</v>
+      </c>
+      <c r="T102" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Конденсатор 100 нФ </v>
+      </c>
+      <c r="U102" s="85">
+        <v>3</v>
+      </c>
+      <c r="V102" s="85">
+        <f>IF(NOT(ISBLANK(AR69)),AR69)</f>
+        <v>3.9079599999999999E-2</v>
+      </c>
+      <c r="W102" s="85">
+        <f>U102*V102</f>
+        <v>0.1172388</v>
+      </c>
+      <c r="X102" s="85"/>
+      <c r="Y102" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z102" s="86" t="str">
+        <f>_xlfn.CONCAT(O99:Q99)</f>
+        <v>[41]</v>
+      </c>
+    </row>
+    <row r="103" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O103" t="s">
+        <v>114</v>
+      </c>
+      <c r="P103">
+        <v>45</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>115</v>
+      </c>
+      <c r="R103" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="S103" t="s">
+        <v>142</v>
+      </c>
+      <c r="T103" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Кнопка </v>
+      </c>
+      <c r="U103" s="85">
+        <v>1</v>
+      </c>
+      <c r="V103" s="85">
+        <f>IF(NOT(ISBLANK(AR76)),AR76)</f>
+        <v>0.10049039999999999</v>
+      </c>
+      <c r="W103" s="85">
+        <f>U103*V103</f>
+        <v>0.10049039999999999</v>
+      </c>
+      <c r="X103" s="85"/>
+      <c r="Y103" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z103" s="86" t="str">
+        <f>_xlfn.CONCAT(O100:Q100)</f>
+        <v>[42]</v>
+      </c>
+    </row>
+    <row r="104" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O104" t="s">
+        <v>114</v>
+      </c>
+      <c r="P104">
+        <v>46</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>115</v>
+      </c>
+      <c r="R104" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="S104" t="s">
+        <v>143</v>
+      </c>
+      <c r="T104" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Транзистор MMBT2222A </v>
+      </c>
+      <c r="U104" s="85">
+        <v>3</v>
+      </c>
+      <c r="V104" s="85">
+        <f>IF(NOT(ISBLANK(AR64)),AR64)</f>
+        <v>3.7109199999999995E-2</v>
+      </c>
+      <c r="W104" s="85">
+        <f>U104*V104</f>
+        <v>0.11132759999999998</v>
+      </c>
+      <c r="X104" s="85"/>
+      <c r="Y104" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z104" s="86" t="str">
+        <f>_xlfn.CONCAT(O101:Q101)</f>
+        <v>[43]</v>
+      </c>
+    </row>
+    <row r="105" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O105" t="s">
+        <v>114</v>
+      </c>
+      <c r="P105">
+        <v>47</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>115</v>
+      </c>
+      <c r="R105" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="S105" t="s">
+        <v>144</v>
+      </c>
+      <c r="T105" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Стабилизатор напряжения LM2940L </v>
+      </c>
+      <c r="U105" s="85">
+        <v>1</v>
+      </c>
+      <c r="V105" s="85">
+        <f>IF(NOT(ISBLANK(AR79)),AR79)</f>
+        <v>0.9819159999999999</v>
+      </c>
+      <c r="W105" s="85">
+        <f>U105*V105</f>
+        <v>0.9819159999999999</v>
+      </c>
+      <c r="X105" s="85"/>
+      <c r="Y105" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z105" s="86" t="str">
+        <f>_xlfn.CONCAT(O102:Q102)</f>
+        <v>[44]</v>
+      </c>
+    </row>
+    <row r="106" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O106" t="s">
+        <v>114</v>
+      </c>
+      <c r="P106">
+        <v>48</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>115</v>
+      </c>
+      <c r="R106" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="S106" t="s">
+        <v>145</v>
+      </c>
+      <c r="T106" s="81" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">ГУН YSGM232508 </v>
+      </c>
+      <c r="U106" s="85">
+        <v>1</v>
+      </c>
+      <c r="V106" s="85">
+        <v>1.31</v>
+      </c>
+      <c r="W106" s="85">
+        <f>U106*V106</f>
+        <v>1.31</v>
+      </c>
+      <c r="X106" s="85"/>
+      <c r="Y106" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z106" s="86" t="str">
+        <f>_xlfn.CONCAT(O103:Q103)</f>
+        <v>[45]</v>
+      </c>
+    </row>
+    <row r="107" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O107" t="s">
+        <v>114</v>
+      </c>
+      <c r="P107">
+        <v>49</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>115</v>
+      </c>
+      <c r="R107" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="S107" t="s">
+        <v>155</v>
+      </c>
+      <c r="T107" s="81" t="str">
+        <f>S107</f>
+        <v>Модуль XL6009 DC-DC повышающий</v>
+      </c>
+      <c r="U107" s="85">
+        <v>1</v>
+      </c>
+      <c r="V107" s="85">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="W107" s="85">
+        <f>U107*V107</f>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="X107" s="85"/>
+      <c r="Y107" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z107" s="86" t="str">
+        <f>_xlfn.CONCAT(O104:Q104)</f>
+        <v>[46]</v>
+      </c>
+    </row>
+    <row r="108" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O108" t="s">
+        <v>114</v>
+      </c>
+      <c r="P108">
+        <v>50</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>115</v>
+      </c>
+      <c r="R108" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="S108" t="s">
+        <v>156</v>
+      </c>
+      <c r="T108" s="81" t="str">
+        <f>S108</f>
+        <v xml:space="preserve">HX-2S-JH20, контроллер заряда/разряда  </v>
+      </c>
+      <c r="U108" s="85">
+        <v>1</v>
+      </c>
+      <c r="V108" s="85">
+        <v>4</v>
+      </c>
+      <c r="W108" s="85">
+        <f>U108*V108</f>
+        <v>4</v>
+      </c>
+      <c r="X108" s="85"/>
+      <c r="Y108" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z108" s="86" t="str">
+        <f>_xlfn.CONCAT(O105:Q105)</f>
+        <v>[47]</v>
+      </c>
+    </row>
+    <row r="109" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O109" t="s">
+        <v>114</v>
+      </c>
+      <c r="P109">
+        <v>51</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>115</v>
+      </c>
+      <c r="R109" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="S109" t="s">
+        <v>151</v>
+      </c>
+      <c r="T109" s="81" t="str">
+        <f>S109</f>
+        <v xml:space="preserve">Аккумулятор Kijo 18650 </v>
+      </c>
+      <c r="U109" s="85">
+        <v>2</v>
+      </c>
+      <c r="V109" s="85">
+        <v>11.7</v>
+      </c>
+      <c r="W109" s="85">
+        <f>U109*V109</f>
+        <v>23.4</v>
+      </c>
+      <c r="X109" s="85"/>
+      <c r="Y109" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z109" s="86" t="str">
+        <f>_xlfn.CONCAT(O106:Q106)</f>
+        <v>[48]</v>
+      </c>
+    </row>
+    <row r="110" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O110" t="s">
+        <v>114</v>
+      </c>
+      <c r="P110">
         <v>52</v>
       </c>
-      <c r="X60" s="12"/>
-      <c r="Y60" s="12"/>
-      <c r="Z60" s="29" t="s">
+      <c r="Q110" t="s">
+        <v>115</v>
+      </c>
+      <c r="R110" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="S110" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="T110" s="81" t="str">
+        <f>S110</f>
+        <v>USB-C конненктор</v>
+      </c>
+      <c r="U110" s="85">
+        <v>1</v>
+      </c>
+      <c r="V110" s="85">
+        <v>8.07864</v>
+      </c>
+      <c r="W110" s="85">
+        <f>U110*V110</f>
+        <v>8.07864</v>
+      </c>
+      <c r="X110" s="85"/>
+      <c r="Z110" s="86" t="str">
+        <f t="shared" ref="Z110:Z114" si="6">_xlfn.CONCAT(O107:Q107)</f>
+        <v>[49]</v>
+      </c>
+    </row>
+    <row r="111" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="O111" t="s">
+        <v>114</v>
+      </c>
+      <c r="P111">
         <v>53</v>
       </c>
-      <c r="AA60" s="29"/>
-      <c r="AB60" s="29"/>
-      <c r="AC60" s="29"/>
-      <c r="AD60" s="29"/>
-      <c r="AE60" s="29"/>
-      <c r="AF60" s="29"/>
-      <c r="AG60" s="29"/>
-      <c r="AH60" s="29"/>
-      <c r="AI60" s="29"/>
-      <c r="AJ60" s="29"/>
-      <c r="AK60" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL60" s="21"/>
-      <c r="AM60" s="21"/>
-      <c r="AN60" s="21"/>
-      <c r="AO60" s="21"/>
-      <c r="AP60" s="22"/>
-    </row>
-    <row r="61" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B61" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="7"/>
-      <c r="R61" s="59">
+      <c r="Q111" t="s">
+        <v>115</v>
+      </c>
+      <c r="R111" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="S111" t="s">
+        <v>146</v>
+      </c>
+      <c r="T111" s="81" t="str">
+        <f>S111</f>
+        <v>Плата печатная двуслойная</v>
+      </c>
+      <c r="U111" s="85">
+        <v>1</v>
+      </c>
+      <c r="V111" s="85">
+        <v>16</v>
+      </c>
+      <c r="W111" s="85">
+        <f>U111*V111</f>
+        <v>16</v>
+      </c>
+      <c r="X111" s="85"/>
+      <c r="Z111" s="86" t="str">
+        <f t="shared" si="6"/>
+        <v>[50]</v>
+      </c>
+    </row>
+    <row r="112" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="U112" s="85"/>
+      <c r="V112" s="85"/>
+      <c r="W112" s="85"/>
+      <c r="X112" s="85"/>
+      <c r="Z112" s="86" t="str">
+        <f t="shared" si="6"/>
+        <v>[51]</v>
+      </c>
+    </row>
+    <row r="113" spans="19:26" x14ac:dyDescent="0.25">
+      <c r="S113" s="81"/>
+      <c r="U113" s="85"/>
+      <c r="V113" s="85"/>
+      <c r="W113" s="85">
+        <f>SUM(W91:W111)</f>
+        <v>62.572980399999999</v>
+      </c>
+      <c r="X113" s="85"/>
+      <c r="Z113" s="86" t="str">
+        <f t="shared" si="6"/>
+        <v>[52]</v>
+      </c>
+    </row>
+    <row r="114" spans="19:26" x14ac:dyDescent="0.25">
+      <c r="U114" s="85"/>
+      <c r="V114" s="85"/>
+      <c r="W114" s="85"/>
+      <c r="X114" s="85"/>
+      <c r="Z114" s="86" t="str">
+        <f t="shared" si="6"/>
+        <v>[53]</v>
+      </c>
+    </row>
+    <row r="115" spans="19:26" x14ac:dyDescent="0.25">
+      <c r="U115" s="85"/>
+      <c r="V115" s="85"/>
+      <c r="W115" s="85"/>
+      <c r="X115" s="85"/>
+    </row>
+    <row r="116" spans="19:26" x14ac:dyDescent="0.25">
+      <c r="U116" s="85"/>
+      <c r="V116" s="85"/>
+      <c r="W116" s="85"/>
+      <c r="X116" s="85"/>
+    </row>
+    <row r="117" spans="19:26" x14ac:dyDescent="0.25">
+      <c r="U117" s="85"/>
+      <c r="V117" s="85"/>
+      <c r="W117" s="85"/>
+      <c r="X117" s="85"/>
+    </row>
+    <row r="118" spans="19:26" x14ac:dyDescent="0.25">
+      <c r="U118" s="85"/>
+      <c r="V118" s="85"/>
+      <c r="W118" s="85"/>
+      <c r="X118" s="85"/>
+    </row>
+    <row r="119" spans="19:26" x14ac:dyDescent="0.25">
+      <c r="U119" s="85"/>
+      <c r="V119" s="85"/>
+      <c r="W119" s="85"/>
+      <c r="X119" s="85"/>
+    </row>
+    <row r="122" spans="19:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="19:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V123" s="120">
+        <v>1</v>
+      </c>
+      <c r="W123" s="121">
+        <v>2.34</v>
+      </c>
+      <c r="X123">
+        <f>V123*W123</f>
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="124" spans="19:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V124" s="122">
+        <v>1</v>
+      </c>
+      <c r="W124" s="123">
+        <v>0.09</v>
+      </c>
+      <c r="X124">
+        <f t="shared" ref="X124:X143" si="7">V124*W124</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="125" spans="19:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V125" s="122">
         <v>2</v>
       </c>
-      <c r="S61" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="X61" s="13"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA61" s="30"/>
-      <c r="AB61" s="30"/>
-      <c r="AC61" s="30"/>
-      <c r="AD61" s="30"/>
-      <c r="AE61" s="30"/>
-      <c r="AF61" s="30"/>
-      <c r="AG61" s="30"/>
-      <c r="AH61" s="30"/>
-      <c r="AI61" s="30"/>
-      <c r="AJ61" s="30"/>
-      <c r="AK61" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL61" s="6"/>
-      <c r="AM61" s="6"/>
-      <c r="AN61" s="6"/>
-      <c r="AO61" s="6"/>
-      <c r="AP61" s="7"/>
-    </row>
-    <row r="62" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B62" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="7"/>
-      <c r="R62" s="59">
+      <c r="W125" s="123">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X125">
+        <f t="shared" si="7"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="19:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V126" s="122">
+        <v>2</v>
+      </c>
+      <c r="W126" s="123">
+        <v>0.06</v>
+      </c>
+      <c r="X126">
+        <f t="shared" si="7"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="127" spans="19:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V127" s="122">
+        <v>1</v>
+      </c>
+      <c r="W127" s="123">
+        <v>0.02</v>
+      </c>
+      <c r="X127">
+        <f t="shared" si="7"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="128" spans="19:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V128" s="122">
+        <v>2</v>
+      </c>
+      <c r="W128" s="123">
+        <v>0.76</v>
+      </c>
+      <c r="X128">
+        <f t="shared" si="7"/>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="129" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V129" s="122">
+        <v>1</v>
+      </c>
+      <c r="W129" s="123">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X129">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V130" s="122">
+        <v>1</v>
+      </c>
+      <c r="W130" s="123">
+        <v>0.05</v>
+      </c>
+      <c r="X130">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="131" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V131" s="122">
+        <v>1</v>
+      </c>
+      <c r="W131" s="123">
+        <v>0.05</v>
+      </c>
+      <c r="X131">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="132" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V132" s="122">
+        <v>1</v>
+      </c>
+      <c r="W132" s="123">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X132">
+        <f t="shared" si="7"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V133" s="120">
+        <v>2</v>
+      </c>
+      <c r="W133" s="121">
+        <v>0.03</v>
+      </c>
+      <c r="X133">
+        <f t="shared" si="7"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="134" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V134" s="122">
         <v>3</v>
       </c>
-      <c r="S62" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
-      <c r="V62" s="30"/>
-      <c r="W62" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X62" s="13"/>
-      <c r="Y62" s="13"/>
-      <c r="Z62" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA62" s="30"/>
-      <c r="AB62" s="30"/>
-      <c r="AC62" s="30"/>
-      <c r="AD62" s="30"/>
-      <c r="AE62" s="30"/>
-      <c r="AF62" s="30"/>
-      <c r="AG62" s="30"/>
-      <c r="AH62" s="30"/>
-      <c r="AI62" s="30"/>
-      <c r="AJ62" s="30"/>
-      <c r="AK62" s="6"/>
-      <c r="AL62" s="6"/>
-      <c r="AM62" s="6"/>
-      <c r="AN62" s="6"/>
-      <c r="AO62" s="6"/>
-      <c r="AP62" s="7"/>
-    </row>
-    <row r="63" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B63" s="31"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="7"/>
-      <c r="R63" s="59">
+      <c r="W134" s="123">
+        <v>0.04</v>
+      </c>
+      <c r="X134">
+        <f t="shared" si="7"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="135" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V135" s="122">
+        <v>1</v>
+      </c>
+      <c r="W135" s="123">
+        <v>0.11</v>
+      </c>
+      <c r="X135">
+        <f t="shared" si="7"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="136" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V136" s="122">
+        <v>3</v>
+      </c>
+      <c r="W136" s="123">
+        <v>0.04</v>
+      </c>
+      <c r="X136">
+        <f t="shared" si="7"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="137" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V137" s="122">
+        <v>1</v>
+      </c>
+      <c r="W137" s="123">
+        <v>0.99</v>
+      </c>
+      <c r="X137">
+        <f t="shared" si="7"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="138" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V138" s="122">
+        <v>1</v>
+      </c>
+      <c r="W138" s="123">
+        <v>1.31</v>
+      </c>
+      <c r="X138">
+        <f t="shared" si="7"/>
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="139" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V139" s="122">
+        <v>1</v>
+      </c>
+      <c r="W139" s="123">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="X139">
+        <f t="shared" si="7"/>
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V140" s="122">
+        <v>1</v>
+      </c>
+      <c r="W140" s="123">
         <v>4</v>
       </c>
-      <c r="S63" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="T63" s="55"/>
-      <c r="U63" s="55"/>
-      <c r="V63" s="55"/>
-      <c r="W63" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="X63" s="13"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA63" s="30"/>
-      <c r="AB63" s="30"/>
-      <c r="AC63" s="30"/>
-      <c r="AD63" s="30"/>
-      <c r="AE63" s="30"/>
-      <c r="AF63" s="30"/>
-      <c r="AG63" s="30"/>
-      <c r="AH63" s="30"/>
-      <c r="AI63" s="30"/>
-      <c r="AJ63" s="30"/>
-      <c r="AK63" s="6"/>
-      <c r="AL63" s="6"/>
-      <c r="AM63" s="6"/>
-      <c r="AN63" s="6"/>
-      <c r="AO63" s="6"/>
-      <c r="AP63" s="7"/>
-    </row>
-    <row r="64" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="25"/>
-      <c r="R64" s="59">
-        <v>5</v>
-      </c>
-      <c r="S64" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA64" s="15"/>
-      <c r="AB64" s="15"/>
-      <c r="AC64" s="15"/>
-      <c r="AD64" s="15"/>
-      <c r="AE64" s="15"/>
-      <c r="AF64" s="15"/>
-      <c r="AG64" s="15"/>
-      <c r="AH64" s="15"/>
-      <c r="AI64" s="15"/>
-      <c r="AJ64" s="15"/>
-      <c r="AK64" s="6"/>
-      <c r="AL64" s="6"/>
-      <c r="AM64" s="6"/>
-      <c r="AN64" s="6"/>
-      <c r="AO64" s="6"/>
-      <c r="AP64" s="7"/>
-    </row>
-    <row r="65" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R65" s="59">
-        <v>6</v>
-      </c>
-      <c r="S65" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="T65" s="15"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="13"/>
-      <c r="Y65" s="13"/>
-      <c r="Z65" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA65" s="15"/>
-      <c r="AB65" s="15"/>
-      <c r="AC65" s="15"/>
-      <c r="AD65" s="15"/>
-      <c r="AE65" s="15"/>
-      <c r="AF65" s="15"/>
-      <c r="AG65" s="15"/>
-      <c r="AH65" s="15"/>
-      <c r="AI65" s="15"/>
-      <c r="AJ65" s="15"/>
-      <c r="AK65" s="6"/>
-      <c r="AL65" s="6"/>
-      <c r="AM65" s="6"/>
-      <c r="AN65" s="6"/>
-      <c r="AO65" s="6"/>
-      <c r="AP65" s="7"/>
-    </row>
-    <row r="66" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R66" s="59">
-        <v>7</v>
-      </c>
-      <c r="S66" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="T66" s="54"/>
-      <c r="U66" s="54"/>
-      <c r="V66" s="54"/>
-      <c r="W66" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="X66" s="13"/>
-      <c r="Y66" s="13"/>
-      <c r="Z66" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA66" s="15"/>
-      <c r="AB66" s="15"/>
-      <c r="AC66" s="15"/>
-      <c r="AD66" s="15"/>
-      <c r="AE66" s="15"/>
-      <c r="AF66" s="15"/>
-      <c r="AG66" s="15"/>
-      <c r="AH66" s="15"/>
-      <c r="AI66" s="15"/>
-      <c r="AJ66" s="15"/>
-      <c r="AK66" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL66" s="6"/>
-      <c r="AM66" s="6"/>
-      <c r="AN66" s="6"/>
-      <c r="AO66" s="6"/>
-      <c r="AP66" s="7"/>
-    </row>
-    <row r="67" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R67" s="59">
-        <v>8</v>
-      </c>
-      <c r="S67" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="T67" s="15"/>
-      <c r="U67" s="15"/>
-      <c r="V67" s="15"/>
-      <c r="W67" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="X67" s="13"/>
-      <c r="Y67" s="13"/>
-      <c r="Z67" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA67" s="15"/>
-      <c r="AB67" s="15"/>
-      <c r="AC67" s="15"/>
-      <c r="AD67" s="15"/>
-      <c r="AE67" s="15"/>
-      <c r="AF67" s="15"/>
-      <c r="AG67" s="15"/>
-      <c r="AH67" s="15"/>
-      <c r="AI67" s="15"/>
-      <c r="AJ67" s="15"/>
-      <c r="AK67" s="6"/>
-      <c r="AL67" s="6"/>
-      <c r="AM67" s="6"/>
-      <c r="AN67" s="6"/>
-      <c r="AO67" s="6"/>
-      <c r="AP67" s="7"/>
-    </row>
-    <row r="68" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R68" s="59">
-        <v>9</v>
-      </c>
-      <c r="S68" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="T68" s="15"/>
-      <c r="U68" s="15"/>
-      <c r="V68" s="15"/>
-      <c r="W68" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="X68" s="13"/>
-      <c r="Y68" s="13"/>
-      <c r="Z68" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA68" s="15"/>
-      <c r="AB68" s="15"/>
-      <c r="AC68" s="15"/>
-      <c r="AD68" s="15"/>
-      <c r="AE68" s="15"/>
-      <c r="AF68" s="15"/>
-      <c r="AG68" s="15"/>
-      <c r="AH68" s="15"/>
-      <c r="AI68" s="15"/>
-      <c r="AJ68" s="15"/>
-      <c r="AK68" s="6"/>
-      <c r="AL68" s="6"/>
-      <c r="AM68" s="6"/>
-      <c r="AN68" s="6"/>
-      <c r="AO68" s="6"/>
-      <c r="AP68" s="7"/>
-    </row>
-    <row r="69" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R69" s="59">
-        <v>10</v>
-      </c>
-      <c r="S69" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="T69" s="15"/>
-      <c r="U69" s="15"/>
-      <c r="V69" s="15"/>
-      <c r="W69" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="X69" s="13"/>
-      <c r="Y69" s="13"/>
-      <c r="Z69" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA69" s="15"/>
-      <c r="AB69" s="15"/>
-      <c r="AC69" s="15"/>
-      <c r="AD69" s="15"/>
-      <c r="AE69" s="15"/>
-      <c r="AF69" s="15"/>
-      <c r="AG69" s="15"/>
-      <c r="AH69" s="15"/>
-      <c r="AI69" s="15"/>
-      <c r="AJ69" s="15"/>
-      <c r="AK69" s="6"/>
-      <c r="AL69" s="6"/>
-      <c r="AM69" s="6"/>
-      <c r="AN69" s="6"/>
-      <c r="AO69" s="6"/>
-      <c r="AP69" s="7"/>
-    </row>
-    <row r="70" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R70" s="59">
-        <v>11</v>
-      </c>
-      <c r="S70" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="T70" s="15"/>
-      <c r="U70" s="15"/>
-      <c r="V70" s="15"/>
-      <c r="W70" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="X70" s="13"/>
-      <c r="Y70" s="13"/>
-      <c r="Z70" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA70" s="15"/>
-      <c r="AB70" s="15"/>
-      <c r="AC70" s="15"/>
-      <c r="AD70" s="15"/>
-      <c r="AE70" s="15"/>
-      <c r="AF70" s="15"/>
-      <c r="AG70" s="15"/>
-      <c r="AH70" s="15"/>
-      <c r="AI70" s="15"/>
-      <c r="AJ70" s="15"/>
-      <c r="AK70" s="6"/>
-      <c r="AL70" s="6"/>
-      <c r="AM70" s="6"/>
-      <c r="AN70" s="6"/>
-      <c r="AO70" s="6"/>
-      <c r="AP70" s="7"/>
-    </row>
-    <row r="71" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R71" s="59">
-        <v>12</v>
-      </c>
-      <c r="S71" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T71" s="15"/>
-      <c r="U71" s="15"/>
-      <c r="V71" s="15"/>
-      <c r="W71" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="X71" s="13"/>
-      <c r="Y71" s="13"/>
-      <c r="Z71" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA71" s="15"/>
-      <c r="AB71" s="15"/>
-      <c r="AC71" s="15"/>
-      <c r="AD71" s="15"/>
-      <c r="AE71" s="15"/>
-      <c r="AF71" s="15"/>
-      <c r="AG71" s="15"/>
-      <c r="AH71" s="15"/>
-      <c r="AI71" s="15"/>
-      <c r="AJ71" s="15"/>
-      <c r="AK71" s="6"/>
-      <c r="AL71" s="6"/>
-      <c r="AM71" s="6"/>
-      <c r="AN71" s="6"/>
-      <c r="AO71" s="6"/>
-      <c r="AP71" s="7"/>
-    </row>
-    <row r="72" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R72" s="59">
-        <v>13</v>
-      </c>
-      <c r="S72" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="T72" s="15"/>
-      <c r="U72" s="15"/>
-      <c r="V72" s="15"/>
-      <c r="W72" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="X72" s="57"/>
-      <c r="Y72" s="57"/>
-      <c r="Z72" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA72" s="15"/>
-      <c r="AB72" s="15"/>
-      <c r="AC72" s="15"/>
-      <c r="AD72" s="15"/>
-      <c r="AE72" s="15"/>
-      <c r="AF72" s="15"/>
-      <c r="AG72" s="15"/>
-      <c r="AH72" s="15"/>
-      <c r="AI72" s="15"/>
-      <c r="AJ72" s="15"/>
-      <c r="AK72" s="6"/>
-      <c r="AL72" s="6"/>
-      <c r="AM72" s="6"/>
-      <c r="AN72" s="6"/>
-      <c r="AO72" s="6"/>
-      <c r="AP72" s="7"/>
-    </row>
-    <row r="73" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R73" s="59">
-        <v>14</v>
-      </c>
-      <c r="S73" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="T73" s="15"/>
-      <c r="U73" s="15"/>
-      <c r="V73" s="15"/>
-      <c r="W73" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="X73" s="13"/>
-      <c r="Y73" s="13"/>
-      <c r="Z73" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA73" s="15"/>
-      <c r="AB73" s="15"/>
-      <c r="AC73" s="15"/>
-      <c r="AD73" s="15"/>
-      <c r="AE73" s="15"/>
-      <c r="AF73" s="15"/>
-      <c r="AG73" s="15"/>
-      <c r="AH73" s="15"/>
-      <c r="AI73" s="15"/>
-      <c r="AJ73" s="15"/>
-      <c r="AK73" s="6"/>
-      <c r="AL73" s="6"/>
-      <c r="AM73" s="6"/>
-      <c r="AN73" s="6"/>
-      <c r="AO73" s="6"/>
-      <c r="AP73" s="7"/>
-    </row>
-    <row r="74" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B74" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="F74" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="R74" s="59">
-        <v>15</v>
-      </c>
-      <c r="S74" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="T74" s="30"/>
-      <c r="U74" s="30"/>
-      <c r="V74" s="30"/>
-      <c r="W74" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="X74" s="13"/>
-      <c r="Y74" s="13"/>
-      <c r="Z74" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA74" s="15"/>
-      <c r="AB74" s="15"/>
-      <c r="AC74" s="15"/>
-      <c r="AD74" s="15"/>
-      <c r="AE74" s="15"/>
-      <c r="AF74" s="15"/>
-      <c r="AG74" s="15"/>
-      <c r="AH74" s="15"/>
-      <c r="AI74" s="15"/>
-      <c r="AJ74" s="15"/>
-      <c r="AK74" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL74" s="6"/>
-      <c r="AM74" s="6"/>
-      <c r="AN74" s="6"/>
-      <c r="AO74" s="6"/>
-      <c r="AP74" s="7"/>
-    </row>
-    <row r="75" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B75" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="R75" s="59">
+      <c r="X140">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V141" s="122">
+        <v>2</v>
+      </c>
+      <c r="W141" s="123">
+        <v>11.7</v>
+      </c>
+      <c r="X141">
+        <f t="shared" si="7"/>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="142" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V142" s="122">
+        <v>1</v>
+      </c>
+      <c r="W142" s="123">
+        <v>8.08</v>
+      </c>
+      <c r="X142">
+        <f t="shared" si="7"/>
+        <v>8.08</v>
+      </c>
+      <c r="AA142" s="124">
+        <v>0.154</v>
+      </c>
+      <c r="AB142" s="125">
+        <v>22.7</v>
+      </c>
+      <c r="AC142">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="143" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V143" s="122">
+        <v>1</v>
+      </c>
+      <c r="W143" s="123">
         <v>16</v>
       </c>
-      <c r="S75" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="T75" s="15"/>
-      <c r="U75" s="15"/>
-      <c r="V75" s="15"/>
-      <c r="W75" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="X75" s="13"/>
-      <c r="Y75" s="13"/>
-      <c r="Z75" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA75" s="15"/>
-      <c r="AB75" s="15"/>
-      <c r="AC75" s="15"/>
-      <c r="AD75" s="15"/>
-      <c r="AE75" s="15"/>
-      <c r="AF75" s="15"/>
-      <c r="AG75" s="15"/>
-      <c r="AH75" s="15"/>
-      <c r="AI75" s="15"/>
-      <c r="AJ75" s="15"/>
-      <c r="AK75" s="6"/>
-      <c r="AL75" s="6"/>
-      <c r="AM75" s="6"/>
-      <c r="AN75" s="6"/>
-      <c r="AO75" s="6"/>
-      <c r="AP75" s="7"/>
-    </row>
-    <row r="76" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B76" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="R76" s="59">
-        <v>17</v>
-      </c>
-      <c r="S76" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="T76" s="15"/>
-      <c r="U76" s="15"/>
-      <c r="V76" s="15"/>
-      <c r="W76" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="X76" s="13"/>
-      <c r="Y76" s="13"/>
-      <c r="Z76" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA76" s="15"/>
-      <c r="AB76" s="15"/>
-      <c r="AC76" s="15"/>
-      <c r="AD76" s="15"/>
-      <c r="AE76" s="15"/>
-      <c r="AF76" s="15"/>
-      <c r="AG76" s="15"/>
-      <c r="AH76" s="15"/>
-      <c r="AI76" s="15"/>
-      <c r="AJ76" s="15"/>
-      <c r="AK76" s="6"/>
-      <c r="AL76" s="6"/>
-      <c r="AM76" s="6"/>
-      <c r="AN76" s="6"/>
-      <c r="AO76" s="6"/>
-      <c r="AP76" s="7"/>
-    </row>
-    <row r="77" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R77" s="59">
-        <v>18</v>
-      </c>
-      <c r="S77" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="T77" s="15"/>
-      <c r="U77" s="15"/>
-      <c r="V77" s="15"/>
-      <c r="W77" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="X77" s="13"/>
-      <c r="Y77" s="13"/>
-      <c r="Z77" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA77" s="15"/>
-      <c r="AB77" s="15"/>
-      <c r="AC77" s="15"/>
-      <c r="AD77" s="15"/>
-      <c r="AE77" s="15"/>
-      <c r="AF77" s="15"/>
-      <c r="AG77" s="15"/>
-      <c r="AH77" s="15"/>
-      <c r="AI77" s="15"/>
-      <c r="AJ77" s="15"/>
-      <c r="AK77" s="6"/>
-      <c r="AL77" s="6"/>
-      <c r="AM77" s="6"/>
-      <c r="AN77" s="6"/>
-      <c r="AO77" s="6"/>
-      <c r="AP77" s="7"/>
-    </row>
-    <row r="78" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="R78" s="59">
-        <v>19</v>
-      </c>
-      <c r="S78" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="T78" s="15"/>
-      <c r="U78" s="15"/>
-      <c r="V78" s="15"/>
-      <c r="W78" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="X78" s="13"/>
-      <c r="Y78" s="13"/>
-      <c r="Z78" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA78" s="15"/>
-      <c r="AB78" s="15"/>
-      <c r="AC78" s="15"/>
-      <c r="AD78" s="15"/>
-      <c r="AE78" s="15"/>
-      <c r="AF78" s="15"/>
-      <c r="AG78" s="15"/>
-      <c r="AH78" s="15"/>
-      <c r="AI78" s="15"/>
-      <c r="AJ78" s="15"/>
-      <c r="AK78" s="6"/>
-      <c r="AL78" s="6"/>
-      <c r="AM78" s="6"/>
-      <c r="AN78" s="6"/>
-      <c r="AO78" s="6"/>
-      <c r="AP78" s="7"/>
-    </row>
-    <row r="79" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R79" s="60">
-        <v>19</v>
-      </c>
-      <c r="S79" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="T79" s="61"/>
-      <c r="U79" s="61"/>
-      <c r="V79" s="61"/>
-      <c r="W79" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="X79" s="53"/>
-      <c r="Y79" s="53"/>
-      <c r="Z79" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA79" s="52"/>
-      <c r="AB79" s="52"/>
-      <c r="AC79" s="52"/>
-      <c r="AD79" s="52"/>
-      <c r="AE79" s="52"/>
-      <c r="AF79" s="52"/>
-      <c r="AG79" s="52"/>
-      <c r="AH79" s="52"/>
-      <c r="AI79" s="52"/>
-      <c r="AJ79" s="52"/>
-      <c r="AK79" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL79" s="24"/>
-      <c r="AM79" s="24"/>
-      <c r="AN79" s="24"/>
-      <c r="AO79" s="24"/>
-      <c r="AP79" s="25"/>
+      <c r="X143">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="AA143" s="126">
+        <v>0.8</v>
+      </c>
+      <c r="AB143" s="127">
+        <v>0.65</v>
+      </c>
+      <c r="AC143">
+        <f t="shared" ref="AC143:AC145" si="8">AA143*AB143</f>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="144" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X144">
+        <f>SUM(X123:X143)</f>
+        <v>62.655000000000001</v>
+      </c>
+      <c r="AA144" s="126">
+        <v>1</v>
+      </c>
+      <c r="AB144" s="127">
+        <v>2.33</v>
+      </c>
+      <c r="AC144">
+        <f t="shared" si="8"/>
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="145" spans="27:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA145" s="126">
+        <v>4</v>
+      </c>
+      <c r="AB145" s="127">
+        <v>0.26</v>
+      </c>
+      <c r="AC145">
+        <f t="shared" si="8"/>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="146" spans="27:29" x14ac:dyDescent="0.25">
+      <c r="AC146">
+        <f>SUM(AC142:AC145)</f>
+        <v>7.39</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="S79:V79"/>
-    <mergeCell ref="W79:Y79"/>
-    <mergeCell ref="Z79:AJ79"/>
-    <mergeCell ref="AK79:AP79"/>
-    <mergeCell ref="AK77:AP77"/>
-    <mergeCell ref="S78:V78"/>
-    <mergeCell ref="W78:Y78"/>
-    <mergeCell ref="Z78:AJ78"/>
-    <mergeCell ref="AK78:AP78"/>
+  <mergeCells count="165">
+    <mergeCell ref="AR82:AU82"/>
+    <mergeCell ref="AP82:AQ82"/>
+    <mergeCell ref="AR76:AU76"/>
+    <mergeCell ref="AR77:AU77"/>
+    <mergeCell ref="AR78:AU78"/>
+    <mergeCell ref="S80:V80"/>
+    <mergeCell ref="S81:V81"/>
+    <mergeCell ref="W80:Y80"/>
+    <mergeCell ref="Z80:AJ80"/>
+    <mergeCell ref="Z81:AJ81"/>
+    <mergeCell ref="W81:Y81"/>
+    <mergeCell ref="AK80:AM80"/>
+    <mergeCell ref="AK81:AM81"/>
+    <mergeCell ref="AN81:AQ81"/>
+    <mergeCell ref="AR80:AU80"/>
+    <mergeCell ref="AR81:AU81"/>
+    <mergeCell ref="AN77:AQ77"/>
+    <mergeCell ref="AN78:AQ78"/>
+    <mergeCell ref="AN79:AQ79"/>
+    <mergeCell ref="AN80:AQ80"/>
+    <mergeCell ref="AR59:AU59"/>
+    <mergeCell ref="R57:AU58"/>
+    <mergeCell ref="AR60:AU60"/>
+    <mergeCell ref="AR79:AU79"/>
+    <mergeCell ref="AR61:AU61"/>
+    <mergeCell ref="AR62:AU62"/>
+    <mergeCell ref="AR63:AU63"/>
+    <mergeCell ref="AR64:AU64"/>
+    <mergeCell ref="AR65:AU65"/>
+    <mergeCell ref="AR66:AU66"/>
+    <mergeCell ref="AR67:AU67"/>
+    <mergeCell ref="AR68:AU68"/>
+    <mergeCell ref="AR69:AU69"/>
+    <mergeCell ref="AR70:AU70"/>
+    <mergeCell ref="AR71:AU71"/>
+    <mergeCell ref="AR72:AU72"/>
+    <mergeCell ref="AR73:AU73"/>
+    <mergeCell ref="AR74:AU74"/>
+    <mergeCell ref="AR75:AU75"/>
+    <mergeCell ref="AN68:AQ68"/>
+    <mergeCell ref="AN69:AQ69"/>
+    <mergeCell ref="AN70:AQ70"/>
+    <mergeCell ref="AN71:AQ71"/>
+    <mergeCell ref="AN72:AQ72"/>
+    <mergeCell ref="AN73:AQ73"/>
+    <mergeCell ref="AN74:AQ74"/>
+    <mergeCell ref="AN75:AQ75"/>
+    <mergeCell ref="AN76:AQ76"/>
+    <mergeCell ref="AN59:AQ59"/>
+    <mergeCell ref="AN60:AQ60"/>
+    <mergeCell ref="AN61:AQ61"/>
+    <mergeCell ref="AN62:AQ62"/>
+    <mergeCell ref="AN63:AQ63"/>
+    <mergeCell ref="AN64:AQ64"/>
+    <mergeCell ref="AN65:AQ65"/>
+    <mergeCell ref="AN66:AQ66"/>
+    <mergeCell ref="AN67:AQ67"/>
+    <mergeCell ref="AK60:AM60"/>
+    <mergeCell ref="AK61:AM61"/>
+    <mergeCell ref="AK66:AM66"/>
+    <mergeCell ref="AK74:AM74"/>
+    <mergeCell ref="AK79:AM79"/>
+    <mergeCell ref="AK67:AM67"/>
+    <mergeCell ref="AK68:AM68"/>
+    <mergeCell ref="AK69:AM69"/>
+    <mergeCell ref="AK70:AM70"/>
+    <mergeCell ref="AK71:AM71"/>
+    <mergeCell ref="AK72:AM72"/>
+    <mergeCell ref="AK73:AM73"/>
+    <mergeCell ref="AK75:AM75"/>
+    <mergeCell ref="AK76:AM76"/>
+    <mergeCell ref="AK77:AM77"/>
+    <mergeCell ref="AK78:AM78"/>
+    <mergeCell ref="AK62:AM62"/>
+    <mergeCell ref="AK63:AM63"/>
+    <mergeCell ref="AK64:AM64"/>
+    <mergeCell ref="AK65:AM65"/>
+    <mergeCell ref="AK59:AM59"/>
+    <mergeCell ref="F74:M74"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="W60:Y60"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="W62:Y62"/>
+    <mergeCell ref="W63:Y63"/>
+    <mergeCell ref="W64:Y64"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="W67:Y67"/>
+    <mergeCell ref="W68:Y68"/>
+    <mergeCell ref="W69:Y69"/>
+    <mergeCell ref="S76:V76"/>
+    <mergeCell ref="Z76:AJ76"/>
+    <mergeCell ref="W75:Y75"/>
+    <mergeCell ref="W76:Y76"/>
+    <mergeCell ref="Z60:AJ60"/>
+    <mergeCell ref="S61:V61"/>
+    <mergeCell ref="Z61:AJ61"/>
+    <mergeCell ref="S62:V62"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="S71:V71"/>
+    <mergeCell ref="Z71:AJ71"/>
+    <mergeCell ref="S72:V72"/>
+    <mergeCell ref="Z72:AJ72"/>
+    <mergeCell ref="S73:V73"/>
+    <mergeCell ref="Z73:AJ73"/>
+    <mergeCell ref="W71:Y71"/>
+    <mergeCell ref="W72:Y72"/>
+    <mergeCell ref="W73:Y73"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="AQ14:AZ14"/>
+    <mergeCell ref="AQ15:AZ15"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="S74:V74"/>
+    <mergeCell ref="Z74:AJ74"/>
+    <mergeCell ref="S75:V75"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:P64"/>
+    <mergeCell ref="S59:V59"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="F62:P62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:P63"/>
+    <mergeCell ref="B57:P58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:P59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:P60"/>
+    <mergeCell ref="Z62:AJ62"/>
+    <mergeCell ref="S63:V63"/>
+    <mergeCell ref="Z63:AJ63"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="F61:P61"/>
+    <mergeCell ref="Z59:AJ59"/>
+    <mergeCell ref="S60:V60"/>
     <mergeCell ref="P42:T42"/>
     <mergeCell ref="P43:T43"/>
     <mergeCell ref="S77:V77"/>
@@ -3015,116 +5818,25 @@
     <mergeCell ref="Z70:AJ70"/>
     <mergeCell ref="W70:Y70"/>
     <mergeCell ref="Z75:AJ75"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="F62:P62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F63:P63"/>
-    <mergeCell ref="B57:P58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:P59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:P60"/>
-    <mergeCell ref="R57:AP58"/>
-    <mergeCell ref="Z62:AJ62"/>
-    <mergeCell ref="S63:V63"/>
-    <mergeCell ref="Z63:AJ63"/>
     <mergeCell ref="S64:V64"/>
     <mergeCell ref="Z64:AJ64"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="F61:P61"/>
-    <mergeCell ref="AQ14:AZ14"/>
-    <mergeCell ref="AQ15:AZ15"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="AK59:AP59"/>
-    <mergeCell ref="AK60:AP60"/>
-    <mergeCell ref="AK61:AP61"/>
-    <mergeCell ref="AK62:AP62"/>
-    <mergeCell ref="AK63:AP63"/>
-    <mergeCell ref="AK64:AP64"/>
-    <mergeCell ref="AK65:AP65"/>
-    <mergeCell ref="AK66:AP66"/>
-    <mergeCell ref="AK67:AP67"/>
-    <mergeCell ref="AK68:AP68"/>
-    <mergeCell ref="AK69:AP69"/>
-    <mergeCell ref="S74:V74"/>
-    <mergeCell ref="Z74:AJ74"/>
-    <mergeCell ref="S75:V75"/>
-    <mergeCell ref="AK71:AP71"/>
-    <mergeCell ref="AK72:AP72"/>
-    <mergeCell ref="AK73:AP73"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:P64"/>
-    <mergeCell ref="S59:V59"/>
-    <mergeCell ref="Z59:AJ59"/>
-    <mergeCell ref="S60:V60"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="S71:V71"/>
-    <mergeCell ref="Z71:AJ71"/>
-    <mergeCell ref="S72:V72"/>
-    <mergeCell ref="Z72:AJ72"/>
-    <mergeCell ref="S73:V73"/>
-    <mergeCell ref="Z73:AJ73"/>
-    <mergeCell ref="W71:Y71"/>
-    <mergeCell ref="W72:Y72"/>
-    <mergeCell ref="W73:Y73"/>
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="AK75:AP75"/>
-    <mergeCell ref="AK76:AP76"/>
-    <mergeCell ref="F74:M74"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="W60:Y60"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="W62:Y62"/>
-    <mergeCell ref="W63:Y63"/>
-    <mergeCell ref="W64:Y64"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="W67:Y67"/>
-    <mergeCell ref="W68:Y68"/>
-    <mergeCell ref="W69:Y69"/>
-    <mergeCell ref="AK70:AP70"/>
-    <mergeCell ref="AK74:AP74"/>
-    <mergeCell ref="S76:V76"/>
-    <mergeCell ref="Z76:AJ76"/>
-    <mergeCell ref="W75:Y75"/>
-    <mergeCell ref="W76:Y76"/>
-    <mergeCell ref="Z60:AJ60"/>
-    <mergeCell ref="S61:V61"/>
-    <mergeCell ref="Z61:AJ61"/>
-    <mergeCell ref="S62:V62"/>
+    <mergeCell ref="S79:V79"/>
+    <mergeCell ref="W79:Y79"/>
+    <mergeCell ref="Z79:AJ79"/>
+    <mergeCell ref="S78:V78"/>
+    <mergeCell ref="W78:Y78"/>
+    <mergeCell ref="Z78:AJ78"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F60" r:id="rId1" xr:uid="{35D294F1-1052-4CDC-B442-CC6F328A5859}"/>
     <hyperlink ref="F61" r:id="rId2" xr:uid="{935BE457-A350-4A90-B82B-2BEC1B5F89D6}"/>
     <hyperlink ref="F62" r:id="rId3" xr:uid="{10442A47-B286-4A56-AB26-591696DB0EE6}"/>
-    <hyperlink ref="Z62" r:id="rId4" xr:uid="{5C026EBA-5D85-4B21-8B11-034A427FEFF3}"/>
-    <hyperlink ref="Z63" r:id="rId5" xr:uid="{10E95866-2546-4F25-B645-DCFB550E1DD2}"/>
-    <hyperlink ref="Z61" r:id="rId6" xr:uid="{BF500733-A871-49F6-92EF-19C2638B73A7}"/>
-    <hyperlink ref="Z60" r:id="rId7" xr:uid="{6254A3D5-CB13-4817-BB7E-2E20523171DB}"/>
-    <hyperlink ref="Z64" r:id="rId8" xr:uid="{F6A65428-0665-4C5F-9B1B-55A677F084BB}"/>
-    <hyperlink ref="Z66" r:id="rId9" xr:uid="{2EA70D60-586F-476A-AD6F-64864B5F7125}"/>
-    <hyperlink ref="Z65" r:id="rId10" xr:uid="{A10B3260-C860-4D59-8BD9-00BB264209F3}"/>
-    <hyperlink ref="Z67" r:id="rId11" xr:uid="{1BD1898F-2843-44AB-AB30-669469939A5D}"/>
-    <hyperlink ref="Z68" r:id="rId12" xr:uid="{6A1FE2DB-C608-44C8-A43B-042EDCF0537B}"/>
-    <hyperlink ref="Z69" r:id="rId13" xr:uid="{8025A0AB-91C0-4499-901D-BF1A55BA9AEC}"/>
-    <hyperlink ref="Z70" r:id="rId14" xr:uid="{7441D5BD-482A-4CE2-8B53-D7DED4D9B61B}"/>
-    <hyperlink ref="Z71" r:id="rId15" xr:uid="{F4A814C6-7D07-460F-8A81-7A9F6CABDD95}"/>
-    <hyperlink ref="Z72" r:id="rId16" xr:uid="{5E94F534-1DD9-45AD-B875-41CA1414E6FC}"/>
-    <hyperlink ref="Z73" r:id="rId17" xr:uid="{D565EF1E-DB1D-4B28-801C-4D4CCE6FD429}"/>
-    <hyperlink ref="Z74" r:id="rId18" xr:uid="{C38AC26F-C72B-43EE-98B1-036AEBB2DC88}"/>
-    <hyperlink ref="Z75" r:id="rId19" xr:uid="{5B6689C2-94A1-4DA1-B555-A0A3093294A7}"/>
-    <hyperlink ref="Z76" r:id="rId20" xr:uid="{0D8BF253-40C3-4640-804E-9611FDAAB20A}"/>
-    <hyperlink ref="Z77" r:id="rId21" xr:uid="{454C94D8-4DC6-49CD-A410-D42FAF10EB15}"/>
-    <hyperlink ref="Z78" r:id="rId22" xr:uid="{995ED0EF-32F2-4DB4-B039-4E3822903D88}"/>
-    <hyperlink ref="Z79" r:id="rId23" xr:uid="{3BC7C50B-98E2-4EA6-AEEC-6A15B1E63BCB}"/>
+    <hyperlink ref="AU46" r:id="rId4" xr:uid="{0278FF1C-05FD-483B-AA32-DB7E4552CF24}"/>
+    <hyperlink ref="AU45" r:id="rId5" xr:uid="{2EAE9722-3543-4E18-849C-90FE0C1BB811}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
-  <drawing r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\university\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369BC409-391A-4007-8205-EB41147FA694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D71C16-8432-4558-BAB5-3579F01EE480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49E8A915-5A6F-4B3C-966A-272F8EBD50DB}"/>
   </bookViews>
@@ -539,7 +539,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1239,150 +1239,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1391,72 +1314,228 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1466,102 +1545,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="25" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="27" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1571,11 +1571,7 @@
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2247,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9202B416-C4F8-4CD1-A856-CE2988DE9FEF}">
   <dimension ref="B1:AZ146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC146" sqref="AC146"/>
+    <sheetView tabSelected="1" topLeftCell="O41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V111" sqref="V111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,13 +2382,13 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="W7" s="15" t="s">
+      <c r="W7" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="85"/>
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.25">
       <c r="G8" s="3"/>
@@ -2420,11 +2416,11 @@
       </c>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
       <c r="Q12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2452,18 +2448,18 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="AQ14" s="13" t="s">
+      <c r="AQ14" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
-      <c r="AX14" s="13"/>
-      <c r="AY14" s="13"/>
-      <c r="AZ14" s="13"/>
+      <c r="AR14" s="67"/>
+      <c r="AS14" s="67"/>
+      <c r="AT14" s="67"/>
+      <c r="AU14" s="67"/>
+      <c r="AV14" s="67"/>
+      <c r="AW14" s="67"/>
+      <c r="AX14" s="67"/>
+      <c r="AY14" s="67"/>
+      <c r="AZ14" s="67"/>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.25">
       <c r="Q15" s="1"/>
@@ -2472,18 +2468,18 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="AQ15" s="13" t="s">
+      <c r="AQ15" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="13"/>
-      <c r="AY15" s="13"/>
-      <c r="AZ15" s="13"/>
+      <c r="AR15" s="67"/>
+      <c r="AS15" s="67"/>
+      <c r="AT15" s="67"/>
+      <c r="AU15" s="67"/>
+      <c r="AV15" s="67"/>
+      <c r="AW15" s="67"/>
+      <c r="AX15" s="67"/>
+      <c r="AY15" s="67"/>
+      <c r="AZ15" s="67"/>
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.25">
       <c r="Q16" s="1"/>
@@ -2503,11 +2499,11 @@
       <c r="AQ29" t="s">
         <v>115</v>
       </c>
-      <c r="AR29" s="86" t="str">
+      <c r="AR29" s="11" t="str">
         <f>_xlfn.CONCAT(AO29:AQ29)</f>
         <v>[33]</v>
       </c>
-      <c r="AS29" s="81" t="str">
+      <c r="AS29" s="7" t="str">
         <f>W61</f>
         <v>SMA-KWE902</v>
       </c>
@@ -2522,7 +2518,7 @@
         <v>105</v>
       </c>
       <c r="AY29" t="str">
-        <f>_xlfn.CONCAT(AS29:AV29)</f>
+        <f t="shared" ref="AY29:AY43" si="0">_xlfn.CONCAT(AS29:AV29)</f>
         <v>SMA-KWE902 [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Dreamlnk-SMAKWE902/C914554. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -2536,11 +2532,11 @@
       <c r="AQ30" t="s">
         <v>115</v>
       </c>
-      <c r="AR30" s="86" t="str">
-        <f t="shared" ref="AR30:AR49" si="0">_xlfn.CONCAT(AO30:AQ30)</f>
+      <c r="AR30" s="11" t="str">
+        <f t="shared" ref="AR30:AR49" si="1">_xlfn.CONCAT(AO30:AQ30)</f>
         <v>[34]</v>
       </c>
-      <c r="AS30" s="81" t="str">
+      <c r="AS30" s="7" t="str">
         <f>W64</f>
         <v>MMBT2222A</v>
       </c>
@@ -2555,7 +2551,7 @@
         <v>105</v>
       </c>
       <c r="AY30" t="str">
-        <f>_xlfn.CONCAT(AS30:AV30)</f>
+        <f t="shared" si="0"/>
         <v>MMBT2222A [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Hongjiacheng-MMBT2222A/C7420351. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -2569,11 +2565,11 @@
       <c r="AQ31" t="s">
         <v>115</v>
       </c>
-      <c r="AR31" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR31" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[35]</v>
       </c>
-      <c r="AS31" s="81" t="str">
+      <c r="AS31" s="7" t="str">
         <f>W65</f>
         <v>AS05W2J0151T5E</v>
       </c>
@@ -2588,7 +2584,7 @@
         <v>105</v>
       </c>
       <c r="AY31" t="str">
-        <f>_xlfn.CONCAT(AS31:AV31)</f>
+        <f t="shared" si="0"/>
         <v>AS05W2J0151T5E [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/584956-AS05W2J0151T5E/C560494. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -2602,26 +2598,26 @@
       <c r="AQ32" t="s">
         <v>115</v>
       </c>
-      <c r="AR32" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR32" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[36]</v>
       </c>
-      <c r="AS32" s="81" t="str">
-        <f>W67</f>
+      <c r="AS32" s="7" t="str">
+        <f t="shared" ref="AS32:AS38" si="2">W67</f>
         <v>C1206X103K501T</v>
       </c>
       <c r="AT32" t="s">
         <v>104</v>
       </c>
       <c r="AU32" t="str">
-        <f>Z67</f>
+        <f t="shared" ref="AU32:AU38" si="3">Z67</f>
         <v>jlcpcb.com/partdetail/107237-C1206X103K501T/C106022</v>
       </c>
       <c r="AV32" t="s">
         <v>105</v>
       </c>
       <c r="AY32" t="str">
-        <f>_xlfn.CONCAT(AS32:AV32)</f>
+        <f t="shared" si="0"/>
         <v>C1206X103K501T [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/107237-C1206X103K501T/C106022. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -2635,26 +2631,26 @@
       <c r="AQ33" t="s">
         <v>115</v>
       </c>
-      <c r="AR33" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR33" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[37]</v>
       </c>
-      <c r="AS33" s="81" t="str">
-        <f>W68</f>
+      <c r="AS33" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>FP18X473K500PBG</v>
       </c>
       <c r="AT33" t="s">
         <v>104</v>
       </c>
       <c r="AU33" t="str">
-        <f>Z68</f>
+        <f t="shared" si="3"/>
         <v>jlcpcb.com/partdetail/543446-FP18X473K500PBG/C525319</v>
       </c>
       <c r="AV33" t="s">
         <v>105</v>
       </c>
       <c r="AY33" t="str">
-        <f>_xlfn.CONCAT(AS33:AV33)</f>
+        <f t="shared" si="0"/>
         <v>FP18X473K500PBG [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/543446-FP18X473K500PBG/C525319. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -2668,26 +2664,26 @@
       <c r="AQ34" t="s">
         <v>115</v>
       </c>
-      <c r="AR34" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR34" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[38]</v>
       </c>
-      <c r="AS34" s="81" t="str">
-        <f>W69</f>
+      <c r="AS34" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>1206B104K250CT</v>
       </c>
       <c r="AT34" t="s">
         <v>104</v>
       </c>
       <c r="AU34" t="str">
-        <f>Z69</f>
+        <f t="shared" si="3"/>
         <v>jlcpcb.com/partdetail/Walsin_TechCorp-1206B104K250CT/C396778</v>
       </c>
       <c r="AV34" t="s">
         <v>105</v>
       </c>
       <c r="AY34" t="str">
-        <f>_xlfn.CONCAT(AS34:AV34)</f>
+        <f t="shared" si="0"/>
         <v>1206B104K250CT [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Walsin_TechCorp-1206B104K250CT/C396778. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -2701,26 +2697,26 @@
       <c r="AQ35" t="s">
         <v>115</v>
       </c>
-      <c r="AR35" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR35" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[39]</v>
       </c>
-      <c r="AS35" s="81" t="str">
-        <f>W70</f>
+      <c r="AS35" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>25121WJ0101T4E</v>
       </c>
       <c r="AT35" t="s">
         <v>104</v>
       </c>
       <c r="AU35" t="str">
-        <f>Z70</f>
+        <f t="shared" si="3"/>
         <v>jlcpcb.com/partdetail/15939-25121WJ0101T4E/C15262</v>
       </c>
       <c r="AV35" t="s">
         <v>105</v>
       </c>
       <c r="AY35" t="str">
-        <f>_xlfn.CONCAT(AS35:AV35)</f>
+        <f t="shared" si="0"/>
         <v>25121WJ0101T4E [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/15939-25121WJ0101T4E/C15262. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -2734,26 +2730,26 @@
       <c r="AQ36" t="s">
         <v>115</v>
       </c>
-      <c r="AR36" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR36" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[40]</v>
       </c>
-      <c r="AS36" s="81" t="str">
-        <f>W71</f>
+      <c r="AS36" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>RK73B2ATTD223J</v>
       </c>
       <c r="AT36" t="s">
         <v>104</v>
       </c>
       <c r="AU36" t="str">
-        <f>Z71</f>
+        <f t="shared" si="3"/>
         <v>jlcpcb.com/partdetail/Koa_SpeerElec-RK73B2ATTD223J/C316792</v>
       </c>
       <c r="AV36" t="s">
         <v>105</v>
       </c>
       <c r="AY36" t="str">
-        <f>_xlfn.CONCAT(AS36:AV36)</f>
+        <f t="shared" si="0"/>
         <v>RK73B2ATTD223J [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Koa_SpeerElec-RK73B2ATTD223J/C316792. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -2767,26 +2763,26 @@
       <c r="AQ37" t="s">
         <v>115</v>
       </c>
-      <c r="AR37" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR37" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[41]</v>
       </c>
-      <c r="AS37" s="81" t="str">
-        <f>W72</f>
+      <c r="AS37" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>3362X-1-102LF</v>
       </c>
       <c r="AT37" t="s">
         <v>104</v>
       </c>
       <c r="AU37" t="str">
-        <f>Z72</f>
+        <f t="shared" si="3"/>
         <v>jlcpcb.com/partdetail/Bourns-3362X_1102LF/C123857</v>
       </c>
       <c r="AV37" t="s">
         <v>105</v>
       </c>
       <c r="AY37" t="str">
-        <f>_xlfn.CONCAT(AS37:AV37)</f>
+        <f t="shared" si="0"/>
         <v>3362X-1-102LF [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Bourns-3362X_1102LF/C123857. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -2800,26 +2796,26 @@
       <c r="AQ38" t="s">
         <v>115</v>
       </c>
-      <c r="AR38" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR38" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[42]</v>
       </c>
-      <c r="AS38" s="81" t="str">
-        <f>W73</f>
+      <c r="AS38" s="7" t="str">
+        <f t="shared" si="2"/>
         <v>CGA3E2C0G2A101JT0Y0N</v>
       </c>
       <c r="AT38" t="s">
         <v>104</v>
       </c>
       <c r="AU38" t="str">
-        <f>Z73</f>
+        <f t="shared" si="3"/>
         <v>jlcpcb.com/partdetail/Tdk-CGA3E2C0G2A101JT0Y0N/C342908</v>
       </c>
       <c r="AV38" t="s">
         <v>105</v>
       </c>
       <c r="AY38" t="str">
-        <f>_xlfn.CONCAT(AS38:AV38)</f>
+        <f t="shared" si="0"/>
         <v>CGA3E2C0G2A101JT0Y0N [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Tdk-CGA3E2C0G2A101JT0Y0N/C342908. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -2833,11 +2829,11 @@
       <c r="AQ39" t="s">
         <v>115</v>
       </c>
-      <c r="AR39" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR39" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[43]</v>
       </c>
-      <c r="AS39" s="81" t="str">
+      <c r="AS39" s="7" t="str">
         <f>W75</f>
         <v>0603F334Z500NT</v>
       </c>
@@ -2852,7 +2848,7 @@
         <v>105</v>
       </c>
       <c r="AY39" t="str">
-        <f>_xlfn.CONCAT(AS39:AV39)</f>
+        <f t="shared" si="0"/>
         <v>0603F334Z500NT [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/521017-0603F334Z500NT/C507077. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -2872,11 +2868,11 @@
       <c r="AQ40" t="s">
         <v>115</v>
       </c>
-      <c r="AR40" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR40" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[44]</v>
       </c>
-      <c r="AS40" s="81" t="str">
+      <c r="AS40" s="7" t="str">
         <f>W76</f>
         <v>YTS1C0033BBG01</v>
       </c>
@@ -2891,7 +2887,7 @@
         <v>105</v>
       </c>
       <c r="AY40" t="str">
-        <f>_xlfn.CONCAT(AS40:AV40)</f>
+        <f t="shared" si="0"/>
         <v>YTS1C0033BBG01 [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Yiyuan-YTS1C0033BBG01/C5188566. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -2899,13 +2895,13 @@
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="P41" s="13" t="s">
+      <c r="P41" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="67"/>
+      <c r="T41" s="67"/>
       <c r="U41" t="s">
         <v>15</v>
       </c>
@@ -2918,11 +2914,11 @@
       <c r="AQ41" t="s">
         <v>115</v>
       </c>
-      <c r="AR41" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR41" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[45]</v>
       </c>
-      <c r="AS41" s="81" t="str">
+      <c r="AS41" s="7" t="str">
         <f>W77</f>
         <v>0201N1R5C250CT</v>
       </c>
@@ -2937,7 +2933,7 @@
         <v>105</v>
       </c>
       <c r="AY41" t="str">
-        <f>_xlfn.CONCAT(AS41:AV41)</f>
+        <f t="shared" si="0"/>
         <v>0201N1R5C250CT [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Walsin_TechCorp-0201N1R5C250CT/C424820. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -2948,13 +2944,13 @@
       <c r="J42" t="s">
         <v>25</v>
       </c>
-      <c r="P42" s="13" t="s">
+      <c r="P42" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="67"/>
+      <c r="T42" s="67"/>
       <c r="U42" t="s">
         <v>18</v>
       </c>
@@ -2967,11 +2963,11 @@
       <c r="AQ42" t="s">
         <v>115</v>
       </c>
-      <c r="AR42" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR42" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[46]</v>
       </c>
-      <c r="AS42" s="81" t="str">
+      <c r="AS42" s="7" t="str">
         <f>W78</f>
         <v>WR20X1001FTL</v>
       </c>
@@ -2986,16 +2982,16 @@
         <v>105</v>
       </c>
       <c r="AY42" t="str">
-        <f>_xlfn.CONCAT(AS42:AV42)</f>
+        <f t="shared" si="0"/>
         <v>WR20X1001FTL [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/Walsin_TechCorp-WR20X1001FTL/C335021. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
     <row r="43" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="67"/>
+      <c r="T43" s="67"/>
       <c r="AO43" t="s">
         <v>114</v>
       </c>
@@ -3005,11 +3001,11 @@
       <c r="AQ43" t="s">
         <v>115</v>
       </c>
-      <c r="AR43" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR43" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[47]</v>
       </c>
-      <c r="AS43" s="81" t="str">
+      <c r="AS43" s="7" t="str">
         <f>W79</f>
         <v>LM2940L-50-TN3-R</v>
       </c>
@@ -3024,7 +3020,7 @@
         <v>105</v>
       </c>
       <c r="AY43" t="str">
-        <f>_xlfn.CONCAT(AS43:AV43)</f>
+        <f t="shared" si="0"/>
         <v>LM2940L-50-TN3-R [Электронный ресурс]. – Электронные данные. – jlcpcb.com/partdetail/utc_unisonic_tech-LM2940L_50_TN3R/C85225. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -3038,7 +3034,7 @@
       <c r="AQ44" t="s">
         <v>115</v>
       </c>
-      <c r="AR44" s="86" t="str">
+      <c r="AR44" s="11" t="str">
         <f>_xlfn.CONCAT(AO44:AQ44)</f>
         <v>[48]</v>
       </c>
@@ -3055,7 +3051,7 @@
         <v>105</v>
       </c>
       <c r="AY44" t="str">
-        <f t="shared" ref="AY44:AY49" si="1">_xlfn.CONCAT(AS44:AV44)</f>
+        <f t="shared" ref="AY44:AY49" si="4">_xlfn.CONCAT(AS44:AV44)</f>
         <v>YSGM232508  [Электронный ресурс]. – Электронные данные. – china.org.ru/product/62460852011. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -3069,8 +3065,8 @@
       <c r="AQ45" t="s">
         <v>115</v>
       </c>
-      <c r="AR45" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR45" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[49]</v>
       </c>
       <c r="AS45" t="s">
@@ -3079,14 +3075,14 @@
       <c r="AT45" t="s">
         <v>104</v>
       </c>
-      <c r="AU45" s="87" t="s">
+      <c r="AU45" s="12" t="s">
         <v>150</v>
       </c>
       <c r="AV45" t="s">
         <v>105</v>
       </c>
       <c r="AY45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>XL6009 Модуль DC-DC повышающий [Электронный ресурс]. – Электронные данные. – www.pcmount.by/preobrazovateli-napryazheniya/volt-converter-dc-dc-xl6009?i=13818%2C14861%2C14818. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -3100,8 +3096,8 @@
       <c r="AQ46" t="s">
         <v>115</v>
       </c>
-      <c r="AR46" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR46" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[50]</v>
       </c>
       <c r="AS46" t="s">
@@ -3110,14 +3106,14 @@
       <c r="AT46" t="s">
         <v>104</v>
       </c>
-      <c r="AU46" s="87" t="s">
+      <c r="AU46" s="12" t="s">
         <v>149</v>
       </c>
       <c r="AV46" t="s">
         <v>105</v>
       </c>
       <c r="AY46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>HX-2S-JH20, контроллер заряда/разряда  [Электронный ресурс]. – Электронные данные. – www.pcmount.by/moduli-kontrolya-zaryada-razryada/battery-bms-board-2s-li-ion-hx-2s-jh20. – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -3134,8 +3130,8 @@
       <c r="AQ47" t="s">
         <v>115</v>
       </c>
-      <c r="AR47" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR47" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[51]</v>
       </c>
       <c r="AS47" t="s">
@@ -3171,8 +3167,8 @@
       <c r="AQ48" t="s">
         <v>115</v>
       </c>
-      <c r="AR48" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR48" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[52]</v>
       </c>
       <c r="AT48" t="s">
@@ -3182,7 +3178,7 @@
         <v>105</v>
       </c>
       <c r="AY48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Электронный ресурс]. – Электронные данные. – . – Дата доступа: 16.03.2024</v>
       </c>
     </row>
@@ -3199,8 +3195,8 @@
       <c r="AQ49" t="s">
         <v>115</v>
       </c>
-      <c r="AR49" s="86" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR49" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>[53]</v>
       </c>
       <c r="AT49" t="s">
@@ -3210,1263 +3206,1263 @@
         <v>105</v>
       </c>
       <c r="AY49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Электронный ресурс]. – Электронные данные. – . – Дата доступа: 16.03.2024</v>
       </c>
     </row>
     <row r="56" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="21"/>
-      <c r="R57" s="19" t="s">
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="58"/>
+      <c r="R57" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="S57" s="20"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="20"/>
-      <c r="X57" s="20"/>
-      <c r="Y57" s="20"/>
-      <c r="Z57" s="20"/>
-      <c r="AA57" s="20"/>
-      <c r="AB57" s="20"/>
-      <c r="AC57" s="20"/>
-      <c r="AD57" s="20"/>
-      <c r="AE57" s="20"/>
-      <c r="AF57" s="20"/>
-      <c r="AG57" s="20"/>
-      <c r="AH57" s="20"/>
-      <c r="AI57" s="20"/>
-      <c r="AJ57" s="20"/>
-      <c r="AK57" s="20"/>
-      <c r="AL57" s="20"/>
-      <c r="AM57" s="20"/>
-      <c r="AN57" s="20"/>
-      <c r="AO57" s="20"/>
-      <c r="AP57" s="20"/>
-      <c r="AQ57" s="20"/>
-      <c r="AR57" s="20"/>
-      <c r="AS57" s="20"/>
-      <c r="AT57" s="20"/>
-      <c r="AU57" s="21"/>
+      <c r="S57" s="57"/>
+      <c r="T57" s="57"/>
+      <c r="U57" s="57"/>
+      <c r="V57" s="57"/>
+      <c r="W57" s="57"/>
+      <c r="X57" s="57"/>
+      <c r="Y57" s="57"/>
+      <c r="Z57" s="57"/>
+      <c r="AA57" s="57"/>
+      <c r="AB57" s="57"/>
+      <c r="AC57" s="57"/>
+      <c r="AD57" s="57"/>
+      <c r="AE57" s="57"/>
+      <c r="AF57" s="57"/>
+      <c r="AG57" s="57"/>
+      <c r="AH57" s="57"/>
+      <c r="AI57" s="57"/>
+      <c r="AJ57" s="57"/>
+      <c r="AK57" s="57"/>
+      <c r="AL57" s="57"/>
+      <c r="AM57" s="57"/>
+      <c r="AN57" s="57"/>
+      <c r="AO57" s="57"/>
+      <c r="AP57" s="57"/>
+      <c r="AQ57" s="57"/>
+      <c r="AR57" s="57"/>
+      <c r="AS57" s="57"/>
+      <c r="AT57" s="57"/>
+      <c r="AU57" s="58"/>
     </row>
     <row r="58" spans="2:51" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="24"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="36"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="36"/>
-      <c r="Z58" s="36"/>
-      <c r="AA58" s="36"/>
-      <c r="AB58" s="36"/>
-      <c r="AC58" s="36"/>
-      <c r="AD58" s="36"/>
-      <c r="AE58" s="36"/>
-      <c r="AF58" s="36"/>
-      <c r="AG58" s="36"/>
-      <c r="AH58" s="36"/>
-      <c r="AI58" s="36"/>
-      <c r="AJ58" s="36"/>
-      <c r="AK58" s="36"/>
-      <c r="AL58" s="36"/>
-      <c r="AM58" s="36"/>
-      <c r="AN58" s="36"/>
-      <c r="AO58" s="36"/>
-      <c r="AP58" s="36"/>
-      <c r="AQ58" s="36"/>
-      <c r="AR58" s="36"/>
-      <c r="AS58" s="36"/>
-      <c r="AT58" s="36"/>
-      <c r="AU58" s="37"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="104"/>
+      <c r="M58" s="104"/>
+      <c r="N58" s="104"/>
+      <c r="O58" s="104"/>
+      <c r="P58" s="105"/>
+      <c r="R58" s="59"/>
+      <c r="S58" s="60"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="60"/>
+      <c r="V58" s="60"/>
+      <c r="W58" s="60"/>
+      <c r="X58" s="60"/>
+      <c r="Y58" s="60"/>
+      <c r="Z58" s="60"/>
+      <c r="AA58" s="60"/>
+      <c r="AB58" s="60"/>
+      <c r="AC58" s="60"/>
+      <c r="AD58" s="60"/>
+      <c r="AE58" s="60"/>
+      <c r="AF58" s="60"/>
+      <c r="AG58" s="60"/>
+      <c r="AH58" s="60"/>
+      <c r="AI58" s="60"/>
+      <c r="AJ58" s="60"/>
+      <c r="AK58" s="60"/>
+      <c r="AL58" s="60"/>
+      <c r="AM58" s="60"/>
+      <c r="AN58" s="60"/>
+      <c r="AO58" s="60"/>
+      <c r="AP58" s="60"/>
+      <c r="AQ58" s="60"/>
+      <c r="AR58" s="60"/>
+      <c r="AS58" s="60"/>
+      <c r="AT58" s="60"/>
+      <c r="AU58" s="61"/>
     </row>
     <row r="59" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="28" t="s">
+      <c r="C59" s="107"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="27"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="107"/>
+      <c r="J59" s="107"/>
+      <c r="K59" s="107"/>
+      <c r="L59" s="107"/>
+      <c r="M59" s="107"/>
+      <c r="N59" s="107"/>
+      <c r="O59" s="107"/>
+      <c r="P59" s="108"/>
       <c r="R59" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S59" s="42" t="s">
+      <c r="S59" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="46"/>
-      <c r="W59" s="49" t="s">
+      <c r="T59" s="96"/>
+      <c r="U59" s="96"/>
+      <c r="V59" s="97"/>
+      <c r="W59" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="X59" s="50"/>
-      <c r="Y59" s="50"/>
-      <c r="Z59" s="88" t="s">
+      <c r="X59" s="69"/>
+      <c r="Y59" s="69"/>
+      <c r="Z59" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="AA59" s="89"/>
-      <c r="AB59" s="89"/>
-      <c r="AC59" s="89"/>
-      <c r="AD59" s="89"/>
-      <c r="AE59" s="89"/>
-      <c r="AF59" s="89"/>
-      <c r="AG59" s="89"/>
-      <c r="AH59" s="89"/>
-      <c r="AI59" s="89"/>
-      <c r="AJ59" s="90"/>
-      <c r="AK59" s="53" t="s">
+      <c r="AA59" s="120"/>
+      <c r="AB59" s="120"/>
+      <c r="AC59" s="120"/>
+      <c r="AD59" s="120"/>
+      <c r="AE59" s="120"/>
+      <c r="AF59" s="120"/>
+      <c r="AG59" s="120"/>
+      <c r="AH59" s="120"/>
+      <c r="AI59" s="120"/>
+      <c r="AJ59" s="121"/>
+      <c r="AK59" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="AL59" s="53"/>
-      <c r="AM59" s="53"/>
-      <c r="AN59" s="82" t="s">
+      <c r="AL59" s="54"/>
+      <c r="AM59" s="54"/>
+      <c r="AN59" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="AO59" s="53"/>
-      <c r="AP59" s="53"/>
-      <c r="AQ59" s="64"/>
-      <c r="AR59" s="82" t="s">
+      <c r="AO59" s="54"/>
+      <c r="AP59" s="54"/>
+      <c r="AQ59" s="55"/>
+      <c r="AR59" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="AS59" s="53"/>
-      <c r="AT59" s="53"/>
-      <c r="AU59" s="64"/>
+      <c r="AS59" s="54"/>
+      <c r="AT59" s="54"/>
+      <c r="AU59" s="55"/>
     </row>
     <row r="60" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="32" t="s">
+      <c r="C60" s="111"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="34"/>
-      <c r="R60" s="66">
+      <c r="G60" s="114"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="114"/>
+      <c r="J60" s="114"/>
+      <c r="K60" s="114"/>
+      <c r="L60" s="114"/>
+      <c r="M60" s="114"/>
+      <c r="N60" s="114"/>
+      <c r="O60" s="114"/>
+      <c r="P60" s="115"/>
+      <c r="R60" s="6">
         <v>1</v>
       </c>
-      <c r="S60" s="102" t="s">
+      <c r="S60" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="T60" s="47"/>
-      <c r="U60" s="47"/>
-      <c r="V60" s="103"/>
-      <c r="W60" s="97" t="s">
+      <c r="T60" s="123"/>
+      <c r="U60" s="123"/>
+      <c r="V60" s="124"/>
+      <c r="W60" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="X60" s="51"/>
-      <c r="Y60" s="69"/>
-      <c r="Z60" s="73" t="s">
+      <c r="X60" s="71"/>
+      <c r="Y60" s="72"/>
+      <c r="Z60" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="AA60" s="74"/>
-      <c r="AB60" s="74"/>
-      <c r="AC60" s="74"/>
-      <c r="AD60" s="74"/>
-      <c r="AE60" s="74"/>
-      <c r="AF60" s="74"/>
-      <c r="AG60" s="74"/>
-      <c r="AH60" s="74"/>
-      <c r="AI60" s="74"/>
-      <c r="AJ60" s="75"/>
-      <c r="AK60" s="55" t="s">
+      <c r="AA60" s="80"/>
+      <c r="AB60" s="80"/>
+      <c r="AC60" s="80"/>
+      <c r="AD60" s="80"/>
+      <c r="AE60" s="80"/>
+      <c r="AF60" s="80"/>
+      <c r="AG60" s="80"/>
+      <c r="AH60" s="80"/>
+      <c r="AI60" s="80"/>
+      <c r="AJ60" s="81"/>
+      <c r="AK60" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="AL60" s="52"/>
-      <c r="AM60" s="54"/>
+      <c r="AL60" s="63"/>
+      <c r="AM60" s="66"/>
       <c r="AN60" s="65"/>
-      <c r="AO60" s="52"/>
-      <c r="AP60" s="52"/>
-      <c r="AQ60" s="93"/>
-      <c r="AR60" s="55"/>
-      <c r="AS60" s="52"/>
-      <c r="AT60" s="52"/>
-      <c r="AU60" s="93"/>
+      <c r="AO60" s="63"/>
+      <c r="AP60" s="63"/>
+      <c r="AQ60" s="64"/>
+      <c r="AR60" s="62"/>
+      <c r="AS60" s="63"/>
+      <c r="AT60" s="63"/>
+      <c r="AU60" s="64"/>
     </row>
     <row r="61" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="17" t="s">
+      <c r="C61" s="99"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="10"/>
-      <c r="R61" s="83">
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="99"/>
+      <c r="K61" s="99"/>
+      <c r="L61" s="99"/>
+      <c r="M61" s="99"/>
+      <c r="N61" s="99"/>
+      <c r="O61" s="99"/>
+      <c r="P61" s="100"/>
+      <c r="R61" s="8">
         <v>2</v>
       </c>
-      <c r="S61" s="104" t="s">
+      <c r="S61" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="105"/>
-      <c r="W61" s="98" t="s">
+      <c r="T61" s="83"/>
+      <c r="U61" s="83"/>
+      <c r="V61" s="84"/>
+      <c r="W61" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="X61" s="12"/>
-      <c r="Y61" s="70"/>
-      <c r="Z61" s="76" t="s">
+      <c r="X61" s="74"/>
+      <c r="Y61" s="75"/>
+      <c r="Z61" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="AA61" s="72"/>
-      <c r="AB61" s="72"/>
-      <c r="AC61" s="72"/>
-      <c r="AD61" s="72"/>
-      <c r="AE61" s="72"/>
-      <c r="AF61" s="72"/>
-      <c r="AG61" s="72"/>
-      <c r="AH61" s="72"/>
-      <c r="AI61" s="72"/>
-      <c r="AJ61" s="77"/>
-      <c r="AK61" s="58" t="s">
+      <c r="AA61" s="38"/>
+      <c r="AB61" s="38"/>
+      <c r="AC61" s="38"/>
+      <c r="AD61" s="38"/>
+      <c r="AE61" s="38"/>
+      <c r="AF61" s="38"/>
+      <c r="AG61" s="38"/>
+      <c r="AH61" s="38"/>
+      <c r="AI61" s="38"/>
+      <c r="AJ61" s="39"/>
+      <c r="AK61" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AL61" s="56"/>
-      <c r="AM61" s="57"/>
-      <c r="AN61" s="67">
+      <c r="AL61" s="35"/>
+      <c r="AM61" s="36"/>
+      <c r="AN61" s="51">
         <v>0.71250000000000002</v>
       </c>
-      <c r="AO61" s="56"/>
-      <c r="AP61" s="56"/>
-      <c r="AQ61" s="116"/>
-      <c r="AR61" s="100">
+      <c r="AO61" s="35"/>
+      <c r="AP61" s="35"/>
+      <c r="AQ61" s="52"/>
+      <c r="AR61" s="25">
         <f>AN61*3.284</f>
         <v>2.3398499999999998</v>
       </c>
-      <c r="AS61" s="91"/>
-      <c r="AT61" s="91"/>
-      <c r="AU61" s="94"/>
+      <c r="AS61" s="26"/>
+      <c r="AT61" s="26"/>
+      <c r="AU61" s="27"/>
     </row>
     <row r="62" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="17" t="s">
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="10"/>
-      <c r="R62" s="83">
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="99"/>
+      <c r="K62" s="99"/>
+      <c r="L62" s="99"/>
+      <c r="M62" s="99"/>
+      <c r="N62" s="99"/>
+      <c r="O62" s="99"/>
+      <c r="P62" s="100"/>
+      <c r="R62" s="8">
         <v>3</v>
       </c>
-      <c r="S62" s="104" t="s">
+      <c r="S62" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="105"/>
-      <c r="W62" s="98" t="s">
+      <c r="T62" s="83"/>
+      <c r="U62" s="83"/>
+      <c r="V62" s="84"/>
+      <c r="W62" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="70"/>
-      <c r="Z62" s="76" t="s">
+      <c r="X62" s="74"/>
+      <c r="Y62" s="75"/>
+      <c r="Z62" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="AA62" s="72"/>
-      <c r="AB62" s="72"/>
-      <c r="AC62" s="72"/>
-      <c r="AD62" s="72"/>
-      <c r="AE62" s="72"/>
-      <c r="AF62" s="72"/>
-      <c r="AG62" s="72"/>
-      <c r="AH62" s="72"/>
-      <c r="AI62" s="72"/>
-      <c r="AJ62" s="77"/>
-      <c r="AK62" s="58"/>
-      <c r="AL62" s="56"/>
-      <c r="AM62" s="57"/>
-      <c r="AN62" s="67"/>
-      <c r="AO62" s="56"/>
-      <c r="AP62" s="56"/>
-      <c r="AQ62" s="116"/>
-      <c r="AR62" s="100"/>
-      <c r="AS62" s="91"/>
-      <c r="AT62" s="91"/>
-      <c r="AU62" s="94"/>
+      <c r="AA62" s="38"/>
+      <c r="AB62" s="38"/>
+      <c r="AC62" s="38"/>
+      <c r="AD62" s="38"/>
+      <c r="AE62" s="38"/>
+      <c r="AF62" s="38"/>
+      <c r="AG62" s="38"/>
+      <c r="AH62" s="38"/>
+      <c r="AI62" s="38"/>
+      <c r="AJ62" s="39"/>
+      <c r="AK62" s="34"/>
+      <c r="AL62" s="35"/>
+      <c r="AM62" s="36"/>
+      <c r="AN62" s="51"/>
+      <c r="AO62" s="35"/>
+      <c r="AP62" s="35"/>
+      <c r="AQ62" s="52"/>
+      <c r="AR62" s="25"/>
+      <c r="AS62" s="26"/>
+      <c r="AT62" s="26"/>
+      <c r="AU62" s="27"/>
     </row>
     <row r="63" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="10"/>
-      <c r="R63" s="83">
+      <c r="B63" s="98"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="102"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="99"/>
+      <c r="L63" s="99"/>
+      <c r="M63" s="99"/>
+      <c r="N63" s="99"/>
+      <c r="O63" s="99"/>
+      <c r="P63" s="100"/>
+      <c r="R63" s="8">
         <v>4</v>
       </c>
-      <c r="S63" s="106" t="s">
+      <c r="S63" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="107"/>
-      <c r="W63" s="98" t="s">
+      <c r="T63" s="117"/>
+      <c r="U63" s="117"/>
+      <c r="V63" s="118"/>
+      <c r="W63" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="70"/>
-      <c r="Z63" s="76" t="s">
+      <c r="X63" s="74"/>
+      <c r="Y63" s="75"/>
+      <c r="Z63" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AA63" s="72"/>
-      <c r="AB63" s="72"/>
-      <c r="AC63" s="72"/>
-      <c r="AD63" s="72"/>
-      <c r="AE63" s="72"/>
-      <c r="AF63" s="72"/>
-      <c r="AG63" s="72"/>
-      <c r="AH63" s="72"/>
-      <c r="AI63" s="72"/>
-      <c r="AJ63" s="77"/>
-      <c r="AK63" s="58"/>
-      <c r="AL63" s="56"/>
-      <c r="AM63" s="57"/>
-      <c r="AN63" s="67"/>
-      <c r="AO63" s="56"/>
-      <c r="AP63" s="56"/>
-      <c r="AQ63" s="116"/>
-      <c r="AR63" s="100"/>
-      <c r="AS63" s="91"/>
-      <c r="AT63" s="91"/>
-      <c r="AU63" s="94"/>
+      <c r="AA63" s="38"/>
+      <c r="AB63" s="38"/>
+      <c r="AC63" s="38"/>
+      <c r="AD63" s="38"/>
+      <c r="AE63" s="38"/>
+      <c r="AF63" s="38"/>
+      <c r="AG63" s="38"/>
+      <c r="AH63" s="38"/>
+      <c r="AI63" s="38"/>
+      <c r="AJ63" s="39"/>
+      <c r="AK63" s="34"/>
+      <c r="AL63" s="35"/>
+      <c r="AM63" s="36"/>
+      <c r="AN63" s="51"/>
+      <c r="AO63" s="35"/>
+      <c r="AP63" s="35"/>
+      <c r="AQ63" s="52"/>
+      <c r="AR63" s="25"/>
+      <c r="AS63" s="26"/>
+      <c r="AT63" s="26"/>
+      <c r="AU63" s="27"/>
     </row>
     <row r="64" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="44"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="8"/>
-      <c r="R64" s="83">
+      <c r="B64" s="91"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="94"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="92"/>
+      <c r="I64" s="92"/>
+      <c r="J64" s="92"/>
+      <c r="K64" s="92"/>
+      <c r="L64" s="92"/>
+      <c r="M64" s="92"/>
+      <c r="N64" s="92"/>
+      <c r="O64" s="92"/>
+      <c r="P64" s="93"/>
+      <c r="R64" s="8">
         <v>5</v>
       </c>
-      <c r="S64" s="108" t="s">
+      <c r="S64" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="109"/>
-      <c r="W64" s="98" t="s">
+      <c r="T64" s="77"/>
+      <c r="U64" s="77"/>
+      <c r="V64" s="78"/>
+      <c r="W64" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="X64" s="12"/>
-      <c r="Y64" s="70"/>
-      <c r="Z64" s="76" t="s">
+      <c r="X64" s="74"/>
+      <c r="Y64" s="75"/>
+      <c r="Z64" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AA64" s="72"/>
-      <c r="AB64" s="72"/>
-      <c r="AC64" s="72"/>
-      <c r="AD64" s="72"/>
-      <c r="AE64" s="72"/>
-      <c r="AF64" s="72"/>
-      <c r="AG64" s="72"/>
-      <c r="AH64" s="72"/>
-      <c r="AI64" s="72"/>
-      <c r="AJ64" s="77"/>
-      <c r="AK64" s="58"/>
-      <c r="AL64" s="56"/>
-      <c r="AM64" s="57"/>
-      <c r="AN64" s="67">
+      <c r="AA64" s="38"/>
+      <c r="AB64" s="38"/>
+      <c r="AC64" s="38"/>
+      <c r="AD64" s="38"/>
+      <c r="AE64" s="38"/>
+      <c r="AF64" s="38"/>
+      <c r="AG64" s="38"/>
+      <c r="AH64" s="38"/>
+      <c r="AI64" s="38"/>
+      <c r="AJ64" s="39"/>
+      <c r="AK64" s="34"/>
+      <c r="AL64" s="35"/>
+      <c r="AM64" s="36"/>
+      <c r="AN64" s="51">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="AO64" s="56"/>
-      <c r="AP64" s="56"/>
-      <c r="AQ64" s="116"/>
-      <c r="AR64" s="100">
-        <f t="shared" ref="AR64:AR79" si="2">AN64*3.284</f>
+      <c r="AO64" s="35"/>
+      <c r="AP64" s="35"/>
+      <c r="AQ64" s="52"/>
+      <c r="AR64" s="25">
+        <f t="shared" ref="AR64:AR79" si="5">AN64*3.284</f>
         <v>3.7109199999999995E-2</v>
       </c>
-      <c r="AS64" s="91"/>
-      <c r="AT64" s="91"/>
-      <c r="AU64" s="94"/>
+      <c r="AS64" s="26"/>
+      <c r="AT64" s="26"/>
+      <c r="AU64" s="27"/>
     </row>
     <row r="65" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="R65" s="83">
+      <c r="R65" s="8">
         <v>6</v>
       </c>
-      <c r="S65" s="108" t="s">
+      <c r="S65" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11"/>
-      <c r="V65" s="109"/>
-      <c r="W65" s="98" t="s">
+      <c r="T65" s="77"/>
+      <c r="U65" s="77"/>
+      <c r="V65" s="78"/>
+      <c r="W65" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="X65" s="12"/>
-      <c r="Y65" s="70"/>
-      <c r="Z65" s="76" t="s">
+      <c r="X65" s="74"/>
+      <c r="Y65" s="75"/>
+      <c r="Z65" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="AA65" s="72"/>
-      <c r="AB65" s="72"/>
-      <c r="AC65" s="72"/>
-      <c r="AD65" s="72"/>
-      <c r="AE65" s="72"/>
-      <c r="AF65" s="72"/>
-      <c r="AG65" s="72"/>
-      <c r="AH65" s="72"/>
-      <c r="AI65" s="72"/>
-      <c r="AJ65" s="77"/>
-      <c r="AK65" s="58"/>
-      <c r="AL65" s="56"/>
-      <c r="AM65" s="57"/>
-      <c r="AN65" s="67">
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="38"/>
+      <c r="AE65" s="38"/>
+      <c r="AF65" s="38"/>
+      <c r="AG65" s="38"/>
+      <c r="AH65" s="38"/>
+      <c r="AI65" s="38"/>
+      <c r="AJ65" s="39"/>
+      <c r="AK65" s="34"/>
+      <c r="AL65" s="35"/>
+      <c r="AM65" s="36"/>
+      <c r="AN65" s="51">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="AO65" s="56"/>
-      <c r="AP65" s="56"/>
-      <c r="AQ65" s="116"/>
-      <c r="AR65" s="100">
-        <f t="shared" si="2"/>
+      <c r="AO65" s="35"/>
+      <c r="AP65" s="35"/>
+      <c r="AQ65" s="52"/>
+      <c r="AR65" s="25">
+        <f t="shared" si="5"/>
         <v>6.3052799999999992E-2</v>
       </c>
-      <c r="AS65" s="91"/>
-      <c r="AT65" s="91"/>
-      <c r="AU65" s="94"/>
+      <c r="AS65" s="26"/>
+      <c r="AT65" s="26"/>
+      <c r="AU65" s="27"/>
     </row>
     <row r="66" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="R66" s="83">
+      <c r="R66" s="8">
         <v>7</v>
       </c>
-      <c r="S66" s="110" t="s">
+      <c r="S66" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="T66" s="14"/>
-      <c r="U66" s="14"/>
-      <c r="V66" s="111"/>
-      <c r="W66" s="98" t="s">
+      <c r="T66" s="126"/>
+      <c r="U66" s="126"/>
+      <c r="V66" s="127"/>
+      <c r="W66" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="70"/>
-      <c r="Z66" s="76" t="s">
+      <c r="X66" s="74"/>
+      <c r="Y66" s="75"/>
+      <c r="Z66" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="AA66" s="72"/>
-      <c r="AB66" s="72"/>
-      <c r="AC66" s="72"/>
-      <c r="AD66" s="72"/>
-      <c r="AE66" s="72"/>
-      <c r="AF66" s="72"/>
-      <c r="AG66" s="72"/>
-      <c r="AH66" s="72"/>
-      <c r="AI66" s="72"/>
-      <c r="AJ66" s="77"/>
-      <c r="AK66" s="58" t="s">
+      <c r="AA66" s="38"/>
+      <c r="AB66" s="38"/>
+      <c r="AC66" s="38"/>
+      <c r="AD66" s="38"/>
+      <c r="AE66" s="38"/>
+      <c r="AF66" s="38"/>
+      <c r="AG66" s="38"/>
+      <c r="AH66" s="38"/>
+      <c r="AI66" s="38"/>
+      <c r="AJ66" s="39"/>
+      <c r="AK66" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="AL66" s="56"/>
-      <c r="AM66" s="57"/>
-      <c r="AN66" s="67"/>
-      <c r="AO66" s="56"/>
-      <c r="AP66" s="56"/>
-      <c r="AQ66" s="116"/>
-      <c r="AR66" s="100"/>
-      <c r="AS66" s="91"/>
-      <c r="AT66" s="91"/>
-      <c r="AU66" s="94"/>
+      <c r="AL66" s="35"/>
+      <c r="AM66" s="36"/>
+      <c r="AN66" s="51"/>
+      <c r="AO66" s="35"/>
+      <c r="AP66" s="35"/>
+      <c r="AQ66" s="52"/>
+      <c r="AR66" s="25"/>
+      <c r="AS66" s="26"/>
+      <c r="AT66" s="26"/>
+      <c r="AU66" s="27"/>
     </row>
     <row r="67" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="R67" s="83">
+      <c r="R67" s="8">
         <v>8</v>
       </c>
-      <c r="S67" s="108" t="s">
+      <c r="S67" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11"/>
-      <c r="V67" s="109"/>
-      <c r="W67" s="98" t="s">
+      <c r="T67" s="77"/>
+      <c r="U67" s="77"/>
+      <c r="V67" s="78"/>
+      <c r="W67" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="X67" s="12"/>
-      <c r="Y67" s="70"/>
-      <c r="Z67" s="76" t="s">
+      <c r="X67" s="74"/>
+      <c r="Y67" s="75"/>
+      <c r="Z67" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AA67" s="72"/>
-      <c r="AB67" s="72"/>
-      <c r="AC67" s="72"/>
-      <c r="AD67" s="72"/>
-      <c r="AE67" s="72"/>
-      <c r="AF67" s="72"/>
-      <c r="AG67" s="72"/>
-      <c r="AH67" s="72"/>
-      <c r="AI67" s="72"/>
-      <c r="AJ67" s="77"/>
-      <c r="AK67" s="58"/>
-      <c r="AL67" s="56"/>
-      <c r="AM67" s="57"/>
-      <c r="AN67" s="67">
+      <c r="AA67" s="38"/>
+      <c r="AB67" s="38"/>
+      <c r="AC67" s="38"/>
+      <c r="AD67" s="38"/>
+      <c r="AE67" s="38"/>
+      <c r="AF67" s="38"/>
+      <c r="AG67" s="38"/>
+      <c r="AH67" s="38"/>
+      <c r="AI67" s="38"/>
+      <c r="AJ67" s="39"/>
+      <c r="AK67" s="34"/>
+      <c r="AL67" s="35"/>
+      <c r="AM67" s="36"/>
+      <c r="AN67" s="51">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="AO67" s="56"/>
-      <c r="AP67" s="56"/>
-      <c r="AQ67" s="116"/>
-      <c r="AR67" s="100">
-        <f t="shared" si="2"/>
+      <c r="AO67" s="35"/>
+      <c r="AP67" s="35"/>
+      <c r="AQ67" s="52"/>
+      <c r="AR67" s="25">
+        <f t="shared" si="5"/>
         <v>6.4694799999999997E-2</v>
       </c>
-      <c r="AS67" s="91"/>
-      <c r="AT67" s="91"/>
-      <c r="AU67" s="94"/>
+      <c r="AS67" s="26"/>
+      <c r="AT67" s="26"/>
+      <c r="AU67" s="27"/>
     </row>
     <row r="68" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="R68" s="83">
+      <c r="R68" s="8">
         <v>9</v>
       </c>
-      <c r="S68" s="108" t="s">
+      <c r="S68" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11"/>
-      <c r="V68" s="109"/>
-      <c r="W68" s="98" t="s">
+      <c r="T68" s="77"/>
+      <c r="U68" s="77"/>
+      <c r="V68" s="78"/>
+      <c r="W68" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="X68" s="12"/>
-      <c r="Y68" s="70"/>
-      <c r="Z68" s="76" t="s">
+      <c r="X68" s="74"/>
+      <c r="Y68" s="75"/>
+      <c r="Z68" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="AA68" s="72"/>
-      <c r="AB68" s="72"/>
-      <c r="AC68" s="72"/>
-      <c r="AD68" s="72"/>
-      <c r="AE68" s="72"/>
-      <c r="AF68" s="72"/>
-      <c r="AG68" s="72"/>
-      <c r="AH68" s="72"/>
-      <c r="AI68" s="72"/>
-      <c r="AJ68" s="77"/>
-      <c r="AK68" s="58"/>
-      <c r="AL68" s="56"/>
-      <c r="AM68" s="57"/>
-      <c r="AN68" s="67">
+      <c r="AA68" s="38"/>
+      <c r="AB68" s="38"/>
+      <c r="AC68" s="38"/>
+      <c r="AD68" s="38"/>
+      <c r="AE68" s="38"/>
+      <c r="AF68" s="38"/>
+      <c r="AG68" s="38"/>
+      <c r="AH68" s="38"/>
+      <c r="AI68" s="38"/>
+      <c r="AJ68" s="39"/>
+      <c r="AK68" s="34"/>
+      <c r="AL68" s="35"/>
+      <c r="AM68" s="36"/>
+      <c r="AN68" s="51">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="AO68" s="56"/>
-      <c r="AP68" s="56"/>
-      <c r="AQ68" s="116"/>
-      <c r="AR68" s="100">
-        <f t="shared" si="2"/>
+      <c r="AO68" s="35"/>
+      <c r="AP68" s="35"/>
+      <c r="AQ68" s="52"/>
+      <c r="AR68" s="25">
+        <f t="shared" si="5"/>
         <v>2.5615199999999998E-2</v>
       </c>
-      <c r="AS68" s="91"/>
-      <c r="AT68" s="91"/>
-      <c r="AU68" s="94"/>
+      <c r="AS68" s="26"/>
+      <c r="AT68" s="26"/>
+      <c r="AU68" s="27"/>
     </row>
     <row r="69" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="R69" s="83">
+      <c r="R69" s="8">
         <v>10</v>
       </c>
-      <c r="S69" s="108" t="s">
+      <c r="S69" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
-      <c r="V69" s="109"/>
-      <c r="W69" s="98" t="s">
+      <c r="T69" s="77"/>
+      <c r="U69" s="77"/>
+      <c r="V69" s="78"/>
+      <c r="W69" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="70"/>
-      <c r="Z69" s="76" t="s">
+      <c r="X69" s="74"/>
+      <c r="Y69" s="75"/>
+      <c r="Z69" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AA69" s="72"/>
-      <c r="AB69" s="72"/>
-      <c r="AC69" s="72"/>
-      <c r="AD69" s="72"/>
-      <c r="AE69" s="72"/>
-      <c r="AF69" s="72"/>
-      <c r="AG69" s="72"/>
-      <c r="AH69" s="72"/>
-      <c r="AI69" s="72"/>
-      <c r="AJ69" s="77"/>
-      <c r="AK69" s="58"/>
-      <c r="AL69" s="56"/>
-      <c r="AM69" s="57"/>
-      <c r="AN69" s="67">
+      <c r="AA69" s="38"/>
+      <c r="AB69" s="38"/>
+      <c r="AC69" s="38"/>
+      <c r="AD69" s="38"/>
+      <c r="AE69" s="38"/>
+      <c r="AF69" s="38"/>
+      <c r="AG69" s="38"/>
+      <c r="AH69" s="38"/>
+      <c r="AI69" s="38"/>
+      <c r="AJ69" s="39"/>
+      <c r="AK69" s="34"/>
+      <c r="AL69" s="35"/>
+      <c r="AM69" s="36"/>
+      <c r="AN69" s="51">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="AO69" s="56"/>
-      <c r="AP69" s="56"/>
-      <c r="AQ69" s="116"/>
-      <c r="AR69" s="100">
-        <f t="shared" si="2"/>
+      <c r="AO69" s="35"/>
+      <c r="AP69" s="35"/>
+      <c r="AQ69" s="52"/>
+      <c r="AR69" s="25">
+        <f t="shared" si="5"/>
         <v>3.9079599999999999E-2</v>
       </c>
-      <c r="AS69" s="91"/>
-      <c r="AT69" s="91"/>
-      <c r="AU69" s="94"/>
+      <c r="AS69" s="26"/>
+      <c r="AT69" s="26"/>
+      <c r="AU69" s="27"/>
     </row>
     <row r="70" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="R70" s="83">
+      <c r="R70" s="8">
         <v>11</v>
       </c>
-      <c r="S70" s="108" t="s">
+      <c r="S70" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11"/>
-      <c r="V70" s="109"/>
-      <c r="W70" s="98" t="s">
+      <c r="T70" s="77"/>
+      <c r="U70" s="77"/>
+      <c r="V70" s="78"/>
+      <c r="W70" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="X70" s="12"/>
-      <c r="Y70" s="70"/>
-      <c r="Z70" s="76" t="s">
+      <c r="X70" s="74"/>
+      <c r="Y70" s="75"/>
+      <c r="Z70" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="AA70" s="72"/>
-      <c r="AB70" s="72"/>
-      <c r="AC70" s="72"/>
-      <c r="AD70" s="72"/>
-      <c r="AE70" s="72"/>
-      <c r="AF70" s="72"/>
-      <c r="AG70" s="72"/>
-      <c r="AH70" s="72"/>
-      <c r="AI70" s="72"/>
-      <c r="AJ70" s="77"/>
-      <c r="AK70" s="58"/>
-      <c r="AL70" s="56"/>
-      <c r="AM70" s="57"/>
-      <c r="AN70" s="67">
+      <c r="AA70" s="38"/>
+      <c r="AB70" s="38"/>
+      <c r="AC70" s="38"/>
+      <c r="AD70" s="38"/>
+      <c r="AE70" s="38"/>
+      <c r="AF70" s="38"/>
+      <c r="AG70" s="38"/>
+      <c r="AH70" s="38"/>
+      <c r="AI70" s="38"/>
+      <c r="AJ70" s="39"/>
+      <c r="AK70" s="34"/>
+      <c r="AL70" s="35"/>
+      <c r="AM70" s="36"/>
+      <c r="AN70" s="51">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="AO70" s="56"/>
-      <c r="AP70" s="56"/>
-      <c r="AQ70" s="116"/>
-      <c r="AR70" s="100">
-        <f t="shared" si="2"/>
+      <c r="AO70" s="35"/>
+      <c r="AP70" s="35"/>
+      <c r="AQ70" s="52"/>
+      <c r="AR70" s="25">
+        <f t="shared" si="5"/>
         <v>8.9324799999999996E-2</v>
       </c>
-      <c r="AS70" s="91"/>
-      <c r="AT70" s="91"/>
-      <c r="AU70" s="94"/>
+      <c r="AS70" s="26"/>
+      <c r="AT70" s="26"/>
+      <c r="AU70" s="27"/>
     </row>
     <row r="71" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="R71" s="83">
+      <c r="R71" s="8">
         <v>12</v>
       </c>
-      <c r="S71" s="108" t="s">
+      <c r="S71" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
-      <c r="V71" s="109"/>
-      <c r="W71" s="98" t="s">
+      <c r="T71" s="77"/>
+      <c r="U71" s="77"/>
+      <c r="V71" s="78"/>
+      <c r="W71" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="X71" s="12"/>
-      <c r="Y71" s="70"/>
-      <c r="Z71" s="76" t="s">
+      <c r="X71" s="74"/>
+      <c r="Y71" s="75"/>
+      <c r="Z71" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="AA71" s="72"/>
-      <c r="AB71" s="72"/>
-      <c r="AC71" s="72"/>
-      <c r="AD71" s="72"/>
-      <c r="AE71" s="72"/>
-      <c r="AF71" s="72"/>
-      <c r="AG71" s="72"/>
-      <c r="AH71" s="72"/>
-      <c r="AI71" s="72"/>
-      <c r="AJ71" s="77"/>
-      <c r="AK71" s="58"/>
-      <c r="AL71" s="56"/>
-      <c r="AM71" s="57"/>
-      <c r="AN71" s="67">
+      <c r="AA71" s="38"/>
+      <c r="AB71" s="38"/>
+      <c r="AC71" s="38"/>
+      <c r="AD71" s="38"/>
+      <c r="AE71" s="38"/>
+      <c r="AF71" s="38"/>
+      <c r="AG71" s="38"/>
+      <c r="AH71" s="38"/>
+      <c r="AI71" s="38"/>
+      <c r="AJ71" s="39"/>
+      <c r="AK71" s="34"/>
+      <c r="AL71" s="35"/>
+      <c r="AM71" s="36"/>
+      <c r="AN71" s="51">
         <v>5.3E-3</v>
       </c>
-      <c r="AO71" s="56"/>
-      <c r="AP71" s="56"/>
-      <c r="AQ71" s="116"/>
-      <c r="AR71" s="100">
-        <f t="shared" si="2"/>
+      <c r="AO71" s="35"/>
+      <c r="AP71" s="35"/>
+      <c r="AQ71" s="52"/>
+      <c r="AR71" s="25">
+        <f t="shared" si="5"/>
         <v>1.7405199999999999E-2</v>
       </c>
-      <c r="AS71" s="91"/>
-      <c r="AT71" s="91"/>
-      <c r="AU71" s="94"/>
+      <c r="AS71" s="26"/>
+      <c r="AT71" s="26"/>
+      <c r="AU71" s="27"/>
     </row>
     <row r="72" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="R72" s="83">
+      <c r="R72" s="8">
         <v>13</v>
       </c>
-      <c r="S72" s="108" t="s">
+      <c r="S72" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11"/>
-      <c r="V72" s="109"/>
-      <c r="W72" s="99" t="s">
+      <c r="T72" s="77"/>
+      <c r="U72" s="77"/>
+      <c r="V72" s="78"/>
+      <c r="W72" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="X72" s="48"/>
-      <c r="Y72" s="71"/>
-      <c r="Z72" s="76" t="s">
+      <c r="X72" s="87"/>
+      <c r="Y72" s="88"/>
+      <c r="Z72" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="AA72" s="72"/>
-      <c r="AB72" s="72"/>
-      <c r="AC72" s="72"/>
-      <c r="AD72" s="72"/>
-      <c r="AE72" s="72"/>
-      <c r="AF72" s="72"/>
-      <c r="AG72" s="72"/>
-      <c r="AH72" s="72"/>
-      <c r="AI72" s="72"/>
-      <c r="AJ72" s="77"/>
-      <c r="AK72" s="58"/>
-      <c r="AL72" s="56"/>
-      <c r="AM72" s="57"/>
-      <c r="AN72" s="67">
+      <c r="AA72" s="38"/>
+      <c r="AB72" s="38"/>
+      <c r="AC72" s="38"/>
+      <c r="AD72" s="38"/>
+      <c r="AE72" s="38"/>
+      <c r="AF72" s="38"/>
+      <c r="AG72" s="38"/>
+      <c r="AH72" s="38"/>
+      <c r="AI72" s="38"/>
+      <c r="AJ72" s="39"/>
+      <c r="AK72" s="34"/>
+      <c r="AL72" s="35"/>
+      <c r="AM72" s="36"/>
+      <c r="AN72" s="51">
         <v>0.23089999999999999</v>
       </c>
-      <c r="AO72" s="56"/>
-      <c r="AP72" s="56"/>
-      <c r="AQ72" s="116"/>
-      <c r="AR72" s="100">
-        <f t="shared" si="2"/>
+      <c r="AO72" s="35"/>
+      <c r="AP72" s="35"/>
+      <c r="AQ72" s="52"/>
+      <c r="AR72" s="25">
+        <f t="shared" si="5"/>
         <v>0.75827559999999994</v>
       </c>
-      <c r="AS72" s="91"/>
-      <c r="AT72" s="91"/>
-      <c r="AU72" s="94"/>
+      <c r="AS72" s="26"/>
+      <c r="AT72" s="26"/>
+      <c r="AU72" s="27"/>
     </row>
     <row r="73" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="R73" s="83">
+      <c r="R73" s="8">
         <v>14</v>
       </c>
-      <c r="S73" s="108" t="s">
+      <c r="S73" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="109"/>
-      <c r="W73" s="98" t="s">
+      <c r="T73" s="77"/>
+      <c r="U73" s="77"/>
+      <c r="V73" s="78"/>
+      <c r="W73" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="70"/>
-      <c r="Z73" s="76" t="s">
+      <c r="X73" s="74"/>
+      <c r="Y73" s="75"/>
+      <c r="Z73" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="AA73" s="72"/>
-      <c r="AB73" s="72"/>
-      <c r="AC73" s="72"/>
-      <c r="AD73" s="72"/>
-      <c r="AE73" s="72"/>
-      <c r="AF73" s="72"/>
-      <c r="AG73" s="72"/>
-      <c r="AH73" s="72"/>
-      <c r="AI73" s="72"/>
-      <c r="AJ73" s="77"/>
-      <c r="AK73" s="58"/>
-      <c r="AL73" s="56"/>
-      <c r="AM73" s="57"/>
-      <c r="AN73" s="67">
+      <c r="AA73" s="38"/>
+      <c r="AB73" s="38"/>
+      <c r="AC73" s="38"/>
+      <c r="AD73" s="38"/>
+      <c r="AE73" s="38"/>
+      <c r="AF73" s="38"/>
+      <c r="AG73" s="38"/>
+      <c r="AH73" s="38"/>
+      <c r="AI73" s="38"/>
+      <c r="AJ73" s="39"/>
+      <c r="AK73" s="34"/>
+      <c r="AL73" s="35"/>
+      <c r="AM73" s="36"/>
+      <c r="AN73" s="51">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="AO73" s="56"/>
-      <c r="AP73" s="56"/>
-      <c r="AQ73" s="116"/>
-      <c r="AR73" s="100">
-        <f t="shared" si="2"/>
+      <c r="AO73" s="35"/>
+      <c r="AP73" s="35"/>
+      <c r="AQ73" s="52"/>
+      <c r="AR73" s="25">
+        <f t="shared" si="5"/>
         <v>4.5647599999999997E-2</v>
       </c>
-      <c r="AS73" s="91"/>
-      <c r="AT73" s="91"/>
-      <c r="AU73" s="94"/>
+      <c r="AS73" s="26"/>
+      <c r="AT73" s="26"/>
+      <c r="AU73" s="27"/>
     </row>
     <row r="74" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="F74" s="13" t="s">
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="F74" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="R74" s="83">
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="67"/>
+      <c r="L74" s="67"/>
+      <c r="M74" s="67"/>
+      <c r="R74" s="8">
         <v>15</v>
       </c>
-      <c r="S74" s="104" t="s">
+      <c r="S74" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="T74" s="38"/>
-      <c r="U74" s="38"/>
-      <c r="V74" s="105"/>
-      <c r="W74" s="98" t="s">
+      <c r="T74" s="83"/>
+      <c r="U74" s="83"/>
+      <c r="V74" s="84"/>
+      <c r="W74" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="70"/>
-      <c r="Z74" s="76" t="s">
+      <c r="X74" s="74"/>
+      <c r="Y74" s="75"/>
+      <c r="Z74" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="AA74" s="72"/>
-      <c r="AB74" s="72"/>
-      <c r="AC74" s="72"/>
-      <c r="AD74" s="72"/>
-      <c r="AE74" s="72"/>
-      <c r="AF74" s="72"/>
-      <c r="AG74" s="72"/>
-      <c r="AH74" s="72"/>
-      <c r="AI74" s="72"/>
-      <c r="AJ74" s="77"/>
-      <c r="AK74" s="58" t="s">
+      <c r="AA74" s="38"/>
+      <c r="AB74" s="38"/>
+      <c r="AC74" s="38"/>
+      <c r="AD74" s="38"/>
+      <c r="AE74" s="38"/>
+      <c r="AF74" s="38"/>
+      <c r="AG74" s="38"/>
+      <c r="AH74" s="38"/>
+      <c r="AI74" s="38"/>
+      <c r="AJ74" s="39"/>
+      <c r="AK74" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="AL74" s="56"/>
-      <c r="AM74" s="57"/>
-      <c r="AN74" s="67"/>
-      <c r="AO74" s="56"/>
-      <c r="AP74" s="56"/>
-      <c r="AQ74" s="116"/>
-      <c r="AR74" s="100"/>
-      <c r="AS74" s="91"/>
-      <c r="AT74" s="91"/>
-      <c r="AU74" s="94"/>
+      <c r="AL74" s="35"/>
+      <c r="AM74" s="36"/>
+      <c r="AN74" s="51"/>
+      <c r="AO74" s="35"/>
+      <c r="AP74" s="35"/>
+      <c r="AQ74" s="52"/>
+      <c r="AR74" s="25"/>
+      <c r="AS74" s="26"/>
+      <c r="AT74" s="26"/>
+      <c r="AU74" s="27"/>
     </row>
     <row r="75" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="R75" s="83">
+      <c r="C75" s="89"/>
+      <c r="D75" s="89"/>
+      <c r="R75" s="8">
         <v>16</v>
       </c>
-      <c r="S75" s="108" t="s">
+      <c r="S75" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11"/>
-      <c r="V75" s="109"/>
-      <c r="W75" s="98" t="s">
+      <c r="T75" s="77"/>
+      <c r="U75" s="77"/>
+      <c r="V75" s="78"/>
+      <c r="W75" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="70"/>
-      <c r="Z75" s="76" t="s">
+      <c r="X75" s="74"/>
+      <c r="Y75" s="75"/>
+      <c r="Z75" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="AA75" s="72"/>
-      <c r="AB75" s="72"/>
-      <c r="AC75" s="72"/>
-      <c r="AD75" s="72"/>
-      <c r="AE75" s="72"/>
-      <c r="AF75" s="72"/>
-      <c r="AG75" s="72"/>
-      <c r="AH75" s="72"/>
-      <c r="AI75" s="72"/>
-      <c r="AJ75" s="77"/>
-      <c r="AK75" s="58"/>
-      <c r="AL75" s="56"/>
-      <c r="AM75" s="57"/>
-      <c r="AN75" s="67">
+      <c r="AA75" s="38"/>
+      <c r="AB75" s="38"/>
+      <c r="AC75" s="38"/>
+      <c r="AD75" s="38"/>
+      <c r="AE75" s="38"/>
+      <c r="AF75" s="38"/>
+      <c r="AG75" s="38"/>
+      <c r="AH75" s="38"/>
+      <c r="AI75" s="38"/>
+      <c r="AJ75" s="39"/>
+      <c r="AK75" s="34"/>
+      <c r="AL75" s="35"/>
+      <c r="AM75" s="36"/>
+      <c r="AN75" s="51">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="AO75" s="56"/>
-      <c r="AP75" s="56"/>
-      <c r="AQ75" s="116"/>
-      <c r="AR75" s="100">
-        <f t="shared" si="2"/>
+      <c r="AO75" s="35"/>
+      <c r="AP75" s="35"/>
+      <c r="AQ75" s="52"/>
+      <c r="AR75" s="25">
+        <f t="shared" si="5"/>
         <v>4.3677199999999992E-2</v>
       </c>
-      <c r="AS75" s="91"/>
-      <c r="AT75" s="91"/>
-      <c r="AU75" s="94"/>
+      <c r="AS75" s="26"/>
+      <c r="AT75" s="26"/>
+      <c r="AU75" s="27"/>
     </row>
     <row r="76" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="R76" s="83">
+      <c r="C76" s="90"/>
+      <c r="D76" s="90"/>
+      <c r="R76" s="8">
         <v>17</v>
       </c>
-      <c r="S76" s="108" t="s">
+      <c r="S76" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
-      <c r="V76" s="109"/>
-      <c r="W76" s="98" t="s">
+      <c r="T76" s="77"/>
+      <c r="U76" s="77"/>
+      <c r="V76" s="78"/>
+      <c r="W76" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="X76" s="12"/>
-      <c r="Y76" s="70"/>
-      <c r="Z76" s="76" t="s">
+      <c r="X76" s="74"/>
+      <c r="Y76" s="75"/>
+      <c r="Z76" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="AA76" s="72"/>
-      <c r="AB76" s="72"/>
-      <c r="AC76" s="72"/>
-      <c r="AD76" s="72"/>
-      <c r="AE76" s="72"/>
-      <c r="AF76" s="72"/>
-      <c r="AG76" s="72"/>
-      <c r="AH76" s="72"/>
-      <c r="AI76" s="72"/>
-      <c r="AJ76" s="77"/>
-      <c r="AK76" s="58"/>
-      <c r="AL76" s="56"/>
-      <c r="AM76" s="57"/>
-      <c r="AN76" s="67">
+      <c r="AA76" s="38"/>
+      <c r="AB76" s="38"/>
+      <c r="AC76" s="38"/>
+      <c r="AD76" s="38"/>
+      <c r="AE76" s="38"/>
+      <c r="AF76" s="38"/>
+      <c r="AG76" s="38"/>
+      <c r="AH76" s="38"/>
+      <c r="AI76" s="38"/>
+      <c r="AJ76" s="39"/>
+      <c r="AK76" s="34"/>
+      <c r="AL76" s="35"/>
+      <c r="AM76" s="36"/>
+      <c r="AN76" s="51">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AO76" s="56"/>
-      <c r="AP76" s="56"/>
-      <c r="AQ76" s="116"/>
-      <c r="AR76" s="100">
-        <f t="shared" si="2"/>
+      <c r="AO76" s="35"/>
+      <c r="AP76" s="35"/>
+      <c r="AQ76" s="52"/>
+      <c r="AR76" s="25">
+        <f t="shared" si="5"/>
         <v>0.10049039999999999</v>
       </c>
-      <c r="AS76" s="91"/>
-      <c r="AT76" s="91"/>
-      <c r="AU76" s="94"/>
+      <c r="AS76" s="26"/>
+      <c r="AT76" s="26"/>
+      <c r="AU76" s="27"/>
     </row>
     <row r="77" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="R77" s="83">
+      <c r="R77" s="8">
         <v>18</v>
       </c>
-      <c r="S77" s="108" t="s">
+      <c r="S77" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="109"/>
-      <c r="W77" s="98" t="s">
+      <c r="T77" s="77"/>
+      <c r="U77" s="77"/>
+      <c r="V77" s="78"/>
+      <c r="W77" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="X77" s="12"/>
-      <c r="Y77" s="70"/>
-      <c r="Z77" s="76" t="s">
+      <c r="X77" s="74"/>
+      <c r="Y77" s="75"/>
+      <c r="Z77" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA77" s="72"/>
-      <c r="AB77" s="72"/>
-      <c r="AC77" s="72"/>
-      <c r="AD77" s="72"/>
-      <c r="AE77" s="72"/>
-      <c r="AF77" s="72"/>
-      <c r="AG77" s="72"/>
-      <c r="AH77" s="72"/>
-      <c r="AI77" s="72"/>
-      <c r="AJ77" s="77"/>
-      <c r="AK77" s="58"/>
-      <c r="AL77" s="56"/>
-      <c r="AM77" s="57"/>
-      <c r="AN77" s="67">
+      <c r="AA77" s="38"/>
+      <c r="AB77" s="38"/>
+      <c r="AC77" s="38"/>
+      <c r="AD77" s="38"/>
+      <c r="AE77" s="38"/>
+      <c r="AF77" s="38"/>
+      <c r="AG77" s="38"/>
+      <c r="AH77" s="38"/>
+      <c r="AI77" s="38"/>
+      <c r="AJ77" s="39"/>
+      <c r="AK77" s="34"/>
+      <c r="AL77" s="35"/>
+      <c r="AM77" s="36"/>
+      <c r="AN77" s="51">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="AO77" s="56"/>
-      <c r="AP77" s="56"/>
-      <c r="AQ77" s="116"/>
-      <c r="AR77" s="100">
-        <f t="shared" si="2"/>
+      <c r="AO77" s="35"/>
+      <c r="AP77" s="35"/>
+      <c r="AQ77" s="52"/>
+      <c r="AR77" s="25">
+        <f t="shared" si="5"/>
         <v>5.2544000000000002E-3</v>
       </c>
-      <c r="AS77" s="91"/>
-      <c r="AT77" s="91"/>
-      <c r="AU77" s="94"/>
+      <c r="AS77" s="26"/>
+      <c r="AT77" s="26"/>
+      <c r="AU77" s="27"/>
     </row>
     <row r="78" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="R78" s="83">
+      <c r="R78" s="8">
         <v>19</v>
       </c>
-      <c r="S78" s="108" t="s">
+      <c r="S78" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11"/>
-      <c r="V78" s="109"/>
-      <c r="W78" s="98" t="s">
+      <c r="T78" s="77"/>
+      <c r="U78" s="77"/>
+      <c r="V78" s="78"/>
+      <c r="W78" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="X78" s="12"/>
-      <c r="Y78" s="70"/>
-      <c r="Z78" s="76" t="s">
+      <c r="X78" s="74"/>
+      <c r="Y78" s="75"/>
+      <c r="Z78" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="AA78" s="72"/>
-      <c r="AB78" s="72"/>
-      <c r="AC78" s="72"/>
-      <c r="AD78" s="72"/>
-      <c r="AE78" s="72"/>
-      <c r="AF78" s="72"/>
-      <c r="AG78" s="72"/>
-      <c r="AH78" s="72"/>
-      <c r="AI78" s="72"/>
-      <c r="AJ78" s="77"/>
-      <c r="AK78" s="58"/>
-      <c r="AL78" s="56"/>
-      <c r="AM78" s="57"/>
-      <c r="AN78" s="67">
+      <c r="AA78" s="38"/>
+      <c r="AB78" s="38"/>
+      <c r="AC78" s="38"/>
+      <c r="AD78" s="38"/>
+      <c r="AE78" s="38"/>
+      <c r="AF78" s="38"/>
+      <c r="AG78" s="38"/>
+      <c r="AH78" s="38"/>
+      <c r="AI78" s="38"/>
+      <c r="AJ78" s="39"/>
+      <c r="AK78" s="34"/>
+      <c r="AL78" s="35"/>
+      <c r="AM78" s="36"/>
+      <c r="AN78" s="51">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="AO78" s="56"/>
-      <c r="AP78" s="56"/>
-      <c r="AQ78" s="116"/>
-      <c r="AR78" s="100">
-        <f t="shared" si="2"/>
+      <c r="AO78" s="35"/>
+      <c r="AP78" s="35"/>
+      <c r="AQ78" s="52"/>
+      <c r="AR78" s="25">
+        <f t="shared" si="5"/>
         <v>5.6813199999999994E-2</v>
       </c>
-      <c r="AS78" s="91"/>
-      <c r="AT78" s="91"/>
-      <c r="AU78" s="94"/>
+      <c r="AS78" s="26"/>
+      <c r="AT78" s="26"/>
+      <c r="AU78" s="27"/>
     </row>
     <row r="79" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="R79" s="83">
+      <c r="R79" s="8">
         <v>20</v>
       </c>
-      <c r="S79" s="112" t="s">
+      <c r="S79" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="T79" s="92"/>
-      <c r="U79" s="92"/>
-      <c r="V79" s="113"/>
-      <c r="W79" s="98" t="s">
+      <c r="T79" s="29"/>
+      <c r="U79" s="29"/>
+      <c r="V79" s="30"/>
+      <c r="W79" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="X79" s="12"/>
-      <c r="Y79" s="70"/>
-      <c r="Z79" s="76" t="s">
+      <c r="X79" s="74"/>
+      <c r="Y79" s="75"/>
+      <c r="Z79" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="AA79" s="72"/>
-      <c r="AB79" s="72"/>
-      <c r="AC79" s="72"/>
-      <c r="AD79" s="72"/>
-      <c r="AE79" s="72"/>
-      <c r="AF79" s="72"/>
-      <c r="AG79" s="72"/>
-      <c r="AH79" s="72"/>
-      <c r="AI79" s="72"/>
-      <c r="AJ79" s="77"/>
-      <c r="AK79" s="58" t="s">
+      <c r="AA79" s="38"/>
+      <c r="AB79" s="38"/>
+      <c r="AC79" s="38"/>
+      <c r="AD79" s="38"/>
+      <c r="AE79" s="38"/>
+      <c r="AF79" s="38"/>
+      <c r="AG79" s="38"/>
+      <c r="AH79" s="38"/>
+      <c r="AI79" s="38"/>
+      <c r="AJ79" s="39"/>
+      <c r="AK79" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="AL79" s="56"/>
-      <c r="AM79" s="57"/>
-      <c r="AN79" s="67">
+      <c r="AL79" s="35"/>
+      <c r="AM79" s="36"/>
+      <c r="AN79" s="51">
         <v>0.29899999999999999</v>
       </c>
-      <c r="AO79" s="56"/>
-      <c r="AP79" s="56"/>
-      <c r="AQ79" s="116"/>
-      <c r="AR79" s="100">
-        <f t="shared" si="2"/>
+      <c r="AO79" s="35"/>
+      <c r="AP79" s="35"/>
+      <c r="AQ79" s="52"/>
+      <c r="AR79" s="25">
+        <f t="shared" si="5"/>
         <v>0.9819159999999999</v>
       </c>
-      <c r="AS79" s="91"/>
-      <c r="AT79" s="91"/>
-      <c r="AU79" s="94"/>
+      <c r="AS79" s="26"/>
+      <c r="AT79" s="26"/>
+      <c r="AU79" s="27"/>
     </row>
     <row r="80" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="R80" s="83">
+      <c r="R80" s="8">
         <v>21</v>
       </c>
-      <c r="S80" s="112" t="s">
+      <c r="S80" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="T80" s="92"/>
-      <c r="U80" s="92"/>
-      <c r="V80" s="113"/>
-      <c r="W80" s="58" t="s">
+      <c r="T80" s="29"/>
+      <c r="U80" s="29"/>
+      <c r="V80" s="30"/>
+      <c r="W80" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="X80" s="56"/>
-      <c r="Y80" s="57"/>
-      <c r="Z80" s="76" t="s">
+      <c r="X80" s="35"/>
+      <c r="Y80" s="36"/>
+      <c r="Z80" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="AA80" s="72"/>
-      <c r="AB80" s="72"/>
-      <c r="AC80" s="72"/>
-      <c r="AD80" s="72"/>
-      <c r="AE80" s="72"/>
-      <c r="AF80" s="72"/>
-      <c r="AG80" s="72"/>
-      <c r="AH80" s="72"/>
-      <c r="AI80" s="72"/>
-      <c r="AJ80" s="77"/>
-      <c r="AK80" s="58"/>
-      <c r="AL80" s="56"/>
-      <c r="AM80" s="57"/>
-      <c r="AN80" s="67"/>
-      <c r="AO80" s="56"/>
-      <c r="AP80" s="56"/>
-      <c r="AQ80" s="116"/>
-      <c r="AR80" s="100"/>
-      <c r="AS80" s="91"/>
-      <c r="AT80" s="91"/>
-      <c r="AU80" s="94"/>
+      <c r="AA80" s="38"/>
+      <c r="AB80" s="38"/>
+      <c r="AC80" s="38"/>
+      <c r="AD80" s="38"/>
+      <c r="AE80" s="38"/>
+      <c r="AF80" s="38"/>
+      <c r="AG80" s="38"/>
+      <c r="AH80" s="38"/>
+      <c r="AI80" s="38"/>
+      <c r="AJ80" s="39"/>
+      <c r="AK80" s="34"/>
+      <c r="AL80" s="35"/>
+      <c r="AM80" s="36"/>
+      <c r="AN80" s="51"/>
+      <c r="AO80" s="35"/>
+      <c r="AP80" s="35"/>
+      <c r="AQ80" s="52"/>
+      <c r="AR80" s="25"/>
+      <c r="AS80" s="26"/>
+      <c r="AT80" s="26"/>
+      <c r="AU80" s="27"/>
     </row>
     <row r="81" spans="15:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R81" s="84">
+      <c r="R81" s="9">
         <v>22</v>
       </c>
-      <c r="S81" s="114"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="115"/>
-      <c r="W81" s="61"/>
-      <c r="X81" s="59"/>
-      <c r="Y81" s="60"/>
-      <c r="Z81" s="78"/>
-      <c r="AA81" s="79"/>
-      <c r="AB81" s="79"/>
-      <c r="AC81" s="79"/>
-      <c r="AD81" s="79"/>
-      <c r="AE81" s="79"/>
-      <c r="AF81" s="79"/>
-      <c r="AG81" s="79"/>
-      <c r="AH81" s="79"/>
-      <c r="AI81" s="79"/>
-      <c r="AJ81" s="80"/>
-      <c r="AK81" s="61"/>
-      <c r="AL81" s="59"/>
-      <c r="AM81" s="60"/>
-      <c r="AN81" s="68">
+      <c r="S81" s="31"/>
+      <c r="T81" s="32"/>
+      <c r="U81" s="32"/>
+      <c r="V81" s="33"/>
+      <c r="W81" s="43"/>
+      <c r="X81" s="44"/>
+      <c r="Y81" s="45"/>
+      <c r="Z81" s="40"/>
+      <c r="AA81" s="41"/>
+      <c r="AB81" s="41"/>
+      <c r="AC81" s="41"/>
+      <c r="AD81" s="41"/>
+      <c r="AE81" s="41"/>
+      <c r="AF81" s="41"/>
+      <c r="AG81" s="41"/>
+      <c r="AH81" s="41"/>
+      <c r="AI81" s="41"/>
+      <c r="AJ81" s="42"/>
+      <c r="AK81" s="43"/>
+      <c r="AL81" s="44"/>
+      <c r="AM81" s="45"/>
+      <c r="AN81" s="46">
         <v>2.46</v>
       </c>
-      <c r="AO81" s="59"/>
-      <c r="AP81" s="59"/>
-      <c r="AQ81" s="117"/>
-      <c r="AR81" s="101">
-        <f t="shared" ref="AR81" si="3">AN81*3.284</f>
+      <c r="AO81" s="44"/>
+      <c r="AP81" s="44"/>
+      <c r="AQ81" s="47"/>
+      <c r="AR81" s="48">
+        <f t="shared" ref="AR81" si="6">AN81*3.284</f>
         <v>8.07864</v>
       </c>
-      <c r="AS81" s="95"/>
-      <c r="AT81" s="95"/>
-      <c r="AU81" s="96"/>
+      <c r="AS81" s="49"/>
+      <c r="AT81" s="49"/>
+      <c r="AU81" s="50"/>
     </row>
     <row r="82" spans="15:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R82" s="86"/>
-      <c r="AP82" s="62" t="s">
+      <c r="R82" s="11"/>
+      <c r="AP82" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="AQ82" s="63"/>
-      <c r="AR82" s="118">
+      <c r="AQ82" s="24"/>
+      <c r="AR82" s="21">
         <f>SUM(AR61:AU81)</f>
         <v>12.746845999999998</v>
       </c>
-      <c r="AS82" s="118"/>
-      <c r="AT82" s="118"/>
-      <c r="AU82" s="119"/>
+      <c r="AS82" s="21"/>
+      <c r="AT82" s="21"/>
+      <c r="AU82" s="22"/>
     </row>
     <row r="90" spans="15:47" x14ac:dyDescent="0.25">
       <c r="T90" t="s">
@@ -4495,25 +4491,25 @@
       <c r="R91" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="S91" s="81" t="s">
+      <c r="S91" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="T91" s="81" t="str">
+      <c r="T91" s="7" t="str">
         <f>S91</f>
         <v xml:space="preserve">Разъём SMA-Female </v>
       </c>
-      <c r="U91" s="85">
+      <c r="U91" s="10">
         <v>1</v>
       </c>
-      <c r="V91" s="85">
+      <c r="V91" s="10">
         <f>IF(NOT(ISBLANK(AR61)),AR61)</f>
         <v>2.3398499999999998</v>
       </c>
-      <c r="W91" s="85">
+      <c r="W91" s="10">
         <f>U91*V91</f>
         <v>2.3398499999999998</v>
       </c>
-      <c r="X91" s="85"/>
+      <c r="X91" s="10"/>
     </row>
     <row r="92" spans="15:47" x14ac:dyDescent="0.25">
       <c r="O92" t="s">
@@ -4531,22 +4527,22 @@
       <c r="S92" t="s">
         <v>131</v>
       </c>
-      <c r="T92" s="81" t="str">
-        <f t="shared" ref="T92:T110" si="4">S92</f>
+      <c r="T92" s="7" t="str">
+        <f t="shared" ref="T92:T106" si="7">S92</f>
         <v xml:space="preserve">Резистор 100 Ом </v>
       </c>
-      <c r="U92" s="85">
+      <c r="U92" s="10">
         <v>1</v>
       </c>
-      <c r="V92" s="85">
+      <c r="V92" s="10">
         <f>IF(NOT(ISBLANK(AR70)),AR70)</f>
         <v>8.9324799999999996E-2</v>
       </c>
-      <c r="W92" s="85">
+      <c r="W92" s="10">
         <f>U92*V92</f>
         <v>8.9324799999999996E-2</v>
       </c>
-      <c r="X92" s="85"/>
+      <c r="X92" s="10"/>
     </row>
     <row r="93" spans="15:47" x14ac:dyDescent="0.25">
       <c r="O93" t="s">
@@ -4564,22 +4560,22 @@
       <c r="S93" t="s">
         <v>132</v>
       </c>
-      <c r="T93" s="81" t="str">
-        <f t="shared" si="4"/>
+      <c r="T93" s="7" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Резистор 150 Ом </v>
       </c>
-      <c r="U93" s="85">
+      <c r="U93" s="10">
         <v>2</v>
       </c>
-      <c r="V93" s="85">
+      <c r="V93" s="10">
         <f>IF(NOT(ISBLANK(AR65)),AR65)</f>
         <v>6.3052799999999992E-2</v>
       </c>
-      <c r="W93" s="85">
-        <f t="shared" ref="W92:W105" si="5">U93*V93</f>
+      <c r="W93" s="10">
+        <f t="shared" ref="W93" si="8">U93*V93</f>
         <v>0.12610559999999998</v>
       </c>
-      <c r="X93" s="85"/>
+      <c r="X93" s="10"/>
     </row>
     <row r="94" spans="15:47" x14ac:dyDescent="0.25">
       <c r="O94" t="s">
@@ -4597,27 +4593,27 @@
       <c r="S94" t="s">
         <v>133</v>
       </c>
-      <c r="T94" s="81" t="str">
-        <f t="shared" si="4"/>
+      <c r="T94" s="7" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Резистор 1 кОм </v>
       </c>
-      <c r="U94" s="85">
+      <c r="U94" s="10">
         <v>2</v>
       </c>
-      <c r="V94" s="85">
+      <c r="V94" s="10">
         <f>IF(NOT(ISBLANK(AR78)),AR78)</f>
         <v>5.6813199999999994E-2</v>
       </c>
-      <c r="W94" s="85">
-        <f>U94*V94</f>
+      <c r="W94" s="10">
+        <f t="shared" ref="W94:W111" si="9">U94*V94</f>
         <v>0.11362639999999999</v>
       </c>
-      <c r="X94" s="85"/>
+      <c r="X94" s="10"/>
       <c r="Y94" t="s">
         <v>111</v>
       </c>
-      <c r="Z94" s="86" t="str">
-        <f>_xlfn.CONCAT(O91:Q91)</f>
+      <c r="Z94" s="11" t="str">
+        <f t="shared" ref="Z94:Z109" si="10">_xlfn.CONCAT(O91:Q91)</f>
         <v>[33]</v>
       </c>
     </row>
@@ -4637,27 +4633,27 @@
       <c r="S95" t="s">
         <v>134</v>
       </c>
-      <c r="T95" s="81" t="str">
-        <f t="shared" si="4"/>
+      <c r="T95" s="7" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Резистор 22 кОм </v>
       </c>
-      <c r="U95" s="85">
+      <c r="U95" s="10">
         <v>1</v>
       </c>
-      <c r="V95" s="85">
+      <c r="V95" s="10">
         <f>IF(NOT(ISBLANK(AR71)),AR71)</f>
         <v>1.7405199999999999E-2</v>
       </c>
-      <c r="W95" s="85">
-        <f>U95*V95</f>
+      <c r="W95" s="10">
+        <f t="shared" si="9"/>
         <v>1.7405199999999999E-2</v>
       </c>
-      <c r="X95" s="85"/>
+      <c r="X95" s="10"/>
       <c r="Y95" t="s">
         <v>112</v>
       </c>
-      <c r="Z95" s="86" t="str">
-        <f>_xlfn.CONCAT(O92:Q92)</f>
+      <c r="Z95" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>[34]</v>
       </c>
     </row>
@@ -4677,27 +4673,27 @@
       <c r="S96" t="s">
         <v>135</v>
       </c>
-      <c r="T96" s="81" t="str">
-        <f t="shared" si="4"/>
+      <c r="T96" s="7" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Потенциометр 1 кОм </v>
       </c>
-      <c r="U96" s="85">
+      <c r="U96" s="10">
         <v>2</v>
       </c>
-      <c r="V96" s="85">
+      <c r="V96" s="10">
         <f>IF(NOT(ISBLANK(AR72)),AR72)</f>
         <v>0.75827559999999994</v>
       </c>
-      <c r="W96" s="85">
-        <f>U96*V96</f>
+      <c r="W96" s="10">
+        <f t="shared" si="9"/>
         <v>1.5165511999999999</v>
       </c>
-      <c r="X96" s="85"/>
+      <c r="X96" s="10"/>
       <c r="Y96" t="s">
         <v>113</v>
       </c>
-      <c r="Z96" s="86" t="str">
-        <f>_xlfn.CONCAT(O93:Q93)</f>
+      <c r="Z96" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>[35]</v>
       </c>
     </row>
@@ -4717,27 +4713,27 @@
       <c r="S97" t="s">
         <v>136</v>
       </c>
-      <c r="T97" s="81" t="str">
-        <f t="shared" si="4"/>
+      <c r="T97" s="7" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Конденсатор 1.5 пФ </v>
       </c>
-      <c r="U97" s="85">
+      <c r="U97" s="10">
         <v>1</v>
       </c>
-      <c r="V97" s="85">
+      <c r="V97" s="10">
         <f>IF(NOT(ISBLANK(AR77)),AR77)</f>
         <v>5.2544000000000002E-3</v>
       </c>
-      <c r="W97" s="85">
-        <f>U97*V97</f>
+      <c r="W97" s="10">
+        <f t="shared" si="9"/>
         <v>5.2544000000000002E-3</v>
       </c>
-      <c r="X97" s="85"/>
+      <c r="X97" s="10"/>
       <c r="Y97" t="s">
         <v>117</v>
       </c>
-      <c r="Z97" s="86" t="str">
-        <f>_xlfn.CONCAT(O94:Q94)</f>
+      <c r="Z97" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>[36]</v>
       </c>
     </row>
@@ -4757,27 +4753,27 @@
       <c r="S98" t="s">
         <v>137</v>
       </c>
-      <c r="T98" s="81" t="str">
-        <f t="shared" si="4"/>
+      <c r="T98" s="7" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Конденсатор 100 пФ </v>
       </c>
-      <c r="U98" s="85">
+      <c r="U98" s="10">
         <v>1</v>
       </c>
-      <c r="V98" s="85">
+      <c r="V98" s="10">
         <f>IF(NOT(ISBLANK(AR73)),AR73)</f>
         <v>4.5647599999999997E-2</v>
       </c>
-      <c r="W98" s="85">
-        <f>U98*V98</f>
+      <c r="W98" s="10">
+        <f t="shared" si="9"/>
         <v>4.5647599999999997E-2</v>
       </c>
-      <c r="X98" s="85"/>
+      <c r="X98" s="10"/>
       <c r="Y98" t="s">
         <v>116</v>
       </c>
-      <c r="Z98" s="86" t="str">
-        <f>_xlfn.CONCAT(O95:Q95)</f>
+      <c r="Z98" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>[37]</v>
       </c>
     </row>
@@ -4797,27 +4793,27 @@
       <c r="S99" t="s">
         <v>138</v>
       </c>
-      <c r="T99" s="81" t="str">
-        <f t="shared" si="4"/>
+      <c r="T99" s="7" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Конденсатор 330 нФ </v>
       </c>
-      <c r="U99" s="85">
+      <c r="U99" s="10">
         <v>1</v>
       </c>
-      <c r="V99" s="85">
+      <c r="V99" s="10">
         <f>IF(NOT(ISBLANK(AR75)),AR75)</f>
         <v>4.3677199999999992E-2</v>
       </c>
-      <c r="W99" s="85">
-        <f>U99*V99</f>
+      <c r="W99" s="10">
+        <f t="shared" si="9"/>
         <v>4.3677199999999992E-2</v>
       </c>
-      <c r="X99" s="85"/>
+      <c r="X99" s="10"/>
       <c r="Y99" t="s">
         <v>128</v>
       </c>
-      <c r="Z99" s="86" t="str">
-        <f>_xlfn.CONCAT(O96:Q96)</f>
+      <c r="Z99" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>[38]</v>
       </c>
     </row>
@@ -4837,27 +4833,27 @@
       <c r="S100" t="s">
         <v>139</v>
       </c>
-      <c r="T100" s="81" t="str">
-        <f t="shared" si="4"/>
+      <c r="T100" s="7" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Конденсатор 10 нФ </v>
       </c>
-      <c r="U100" s="85">
+      <c r="U100" s="10">
         <v>1</v>
       </c>
-      <c r="V100" s="85">
+      <c r="V100" s="10">
         <f>IF(NOT(ISBLANK(AR67)),AR67)</f>
         <v>6.4694799999999997E-2</v>
       </c>
-      <c r="W100" s="85">
-        <f>U100*V100</f>
+      <c r="W100" s="10">
+        <f t="shared" si="9"/>
         <v>6.4694799999999997E-2</v>
       </c>
-      <c r="X100" s="85"/>
+      <c r="X100" s="10"/>
       <c r="Y100" t="s">
         <v>127</v>
       </c>
-      <c r="Z100" s="86" t="str">
-        <f>_xlfn.CONCAT(O97:Q97)</f>
+      <c r="Z100" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>[39]</v>
       </c>
     </row>
@@ -4877,27 +4873,27 @@
       <c r="S101" t="s">
         <v>140</v>
       </c>
-      <c r="T101" s="81" t="str">
-        <f t="shared" si="4"/>
+      <c r="T101" s="7" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Конденсатор 47 нФ </v>
       </c>
-      <c r="U101" s="85">
+      <c r="U101" s="10">
         <v>2</v>
       </c>
-      <c r="V101" s="85">
+      <c r="V101" s="10">
         <f>IF(NOT(ISBLANK(AR68)),AR68)</f>
         <v>2.5615199999999998E-2</v>
       </c>
-      <c r="W101" s="85">
-        <f>U101*V101</f>
+      <c r="W101" s="10">
+        <f t="shared" si="9"/>
         <v>5.1230399999999995E-2</v>
       </c>
-      <c r="X101" s="85"/>
+      <c r="X101" s="10"/>
       <c r="Y101" t="s">
         <v>126</v>
       </c>
-      <c r="Z101" s="86" t="str">
-        <f>_xlfn.CONCAT(O98:Q98)</f>
+      <c r="Z101" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>[40]</v>
       </c>
     </row>
@@ -4917,27 +4913,27 @@
       <c r="S102" t="s">
         <v>141</v>
       </c>
-      <c r="T102" s="81" t="str">
-        <f t="shared" si="4"/>
+      <c r="T102" s="7" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Конденсатор 100 нФ </v>
       </c>
-      <c r="U102" s="85">
+      <c r="U102" s="10">
         <v>3</v>
       </c>
-      <c r="V102" s="85">
+      <c r="V102" s="10">
         <f>IF(NOT(ISBLANK(AR69)),AR69)</f>
         <v>3.9079599999999999E-2</v>
       </c>
-      <c r="W102" s="85">
-        <f>U102*V102</f>
+      <c r="W102" s="10">
+        <f t="shared" si="9"/>
         <v>0.1172388</v>
       </c>
-      <c r="X102" s="85"/>
+      <c r="X102" s="10"/>
       <c r="Y102" t="s">
         <v>125</v>
       </c>
-      <c r="Z102" s="86" t="str">
-        <f>_xlfn.CONCAT(O99:Q99)</f>
+      <c r="Z102" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>[41]</v>
       </c>
     </row>
@@ -4957,27 +4953,27 @@
       <c r="S103" t="s">
         <v>142</v>
       </c>
-      <c r="T103" s="81" t="str">
-        <f t="shared" si="4"/>
+      <c r="T103" s="7" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Кнопка </v>
       </c>
-      <c r="U103" s="85">
+      <c r="U103" s="10">
         <v>1</v>
       </c>
-      <c r="V103" s="85">
+      <c r="V103" s="10">
         <f>IF(NOT(ISBLANK(AR76)),AR76)</f>
         <v>0.10049039999999999</v>
       </c>
-      <c r="W103" s="85">
-        <f>U103*V103</f>
+      <c r="W103" s="10">
+        <f t="shared" si="9"/>
         <v>0.10049039999999999</v>
       </c>
-      <c r="X103" s="85"/>
+      <c r="X103" s="10"/>
       <c r="Y103" t="s">
         <v>124</v>
       </c>
-      <c r="Z103" s="86" t="str">
-        <f>_xlfn.CONCAT(O100:Q100)</f>
+      <c r="Z103" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>[42]</v>
       </c>
     </row>
@@ -4997,27 +4993,27 @@
       <c r="S104" t="s">
         <v>143</v>
       </c>
-      <c r="T104" s="81" t="str">
-        <f t="shared" si="4"/>
+      <c r="T104" s="7" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Транзистор MMBT2222A </v>
       </c>
-      <c r="U104" s="85">
+      <c r="U104" s="10">
         <v>3</v>
       </c>
-      <c r="V104" s="85">
+      <c r="V104" s="10">
         <f>IF(NOT(ISBLANK(AR64)),AR64)</f>
         <v>3.7109199999999995E-2</v>
       </c>
-      <c r="W104" s="85">
-        <f>U104*V104</f>
+      <c r="W104" s="10">
+        <f t="shared" si="9"/>
         <v>0.11132759999999998</v>
       </c>
-      <c r="X104" s="85"/>
+      <c r="X104" s="10"/>
       <c r="Y104" t="s">
         <v>123</v>
       </c>
-      <c r="Z104" s="86" t="str">
-        <f>_xlfn.CONCAT(O101:Q101)</f>
+      <c r="Z104" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>[43]</v>
       </c>
     </row>
@@ -5037,27 +5033,27 @@
       <c r="S105" t="s">
         <v>144</v>
       </c>
-      <c r="T105" s="81" t="str">
-        <f t="shared" si="4"/>
+      <c r="T105" s="7" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Стабилизатор напряжения LM2940L </v>
       </c>
-      <c r="U105" s="85">
+      <c r="U105" s="10">
         <v>1</v>
       </c>
-      <c r="V105" s="85">
+      <c r="V105" s="10">
         <f>IF(NOT(ISBLANK(AR79)),AR79)</f>
         <v>0.9819159999999999</v>
       </c>
-      <c r="W105" s="85">
-        <f>U105*V105</f>
+      <c r="W105" s="10">
+        <f t="shared" si="9"/>
         <v>0.9819159999999999</v>
       </c>
-      <c r="X105" s="85"/>
+      <c r="X105" s="10"/>
       <c r="Y105" t="s">
         <v>122</v>
       </c>
-      <c r="Z105" s="86" t="str">
-        <f>_xlfn.CONCAT(O102:Q102)</f>
+      <c r="Z105" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>[44]</v>
       </c>
     </row>
@@ -5077,26 +5073,26 @@
       <c r="S106" t="s">
         <v>145</v>
       </c>
-      <c r="T106" s="81" t="str">
-        <f t="shared" si="4"/>
+      <c r="T106" s="7" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">ГУН YSGM232508 </v>
       </c>
-      <c r="U106" s="85">
+      <c r="U106" s="10">
         <v>1</v>
       </c>
-      <c r="V106" s="85">
+      <c r="V106" s="10">
         <v>1.31</v>
       </c>
-      <c r="W106" s="85">
-        <f>U106*V106</f>
+      <c r="W106" s="10">
+        <f t="shared" si="9"/>
         <v>1.31</v>
       </c>
-      <c r="X106" s="85"/>
+      <c r="X106" s="10"/>
       <c r="Y106" t="s">
         <v>118</v>
       </c>
-      <c r="Z106" s="86" t="str">
-        <f>_xlfn.CONCAT(O103:Q103)</f>
+      <c r="Z106" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>[45]</v>
       </c>
     </row>
@@ -5116,26 +5112,26 @@
       <c r="S107" t="s">
         <v>155</v>
       </c>
-      <c r="T107" s="81" t="str">
+      <c r="T107" s="7" t="str">
         <f>S107</f>
         <v>Модуль XL6009 DC-DC повышающий</v>
       </c>
-      <c r="U107" s="85">
+      <c r="U107" s="10">
         <v>1</v>
       </c>
-      <c r="V107" s="85">
+      <c r="V107" s="10">
         <v>4.0599999999999996</v>
       </c>
-      <c r="W107" s="85">
-        <f>U107*V107</f>
+      <c r="W107" s="10">
+        <f t="shared" si="9"/>
         <v>4.0599999999999996</v>
       </c>
-      <c r="X107" s="85"/>
+      <c r="X107" s="10"/>
       <c r="Y107" t="s">
         <v>119</v>
       </c>
-      <c r="Z107" s="86" t="str">
-        <f>_xlfn.CONCAT(O104:Q104)</f>
+      <c r="Z107" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>[46]</v>
       </c>
     </row>
@@ -5155,26 +5151,26 @@
       <c r="S108" t="s">
         <v>156</v>
       </c>
-      <c r="T108" s="81" t="str">
+      <c r="T108" s="7" t="str">
         <f>S108</f>
         <v xml:space="preserve">HX-2S-JH20, контроллер заряда/разряда  </v>
       </c>
-      <c r="U108" s="85">
+      <c r="U108" s="10">
         <v>1</v>
       </c>
-      <c r="V108" s="85">
+      <c r="V108" s="10">
         <v>4</v>
       </c>
-      <c r="W108" s="85">
-        <f>U108*V108</f>
+      <c r="W108" s="10">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="X108" s="85"/>
+      <c r="X108" s="10"/>
       <c r="Y108" t="s">
         <v>120</v>
       </c>
-      <c r="Z108" s="86" t="str">
-        <f>_xlfn.CONCAT(O105:Q105)</f>
+      <c r="Z108" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>[47]</v>
       </c>
     </row>
@@ -5194,26 +5190,26 @@
       <c r="S109" t="s">
         <v>151</v>
       </c>
-      <c r="T109" s="81" t="str">
+      <c r="T109" s="7" t="str">
         <f>S109</f>
         <v xml:space="preserve">Аккумулятор Kijo 18650 </v>
       </c>
-      <c r="U109" s="85">
+      <c r="U109" s="10">
         <v>2</v>
       </c>
-      <c r="V109" s="85">
+      <c r="V109" s="10">
         <v>11.7</v>
       </c>
-      <c r="W109" s="85">
-        <f>U109*V109</f>
+      <c r="W109" s="10">
+        <f t="shared" si="9"/>
         <v>23.4</v>
       </c>
-      <c r="X109" s="85"/>
+      <c r="X109" s="10"/>
       <c r="Y109" t="s">
         <v>121</v>
       </c>
-      <c r="Z109" s="86" t="str">
-        <f>_xlfn.CONCAT(O106:Q106)</f>
+      <c r="Z109" s="11" t="str">
+        <f t="shared" si="10"/>
         <v>[48]</v>
       </c>
     </row>
@@ -5230,26 +5226,26 @@
       <c r="R110" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="S110" s="81" t="s">
+      <c r="S110" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="T110" s="81" t="str">
+      <c r="T110" s="7" t="str">
         <f>S110</f>
         <v>USB-C конненктор</v>
       </c>
-      <c r="U110" s="85">
+      <c r="U110" s="10">
         <v>1</v>
       </c>
-      <c r="V110" s="85">
+      <c r="V110" s="10">
         <v>8.07864</v>
       </c>
-      <c r="W110" s="85">
-        <f>U110*V110</f>
+      <c r="W110" s="10">
+        <f t="shared" si="9"/>
         <v>8.07864</v>
       </c>
-      <c r="X110" s="85"/>
-      <c r="Z110" s="86" t="str">
-        <f t="shared" ref="Z110:Z114" si="6">_xlfn.CONCAT(O107:Q107)</f>
+      <c r="X110" s="10"/>
+      <c r="Z110" s="11" t="str">
+        <f t="shared" ref="Z110:Z114" si="11">_xlfn.CONCAT(O107:Q107)</f>
         <v>[49]</v>
       </c>
     </row>
@@ -5269,96 +5265,96 @@
       <c r="S111" t="s">
         <v>146</v>
       </c>
-      <c r="T111" s="81" t="str">
+      <c r="T111" s="7" t="str">
         <f>S111</f>
         <v>Плата печатная двуслойная</v>
       </c>
-      <c r="U111" s="85">
+      <c r="U111" s="10">
         <v>1</v>
       </c>
-      <c r="V111" s="85">
+      <c r="V111" s="10">
         <v>16</v>
       </c>
-      <c r="W111" s="85">
-        <f>U111*V111</f>
+      <c r="W111" s="10">
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="X111" s="85"/>
-      <c r="Z111" s="86" t="str">
-        <f t="shared" si="6"/>
+      <c r="X111" s="10"/>
+      <c r="Z111" s="11" t="str">
+        <f t="shared" si="11"/>
         <v>[50]</v>
       </c>
     </row>
     <row r="112" spans="15:26" x14ac:dyDescent="0.25">
-      <c r="U112" s="85"/>
-      <c r="V112" s="85"/>
-      <c r="W112" s="85"/>
-      <c r="X112" s="85"/>
-      <c r="Z112" s="86" t="str">
-        <f t="shared" si="6"/>
+      <c r="U112" s="10"/>
+      <c r="V112" s="10"/>
+      <c r="W112" s="10"/>
+      <c r="X112" s="10"/>
+      <c r="Z112" s="11" t="str">
+        <f t="shared" si="11"/>
         <v>[51]</v>
       </c>
     </row>
     <row r="113" spans="19:26" x14ac:dyDescent="0.25">
-      <c r="S113" s="81"/>
-      <c r="U113" s="85"/>
-      <c r="V113" s="85"/>
-      <c r="W113" s="85">
+      <c r="S113" s="7"/>
+      <c r="U113" s="10"/>
+      <c r="V113" s="10"/>
+      <c r="W113" s="10">
         <f>SUM(W91:W111)</f>
         <v>62.572980399999999</v>
       </c>
-      <c r="X113" s="85"/>
-      <c r="Z113" s="86" t="str">
-        <f t="shared" si="6"/>
+      <c r="X113" s="10"/>
+      <c r="Z113" s="11" t="str">
+        <f t="shared" si="11"/>
         <v>[52]</v>
       </c>
     </row>
     <row r="114" spans="19:26" x14ac:dyDescent="0.25">
-      <c r="U114" s="85"/>
-      <c r="V114" s="85"/>
-      <c r="W114" s="85"/>
-      <c r="X114" s="85"/>
-      <c r="Z114" s="86" t="str">
-        <f t="shared" si="6"/>
+      <c r="U114" s="10"/>
+      <c r="V114" s="10"/>
+      <c r="W114" s="10"/>
+      <c r="X114" s="10"/>
+      <c r="Z114" s="11" t="str">
+        <f t="shared" si="11"/>
         <v>[53]</v>
       </c>
     </row>
     <row r="115" spans="19:26" x14ac:dyDescent="0.25">
-      <c r="U115" s="85"/>
-      <c r="V115" s="85"/>
-      <c r="W115" s="85"/>
-      <c r="X115" s="85"/>
+      <c r="U115" s="10"/>
+      <c r="V115" s="10"/>
+      <c r="W115" s="10"/>
+      <c r="X115" s="10"/>
     </row>
     <row r="116" spans="19:26" x14ac:dyDescent="0.25">
-      <c r="U116" s="85"/>
-      <c r="V116" s="85"/>
-      <c r="W116" s="85"/>
-      <c r="X116" s="85"/>
+      <c r="U116" s="10"/>
+      <c r="V116" s="10"/>
+      <c r="W116" s="10"/>
+      <c r="X116" s="10"/>
     </row>
     <row r="117" spans="19:26" x14ac:dyDescent="0.25">
-      <c r="U117" s="85"/>
-      <c r="V117" s="85"/>
-      <c r="W117" s="85"/>
-      <c r="X117" s="85"/>
+      <c r="U117" s="10"/>
+      <c r="V117" s="10"/>
+      <c r="W117" s="10"/>
+      <c r="X117" s="10"/>
     </row>
     <row r="118" spans="19:26" x14ac:dyDescent="0.25">
-      <c r="U118" s="85"/>
-      <c r="V118" s="85"/>
-      <c r="W118" s="85"/>
-      <c r="X118" s="85"/>
+      <c r="U118" s="10"/>
+      <c r="V118" s="10"/>
+      <c r="W118" s="10"/>
+      <c r="X118" s="10"/>
     </row>
     <row r="119" spans="19:26" x14ac:dyDescent="0.25">
-      <c r="U119" s="85"/>
-      <c r="V119" s="85"/>
-      <c r="W119" s="85"/>
-      <c r="X119" s="85"/>
+      <c r="U119" s="10"/>
+      <c r="V119" s="10"/>
+      <c r="W119" s="10"/>
+      <c r="X119" s="10"/>
     </row>
     <row r="122" spans="19:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="19:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V123" s="120">
+      <c r="V123" s="13">
         <v>1</v>
       </c>
-      <c r="W123" s="121">
+      <c r="W123" s="14">
         <v>2.34</v>
       </c>
       <c r="X123">
@@ -5367,289 +5363,314 @@
       </c>
     </row>
     <row r="124" spans="19:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V124" s="122">
+      <c r="V124" s="15">
         <v>1</v>
       </c>
-      <c r="W124" s="123">
+      <c r="W124" s="16">
         <v>0.09</v>
       </c>
       <c r="X124">
-        <f t="shared" ref="X124:X143" si="7">V124*W124</f>
+        <f t="shared" ref="X124:X143" si="12">V124*W124</f>
         <v>0.09</v>
       </c>
     </row>
     <row r="125" spans="19:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V125" s="122">
+      <c r="V125" s="15">
         <v>2</v>
       </c>
-      <c r="W125" s="123">
+      <c r="W125" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="X125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="126" spans="19:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V126" s="122">
+      <c r="V126" s="15">
         <v>2</v>
       </c>
-      <c r="W126" s="123">
+      <c r="W126" s="16">
         <v>0.06</v>
       </c>
       <c r="X126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
     </row>
     <row r="127" spans="19:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V127" s="122">
+      <c r="V127" s="15">
         <v>1</v>
       </c>
-      <c r="W127" s="123">
+      <c r="W127" s="16">
         <v>0.02</v>
       </c>
       <c r="X127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="128" spans="19:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V128" s="122">
+      <c r="V128" s="15">
         <v>2</v>
       </c>
-      <c r="W128" s="123">
+      <c r="W128" s="16">
         <v>0.76</v>
       </c>
       <c r="X128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.52</v>
       </c>
     </row>
-    <row r="129" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V129" s="122">
+    <row r="129" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V129" s="15">
         <v>1</v>
       </c>
-      <c r="W129" s="123">
+      <c r="W129" s="16">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="X129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="130" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V130" s="122">
+    <row r="130" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V130" s="15">
         <v>1</v>
       </c>
-      <c r="W130" s="123">
+      <c r="W130" s="16">
         <v>0.05</v>
       </c>
       <c r="X130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="131" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V131" s="122">
+    <row r="131" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V131" s="15">
         <v>1</v>
       </c>
-      <c r="W131" s="123">
+      <c r="W131" s="16">
         <v>0.05</v>
       </c>
       <c r="X131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="132" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V132" s="122">
+    <row r="132" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V132" s="15">
         <v>1</v>
       </c>
-      <c r="W132" s="123">
+      <c r="W132" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="X132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="133" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V133" s="120">
+    <row r="133" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V133" s="13">
         <v>2</v>
       </c>
-      <c r="W133" s="121">
+      <c r="W133" s="14">
         <v>0.03</v>
       </c>
       <c r="X133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.06</v>
       </c>
     </row>
-    <row r="134" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V134" s="122">
+    <row r="134" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V134" s="15">
         <v>3</v>
       </c>
-      <c r="W134" s="123">
+      <c r="W134" s="16">
         <v>0.04</v>
       </c>
       <c r="X134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="135" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V135" s="122">
+    <row r="135" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S135" s="17">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="T135">
+        <f>S135+S136+S137</f>
+        <v>105.88</v>
+      </c>
+      <c r="V135" s="15">
         <v>1</v>
       </c>
-      <c r="W135" s="123">
+      <c r="W135" s="16">
         <v>0.11</v>
       </c>
       <c r="X135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.11</v>
       </c>
     </row>
-    <row r="136" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V136" s="122">
+    <row r="136" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S136" s="19">
+        <v>59.88</v>
+      </c>
+      <c r="T136">
+        <f>T135*20/100</f>
+        <v>21.175999999999998</v>
+      </c>
+      <c r="V136" s="15">
         <v>3</v>
       </c>
-      <c r="W136" s="123">
+      <c r="W136" s="16">
         <v>0.04</v>
       </c>
       <c r="X136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="137" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V137" s="122">
+    <row r="137" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S137" s="19">
+        <v>37.130000000000003</v>
+      </c>
+      <c r="T137">
+        <f>T136+T135</f>
+        <v>127.056</v>
+      </c>
+      <c r="V137" s="15">
         <v>1</v>
       </c>
-      <c r="W137" s="123">
+      <c r="W137" s="16">
         <v>0.99</v>
       </c>
       <c r="X137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.99</v>
       </c>
     </row>
-    <row r="138" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V138" s="122">
+    <row r="138" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V138" s="15">
         <v>1</v>
       </c>
-      <c r="W138" s="123">
+      <c r="W138" s="16">
         <v>1.31</v>
       </c>
       <c r="X138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.31</v>
       </c>
     </row>
-    <row r="139" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V139" s="122">
+    <row r="139" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V139" s="15">
         <v>1</v>
       </c>
-      <c r="W139" s="123">
+      <c r="W139" s="16">
         <v>4.0599999999999996</v>
       </c>
       <c r="X139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="140" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V140" s="122">
+    <row r="140" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V140" s="15">
         <v>1</v>
       </c>
-      <c r="W140" s="123">
+      <c r="W140" s="16">
         <v>4</v>
       </c>
       <c r="X140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V141" s="122">
+    <row r="141" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S141">
+        <f>550*21.18*(0.8)</f>
+        <v>9319.2000000000007</v>
+      </c>
+      <c r="V141" s="15">
         <v>2</v>
       </c>
-      <c r="W141" s="123">
+      <c r="W141" s="16">
         <v>11.7</v>
       </c>
       <c r="X141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>23.4</v>
       </c>
     </row>
-    <row r="142" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V142" s="122">
+    <row r="142" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V142" s="15">
         <v>1</v>
       </c>
-      <c r="W142" s="123">
+      <c r="W142" s="16">
         <v>8.08</v>
       </c>
       <c r="X142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8.08</v>
       </c>
-      <c r="AA142" s="124">
+      <c r="AA142" s="17">
         <v>0.154</v>
       </c>
-      <c r="AB142" s="125">
+      <c r="AB142" s="18">
         <v>22.7</v>
       </c>
       <c r="AC142">
         <v>3.5</v>
       </c>
     </row>
-    <row r="143" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V143" s="122">
+    <row r="143" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V143" s="15">
         <v>1</v>
       </c>
-      <c r="W143" s="123">
-        <v>16</v>
+      <c r="W143" s="16">
+        <v>3.2</v>
       </c>
       <c r="X143">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="AA143" s="126">
+        <f t="shared" si="12"/>
+        <v>3.2</v>
+      </c>
+      <c r="AA143" s="19">
         <v>0.8</v>
       </c>
-      <c r="AB143" s="127">
+      <c r="AB143" s="20">
         <v>0.65</v>
       </c>
       <c r="AC143">
-        <f t="shared" ref="AC143:AC145" si="8">AA143*AB143</f>
+        <f t="shared" ref="AC143:AC145" si="13">AA143*AB143</f>
         <v>0.52</v>
       </c>
     </row>
-    <row r="144" spans="22:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="X144">
         <f>SUM(X123:X143)</f>
-        <v>62.655000000000001</v>
-      </c>
-      <c r="AA144" s="126">
+        <v>49.855000000000004</v>
+      </c>
+      <c r="AA144" s="19">
         <v>1</v>
       </c>
-      <c r="AB144" s="127">
+      <c r="AB144" s="20">
         <v>2.33</v>
       </c>
       <c r="AC144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2.33</v>
       </c>
     </row>
     <row r="145" spans="27:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA145" s="126">
+      <c r="AA145" s="19">
         <v>4</v>
       </c>
-      <c r="AB145" s="127">
+      <c r="AB145" s="20">
         <v>0.26</v>
       </c>
       <c r="AC145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.04</v>
       </c>
     </row>
@@ -5661,26 +5682,123 @@
     </row>
   </sheetData>
   <mergeCells count="165">
-    <mergeCell ref="AR82:AU82"/>
-    <mergeCell ref="AP82:AQ82"/>
-    <mergeCell ref="AR76:AU76"/>
-    <mergeCell ref="AR77:AU77"/>
-    <mergeCell ref="AR78:AU78"/>
-    <mergeCell ref="S80:V80"/>
-    <mergeCell ref="S81:V81"/>
-    <mergeCell ref="W80:Y80"/>
-    <mergeCell ref="Z80:AJ80"/>
-    <mergeCell ref="Z81:AJ81"/>
-    <mergeCell ref="W81:Y81"/>
-    <mergeCell ref="AK80:AM80"/>
-    <mergeCell ref="AK81:AM81"/>
-    <mergeCell ref="AN81:AQ81"/>
-    <mergeCell ref="AR80:AU80"/>
-    <mergeCell ref="AR81:AU81"/>
-    <mergeCell ref="AN77:AQ77"/>
-    <mergeCell ref="AN78:AQ78"/>
-    <mergeCell ref="AN79:AQ79"/>
-    <mergeCell ref="AN80:AQ80"/>
+    <mergeCell ref="S79:V79"/>
+    <mergeCell ref="W79:Y79"/>
+    <mergeCell ref="Z79:AJ79"/>
+    <mergeCell ref="S78:V78"/>
+    <mergeCell ref="W78:Y78"/>
+    <mergeCell ref="Z78:AJ78"/>
+    <mergeCell ref="Z77:AJ77"/>
+    <mergeCell ref="S65:V65"/>
+    <mergeCell ref="Z65:AJ65"/>
+    <mergeCell ref="S66:V66"/>
+    <mergeCell ref="Z66:AJ66"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="Z67:AJ67"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="Z68:AJ68"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="Z69:AJ69"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="Z70:AJ70"/>
+    <mergeCell ref="W70:Y70"/>
+    <mergeCell ref="Z75:AJ75"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="F62:P62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:P63"/>
+    <mergeCell ref="B57:P58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:P59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:P60"/>
+    <mergeCell ref="Z62:AJ62"/>
+    <mergeCell ref="S63:V63"/>
+    <mergeCell ref="Z63:AJ63"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="F61:P61"/>
+    <mergeCell ref="Z59:AJ59"/>
+    <mergeCell ref="S60:V60"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="AQ14:AZ14"/>
+    <mergeCell ref="AQ15:AZ15"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="S74:V74"/>
+    <mergeCell ref="Z74:AJ74"/>
+    <mergeCell ref="S75:V75"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:P64"/>
+    <mergeCell ref="S59:V59"/>
+    <mergeCell ref="S64:V64"/>
+    <mergeCell ref="Z64:AJ64"/>
+    <mergeCell ref="W75:Y75"/>
+    <mergeCell ref="W76:Y76"/>
+    <mergeCell ref="Z60:AJ60"/>
+    <mergeCell ref="S61:V61"/>
+    <mergeCell ref="Z61:AJ61"/>
+    <mergeCell ref="S62:V62"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="S71:V71"/>
+    <mergeCell ref="Z71:AJ71"/>
+    <mergeCell ref="S72:V72"/>
+    <mergeCell ref="Z72:AJ72"/>
+    <mergeCell ref="S73:V73"/>
+    <mergeCell ref="Z73:AJ73"/>
+    <mergeCell ref="W71:Y71"/>
+    <mergeCell ref="W72:Y72"/>
+    <mergeCell ref="W73:Y73"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="AK59:AM59"/>
+    <mergeCell ref="F74:M74"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="W60:Y60"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="W62:Y62"/>
+    <mergeCell ref="W63:Y63"/>
+    <mergeCell ref="W64:Y64"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="W67:Y67"/>
+    <mergeCell ref="W68:Y68"/>
+    <mergeCell ref="W69:Y69"/>
+    <mergeCell ref="AK60:AM60"/>
+    <mergeCell ref="AK61:AM61"/>
+    <mergeCell ref="AK66:AM66"/>
+    <mergeCell ref="AK74:AM74"/>
+    <mergeCell ref="AK79:AM79"/>
+    <mergeCell ref="AK67:AM67"/>
+    <mergeCell ref="AK68:AM68"/>
+    <mergeCell ref="AK69:AM69"/>
+    <mergeCell ref="AK70:AM70"/>
+    <mergeCell ref="AK71:AM71"/>
+    <mergeCell ref="AK72:AM72"/>
+    <mergeCell ref="AK73:AM73"/>
+    <mergeCell ref="AK75:AM75"/>
+    <mergeCell ref="AK76:AM76"/>
+    <mergeCell ref="AK77:AM77"/>
+    <mergeCell ref="AK78:AM78"/>
+    <mergeCell ref="AK62:AM62"/>
+    <mergeCell ref="AK63:AM63"/>
+    <mergeCell ref="AK64:AM64"/>
+    <mergeCell ref="AK65:AM65"/>
+    <mergeCell ref="AN73:AQ73"/>
+    <mergeCell ref="AN74:AQ74"/>
+    <mergeCell ref="AN75:AQ75"/>
+    <mergeCell ref="AN76:AQ76"/>
+    <mergeCell ref="AN59:AQ59"/>
+    <mergeCell ref="AN60:AQ60"/>
+    <mergeCell ref="AN61:AQ61"/>
+    <mergeCell ref="AN62:AQ62"/>
+    <mergeCell ref="AN63:AQ63"/>
+    <mergeCell ref="AN64:AQ64"/>
+    <mergeCell ref="AN65:AQ65"/>
+    <mergeCell ref="AN66:AQ66"/>
+    <mergeCell ref="AN67:AQ67"/>
     <mergeCell ref="AR59:AU59"/>
     <mergeCell ref="R57:AU58"/>
     <mergeCell ref="AR60:AU60"/>
@@ -5705,127 +5823,30 @@
     <mergeCell ref="AN70:AQ70"/>
     <mergeCell ref="AN71:AQ71"/>
     <mergeCell ref="AN72:AQ72"/>
-    <mergeCell ref="AN73:AQ73"/>
-    <mergeCell ref="AN74:AQ74"/>
-    <mergeCell ref="AN75:AQ75"/>
-    <mergeCell ref="AN76:AQ76"/>
-    <mergeCell ref="AN59:AQ59"/>
-    <mergeCell ref="AN60:AQ60"/>
-    <mergeCell ref="AN61:AQ61"/>
-    <mergeCell ref="AN62:AQ62"/>
-    <mergeCell ref="AN63:AQ63"/>
-    <mergeCell ref="AN64:AQ64"/>
-    <mergeCell ref="AN65:AQ65"/>
-    <mergeCell ref="AN66:AQ66"/>
-    <mergeCell ref="AN67:AQ67"/>
-    <mergeCell ref="AK60:AM60"/>
-    <mergeCell ref="AK61:AM61"/>
-    <mergeCell ref="AK66:AM66"/>
-    <mergeCell ref="AK74:AM74"/>
-    <mergeCell ref="AK79:AM79"/>
-    <mergeCell ref="AK67:AM67"/>
-    <mergeCell ref="AK68:AM68"/>
-    <mergeCell ref="AK69:AM69"/>
-    <mergeCell ref="AK70:AM70"/>
-    <mergeCell ref="AK71:AM71"/>
-    <mergeCell ref="AK72:AM72"/>
-    <mergeCell ref="AK73:AM73"/>
-    <mergeCell ref="AK75:AM75"/>
-    <mergeCell ref="AK76:AM76"/>
-    <mergeCell ref="AK77:AM77"/>
-    <mergeCell ref="AK78:AM78"/>
-    <mergeCell ref="AK62:AM62"/>
-    <mergeCell ref="AK63:AM63"/>
-    <mergeCell ref="AK64:AM64"/>
-    <mergeCell ref="AK65:AM65"/>
-    <mergeCell ref="AK59:AM59"/>
-    <mergeCell ref="F74:M74"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="W60:Y60"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="W62:Y62"/>
-    <mergeCell ref="W63:Y63"/>
-    <mergeCell ref="W64:Y64"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="W67:Y67"/>
-    <mergeCell ref="W68:Y68"/>
-    <mergeCell ref="W69:Y69"/>
+    <mergeCell ref="AR82:AU82"/>
+    <mergeCell ref="AP82:AQ82"/>
+    <mergeCell ref="AR76:AU76"/>
+    <mergeCell ref="AR77:AU77"/>
+    <mergeCell ref="AR78:AU78"/>
+    <mergeCell ref="S80:V80"/>
+    <mergeCell ref="S81:V81"/>
+    <mergeCell ref="W80:Y80"/>
+    <mergeCell ref="Z80:AJ80"/>
+    <mergeCell ref="Z81:AJ81"/>
+    <mergeCell ref="W81:Y81"/>
+    <mergeCell ref="AK80:AM80"/>
+    <mergeCell ref="AK81:AM81"/>
+    <mergeCell ref="AN81:AQ81"/>
+    <mergeCell ref="AR80:AU80"/>
+    <mergeCell ref="AR81:AU81"/>
+    <mergeCell ref="AN77:AQ77"/>
+    <mergeCell ref="AN78:AQ78"/>
+    <mergeCell ref="AN79:AQ79"/>
+    <mergeCell ref="AN80:AQ80"/>
     <mergeCell ref="S76:V76"/>
     <mergeCell ref="Z76:AJ76"/>
-    <mergeCell ref="W75:Y75"/>
-    <mergeCell ref="W76:Y76"/>
-    <mergeCell ref="Z60:AJ60"/>
-    <mergeCell ref="S61:V61"/>
-    <mergeCell ref="Z61:AJ61"/>
-    <mergeCell ref="S62:V62"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="S71:V71"/>
-    <mergeCell ref="Z71:AJ71"/>
-    <mergeCell ref="S72:V72"/>
-    <mergeCell ref="Z72:AJ72"/>
-    <mergeCell ref="S73:V73"/>
-    <mergeCell ref="Z73:AJ73"/>
-    <mergeCell ref="W71:Y71"/>
-    <mergeCell ref="W72:Y72"/>
-    <mergeCell ref="W73:Y73"/>
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="AQ14:AZ14"/>
-    <mergeCell ref="AQ15:AZ15"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="S74:V74"/>
-    <mergeCell ref="Z74:AJ74"/>
-    <mergeCell ref="S75:V75"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:P64"/>
-    <mergeCell ref="S59:V59"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="F62:P62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F63:P63"/>
-    <mergeCell ref="B57:P58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:P59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:P60"/>
-    <mergeCell ref="Z62:AJ62"/>
-    <mergeCell ref="S63:V63"/>
-    <mergeCell ref="Z63:AJ63"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="F61:P61"/>
-    <mergeCell ref="Z59:AJ59"/>
-    <mergeCell ref="S60:V60"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P43:T43"/>
     <mergeCell ref="S77:V77"/>
     <mergeCell ref="W77:Y77"/>
-    <mergeCell ref="Z77:AJ77"/>
-    <mergeCell ref="S65:V65"/>
-    <mergeCell ref="Z65:AJ65"/>
-    <mergeCell ref="S66:V66"/>
-    <mergeCell ref="Z66:AJ66"/>
-    <mergeCell ref="S67:V67"/>
-    <mergeCell ref="Z67:AJ67"/>
-    <mergeCell ref="S68:V68"/>
-    <mergeCell ref="Z68:AJ68"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="Z69:AJ69"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="Z70:AJ70"/>
-    <mergeCell ref="W70:Y70"/>
-    <mergeCell ref="Z75:AJ75"/>
-    <mergeCell ref="S64:V64"/>
-    <mergeCell ref="Z64:AJ64"/>
-    <mergeCell ref="S79:V79"/>
-    <mergeCell ref="W79:Y79"/>
-    <mergeCell ref="Z79:AJ79"/>
-    <mergeCell ref="S78:V78"/>
-    <mergeCell ref="W78:Y78"/>
-    <mergeCell ref="Z78:AJ78"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\university\Diploma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D71C16-8432-4558-BAB5-3579F01EE480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D713D-1089-4697-AD1A-2750E74E8DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49E8A915-5A6F-4B3C-966A-272F8EBD50DB}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{49E8A915-5A6F-4B3C-966A-272F8EBD50DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="177">
   <si>
     <t>https://belchip.by/product/?selected_product=36951</t>
   </si>
@@ -532,6 +532,39 @@
   </si>
   <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>Конденсатор 22uF</t>
+  </si>
+  <si>
+    <t>C555367</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/TaiyoYuden-LMK316B7226KLTR/C555367</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/Yageo-CC0402BRNPO9BN1R5/C282238</t>
+  </si>
+  <si>
+    <t>Новый конденсатор!</t>
+  </si>
+  <si>
+    <t>10 nf</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/58143-0603B103K500NT/C57112</t>
+  </si>
+  <si>
+    <t>47 nf</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/54150-CL21B473KBCNNNC/C53134</t>
+  </si>
+  <si>
+    <t>1kOm</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/4817-1206W4F1001T5E/C4410</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1350,6 +1383,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1389,94 +1440,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1562,6 +1586,15 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2243,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9202B416-C4F8-4CD1-A856-CE2988DE9FEF}">
   <dimension ref="B1:AZ146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V111" sqref="V111"/>
+    <sheetView tabSelected="1" topLeftCell="S125" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI143" sqref="AI143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,13 +2415,13 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="W7" s="85" t="s">
+      <c r="W7" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.25">
       <c r="G8" s="3"/>
@@ -2416,11 +2449,11 @@
       </c>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.25">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
       <c r="Q12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2448,18 +2481,18 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="AQ14" s="67" t="s">
+      <c r="AQ14" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="AR14" s="67"/>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="67"/>
-      <c r="AU14" s="67"/>
-      <c r="AV14" s="67"/>
-      <c r="AW14" s="67"/>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="67"/>
-      <c r="AZ14" s="67"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="72"/>
+      <c r="AW14" s="72"/>
+      <c r="AX14" s="72"/>
+      <c r="AY14" s="72"/>
+      <c r="AZ14" s="72"/>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.25">
       <c r="Q15" s="1"/>
@@ -2468,18 +2501,18 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="AQ15" s="67" t="s">
+      <c r="AQ15" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="AR15" s="67"/>
-      <c r="AS15" s="67"/>
-      <c r="AT15" s="67"/>
-      <c r="AU15" s="67"/>
-      <c r="AV15" s="67"/>
-      <c r="AW15" s="67"/>
-      <c r="AX15" s="67"/>
-      <c r="AY15" s="67"/>
-      <c r="AZ15" s="67"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="72"/>
+      <c r="AV15" s="72"/>
+      <c r="AW15" s="72"/>
+      <c r="AX15" s="72"/>
+      <c r="AY15" s="72"/>
+      <c r="AZ15" s="72"/>
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.25">
       <c r="Q16" s="1"/>
@@ -2895,13 +2928,13 @@
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="P41" s="67" t="s">
+      <c r="P41" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="Q41" s="67"/>
-      <c r="R41" s="67"/>
-      <c r="S41" s="67"/>
-      <c r="T41" s="67"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
       <c r="U41" t="s">
         <v>15</v>
       </c>
@@ -2944,13 +2977,13 @@
       <c r="J42" t="s">
         <v>25</v>
       </c>
-      <c r="P42" s="67" t="s">
+      <c r="P42" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="67"/>
-      <c r="R42" s="67"/>
-      <c r="S42" s="67"/>
-      <c r="T42" s="67"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
       <c r="U42" t="s">
         <v>18</v>
       </c>
@@ -2987,11 +3020,11 @@
       </c>
     </row>
     <row r="43" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="P43" s="67"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="67"/>
-      <c r="S43" s="67"/>
-      <c r="T43" s="67"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
       <c r="AO43" t="s">
         <v>114</v>
       </c>
@@ -3212,263 +3245,263 @@
     </row>
     <row r="56" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="58"/>
-      <c r="R57" s="56" t="s">
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="64"/>
+      <c r="R57" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="S57" s="57"/>
-      <c r="T57" s="57"/>
-      <c r="U57" s="57"/>
-      <c r="V57" s="57"/>
-      <c r="W57" s="57"/>
-      <c r="X57" s="57"/>
-      <c r="Y57" s="57"/>
-      <c r="Z57" s="57"/>
-      <c r="AA57" s="57"/>
-      <c r="AB57" s="57"/>
-      <c r="AC57" s="57"/>
-      <c r="AD57" s="57"/>
-      <c r="AE57" s="57"/>
-      <c r="AF57" s="57"/>
-      <c r="AG57" s="57"/>
-      <c r="AH57" s="57"/>
-      <c r="AI57" s="57"/>
-      <c r="AJ57" s="57"/>
-      <c r="AK57" s="57"/>
-      <c r="AL57" s="57"/>
-      <c r="AM57" s="57"/>
-      <c r="AN57" s="57"/>
-      <c r="AO57" s="57"/>
-      <c r="AP57" s="57"/>
-      <c r="AQ57" s="57"/>
-      <c r="AR57" s="57"/>
-      <c r="AS57" s="57"/>
-      <c r="AT57" s="57"/>
-      <c r="AU57" s="58"/>
+      <c r="S57" s="63"/>
+      <c r="T57" s="63"/>
+      <c r="U57" s="63"/>
+      <c r="V57" s="63"/>
+      <c r="W57" s="63"/>
+      <c r="X57" s="63"/>
+      <c r="Y57" s="63"/>
+      <c r="Z57" s="63"/>
+      <c r="AA57" s="63"/>
+      <c r="AB57" s="63"/>
+      <c r="AC57" s="63"/>
+      <c r="AD57" s="63"/>
+      <c r="AE57" s="63"/>
+      <c r="AF57" s="63"/>
+      <c r="AG57" s="63"/>
+      <c r="AH57" s="63"/>
+      <c r="AI57" s="63"/>
+      <c r="AJ57" s="63"/>
+      <c r="AK57" s="63"/>
+      <c r="AL57" s="63"/>
+      <c r="AM57" s="63"/>
+      <c r="AN57" s="63"/>
+      <c r="AO57" s="63"/>
+      <c r="AP57" s="63"/>
+      <c r="AQ57" s="63"/>
+      <c r="AR57" s="63"/>
+      <c r="AS57" s="63"/>
+      <c r="AT57" s="63"/>
+      <c r="AU57" s="64"/>
     </row>
     <row r="58" spans="2:51" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="103"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="104"/>
-      <c r="J58" s="104"/>
-      <c r="K58" s="104"/>
-      <c r="L58" s="104"/>
-      <c r="M58" s="104"/>
-      <c r="N58" s="104"/>
-      <c r="O58" s="104"/>
-      <c r="P58" s="105"/>
-      <c r="R58" s="59"/>
-      <c r="S58" s="60"/>
-      <c r="T58" s="60"/>
-      <c r="U58" s="60"/>
-      <c r="V58" s="60"/>
-      <c r="W58" s="60"/>
-      <c r="X58" s="60"/>
-      <c r="Y58" s="60"/>
-      <c r="Z58" s="60"/>
-      <c r="AA58" s="60"/>
-      <c r="AB58" s="60"/>
-      <c r="AC58" s="60"/>
-      <c r="AD58" s="60"/>
-      <c r="AE58" s="60"/>
-      <c r="AF58" s="60"/>
-      <c r="AG58" s="60"/>
-      <c r="AH58" s="60"/>
-      <c r="AI58" s="60"/>
-      <c r="AJ58" s="60"/>
-      <c r="AK58" s="60"/>
-      <c r="AL58" s="60"/>
-      <c r="AM58" s="60"/>
-      <c r="AN58" s="60"/>
-      <c r="AO58" s="60"/>
-      <c r="AP58" s="60"/>
-      <c r="AQ58" s="60"/>
-      <c r="AR58" s="60"/>
-      <c r="AS58" s="60"/>
-      <c r="AT58" s="60"/>
-      <c r="AU58" s="61"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="101"/>
+      <c r="J58" s="101"/>
+      <c r="K58" s="101"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="101"/>
+      <c r="N58" s="101"/>
+      <c r="O58" s="101"/>
+      <c r="P58" s="102"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="66"/>
+      <c r="T58" s="66"/>
+      <c r="U58" s="66"/>
+      <c r="V58" s="66"/>
+      <c r="W58" s="66"/>
+      <c r="X58" s="66"/>
+      <c r="Y58" s="66"/>
+      <c r="Z58" s="66"/>
+      <c r="AA58" s="66"/>
+      <c r="AB58" s="66"/>
+      <c r="AC58" s="66"/>
+      <c r="AD58" s="66"/>
+      <c r="AE58" s="66"/>
+      <c r="AF58" s="66"/>
+      <c r="AG58" s="66"/>
+      <c r="AH58" s="66"/>
+      <c r="AI58" s="66"/>
+      <c r="AJ58" s="66"/>
+      <c r="AK58" s="66"/>
+      <c r="AL58" s="66"/>
+      <c r="AM58" s="66"/>
+      <c r="AN58" s="66"/>
+      <c r="AO58" s="66"/>
+      <c r="AP58" s="66"/>
+      <c r="AQ58" s="66"/>
+      <c r="AR58" s="66"/>
+      <c r="AS58" s="66"/>
+      <c r="AT58" s="66"/>
+      <c r="AU58" s="67"/>
     </row>
     <row r="59" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="106" t="s">
+      <c r="B59" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="109" t="s">
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="107"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="107"/>
-      <c r="J59" s="107"/>
-      <c r="K59" s="107"/>
-      <c r="L59" s="107"/>
-      <c r="M59" s="107"/>
-      <c r="N59" s="107"/>
-      <c r="O59" s="107"/>
-      <c r="P59" s="108"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
+      <c r="L59" s="104"/>
+      <c r="M59" s="104"/>
+      <c r="N59" s="104"/>
+      <c r="O59" s="104"/>
+      <c r="P59" s="105"/>
       <c r="R59" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S59" s="95" t="s">
+      <c r="S59" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="T59" s="96"/>
-      <c r="U59" s="96"/>
-      <c r="V59" s="97"/>
-      <c r="W59" s="68" t="s">
+      <c r="T59" s="89"/>
+      <c r="U59" s="89"/>
+      <c r="V59" s="90"/>
+      <c r="W59" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="X59" s="69"/>
-      <c r="Y59" s="69"/>
-      <c r="Z59" s="119" t="s">
+      <c r="X59" s="74"/>
+      <c r="Y59" s="74"/>
+      <c r="Z59" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="AA59" s="120"/>
-      <c r="AB59" s="120"/>
-      <c r="AC59" s="120"/>
-      <c r="AD59" s="120"/>
-      <c r="AE59" s="120"/>
-      <c r="AF59" s="120"/>
-      <c r="AG59" s="120"/>
-      <c r="AH59" s="120"/>
-      <c r="AI59" s="120"/>
-      <c r="AJ59" s="121"/>
-      <c r="AK59" s="54" t="s">
+      <c r="AA59" s="117"/>
+      <c r="AB59" s="117"/>
+      <c r="AC59" s="117"/>
+      <c r="AD59" s="117"/>
+      <c r="AE59" s="117"/>
+      <c r="AF59" s="117"/>
+      <c r="AG59" s="117"/>
+      <c r="AH59" s="117"/>
+      <c r="AI59" s="117"/>
+      <c r="AJ59" s="118"/>
+      <c r="AK59" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="AL59" s="54"/>
-      <c r="AM59" s="54"/>
-      <c r="AN59" s="53" t="s">
+      <c r="AL59" s="60"/>
+      <c r="AM59" s="60"/>
+      <c r="AN59" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AO59" s="54"/>
-      <c r="AP59" s="54"/>
-      <c r="AQ59" s="55"/>
-      <c r="AR59" s="53" t="s">
+      <c r="AO59" s="60"/>
+      <c r="AP59" s="60"/>
+      <c r="AQ59" s="61"/>
+      <c r="AR59" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="AS59" s="54"/>
-      <c r="AT59" s="54"/>
-      <c r="AU59" s="55"/>
+      <c r="AS59" s="60"/>
+      <c r="AT59" s="60"/>
+      <c r="AU59" s="61"/>
     </row>
     <row r="60" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B60" s="110" t="s">
+      <c r="B60" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="111"/>
-      <c r="D60" s="111"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="113" t="s">
+      <c r="C60" s="108"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="G60" s="114"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="114"/>
-      <c r="J60" s="114"/>
-      <c r="K60" s="114"/>
-      <c r="L60" s="114"/>
-      <c r="M60" s="114"/>
-      <c r="N60" s="114"/>
-      <c r="O60" s="114"/>
-      <c r="P60" s="115"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="111"/>
+      <c r="K60" s="111"/>
+      <c r="L60" s="111"/>
+      <c r="M60" s="111"/>
+      <c r="N60" s="111"/>
+      <c r="O60" s="111"/>
+      <c r="P60" s="112"/>
       <c r="R60" s="6">
         <v>1</v>
       </c>
-      <c r="S60" s="122" t="s">
+      <c r="S60" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="T60" s="123"/>
-      <c r="U60" s="123"/>
-      <c r="V60" s="124"/>
-      <c r="W60" s="70" t="s">
+      <c r="T60" s="120"/>
+      <c r="U60" s="120"/>
+      <c r="V60" s="121"/>
+      <c r="W60" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="X60" s="71"/>
-      <c r="Y60" s="72"/>
-      <c r="Z60" s="79" t="s">
+      <c r="X60" s="76"/>
+      <c r="Y60" s="77"/>
+      <c r="Z60" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="AA60" s="80"/>
-      <c r="AB60" s="80"/>
-      <c r="AC60" s="80"/>
-      <c r="AD60" s="80"/>
-      <c r="AE60" s="80"/>
-      <c r="AF60" s="80"/>
-      <c r="AG60" s="80"/>
-      <c r="AH60" s="80"/>
-      <c r="AI60" s="80"/>
-      <c r="AJ60" s="81"/>
-      <c r="AK60" s="62" t="s">
+      <c r="AA60" s="92"/>
+      <c r="AB60" s="92"/>
+      <c r="AC60" s="92"/>
+      <c r="AD60" s="92"/>
+      <c r="AE60" s="92"/>
+      <c r="AF60" s="92"/>
+      <c r="AG60" s="92"/>
+      <c r="AH60" s="92"/>
+      <c r="AI60" s="92"/>
+      <c r="AJ60" s="93"/>
+      <c r="AK60" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="AL60" s="63"/>
-      <c r="AM60" s="66"/>
-      <c r="AN60" s="65"/>
-      <c r="AO60" s="63"/>
-      <c r="AP60" s="63"/>
-      <c r="AQ60" s="64"/>
-      <c r="AR60" s="62"/>
-      <c r="AS60" s="63"/>
-      <c r="AT60" s="63"/>
-      <c r="AU60" s="64"/>
+      <c r="AL60" s="69"/>
+      <c r="AM60" s="78"/>
+      <c r="AN60" s="71"/>
+      <c r="AO60" s="69"/>
+      <c r="AP60" s="69"/>
+      <c r="AQ60" s="70"/>
+      <c r="AR60" s="68"/>
+      <c r="AS60" s="69"/>
+      <c r="AT60" s="69"/>
+      <c r="AU60" s="70"/>
     </row>
     <row r="61" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B61" s="98" t="s">
+      <c r="B61" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="99"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="100"/>
-      <c r="F61" s="101" t="s">
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-      <c r="K61" s="99"/>
-      <c r="L61" s="99"/>
-      <c r="M61" s="99"/>
-      <c r="N61" s="99"/>
-      <c r="O61" s="99"/>
-      <c r="P61" s="100"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="96"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="96"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="96"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="97"/>
       <c r="R61" s="8">
         <v>2</v>
       </c>
-      <c r="S61" s="82" t="s">
+      <c r="S61" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="T61" s="83"/>
-      <c r="U61" s="83"/>
-      <c r="V61" s="84"/>
-      <c r="W61" s="73" t="s">
+      <c r="T61" s="82"/>
+      <c r="U61" s="82"/>
+      <c r="V61" s="83"/>
+      <c r="W61" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="X61" s="74"/>
-      <c r="Y61" s="75"/>
+      <c r="X61" s="57"/>
+      <c r="Y61" s="58"/>
       <c r="Z61" s="37" t="s">
         <v>86</v>
       </c>
@@ -3502,39 +3535,39 @@
       <c r="AU61" s="27"/>
     </row>
     <row r="62" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B62" s="98" t="s">
+      <c r="B62" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="101" t="s">
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
-      <c r="K62" s="99"/>
-      <c r="L62" s="99"/>
-      <c r="M62" s="99"/>
-      <c r="N62" s="99"/>
-      <c r="O62" s="99"/>
-      <c r="P62" s="100"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="96"/>
+      <c r="O62" s="96"/>
+      <c r="P62" s="97"/>
       <c r="R62" s="8">
         <v>3</v>
       </c>
-      <c r="S62" s="82" t="s">
+      <c r="S62" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="T62" s="83"/>
-      <c r="U62" s="83"/>
-      <c r="V62" s="84"/>
-      <c r="W62" s="73" t="s">
+      <c r="T62" s="82"/>
+      <c r="U62" s="82"/>
+      <c r="V62" s="83"/>
+      <c r="W62" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="X62" s="74"/>
-      <c r="Y62" s="75"/>
+      <c r="X62" s="57"/>
+      <c r="Y62" s="58"/>
       <c r="Z62" s="37" t="s">
         <v>87</v>
       </c>
@@ -3561,35 +3594,35 @@
       <c r="AU62" s="27"/>
     </row>
     <row r="63" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B63" s="98"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="102"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
-      <c r="K63" s="99"/>
-      <c r="L63" s="99"/>
-      <c r="M63" s="99"/>
-      <c r="N63" s="99"/>
-      <c r="O63" s="99"/>
-      <c r="P63" s="100"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="96"/>
+      <c r="H63" s="96"/>
+      <c r="I63" s="96"/>
+      <c r="J63" s="96"/>
+      <c r="K63" s="96"/>
+      <c r="L63" s="96"/>
+      <c r="M63" s="96"/>
+      <c r="N63" s="96"/>
+      <c r="O63" s="96"/>
+      <c r="P63" s="97"/>
       <c r="R63" s="8">
         <v>4</v>
       </c>
-      <c r="S63" s="116" t="s">
+      <c r="S63" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="T63" s="117"/>
-      <c r="U63" s="117"/>
-      <c r="V63" s="118"/>
-      <c r="W63" s="73" t="s">
+      <c r="T63" s="114"/>
+      <c r="U63" s="114"/>
+      <c r="V63" s="115"/>
+      <c r="W63" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="X63" s="74"/>
-      <c r="Y63" s="75"/>
+      <c r="X63" s="57"/>
+      <c r="Y63" s="58"/>
       <c r="Z63" s="37" t="s">
         <v>88</v>
       </c>
@@ -3616,35 +3649,35 @@
       <c r="AU63" s="27"/>
     </row>
     <row r="64" spans="2:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="91"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="92"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="92"/>
-      <c r="J64" s="92"/>
-      <c r="K64" s="92"/>
-      <c r="L64" s="92"/>
-      <c r="M64" s="92"/>
-      <c r="N64" s="92"/>
-      <c r="O64" s="92"/>
-      <c r="P64" s="93"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="85"/>
+      <c r="M64" s="85"/>
+      <c r="N64" s="85"/>
+      <c r="O64" s="85"/>
+      <c r="P64" s="86"/>
       <c r="R64" s="8">
         <v>5</v>
       </c>
-      <c r="S64" s="76" t="s">
+      <c r="S64" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="T64" s="77"/>
-      <c r="U64" s="77"/>
-      <c r="V64" s="78"/>
-      <c r="W64" s="73" t="s">
+      <c r="T64" s="54"/>
+      <c r="U64" s="54"/>
+      <c r="V64" s="55"/>
+      <c r="W64" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="X64" s="74"/>
-      <c r="Y64" s="75"/>
+      <c r="X64" s="57"/>
+      <c r="Y64" s="58"/>
       <c r="Z64" s="37" t="s">
         <v>89</v>
       </c>
@@ -3679,17 +3712,17 @@
       <c r="R65" s="8">
         <v>6</v>
       </c>
-      <c r="S65" s="76" t="s">
+      <c r="S65" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="T65" s="77"/>
-      <c r="U65" s="77"/>
-      <c r="V65" s="78"/>
-      <c r="W65" s="73" t="s">
+      <c r="T65" s="54"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="55"/>
+      <c r="W65" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="X65" s="74"/>
-      <c r="Y65" s="75"/>
+      <c r="X65" s="57"/>
+      <c r="Y65" s="58"/>
       <c r="Z65" s="37" t="s">
         <v>90</v>
       </c>
@@ -3724,17 +3757,17 @@
       <c r="R66" s="8">
         <v>7</v>
       </c>
-      <c r="S66" s="125" t="s">
+      <c r="S66" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="T66" s="126"/>
-      <c r="U66" s="126"/>
-      <c r="V66" s="127"/>
-      <c r="W66" s="73" t="s">
+      <c r="T66" s="123"/>
+      <c r="U66" s="123"/>
+      <c r="V66" s="124"/>
+      <c r="W66" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="X66" s="74"/>
-      <c r="Y66" s="75"/>
+      <c r="X66" s="57"/>
+      <c r="Y66" s="58"/>
       <c r="Z66" s="37" t="s">
         <v>91</v>
       </c>
@@ -3766,17 +3799,17 @@
       <c r="R67" s="8">
         <v>8</v>
       </c>
-      <c r="S67" s="76" t="s">
+      <c r="S67" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="T67" s="77"/>
-      <c r="U67" s="77"/>
-      <c r="V67" s="78"/>
-      <c r="W67" s="73" t="s">
+      <c r="T67" s="54"/>
+      <c r="U67" s="54"/>
+      <c r="V67" s="55"/>
+      <c r="W67" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="X67" s="74"/>
-      <c r="Y67" s="75"/>
+      <c r="X67" s="57"/>
+      <c r="Y67" s="58"/>
       <c r="Z67" s="37" t="s">
         <v>92</v>
       </c>
@@ -3811,17 +3844,17 @@
       <c r="R68" s="8">
         <v>9</v>
       </c>
-      <c r="S68" s="76" t="s">
+      <c r="S68" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="T68" s="77"/>
-      <c r="U68" s="77"/>
-      <c r="V68" s="78"/>
-      <c r="W68" s="73" t="s">
+      <c r="T68" s="54"/>
+      <c r="U68" s="54"/>
+      <c r="V68" s="55"/>
+      <c r="W68" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="X68" s="74"/>
-      <c r="Y68" s="75"/>
+      <c r="X68" s="57"/>
+      <c r="Y68" s="58"/>
       <c r="Z68" s="37" t="s">
         <v>93</v>
       </c>
@@ -3856,17 +3889,17 @@
       <c r="R69" s="8">
         <v>10</v>
       </c>
-      <c r="S69" s="76" t="s">
+      <c r="S69" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="T69" s="77"/>
-      <c r="U69" s="77"/>
-      <c r="V69" s="78"/>
-      <c r="W69" s="73" t="s">
+      <c r="T69" s="54"/>
+      <c r="U69" s="54"/>
+      <c r="V69" s="55"/>
+      <c r="W69" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="X69" s="74"/>
-      <c r="Y69" s="75"/>
+      <c r="X69" s="57"/>
+      <c r="Y69" s="58"/>
       <c r="Z69" s="37" t="s">
         <v>94</v>
       </c>
@@ -3901,17 +3934,17 @@
       <c r="R70" s="8">
         <v>11</v>
       </c>
-      <c r="S70" s="76" t="s">
+      <c r="S70" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="T70" s="77"/>
-      <c r="U70" s="77"/>
-      <c r="V70" s="78"/>
-      <c r="W70" s="73" t="s">
+      <c r="T70" s="54"/>
+      <c r="U70" s="54"/>
+      <c r="V70" s="55"/>
+      <c r="W70" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="X70" s="74"/>
-      <c r="Y70" s="75"/>
+      <c r="X70" s="57"/>
+      <c r="Y70" s="58"/>
       <c r="Z70" s="37" t="s">
         <v>95</v>
       </c>
@@ -3946,17 +3979,17 @@
       <c r="R71" s="8">
         <v>12</v>
       </c>
-      <c r="S71" s="76" t="s">
+      <c r="S71" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="T71" s="77"/>
-      <c r="U71" s="77"/>
-      <c r="V71" s="78"/>
-      <c r="W71" s="73" t="s">
+      <c r="T71" s="54"/>
+      <c r="U71" s="54"/>
+      <c r="V71" s="55"/>
+      <c r="W71" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="X71" s="74"/>
-      <c r="Y71" s="75"/>
+      <c r="X71" s="57"/>
+      <c r="Y71" s="58"/>
       <c r="Z71" s="37" t="s">
         <v>96</v>
       </c>
@@ -3991,17 +4024,17 @@
       <c r="R72" s="8">
         <v>13</v>
       </c>
-      <c r="S72" s="76" t="s">
+      <c r="S72" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="T72" s="77"/>
-      <c r="U72" s="77"/>
-      <c r="V72" s="78"/>
-      <c r="W72" s="86" t="s">
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="55"/>
+      <c r="W72" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="X72" s="87"/>
-      <c r="Y72" s="88"/>
+      <c r="X72" s="126"/>
+      <c r="Y72" s="127"/>
       <c r="Z72" s="37" t="s">
         <v>97</v>
       </c>
@@ -4036,17 +4069,17 @@
       <c r="R73" s="8">
         <v>14</v>
       </c>
-      <c r="S73" s="76" t="s">
+      <c r="S73" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="T73" s="77"/>
-      <c r="U73" s="77"/>
-      <c r="V73" s="78"/>
-      <c r="W73" s="73" t="s">
+      <c r="T73" s="54"/>
+      <c r="U73" s="54"/>
+      <c r="V73" s="55"/>
+      <c r="W73" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="X73" s="74"/>
-      <c r="Y73" s="75"/>
+      <c r="X73" s="57"/>
+      <c r="Y73" s="58"/>
       <c r="Z73" s="37" t="s">
         <v>98</v>
       </c>
@@ -4078,35 +4111,35 @@
       <c r="AU73" s="27"/>
     </row>
     <row r="74" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B74" s="85" t="s">
+      <c r="B74" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="F74" s="67" t="s">
+      <c r="C74" s="94"/>
+      <c r="D74" s="94"/>
+      <c r="F74" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="67"/>
-      <c r="L74" s="67"/>
-      <c r="M74" s="67"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="72"/>
+      <c r="L74" s="72"/>
+      <c r="M74" s="72"/>
       <c r="R74" s="8">
         <v>15</v>
       </c>
-      <c r="S74" s="82" t="s">
+      <c r="S74" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="T74" s="83"/>
-      <c r="U74" s="83"/>
-      <c r="V74" s="84"/>
-      <c r="W74" s="73" t="s">
+      <c r="T74" s="82"/>
+      <c r="U74" s="82"/>
+      <c r="V74" s="83"/>
+      <c r="W74" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="X74" s="74"/>
-      <c r="Y74" s="75"/>
+      <c r="X74" s="57"/>
+      <c r="Y74" s="58"/>
       <c r="Z74" s="37" t="s">
         <v>99</v>
       </c>
@@ -4135,25 +4168,25 @@
       <c r="AU74" s="27"/>
     </row>
     <row r="75" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B75" s="89" t="s">
+      <c r="B75" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="89"/>
-      <c r="D75" s="89"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
       <c r="R75" s="8">
         <v>16</v>
       </c>
-      <c r="S75" s="76" t="s">
+      <c r="S75" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="T75" s="77"/>
-      <c r="U75" s="77"/>
-      <c r="V75" s="78"/>
-      <c r="W75" s="73" t="s">
+      <c r="T75" s="54"/>
+      <c r="U75" s="54"/>
+      <c r="V75" s="55"/>
+      <c r="W75" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="X75" s="74"/>
-      <c r="Y75" s="75"/>
+      <c r="X75" s="57"/>
+      <c r="Y75" s="58"/>
       <c r="Z75" s="37" t="s">
         <v>100</v>
       </c>
@@ -4185,25 +4218,25 @@
       <c r="AU75" s="27"/>
     </row>
     <row r="76" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B76" s="90" t="s">
+      <c r="B76" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="90"/>
-      <c r="D76" s="90"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
       <c r="R76" s="8">
         <v>17</v>
       </c>
-      <c r="S76" s="76" t="s">
+      <c r="S76" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="T76" s="77"/>
-      <c r="U76" s="77"/>
-      <c r="V76" s="78"/>
-      <c r="W76" s="73" t="s">
+      <c r="T76" s="54"/>
+      <c r="U76" s="54"/>
+      <c r="V76" s="55"/>
+      <c r="W76" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="X76" s="74"/>
-      <c r="Y76" s="75"/>
+      <c r="X76" s="57"/>
+      <c r="Y76" s="58"/>
       <c r="Z76" s="37" t="s">
         <v>101</v>
       </c>
@@ -4238,17 +4271,17 @@
       <c r="R77" s="8">
         <v>18</v>
       </c>
-      <c r="S77" s="76" t="s">
+      <c r="S77" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="T77" s="77"/>
-      <c r="U77" s="77"/>
-      <c r="V77" s="78"/>
-      <c r="W77" s="73" t="s">
+      <c r="T77" s="54"/>
+      <c r="U77" s="54"/>
+      <c r="V77" s="55"/>
+      <c r="W77" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="X77" s="74"/>
-      <c r="Y77" s="75"/>
+      <c r="X77" s="57"/>
+      <c r="Y77" s="58"/>
       <c r="Z77" s="37" t="s">
         <v>102</v>
       </c>
@@ -4283,17 +4316,17 @@
       <c r="R78" s="8">
         <v>19</v>
       </c>
-      <c r="S78" s="76" t="s">
+      <c r="S78" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="T78" s="77"/>
-      <c r="U78" s="77"/>
-      <c r="V78" s="78"/>
-      <c r="W78" s="73" t="s">
+      <c r="T78" s="54"/>
+      <c r="U78" s="54"/>
+      <c r="V78" s="55"/>
+      <c r="W78" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="X78" s="74"/>
-      <c r="Y78" s="75"/>
+      <c r="X78" s="57"/>
+      <c r="Y78" s="58"/>
       <c r="Z78" s="37" t="s">
         <v>103</v>
       </c>
@@ -4334,11 +4367,11 @@
       <c r="T79" s="29"/>
       <c r="U79" s="29"/>
       <c r="V79" s="30"/>
-      <c r="W79" s="73" t="s">
+      <c r="W79" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="X79" s="74"/>
-      <c r="Y79" s="75"/>
+      <c r="X79" s="57"/>
+      <c r="Y79" s="58"/>
       <c r="Z79" s="37" t="s">
         <v>84</v>
       </c>
@@ -4415,14 +4448,20 @@
       <c r="R81" s="9">
         <v>22</v>
       </c>
-      <c r="S81" s="31"/>
+      <c r="S81" s="31" t="s">
+        <v>166</v>
+      </c>
       <c r="T81" s="32"/>
       <c r="U81" s="32"/>
       <c r="V81" s="33"/>
-      <c r="W81" s="43"/>
+      <c r="W81" s="43" t="s">
+        <v>167</v>
+      </c>
       <c r="X81" s="44"/>
       <c r="Y81" s="45"/>
-      <c r="Z81" s="40"/>
+      <c r="Z81" s="40" t="s">
+        <v>168</v>
+      </c>
       <c r="AA81" s="41"/>
       <c r="AB81" s="41"/>
       <c r="AC81" s="41"/>
@@ -4464,6 +4503,14 @@
       <c r="AT82" s="21"/>
       <c r="AU82" s="22"/>
     </row>
+    <row r="83" spans="15:47" x14ac:dyDescent="0.25">
+      <c r="W83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="90" spans="15:47" x14ac:dyDescent="0.25">
       <c r="T90" t="s">
         <v>107</v>
@@ -5422,7 +5469,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="129" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V129" s="15">
         <v>1</v>
       </c>
@@ -5434,7 +5481,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="130" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V130" s="15">
         <v>1</v>
       </c>
@@ -5446,7 +5493,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="131" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V131" s="15">
         <v>1</v>
       </c>
@@ -5458,7 +5505,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="132" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V132" s="15">
         <v>1</v>
       </c>
@@ -5470,7 +5517,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="133" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V133" s="13">
         <v>2</v>
       </c>
@@ -5482,7 +5529,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="134" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V134" s="15">
         <v>3</v>
       </c>
@@ -5494,7 +5541,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="135" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S135" s="17">
         <v>8.8699999999999992</v>
       </c>
@@ -5513,7 +5560,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="136" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S136" s="19">
         <v>59.88</v>
       </c>
@@ -5532,7 +5579,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="137" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S137" s="19">
         <v>37.130000000000003</v>
       </c>
@@ -5551,7 +5598,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="138" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V138" s="15">
         <v>1</v>
       </c>
@@ -5563,7 +5610,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="139" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V139" s="15">
         <v>1</v>
       </c>
@@ -5575,7 +5622,7 @@
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="140" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V140" s="15">
         <v>1</v>
       </c>
@@ -5587,7 +5634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S141">
         <f>550*21.18*(0.8)</f>
         <v>9319.2000000000007</v>
@@ -5602,8 +5649,14 @@
         <f t="shared" si="12"/>
         <v>23.4</v>
       </c>
-    </row>
-    <row r="142" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH141" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V142" s="15">
         <v>1</v>
       </c>
@@ -5623,8 +5676,14 @@
       <c r="AC142">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="143" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH142" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI142" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V143" s="15">
         <v>1</v>
       </c>
@@ -5645,8 +5704,14 @@
         <f t="shared" ref="AC143:AC145" si="13">AA143*AB143</f>
         <v>0.52</v>
       </c>
-    </row>
-    <row r="144" spans="19:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH143" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="19:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="X144">
         <f>SUM(X123:X143)</f>
         <v>49.855000000000004</v>
@@ -5703,6 +5768,9 @@
     <mergeCell ref="Z70:AJ70"/>
     <mergeCell ref="W70:Y70"/>
     <mergeCell ref="Z75:AJ75"/>
+    <mergeCell ref="Z73:AJ73"/>
+    <mergeCell ref="W71:Y71"/>
+    <mergeCell ref="W72:Y72"/>
     <mergeCell ref="W7:AA7"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="P41:T41"/>
@@ -5748,9 +5816,6 @@
     <mergeCell ref="S72:V72"/>
     <mergeCell ref="Z72:AJ72"/>
     <mergeCell ref="S73:V73"/>
-    <mergeCell ref="Z73:AJ73"/>
-    <mergeCell ref="W71:Y71"/>
-    <mergeCell ref="W72:Y72"/>
     <mergeCell ref="W73:Y73"/>
     <mergeCell ref="W74:Y74"/>
     <mergeCell ref="AK59:AM59"/>
@@ -5770,6 +5835,10 @@
     <mergeCell ref="AK61:AM61"/>
     <mergeCell ref="AK66:AM66"/>
     <mergeCell ref="AK74:AM74"/>
+    <mergeCell ref="AK62:AM62"/>
+    <mergeCell ref="AK63:AM63"/>
+    <mergeCell ref="AK64:AM64"/>
+    <mergeCell ref="AK65:AM65"/>
     <mergeCell ref="AK79:AM79"/>
     <mergeCell ref="AK67:AM67"/>
     <mergeCell ref="AK68:AM68"/>
@@ -5782,10 +5851,6 @@
     <mergeCell ref="AK76:AM76"/>
     <mergeCell ref="AK77:AM77"/>
     <mergeCell ref="AK78:AM78"/>
-    <mergeCell ref="AK62:AM62"/>
-    <mergeCell ref="AK63:AM63"/>
-    <mergeCell ref="AK64:AM64"/>
-    <mergeCell ref="AK65:AM65"/>
     <mergeCell ref="AN73:AQ73"/>
     <mergeCell ref="AN74:AQ74"/>
     <mergeCell ref="AN75:AQ75"/>
@@ -5855,9 +5920,10 @@
     <hyperlink ref="F62" r:id="rId3" xr:uid="{10442A47-B286-4A56-AB26-591696DB0EE6}"/>
     <hyperlink ref="AU46" r:id="rId4" xr:uid="{0278FF1C-05FD-483B-AA32-DB7E4552CF24}"/>
     <hyperlink ref="AU45" r:id="rId5" xr:uid="{2EAE9722-3543-4E18-849C-90FE0C1BB811}"/>
+    <hyperlink ref="Z81" r:id="rId6" xr:uid="{5A6E1A7F-5858-4523-8EF8-3D6E17AA032F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>